--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="价值概述" sheetId="77" r:id="rId2"/>
     <sheet name="游戏节奏概述" sheetId="79" r:id="rId3"/>
-    <sheet name="属性表" sheetId="38" state="hidden" r:id="rId4"/>
-    <sheet name="军阶数值" sheetId="42" state="hidden" r:id="rId5"/>
-    <sheet name="突破数值备份" sheetId="49" state="hidden" r:id="rId6"/>
-    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId7"/>
+    <sheet name="游戏节奏" sheetId="80" r:id="rId4"/>
+    <sheet name="关键兴奋点设计" sheetId="81" r:id="rId5"/>
+    <sheet name="属性表" sheetId="38" state="hidden" r:id="rId6"/>
+    <sheet name="军阶数值" sheetId="42" state="hidden" r:id="rId7"/>
+    <sheet name="突破数值备份" sheetId="49" state="hidden" r:id="rId8"/>
+    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="卡牌类型名">#REF!</definedName>
@@ -65,389 +67,389 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="712">
   <si>
     <t>负责人名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>系统名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>文档说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>文档修订记录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修订内容（后续任何修改都需要记录到此）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>初稿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>说明：文档内容尽量用Excel来完成（按模板），并同步下单至WorkTime。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>织法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>织法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>初稿</t>
   </si>
   <si>
     <t>护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>飞机个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>path名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>波次小怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3个飞机，一起出现，从上而下，再向上，停留一段时间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3个飞机，从左到右，依次出现。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3个飞机，左右中，依次出现。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2个飞机，从上方一起出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2个飞机，从两侧一起出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>左3右3交叉进入，而后2个飞机从上方进入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5个飞机，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>divid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bsFac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>isShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>iniVal[1][1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>iniVal[1][2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>iniVal[1][3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bool:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战斗力系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初始值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>耐久</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>def</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>shieldRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾回复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>iniEnergy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初始能量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>energyRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能量恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dmgInc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>伤害提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dmgDec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>伤害降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gready</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>贪婪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lucky</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>幸运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>crit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>deCrit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗暴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>block</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>冲击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>atkSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>攻速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>critHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>critRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>deCritRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗暴率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>blockRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dashRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>冲击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vulnerable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>易伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skillEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能伤害(效果)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升级属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>upVal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>回合数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾回满</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>突破等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击率提升10%</t>
@@ -475,15 +477,15 @@
   </si>
   <si>
     <t>等级限制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>突破效果-主舰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>发射速度提升35%</t>
@@ -505,11 +507,11 @@
   </si>
   <si>
     <t>突破效果-僚炮1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>突破效果-僚炮2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击率10%</t>
@@ -534,151 +536,151 @@
   </si>
   <si>
     <t>防御提升5M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击伤害提升50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>怒气技能伤害提升50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主炮攻击力提升10M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导弹炮攻击力提升10M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>耐久提升300M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗暴等级提升2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡等级提升2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击等级提升3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾提升250M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击后攻击力提升20M，持续5秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击后回复耐久10M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击后护盾回复10M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴伤减免提升50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾百分比提升30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击后，目标所受伤害提升30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击后，目标造成伤害降低20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击后，激光伤害提升50%，持续5秒，10秒CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击后，导弹炮和激光炮发射速度提升20%，持续3秒，10秒CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡后，暴击等级提升30%，持续2秒，10秒CD。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡后，暴击等级提升30%，持续3秒，10秒CD。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡后，暴击等级提升30%，持续3秒，10秒CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>伤害提升20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>耐久提升20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>冲击等级提升3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>被格挡后，冲击率提升20%，持续5秒，10秒CD。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>被格挡后，伤害提升50%，持续5秒，10秒CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>需要攒满150怒气才能放怒气技能，怒气技能效果翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>释放怒气技能后，暴击伤害提升100%，持续5秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>释放怒气技能后，暴击率提升30%，持续5秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>释放怒气技能后，导弹炮和激光炮伤害提升50%，持续5秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>被暴击后，回复3点怒气，5秒CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>被暴击后，免伤提升30%，持续3秒，10秒CD。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>被暴击后，格挡提升30%，持续3秒，10秒CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击率提升10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>军阶等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新兵</t>
@@ -757,19 +759,19 @@
   </si>
   <si>
     <t>军阶名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导弹炮1突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主舰2突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1星元帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2星元帅</t>
@@ -785,135 +787,135 @@
   </si>
   <si>
     <t>军神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主舰3突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>加成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体5突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体6突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体7突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体8突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体9突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体10突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体11突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体12突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主炮和僚机攻击力提升200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提升护盾回复40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初始技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主舰伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导弹伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>激光炮伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>伤害提升25%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击额外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御力提升100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>伤害提升25%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全团伤害提升20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整体输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>完整版突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解锁激光炮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主舰升级到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主舰突破1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>释放两次核子过载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>进行一次装备抽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第3章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第4章</t>
@@ -926,83 +928,83 @@
   </si>
   <si>
     <t>晶片总等级到5级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>核能到1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第2章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>进行1次装备合成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备全体2阶以上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备全体精炼+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>核能全体1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>进行3次装备5连抽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>进行3次符文5连抽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第8章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第10章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第12章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第15章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第20章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第18章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第25章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第30章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第35章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第40章</t>
@@ -1045,179 +1047,179 @@
   </si>
   <si>
     <t>通关第22章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关第28章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到280</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到350</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到450</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到550</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到650</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到700</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到700</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到750</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到850</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到850</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到950</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到950</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化到1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战机强化到1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全体4突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>花费金币1M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>花费金币5M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备一件2级晶片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>条件1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>条件2</t>
@@ -1230,203 +1232,1930 @@
   </si>
   <si>
     <t>核子精华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>核子精华百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金币W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金币V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过第1章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>《银镇魂街》经济总表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>经济总表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游戏的产销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停留</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初级三才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中级三才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高级三才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>价值金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>价值钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>五行修身</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>芦花币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初级配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中级配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高级配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>神器升级精华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初级强化石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中级强化石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高级强化石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SSR专属武器碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SR专属武器碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R卡寄灵人碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SR卡寄灵人碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SSR卡寄灵人碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R卡守护灵碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SR卡守护灵碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SSR卡守护灵碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>队伍等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机队伍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼预估</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼碎片周期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼强化材料周期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼每日芦花币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花每日低级神器材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>时间停留</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机队伍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼预估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼碎片周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼强化材料周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼每日芦花币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花每日低级神器材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗感受</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创角前假战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（战斗曹焱兵，张颌），（刘羽禅，关羽），(项昆仑，项羽)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶双倍获得，看特效表现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(红莲缇娜，天使缇娜)，（刘羽禅，张飞）,(盖文，西方龙)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微有技巧的战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵，于禁，夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个弱逼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲2下，曹玄亮2技能，就能杀死对方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉释放技能的操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个比较强的寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出于禁，于禁一下秒对方。不召唤打不赢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉召唤守护灵机制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导守护灵抽奖，保底李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>曹焱兵，于禁，夏玲，李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个寄灵人，1个守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4剧情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>3个寄灵人2个守护灵2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>3个寄灵人2个守护灵3级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>引导升级，告诉玩家去挂机派遣可以获得寄灵人和守护灵的经验，解锁挂机派遣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵，于禁，夏玲，李轩辕，曹玄亮，唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强升级引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>此时玩家希望凑满阵容，可以在星星宝箱投放寄灵人抽奖券。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个寄灵人+2个守护灵，7级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个寄灵人+2个守护灵，9级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3个寄灵人+3个守护灵，10级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>开启困难关卡，困难关卡可获得1张寄灵人抽卡券，1张守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个寄灵人+3个守护灵，12级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>3个寄灵人+3个守护灵，13级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>3个寄灵人+3个守护灵，15级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导快速扫荡，引导突破</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>3个寄灵人+3个守护灵，15级，2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>3个寄灵人+3个守护灵，17级，2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>3个寄灵人+3个守护灵，20级，2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放竞技场
+引导玩家打一场竞技场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵，许褚，夏玲，李轩辕，曹玄亮，唐流雨。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活神器1-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵，许褚，夏玲，李轩辕，曹玄亮，唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>神器1-1-LV2。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>神器1-1-LV3。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>26级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>神器1-1-LV4。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>27级</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>激活神器1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>28级</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>曹焱兵，许褚，夏玲，李轩辕，曹玄亮，高顺。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>29级</t>
+  </si>
+  <si>
+    <t>3-15</t>
+  </si>
+  <si>
+    <t>30级</t>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>曹焱兵，许褚，夏玲，李轩辕，曹玄亮，高顺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器1-2-LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>激活神器2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31级，2突3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>曹焱兵，许褚-觉，夏玲，李轩辕，吕仙宫，高顺。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活神器1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32级，2突4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>曹焱兵，许褚-觉，夏玲，李轩辕，吕仙宫，高顺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器1-2LV3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>33级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>激活神器2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>激活神器2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>神器2-1LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>神器2-2LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>神器1LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>36级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>曹焱兵，许褚-觉，夏玲，李轩辕-觉，吕仙宫，高顺。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器2LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>神器2-1LV3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>37级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-13</t>
+  </si>
+  <si>
+    <t>神器2-2LV3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>38级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-14</t>
+  </si>
+  <si>
+    <t>神器1-2-LV4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>39级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-15</t>
+  </si>
+  <si>
+    <t>40级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵，许褚-觉，夏玲，李轩辕-觉，吕仙宫，高顺-觉。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-1激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵，许褚-觉，夏玲，李轩辕-觉，吕仙宫，高顺-觉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-1LV1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级，3突2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-1LV2</t>
+  </si>
+  <si>
+    <t>神器4-1激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>42级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4-1-LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4-2激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>44级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4-2-LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4-3激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4-3-LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>45级，3突6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4-4激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4-4-LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-3激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>47级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>48级</t>
+  </si>
+  <si>
+    <t>神器3-3-LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>49级</t>
+  </si>
+  <si>
+    <t>神器4激活LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵，夏侯惇-觉，夏玲，李轩辕-觉，吕仙宫，高顺-觉。全2星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-2激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-2-LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级，4突1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级，4突2</t>
+  </si>
+  <si>
+    <t>50级，4突3</t>
+  </si>
+  <si>
+    <t>神器6-1激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>52级，4突4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器6-2激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>54级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器7-1激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>54级，4突5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器7-2激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>55级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>55级，4突6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>56级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>57级</t>
+  </si>
+  <si>
+    <t>58级</t>
+  </si>
+  <si>
+    <t>59级</t>
+  </si>
+  <si>
+    <t>神器3激活，神器5激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级</t>
+  </si>
+  <si>
+    <t>玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长上限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗货币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坑的程度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1天</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2天</t>
+  </si>
+  <si>
+    <t>第3天</t>
+  </si>
+  <si>
+    <t>第4天</t>
+  </si>
+  <si>
+    <t>第5天</t>
+  </si>
+  <si>
+    <t>第6天</t>
+  </si>
+  <si>
+    <t>第7天</t>
+  </si>
+  <si>
+    <t>第8天</t>
+  </si>
+  <si>
+    <t>第9天</t>
+  </si>
+  <si>
+    <t>第10天</t>
+  </si>
+  <si>
+    <t>第11天</t>
+  </si>
+  <si>
+    <t>第12天</t>
+  </si>
+  <si>
+    <t>第13天</t>
+  </si>
+  <si>
+    <t>第14天</t>
+  </si>
+  <si>
+    <t>第15天以后……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料对应产出系统
+（主要）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2队情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3队情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级神器1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级神器2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片3</t>
+  </si>
+  <si>
+    <t>碎片4</t>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡首通，挂机，每日任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随队伍升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵槐枝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡首通，挂机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片5</t>
+  </si>
+  <si>
+    <t>碎片6</t>
+  </si>
+  <si>
+    <t>高级神器2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚-觉醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9突破</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种突破材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机，金币商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始培养2队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个寄灵人3个守护灵4级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个寄灵人3个守护灵5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>22级</t>
+  </si>
+  <si>
+    <r>
+      <t>3-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>23级</t>
+  </si>
+  <si>
+    <t>24级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级</t>
+  </si>
+  <si>
+    <t>30级，2突1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级，2突2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放专属武器和个人BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>33级，2突5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35级，2突6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器2-1LV4，神器2-2LV4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级，3突1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>40级，3突3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>43级，3突4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>44级，3突5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>45级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>46级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>46级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器5-1激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器5-2激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>52级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器5-3激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器5-4激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器5-5激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器5-6激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器3-4-激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>推进情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花-风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花-花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花-雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花-月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难主线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第3章，可能能过前2关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第3章中间，实现方式，不同颜色的卡突破等级不同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚打到第4章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4章打到第6关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4章打到第12关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第5章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第5章4关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第5章8关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第5章12关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第6章12关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第6章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第6章3关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第6章6关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到第6章9关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>落后1章，右同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1593,12 +3322,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1637,8 +3360,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1941,178 +3670,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="8" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2466,12 +4340,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2480,10 +4354,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="35" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2494,26 +4368,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2522,10 +4396,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2534,138 +4408,138 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2698,7 +4572,7 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="迭代">
       <formula>NOT(ISERROR(SEARCH("迭代",C4)))</formula>
@@ -2940,7 +4814,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2949,34 +4823,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="G2" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="A2" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -2986,13 +4860,13 @@
         <v>345</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>347</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>316</v>
@@ -3009,14 +4883,14 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="46" t="s">
-        <v>351</v>
+      <c r="M3" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="43" t="s">
-        <v>352</v>
+      <c r="O3" s="51" t="s">
+        <v>351</v>
       </c>
       <c r="P3" s="21">
         <v>80</v>
@@ -3027,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="21">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C4" s="21">
         <v>0.3</v>
@@ -3054,15 +4928,15 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="O4" s="44"/>
+      <c r="M4" s="50"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>20</v>
       </c>
       <c r="B5" s="21">
-        <v>1.0975000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="21">
         <v>0.8</v>
@@ -3095,7 +4969,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21">
-        <v>3.0000500000000017</v>
+        <v>3</v>
       </c>
       <c r="C6" s="21">
         <v>2</v>
@@ -3122,14 +4996,14 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="45" t="s">
-        <v>353</v>
+      <c r="M6" s="48" t="s">
+        <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="45" t="s">
-        <v>354</v>
+      <c r="O6" s="48" t="s">
+        <v>353</v>
       </c>
       <c r="P6" s="21">
         <v>2000</v>
@@ -3140,7 +5014,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="21">
-        <v>6.0020500000000023</v>
+        <v>6</v>
       </c>
       <c r="C7" s="21">
         <v>3</v>
@@ -3167,15 +5041,15 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="O7" s="45"/>
+      <c r="M7" s="48"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>50</v>
       </c>
       <c r="B8" s="21">
-        <v>10.005550000000001</v>
+        <v>10</v>
       </c>
       <c r="C8" s="21">
         <v>4</v>
@@ -3208,7 +5082,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="21">
-        <v>15.076550000000001</v>
+        <v>15</v>
       </c>
       <c r="C9" s="21">
         <v>5</v>
@@ -3241,7 +5115,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="21">
-        <v>21.422550000000005</v>
+        <v>21</v>
       </c>
       <c r="C10" s="21">
         <v>6.5</v>
@@ -3274,7 +5148,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="21">
-        <v>30.000050000000005</v>
+        <v>30</v>
       </c>
       <c r="C11" s="21">
         <v>8.5</v>
@@ -3307,7 +5181,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="21">
-        <v>45.004550000000016</v>
+        <v>45</v>
       </c>
       <c r="C12" s="21">
         <v>15</v>
@@ -3340,7 +5214,7 @@
         <v>100</v>
       </c>
       <c r="B13" s="21">
-        <v>75.005550000000028</v>
+        <v>75</v>
       </c>
       <c r="C13" s="21">
         <v>30</v>
@@ -3737,12 +5611,5046 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="G2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="61.75" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>9</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26">
+        <v>1</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>16</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>17</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>20</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>21</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>22</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="26">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>23</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
+        <v>25</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <v>26</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="C29" s="26">
+        <v>2</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
+        <v>27</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="C30" s="26">
+        <v>2</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>28</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="C31" s="26">
+        <v>2</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>29</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>30</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" s="26">
+        <v>2</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>31</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C34" s="26">
+        <v>2</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>32</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="26">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>33</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36" s="26">
+        <v>2</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>34</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="26">
+        <v>2</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>35</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
+        <v>36</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="26">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
+        <v>37</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" s="26">
+        <v>2</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>38</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="26">
+        <v>2</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>39</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C42" s="26">
+        <v>2</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
+        <v>40</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="26">
+        <v>2</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <v>41</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="C44" s="26">
+        <v>2</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
+        <v>42</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C45" s="21">
+        <v>3</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
+        <v>43</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="21">
+        <v>3</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
+        <v>44</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="21">
+        <v>3</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
+        <v>45</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
+        <v>46</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C49" s="21">
+        <v>3</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
+        <v>47</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C50" s="21">
+        <v>3</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>48</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C51" s="21">
+        <v>3</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>49</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="C52" s="21">
+        <v>3</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>50</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C53" s="21">
+        <v>3</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <v>51</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" s="21">
+        <v>3</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
+        <v>52</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C55" s="21">
+        <v>4</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="21">
+        <v>53</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C56" s="21">
+        <v>4</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="21">
+        <v>54</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="C57" s="21">
+        <v>4</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="21">
+        <v>55</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="C58" s="21">
+        <v>4</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="21">
+        <v>56</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="C59" s="21">
+        <v>4</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="21">
+        <v>57</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="C60" s="21">
+        <v>4</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="21">
+        <v>58</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C61" s="21">
+        <v>5</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="21">
+        <v>59</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C62" s="21">
+        <v>5</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="21">
+        <v>60</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="C63" s="21">
+        <v>5</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="21">
+        <v>61</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="C64" s="21">
+        <v>5</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="21">
+        <v>62</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="C65" s="21">
+        <v>5</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="21">
+        <v>63</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="C66" s="21">
+        <v>6</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="21">
+        <v>64</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C67" s="21">
+        <v>6</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="21">
+        <v>65</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="C68" s="21">
+        <v>6</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="21">
+        <v>66</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="C69" s="21">
+        <v>6</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="21">
+        <v>67</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="C70" s="21">
+        <v>6</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="21">
+        <v>68</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C71" s="21">
+        <v>7</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="21">
+        <v>69</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="C72" s="21">
+        <v>7</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="21">
+        <v>70</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="C73" s="21">
+        <v>7</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="21">
+        <v>71</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="C74" s="21">
+        <v>7</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="21">
+        <v>72</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="C75" s="21">
+        <v>7</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="21">
+        <v>73</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="C76" s="21">
+        <v>8</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="21">
+        <v>74</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="C77" s="21">
+        <v>8</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="21">
+        <v>75</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="C78" s="21">
+        <v>8</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="21">
+        <v>76</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="C79" s="21">
+        <v>9</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="21">
+        <v>77</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="C80" s="21">
+        <v>9</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="21">
+        <v>78</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="C81" s="21">
+        <v>9</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="21">
+        <v>79</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="C82" s="21">
+        <v>10</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="21">
+        <v>80</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="C83" s="21">
+        <v>10</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="21">
+        <v>81</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="C84" s="21">
+        <v>10</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="21">
+        <v>82</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="C85" s="21">
+        <v>11</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="21">
+        <v>83</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="C86" s="21">
+        <v>11</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="21">
+        <v>84</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="C87" s="21">
+        <v>11</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="21">
+        <v>85</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="C88" s="21">
+        <v>12</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="21">
+        <v>86</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="C89" s="21">
+        <v>12</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="21">
+        <v>87</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="C90" s="21">
+        <v>12</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="B20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AO60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="31.25" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="24.75" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="20.625" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="22" max="22" width="13.5" customWidth="1"/>
+    <col min="24" max="24" width="11" customWidth="1"/>
+    <col min="26" max="26" width="12.25" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="30" max="30" width="13.125" customWidth="1"/>
+    <col min="32" max="32" width="10.875" customWidth="1"/>
+    <col min="34" max="34" width="12.875" customWidth="1"/>
+    <col min="36" max="36" width="12.625" customWidth="1"/>
+    <col min="38" max="38" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>534</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>537</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>538</v>
+      </c>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55" t="s">
+        <v>541</v>
+      </c>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55" t="s">
+        <v>543</v>
+      </c>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55" t="s">
+        <v>549</v>
+      </c>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55" t="s">
+        <v>550</v>
+      </c>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55" t="s">
+        <v>551</v>
+      </c>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55" t="s">
+        <v>552</v>
+      </c>
+      <c r="AO4" s="55"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AM5" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="63" t="s">
+        <v>607</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>575</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="L6" s="21">
+        <v>20</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21">
+        <v>25</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21">
+        <v>34</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21">
+        <v>37</v>
+      </c>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21">
+        <v>40</v>
+      </c>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21">
+        <v>52</v>
+      </c>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21">
+        <v>58</v>
+      </c>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="AO6" s="21"/>
+    </row>
+    <row r="7" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+    </row>
+    <row r="8" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+    </row>
+    <row r="9" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="65"/>
+      <c r="D9" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+    </row>
+    <row r="10" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+    </row>
+    <row r="11" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="54"/>
+      <c r="D11" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+    </row>
+    <row r="12" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="54"/>
+      <c r="D12" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+    </row>
+    <row r="13" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="54"/>
+      <c r="D13" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+    </row>
+    <row r="14" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="54"/>
+      <c r="D14" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+    </row>
+    <row r="15" spans="1:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="54"/>
+      <c r="D15" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+    </row>
+    <row r="16" spans="1:41" s="22" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="63" t="s">
+        <v>675</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="U16" s="21"/>
+      <c r="V16" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="W16" s="21"/>
+      <c r="X16" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+    </row>
+    <row r="17" spans="3:41" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="64"/>
+      <c r="D17" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+    </row>
+    <row r="18" spans="3:41" s="22" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="64"/>
+      <c r="D18" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="U18" s="21"/>
+      <c r="V18" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="W18" s="21"/>
+      <c r="X18" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+    </row>
+    <row r="19" spans="3:41" s="22" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="64"/>
+      <c r="D19" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="S19" s="21"/>
+      <c r="T19" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="U19" s="21"/>
+      <c r="V19" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="W19" s="21"/>
+      <c r="X19" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+    </row>
+    <row r="20" spans="3:41" s="22" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="64"/>
+      <c r="D20" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="T20" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="U20" s="21"/>
+      <c r="V20" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="W20" s="21"/>
+      <c r="X20" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+    </row>
+    <row r="21" spans="3:41" s="22" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="65"/>
+      <c r="D21" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+    </row>
+    <row r="22" spans="3:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+    </row>
+    <row r="23" spans="3:41" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+    </row>
+    <row r="24" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21">
+        <v>2</v>
+      </c>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21">
+        <v>4</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21">
+        <v>5</v>
+      </c>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21">
+        <v>5</v>
+      </c>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+    </row>
+    <row r="25" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="54"/>
+      <c r="D25" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21">
+        <v>2</v>
+      </c>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21">
+        <v>4</v>
+      </c>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21">
+        <v>5</v>
+      </c>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21">
+        <v>5</v>
+      </c>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+    </row>
+    <row r="26" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="54"/>
+      <c r="D26" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21">
+        <v>2</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21">
+        <v>4</v>
+      </c>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21">
+        <v>5</v>
+      </c>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21">
+        <v>5</v>
+      </c>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+    </row>
+    <row r="27" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21">
+        <v>4</v>
+      </c>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21">
+        <v>5</v>
+      </c>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21">
+        <v>5</v>
+      </c>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+    </row>
+    <row r="28" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="54"/>
+      <c r="D28" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21">
+        <v>4</v>
+      </c>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21">
+        <v>5</v>
+      </c>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21">
+        <v>5</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+    </row>
+    <row r="29" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="54"/>
+      <c r="D29" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21">
+        <v>4</v>
+      </c>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21">
+        <v>5</v>
+      </c>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21">
+        <v>5</v>
+      </c>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+    </row>
+    <row r="30" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21">
+        <v>1</v>
+      </c>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21">
+        <v>2</v>
+      </c>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+    </row>
+    <row r="31" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="54"/>
+      <c r="D31" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21">
+        <v>1</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21">
+        <v>2</v>
+      </c>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+    </row>
+    <row r="32" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="54"/>
+      <c r="D32" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21">
+        <v>1</v>
+      </c>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21">
+        <v>2</v>
+      </c>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+    </row>
+    <row r="33" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="54"/>
+      <c r="D33" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21">
+        <v>1</v>
+      </c>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21">
+        <v>2</v>
+      </c>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="21"/>
+      <c r="AK33" s="21"/>
+      <c r="AL33" s="21"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="21"/>
+    </row>
+    <row r="34" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="54"/>
+      <c r="D34" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21">
+        <v>1</v>
+      </c>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21">
+        <v>2</v>
+      </c>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+    </row>
+    <row r="35" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+    </row>
+    <row r="36" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="54"/>
+      <c r="D36" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+    </row>
+    <row r="37" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="54"/>
+      <c r="D37" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+    </row>
+    <row r="38" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="54"/>
+      <c r="D38" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+    </row>
+    <row r="39" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="54"/>
+      <c r="D39" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+    </row>
+    <row r="40" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+    </row>
+    <row r="41" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="54"/>
+      <c r="D41" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+    </row>
+    <row r="42" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="54"/>
+      <c r="D42" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
+      <c r="AL42" s="21"/>
+      <c r="AM42" s="21"/>
+      <c r="AN42" s="21"/>
+      <c r="AO42" s="21"/>
+    </row>
+    <row r="43" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="54"/>
+      <c r="D43" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+    </row>
+    <row r="44" spans="3:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="54"/>
+      <c r="D44" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+    </row>
+    <row r="45" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C45" s="54"/>
+      <c r="D45" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="21"/>
+      <c r="AK45" s="21"/>
+      <c r="AL45" s="21"/>
+      <c r="AM45" s="21"/>
+      <c r="AN45" s="21"/>
+      <c r="AO45" s="21"/>
+    </row>
+    <row r="46" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C46" s="54"/>
+      <c r="D46" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="21"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+    </row>
+    <row r="47" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C47" s="54" t="s">
+        <v>587</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21"/>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+    </row>
+    <row r="48" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C48" s="54"/>
+      <c r="D48" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+    </row>
+    <row r="49" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C49" s="54"/>
+      <c r="D49" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21"/>
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="21"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+    </row>
+    <row r="50" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C50" s="54"/>
+      <c r="D50" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="21"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="21"/>
+    </row>
+    <row r="51" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C51" s="54"/>
+      <c r="D51" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+    </row>
+    <row r="52" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C52" s="54"/>
+      <c r="D52" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+    </row>
+    <row r="53" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C53" s="54"/>
+      <c r="D53" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+      <c r="AG53" s="21"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="21"/>
+      <c r="AK53" s="21"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+    </row>
+    <row r="54" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C54" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+    </row>
+    <row r="55" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C55" s="54"/>
+      <c r="D55" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+    </row>
+    <row r="56" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C56" s="54"/>
+      <c r="D56" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+    </row>
+    <row r="57" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C57" s="54"/>
+      <c r="D57" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+    </row>
+    <row r="58" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C58" s="54"/>
+      <c r="D58" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="21"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="21"/>
+      <c r="AO58" s="21"/>
+    </row>
+    <row r="59" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C59" s="54"/>
+      <c r="D59" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="21"/>
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AH59" s="21"/>
+      <c r="AI59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AK59" s="21"/>
+      <c r="AL59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AN59" s="21"/>
+      <c r="AO59" s="21"/>
+    </row>
+    <row r="60" spans="3:41" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C60" s="54"/>
+      <c r="D60" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -4582,14 +11490,14 @@
       <c r="J26" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L37"/>
   <sheetViews>
@@ -5551,12 +12459,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q58"/>
   <sheetViews>
@@ -5567,14 +12475,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -7039,12 +13947,12 @@
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
@@ -7336,7 +14244,7 @@
       <c r="E33" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1088">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -3946,10 +3946,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2-1关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通过关卡2-1。战力要求3个5级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3958,10 +3954,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2-2关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通过关卡2-2。战力要求3个6级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3969,9 +3961,6 @@
     <t>通关2-3</t>
   </si>
   <si>
-    <t>2-3关</t>
-  </si>
-  <si>
     <t>通过关卡2-3。战力要求3个8级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3979,9 +3968,6 @@
     <t>通关2-4</t>
   </si>
   <si>
-    <t>2-4关</t>
-  </si>
-  <si>
     <t>通过关卡2-4。战力要求3个9级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3989,9 +3975,6 @@
     <t>通关2-5</t>
   </si>
   <si>
-    <t>2-5关</t>
-  </si>
-  <si>
     <t>通过关卡2-4。战力要求3个10级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3999,9 +3982,6 @@
     <t>通关2-6</t>
   </si>
   <si>
-    <t>2-6关</t>
-  </si>
-  <si>
     <t>通过关卡2-4。战力要求3个11级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4009,9 +3989,6 @@
     <t>通关2-7</t>
   </si>
   <si>
-    <t>2-7关</t>
-  </si>
-  <si>
     <t>通过关卡2-4。战力要求3个12级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4019,21 +3996,10 @@
     <t>通关2-8</t>
   </si>
   <si>
-    <t>2-8关</t>
-  </si>
-  <si>
     <t>通过关卡2-4。战力要求3个15级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>支线-所有守护灵2突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有守护灵2突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通关困难1-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4046,10 +4012,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用第二次整体突破，引导玩家进行第二次突破</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>支线-通关困难1-2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4109,9 +4071,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2-9关</t>
-  </si>
-  <si>
     <t>通过关卡2-4。战力要求3个15级，1张卡2突破。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4120,53 +4079,521 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#1通关困难1章；#2通关普通2章；#3张卡15级；1张卡2突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-等级升级到20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机关2章和困难2章都要求玩家到20级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过风1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tw-f-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个时候玩家可以有3件事做，打困难第二关，第二章挂机关卡，芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过风2</t>
-  </si>
-  <si>
-    <t>tw-f-2</t>
-  </si>
-  <si>
-    <t>通过风3</t>
-  </si>
-  <si>
-    <t>tw-f-3</t>
-  </si>
-  <si>
-    <t>通过风4</t>
-  </si>
-  <si>
-    <t>tw-f-4</t>
-  </si>
-  <si>
-    <t>购买神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-把神器1升级到2级</t>
+    <t>解锁挂机点2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点2-2</t>
+  </si>
+  <si>
+    <t>解锁挂机点2-3</t>
+  </si>
+  <si>
+    <t>解锁挂机点2-4</t>
+  </si>
+  <si>
+    <t>解锁挂机点2-5</t>
+  </si>
+  <si>
+    <t>解锁挂机点2-6</t>
+  </si>
+  <si>
+    <t>解锁挂机点2-7</t>
+  </si>
+  <si>
+    <t>解锁挂机点2-8</t>
+  </si>
+  <si>
+    <t>战力要求3个17级</t>
+  </si>
+  <si>
+    <t>战力要求3个20级</t>
+  </si>
+  <si>
+    <t>战力要求3个15级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个15级，1卡2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个15级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个15级，3卡2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个17级，激活神器1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线-通关困难2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线-通关困难2-2</t>
+  </si>
+  <si>
+    <t>支线-通关困难2-3</t>
+  </si>
+  <si>
+    <t>支线-通关困难2-4</t>
+  </si>
+  <si>
+    <t>支线-通关困难2-5</t>
+  </si>
+  <si>
+    <t>支线-通关困难2-6</t>
+  </si>
+  <si>
+    <t>支线-通关困难2-7</t>
+  </si>
+  <si>
+    <t>支线-通关困难2-8</t>
+  </si>
+  <si>
+    <t>支线-通关困难2-9</t>
+  </si>
+  <si>
+    <t>战力要求，激活神器1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个16级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个16级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个17级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个18级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个20级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机点2-1</t>
+  </si>
+  <si>
+    <t>挂机点2-2</t>
+  </si>
+  <si>
+    <t>挂机点2-3</t>
+  </si>
+  <si>
+    <t>挂机点2-4</t>
+  </si>
+  <si>
+    <t>挂机点2-5</t>
+  </si>
+  <si>
+    <t>挂机点2-6</t>
+  </si>
+  <si>
+    <t>挂机点2-7</t>
+  </si>
+  <si>
+    <t>挂机点2-8</t>
+  </si>
+  <si>
+    <t>战力要求3个2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-2</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-3</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-4</t>
+  </si>
+  <si>
+    <t>战力要求3个5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个10级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个15级，2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-2</t>
+  </si>
+  <si>
+    <t>通关3-3</t>
+  </si>
+  <si>
+    <t>通关3-4</t>
+  </si>
+  <si>
+    <t>通关3-5</t>
+  </si>
+  <si>
+    <t>通关3-6</t>
+  </si>
+  <si>
+    <t>通关3-7</t>
+  </si>
+  <si>
+    <t>通关3-8</t>
+  </si>
+  <si>
+    <t>通关3-9</t>
+  </si>
+  <si>
+    <t>通关3-10</t>
+  </si>
+  <si>
+    <t>通关3-11</t>
+  </si>
+  <si>
+    <t>通关3-12</t>
+  </si>
+  <si>
+    <t>通关3-13</t>
+  </si>
+  <si>
+    <t>通关3-14</t>
+  </si>
+  <si>
+    <t>战力要求3个21级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个25级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-9</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-10</t>
+  </si>
+  <si>
+    <t>战力要求3个30级</t>
+  </si>
+  <si>
+    <t>战力要求3个27级</t>
+  </si>
+  <si>
+    <t>战力要求3个28级</t>
+  </si>
+  <si>
+    <t>要求许褚，22级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求李轩辕和唐流雨2星，23级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求神器3级，25级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点3-2</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-3</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-4</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-5</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-6</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-7</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-9</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-10</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-11</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-12</t>
+  </si>
+  <si>
+    <t>战力要求3个17级，神器2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用第二次整体突破，引导玩家挑战困难关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级后，开放日常任务，通关第4章，到32级，开放竞技场，做完所有日常任务，到35级，开放个人BOSS。
+40级开放国战入口，作为第二天上线的目标。35~40级的经验，大概就是挂机点4-15挂机12小时+一轮日常任务。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个22级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个22级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个23级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个23级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个24级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个24级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个26级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个29级</t>
+  </si>
+  <si>
+    <t>通关3-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级到30级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小时扫荡，可以扫出1.5个卡牌3突的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时，来自牧守令。产出3级的队伍经验，和3个守护灵10级的经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只满足0.5个守护灵2突，3个守护灵从10级升到13级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5张卡2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足1个守护灵2突，满足2个守护灵1突，满足3个守护灵从13级升到15级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1#通关困难1章；#2#通关普通2章；#3#芦花古楼4层；#4#3张卡2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT2-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡2小时，满足2级队伍经验，3个卡牌17到20级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星宝箱产出0.6个卡牌3突材料，同时产出3张卡牌20~24级的守护灵经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星宝箱产出0.9个卡牌的3突材料，同时产出3个卡牌25~28级的守护灵经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个20级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个25级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-15</t>
+  </si>
+  <si>
+    <t>战力要求，3个30级，3个3突卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求，3个30级，2个3突卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个31级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个32级</t>
+  </si>
+  <si>
+    <t>3个33级</t>
+  </si>
+  <si>
+    <t>3个34级</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个34级，神器1-3级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个34级，神器1-4级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个30级，3突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个32级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个35级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点3-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个30级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个30级，1个3突卡（第三章奖励的资源0.6+第二章困难的奖励0.9 = 1.5个）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个30级，3个3突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个35级，激活神器2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个35级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个37级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点3-13</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-14</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-15</t>
+  </si>
+  <si>
+    <t>战力要求3个38级</t>
+  </si>
+  <si>
+    <t>战力要求3个39级</t>
+  </si>
+  <si>
+    <t>战力要求3个40级</t>
+  </si>
+  <si>
+    <t>战力要求3个36级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器2激活条件：玩家30级，所有卡牌3突，竞技场打到1200分，芦花古楼总共通过10层。激活后开启芦花古楼花</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4818,7 +5245,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4898,6 +5325,43 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="4" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="14">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="14" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4943,21 +5407,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4979,11 +5428,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4994,56 +5464,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="4" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="14">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="14" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -5398,12 +5838,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -5412,10 +5852,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="49" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5426,26 +5866,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5454,10 +5894,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -5466,151 +5906,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -5623,12 +6059,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -5663,14 +6103,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -7681,20 +8121,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="G2" s="50" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -7727,13 +8167,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="59" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="60" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -7772,8 +8212,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="O4" s="53"/>
+      <c r="M4" s="59"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -7840,13 +8280,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="57" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="57" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -7885,8 +8325,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="M7" s="57"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -8609,14 +9049,14 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -8651,14 +9091,14 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -8718,29 +9158,29 @@
       <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -8796,14 +9236,14 @@
       <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -8885,16 +9325,16 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -8959,16 +9399,16 @@
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -9031,16 +9471,16 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="63" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -9111,16 +9551,16 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -9441,16 +9881,16 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -10452,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10470,45 +10910,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="30" t="s">
         <v>614</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="69" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -10530,7 +10970,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -10548,29 +10988,29 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="32" t="s">
         <v>634</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="32" t="s">
         <v>635</v>
       </c>
-      <c r="H6" s="67"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="69" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -10588,7 +11028,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -10604,21 +11044,21 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="68" t="s">
+      <c r="A9" s="70"/>
+      <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -10640,7 +11080,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -10658,7 +11098,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -10676,7 +11116,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -10689,16 +11129,16 @@
       <c r="E13" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="35" t="s">
         <v>662</v>
       </c>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="72" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -10722,7 +11162,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -10746,7 +11186,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -10766,7 +11206,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="70" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -10782,7 +11222,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -10802,7 +11242,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -10824,7 +11264,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -10840,7 +11280,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="69" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -10866,7 +11306,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -10888,7 +11328,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -10910,7 +11350,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="69" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -10934,7 +11374,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -10956,7 +11396,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -10974,43 +11414,43 @@
       <c r="H26" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="58" t="s">
         <v>729</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="76" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="63" t="s">
+      <c r="G30" s="76"/>
+      <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="72" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -11025,14 +11465,14 @@
       <c r="E31" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="63" t="s">
         <v>736</v>
       </c>
-      <c r="G31" s="55"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -11045,14 +11485,14 @@
       <c r="E32" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="G32" s="55"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -11065,10 +11505,10 @@
       <c r="E33" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="63" t="s">
         <v>744</v>
       </c>
-      <c r="G33" s="55"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11087,10 +11527,10 @@
       <c r="E34" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="55"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11107,10 +11547,10 @@
       <c r="E35" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="63" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="55"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11125,10 +11565,10 @@
       <c r="E36" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="63" t="s">
         <v>759</v>
       </c>
-      <c r="G36" s="55"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="25" t="s">
         <v>760</v>
       </c>
@@ -11147,16 +11587,16 @@
       <c r="E37" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="63" t="s">
         <v>765</v>
       </c>
-      <c r="G37" s="55"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="25" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="64" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -11171,12 +11611,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="77"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -11192,7 +11632,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="77"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -11208,7 +11648,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="77"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -11224,7 +11664,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -11241,12 +11681,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -11254,12 +11694,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11325,120 +11765,120 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="76" t="s">
         <v>784</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>785</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="76" t="s">
         <v>786</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="76" t="s">
         <v>787</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="76" t="s">
         <v>788</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="76" t="s">
         <v>789</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="76" t="s">
         <v>790</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="76" t="s">
         <v>791</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="76"/>
+      <c r="N4" s="76" t="s">
         <v>792</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="76"/>
+      <c r="P4" s="76" t="s">
         <v>793</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76" t="s">
         <v>794</v>
       </c>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="76"/>
+      <c r="T4" s="76" t="s">
         <v>795</v>
       </c>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56" t="s">
+      <c r="U4" s="76"/>
+      <c r="V4" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56" t="s">
+      <c r="W4" s="76"/>
+      <c r="X4" s="76" t="s">
         <v>533</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56" t="s">
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56" t="s">
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76" t="s">
         <v>535</v>
       </c>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56" t="s">
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76" t="s">
         <v>536</v>
       </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56" t="s">
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56" t="s">
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76" t="s">
         <v>538</v>
       </c>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56" t="s">
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76" t="s">
         <v>539</v>
       </c>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56" t="s">
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76" t="s">
         <v>540</v>
       </c>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56" t="s">
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76" t="s">
         <v>541</v>
       </c>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56" t="s">
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76" t="s">
         <v>542</v>
       </c>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56" t="s">
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56" t="s">
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76" t="s">
         <v>544</v>
       </c>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56" t="s">
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76" t="s">
         <v>796</v>
       </c>
-      <c r="AW4" s="56"/>
+      <c r="AW4" s="76"/>
     </row>
     <row r="5" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="28" t="s">
         <v>797</v>
       </c>
@@ -11555,10 +11995,10 @@
       </c>
     </row>
     <row r="6" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="73" t="s">
         <v>799</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="73" t="s">
         <v>800</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -11644,8 +12084,8 @@
       <c r="AW6" s="25"/>
     </row>
     <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="25" t="s">
         <v>805</v>
       </c>
@@ -11699,8 +12139,8 @@
       <c r="AW7" s="25"/>
     </row>
     <row r="8" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="25" t="s">
         <v>807</v>
       </c>
@@ -11756,7 +12196,7 @@
       <c r="AW8" s="25"/>
     </row>
     <row r="9" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="60"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="27" t="s">
         <v>810</v>
       </c>
@@ -11815,7 +12255,7 @@
       <c r="AW9" s="25"/>
     </row>
     <row r="10" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="63" t="s">
         <v>814</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -11868,7 +12308,7 @@
       <c r="AW10" s="25"/>
     </row>
     <row r="11" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="55"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="25" t="s">
         <v>816</v>
       </c>
@@ -11919,7 +12359,7 @@
       <c r="AW11" s="25"/>
     </row>
     <row r="12" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="55"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="25" t="s">
         <v>817</v>
       </c>
@@ -11970,7 +12410,7 @@
       <c r="AW12" s="25"/>
     </row>
     <row r="13" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="55"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="25" t="s">
         <v>818</v>
       </c>
@@ -12021,7 +12461,7 @@
       <c r="AW13" s="25"/>
     </row>
     <row r="14" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="55"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="25" t="s">
         <v>819</v>
       </c>
@@ -12072,7 +12512,7 @@
       <c r="AW14" s="25"/>
     </row>
     <row r="15" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="55"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="25" t="s">
         <v>820</v>
       </c>
@@ -12123,7 +12563,7 @@
       <c r="AW15" s="25"/>
     </row>
     <row r="16" spans="1:49" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="73" t="s">
         <v>821</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -12176,7 +12616,7 @@
       <c r="AW16" s="25"/>
     </row>
     <row r="17" spans="3:50" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="59"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="25" t="s">
         <v>823</v>
       </c>
@@ -12227,7 +12667,7 @@
       <c r="AW17" s="25"/>
     </row>
     <row r="18" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="59"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="25" t="s">
         <v>824</v>
       </c>
@@ -12278,7 +12718,7 @@
       <c r="AW18" s="25"/>
     </row>
     <row r="19" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="59"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="25" t="s">
         <v>825</v>
       </c>
@@ -12329,7 +12769,7 @@
       <c r="AW19" s="25"/>
     </row>
     <row r="20" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="59"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="25" t="s">
         <v>826</v>
       </c>
@@ -12380,7 +12820,7 @@
       <c r="AW20" s="25"/>
     </row>
     <row r="21" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="60"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="25" t="s">
         <v>827</v>
       </c>
@@ -12534,7 +12974,7 @@
       <c r="AW23" s="25"/>
     </row>
     <row r="24" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="63" t="s">
         <v>830</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -12587,7 +13027,7 @@
       <c r="AW24" s="25"/>
     </row>
     <row r="25" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="55"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="25" t="s">
         <v>832</v>
       </c>
@@ -12638,7 +13078,7 @@
       <c r="AW25" s="25"/>
     </row>
     <row r="26" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="55"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="25" t="s">
         <v>833</v>
       </c>
@@ -12689,7 +13129,7 @@
       <c r="AW26" s="25"/>
     </row>
     <row r="27" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="63" t="s">
         <v>834</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -12742,7 +13182,7 @@
       <c r="AW27" s="25"/>
     </row>
     <row r="28" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="55"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="25" t="s">
         <v>832</v>
       </c>
@@ -12793,7 +13233,7 @@
       <c r="AW28" s="25"/>
     </row>
     <row r="29" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="55"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="25" t="s">
         <v>833</v>
       </c>
@@ -12844,7 +13284,7 @@
       <c r="AW29" s="25"/>
     </row>
     <row r="30" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="63" t="s">
         <v>835</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -12897,7 +13337,7 @@
       <c r="AW30" s="25"/>
     </row>
     <row r="31" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="55"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="25" t="s">
         <v>832</v>
       </c>
@@ -12948,7 +13388,7 @@
       <c r="AW31" s="25"/>
     </row>
     <row r="32" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="55"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="25" t="s">
         <v>833</v>
       </c>
@@ -12999,7 +13439,7 @@
       <c r="AW32" s="25"/>
     </row>
     <row r="33" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="55"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="25" t="s">
         <v>545</v>
       </c>
@@ -13050,7 +13490,7 @@
       <c r="AW33" s="25"/>
     </row>
     <row r="34" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="55"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="25" t="s">
         <v>546</v>
       </c>
@@ -13101,7 +13541,7 @@
       <c r="AW34" s="25"/>
     </row>
     <row r="35" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="63" t="s">
         <v>836</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -13154,7 +13594,7 @@
       <c r="AW35" s="25"/>
     </row>
     <row r="36" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="55"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="25" t="s">
         <v>832</v>
       </c>
@@ -13205,7 +13645,7 @@
       <c r="AW36" s="25"/>
     </row>
     <row r="37" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="55"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="25" t="s">
         <v>833</v>
       </c>
@@ -13256,7 +13696,7 @@
       <c r="AW37" s="25"/>
     </row>
     <row r="38" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="55"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="25" t="s">
         <v>545</v>
       </c>
@@ -13307,7 +13747,7 @@
       <c r="AW38" s="25"/>
     </row>
     <row r="39" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="55"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="25" t="s">
         <v>546</v>
       </c>
@@ -13358,7 +13798,7 @@
       <c r="AW39" s="25"/>
     </row>
     <row r="40" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="63" t="s">
         <v>837</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -13411,7 +13851,7 @@
       <c r="AW40" s="25"/>
     </row>
     <row r="41" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="55"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="25" t="s">
         <v>832</v>
       </c>
@@ -13462,7 +13902,7 @@
       <c r="AW41" s="25"/>
     </row>
     <row r="42" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="55"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="25" t="s">
         <v>833</v>
       </c>
@@ -13513,7 +13953,7 @@
       <c r="AW42" s="25"/>
     </row>
     <row r="43" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="55"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="25" t="s">
         <v>545</v>
       </c>
@@ -13564,7 +14004,7 @@
       <c r="AW43" s="25"/>
     </row>
     <row r="44" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="55"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="25" t="s">
         <v>546</v>
       </c>
@@ -13615,7 +14055,7 @@
       <c r="AW44" s="25"/>
     </row>
     <row r="45" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C45" s="55"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="25" t="s">
         <v>547</v>
       </c>
@@ -13666,7 +14106,7 @@
       <c r="AW45" s="25"/>
     </row>
     <row r="46" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C46" s="55"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="25" t="s">
         <v>548</v>
       </c>
@@ -13717,7 +14157,7 @@
       <c r="AW46" s="25"/>
     </row>
     <row r="47" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="63" t="s">
         <v>838</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -13770,7 +14210,7 @@
       <c r="AW47" s="25"/>
     </row>
     <row r="48" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C48" s="55"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="25" t="s">
         <v>832</v>
       </c>
@@ -13821,7 +14261,7 @@
       <c r="AW48" s="25"/>
     </row>
     <row r="49" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C49" s="55"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="25" t="s">
         <v>833</v>
       </c>
@@ -13872,7 +14312,7 @@
       <c r="AW49" s="25"/>
     </row>
     <row r="50" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C50" s="55"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="25" t="s">
         <v>545</v>
       </c>
@@ -13923,7 +14363,7 @@
       <c r="AW50" s="25"/>
     </row>
     <row r="51" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C51" s="55"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="25" t="s">
         <v>546</v>
       </c>
@@ -13974,7 +14414,7 @@
       <c r="AW51" s="25"/>
     </row>
     <row r="52" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C52" s="55"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="25" t="s">
         <v>547</v>
       </c>
@@ -14025,7 +14465,7 @@
       <c r="AW52" s="25"/>
     </row>
     <row r="53" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C53" s="55"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="25" t="s">
         <v>548</v>
       </c>
@@ -14076,7 +14516,7 @@
       <c r="AW53" s="25"/>
     </row>
     <row r="54" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="63" t="s">
         <v>839</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -14129,7 +14569,7 @@
       <c r="AW54" s="25"/>
     </row>
     <row r="55" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C55" s="55"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="25" t="s">
         <v>832</v>
       </c>
@@ -14180,7 +14620,7 @@
       <c r="AW55" s="25"/>
     </row>
     <row r="56" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C56" s="55"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="25" t="s">
         <v>833</v>
       </c>
@@ -14231,7 +14671,7 @@
       <c r="AW56" s="25"/>
     </row>
     <row r="57" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C57" s="55"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="25" t="s">
         <v>545</v>
       </c>
@@ -14282,7 +14722,7 @@
       <c r="AW57" s="25"/>
     </row>
     <row r="58" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C58" s="55"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="25" t="s">
         <v>546</v>
       </c>
@@ -14333,7 +14773,7 @@
       <c r="AW58" s="25"/>
     </row>
     <row r="59" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C59" s="55"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="25" t="s">
         <v>547</v>
       </c>
@@ -14384,7 +14824,7 @@
       <c r="AW59" s="25"/>
     </row>
     <row r="60" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C60" s="55"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="25" t="s">
         <v>548</v>
       </c>
@@ -14436,15 +14876,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="AP4:AQ4"/>
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="AT4:AU4"/>
@@ -14461,20 +14906,15 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14484,10 +14924,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14497,8 +14937,10 @@
     <col min="3" max="3" width="12.875" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="22" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="65.25" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="22"/>
+    <col min="6" max="6" width="84.5" style="22" customWidth="1"/>
+    <col min="7" max="8" width="9" style="22"/>
+    <col min="9" max="9" width="26.75" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -14791,7 +15233,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -14808,8 +15250,11 @@
       <c r="F17" s="25" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I17" s="63" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -14826,8 +15271,9 @@
       <c r="F18" s="25" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I18" s="63"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -14844,8 +15290,9 @@
       <c r="F19" s="25" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>19</v>
       </c>
@@ -14862,8 +15309,9 @@
       <c r="F20" s="25" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>20</v>
       </c>
@@ -14880,8 +15328,9 @@
       <c r="F21" s="25" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>21</v>
       </c>
@@ -14898,8 +15347,9 @@
       <c r="F22" s="25" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>22</v>
       </c>
@@ -14916,8 +15366,9 @@
       <c r="F23" s="25" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>23</v>
       </c>
@@ -14927,426 +15378,1462 @@
       <c r="C24" s="25">
         <v>10</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="36" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="25" t="s">
         <v>906</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="25" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I24" s="73" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C25" s="25">
         <v>11</v>
       </c>
-      <c r="D25" s="79" t="s">
-        <v>909</v>
-      </c>
-      <c r="E25" s="79"/>
+      <c r="D25" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E25" s="36"/>
       <c r="F25" s="25" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C26" s="25">
         <v>11</v>
       </c>
-      <c r="D26" s="79" t="s">
-        <v>912</v>
-      </c>
-      <c r="E26" s="79"/>
+      <c r="D26" s="36" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E26" s="36"/>
       <c r="F26" s="25" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C27" s="25">
         <v>12</v>
       </c>
-      <c r="D27" s="79" t="s">
-        <v>915</v>
-      </c>
-      <c r="E27" s="79"/>
+      <c r="D27" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E27" s="36"/>
       <c r="F27" s="25" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>912</v>
+      </c>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C28" s="25">
         <v>12</v>
       </c>
-      <c r="D28" s="79" t="s">
-        <v>918</v>
-      </c>
-      <c r="E28" s="79"/>
+      <c r="D28" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E28" s="36"/>
       <c r="F28" s="25" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C29" s="25">
         <v>13</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>921</v>
-      </c>
-      <c r="E29" s="79"/>
+      <c r="D29" s="36" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E29" s="36"/>
       <c r="F29" s="25" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>916</v>
+      </c>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C30" s="25">
         <v>13</v>
       </c>
-      <c r="D30" s="79" t="s">
-        <v>924</v>
-      </c>
-      <c r="E30" s="79"/>
+      <c r="D30" s="36" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E30" s="36"/>
       <c r="F30" s="25" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+      <c r="I30" s="75"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C31" s="25">
         <v>14</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>33</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="C32" s="29">
+        <v>14</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>925</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
+        <v>34</v>
+      </c>
+      <c r="B33" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="25" t="s">
+      <c r="C33" s="25">
+        <v>14</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
-        <v>31</v>
-      </c>
-      <c r="B32" s="25" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="C32" s="25">
-        <v>14</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>927</v>
-      </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="25" t="s">
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>35</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>930</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>32</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>931</v>
-      </c>
-      <c r="C33" s="25">
-        <v>15</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>932</v>
-      </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="25" t="s">
-        <v>933</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>33</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>935</v>
       </c>
       <c r="C34" s="25">
         <v>15</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="25" t="s">
+        <v>932</v>
+      </c>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>36</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="C35" s="29">
+        <v>15</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="I35" s="63"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>37</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>936</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="25" t="s">
+      <c r="C36" s="29">
+        <v>15</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="E36" s="36"/>
+      <c r="F36" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="I36" s="63"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>30</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C37" s="25">
+        <v>16</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="25">
+        <v>38</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="C38" s="25">
+        <v>16</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <v>39</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="68"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>41</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="C40" s="29">
+        <v>16</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25" t="s">
+        <v>952</v>
+      </c>
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="25">
+        <v>42</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>943</v>
+      </c>
+      <c r="C41" s="29">
+        <v>16</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>973</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="29" t="s">
+        <v>953</v>
+      </c>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="25">
+        <v>43</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="C42" s="29">
+        <v>16</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <v>44</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>945</v>
+      </c>
+      <c r="C43" s="29">
+        <v>16</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>975</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="29" t="s">
+        <v>967</v>
+      </c>
+      <c r="I43" s="82"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <v>45</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="C44" s="29">
+        <v>16</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="I44" s="82"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <v>46</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>947</v>
+      </c>
+      <c r="C45" s="29">
+        <v>16</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>977</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="I45" s="82"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>58</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>981</v>
+      </c>
+      <c r="C46" s="29">
+        <v>17</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="I46" s="82"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>59</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>982</v>
+      </c>
+      <c r="C47" s="29">
+        <v>17</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="I47" s="82"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="29">
+        <v>60</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>983</v>
+      </c>
+      <c r="C48" s="29">
+        <v>18</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29" t="s">
+        <v>954</v>
+      </c>
+      <c r="I48" s="82"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="29">
+        <v>61</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="C49" s="29">
+        <v>18</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="I49" s="82"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="29">
+        <v>47</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>948</v>
+      </c>
+      <c r="C50" s="29">
+        <v>18</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>978</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I50" s="73" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="29">
+        <v>48</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>949</v>
+      </c>
+      <c r="C51" s="29">
+        <v>20</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
+        <v>40</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C52" s="29">
+        <v>20</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="29">
+        <v>63</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="C53" s="29">
+        <v>21</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I53" s="63" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="29">
+        <v>64</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>989</v>
+      </c>
+      <c r="C54" s="29">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I54" s="63"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="29">
+        <v>65</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="C55" s="29">
+        <v>21</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I55" s="63"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="29">
+        <v>66</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="C56" s="29">
+        <v>22</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I56" s="63"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="29">
+        <v>67</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>992</v>
+      </c>
+      <c r="C57" s="29">
+        <v>22</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I57" s="63"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="29">
+        <v>68</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>993</v>
+      </c>
+      <c r="C58" s="29">
+        <v>22</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I58" s="63"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="29">
+        <v>69</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>994</v>
+      </c>
+      <c r="C59" s="29">
+        <v>22</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I59" s="63"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="29">
+        <v>49</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>957</v>
+      </c>
+      <c r="C60" s="29">
+        <v>23</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29" t="s">
+        <v>980</v>
+      </c>
+      <c r="I60" s="64" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="29">
+        <v>50</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>958</v>
+      </c>
+      <c r="C61" s="29">
+        <v>23</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29" t="s">
+        <v>968</v>
+      </c>
+      <c r="I61" s="65"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="29">
+        <v>51</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="C62" s="29">
+        <v>23</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29" t="s">
+        <v>969</v>
+      </c>
+      <c r="I62" s="65"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="29">
+        <v>52</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>960</v>
+      </c>
+      <c r="C63" s="29">
+        <v>23</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="I63" s="65"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="29">
+        <v>53</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="C64" s="29">
+        <v>24</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="I64" s="65"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="29">
+        <v>54</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>962</v>
+      </c>
+      <c r="C65" s="29">
+        <v>24</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29" t="s">
+        <v>966</v>
+      </c>
+      <c r="I65" s="65"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="29">
+        <v>55</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>963</v>
+      </c>
+      <c r="C66" s="29">
+        <v>24</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I66" s="65"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="29">
+        <v>56</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>964</v>
+      </c>
+      <c r="C67" s="29">
+        <v>24</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I67" s="65"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="29">
+        <v>57</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>965</v>
+      </c>
+      <c r="C68" s="29">
+        <v>25</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I68" s="66"/>
+    </row>
+    <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="29">
+        <v>58</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C69" s="29">
+        <v>25</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I69" s="29"/>
+    </row>
+    <row r="70" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="29">
+        <v>59</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C70" s="29">
+        <v>26</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I70" s="29"/>
+    </row>
+    <row r="71" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="29">
+        <v>60</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C71" s="29">
+        <v>26</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I71" s="29"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="29">
+        <v>61</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C72" s="29">
+        <v>27</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I72" s="63" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="29">
+        <v>62</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C73" s="29">
+        <v>27</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I73" s="63"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="29">
+        <v>63</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C74" s="29">
+        <v>27</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I74" s="63"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="29">
+        <v>64</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C75" s="29">
+        <v>27</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I75" s="63"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="29">
+        <v>65</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C76" s="29">
+        <v>27</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I76" s="63"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="29">
+        <v>66</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C77" s="29">
+        <v>27</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I77" s="63"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="29">
+        <v>67</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C78" s="29">
+        <v>27</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="79" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="29">
+        <v>68</v>
+      </c>
+      <c r="B79" s="79" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="81"/>
+    </row>
+    <row r="80" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="29">
+        <v>69</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C80" s="29">
+        <v>30</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="29">
+        <v>70</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C81" s="29">
+        <v>30</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="29">
+        <v>71</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="C82" s="29">
+        <v>30</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="29">
+        <v>72</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>997</v>
+      </c>
+      <c r="C83" s="29">
+        <v>31</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="29">
+        <v>73</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="C84" s="29">
+        <v>31</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="29">
+        <v>74</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>999</v>
+      </c>
+      <c r="C85" s="29">
+        <v>31</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="29">
+        <v>75</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C86" s="29">
+        <v>32</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="29">
+        <v>76</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C87" s="29">
+        <v>32</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="29">
+        <v>80</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C88" s="29">
+        <v>32</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="29">
+        <v>77</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C89" s="29">
+        <v>33</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="29">
+        <v>78</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C90" s="29">
+        <v>33</v>
+      </c>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="29">
+        <v>79</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C91" s="29">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="C35" s="25">
-        <v>16</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>939</v>
-      </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="25" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
-        <v>35</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>941</v>
-      </c>
-      <c r="C36" s="25">
-        <v>16</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>942</v>
-      </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="25" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
-        <v>36</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>944</v>
-      </c>
-      <c r="C37" s="25">
-        <v>17</v>
-      </c>
-      <c r="D37" s="79" t="s">
-        <v>945</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="25" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
-        <v>37</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="C38" s="25">
-        <v>17</v>
-      </c>
-      <c r="D38" s="79" t="s">
-        <v>948</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="25" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
-        <v>38</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>950</v>
-      </c>
-      <c r="C39" s="25">
-        <v>18</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>951</v>
-      </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="25" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>39</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>953</v>
-      </c>
-      <c r="C40" s="25">
-        <v>18</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>951</v>
-      </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="25" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
-        <v>40</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>955</v>
-      </c>
-      <c r="C41" s="25">
-        <v>20</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>951</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="H41" s="22" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
-        <v>41</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>957</v>
-      </c>
-      <c r="C42" s="25">
-        <v>18</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="H42" s="22" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
-        <v>42</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>960</v>
-      </c>
-      <c r="C43" s="25">
-        <v>19</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>961</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
-        <v>43</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>962</v>
-      </c>
-      <c r="C44" s="25">
-        <v>19</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>963</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
-        <v>44</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>964</v>
-      </c>
-      <c r="C45" s="25">
-        <v>20</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>965</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
-        <v>45</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>966</v>
-      </c>
-      <c r="C46" s="25">
-        <v>20</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>965</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>46</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>967</v>
-      </c>
-      <c r="C47" s="25">
-        <v>20</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>965</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="29">
+        <v>80</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C92" s="29">
+        <v>34</v>
+      </c>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="29">
+        <v>81</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C93" s="29">
+        <v>34</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="29">
+        <v>82</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C94" s="29">
+        <v>34</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="29">
+        <v>83</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C95" s="29">
+        <v>34</v>
+      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="29">
+        <v>84</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C96" s="29">
+        <v>34</v>
+      </c>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="29">
+        <v>85</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C97" s="29">
+        <v>34</v>
+      </c>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="29">
+        <v>86</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C98" s="29">
+        <v>34</v>
+      </c>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="29">
+        <v>87</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C99" s="29">
+        <v>34</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+    </row>
+    <row r="101" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+    </row>
+    <row r="102" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+    </row>
+    <row r="103" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+    </row>
+    <row r="104" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="63" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B104" s="63"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+    </row>
+    <row r="107" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="29">
+        <v>70</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>995</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="29">
+        <v>71</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="29">
+        <v>72</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>997</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="29">
+        <v>73</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="29">
+        <v>74</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>999</v>
+      </c>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="29">
+        <v>75</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="29">
+        <v>76</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I24:I30"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="I72:I78"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="I60:I68"/>
+    <mergeCell ref="I53:I59"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="1273">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4184,144 +4184,137 @@
     <t>通关3-7</t>
   </si>
   <si>
+    <t>通关3-9</t>
+  </si>
+  <si>
+    <t>通关3-10</t>
+  </si>
+  <si>
+    <t>通关3-11</t>
+  </si>
+  <si>
+    <t>通关3-12</t>
+  </si>
+  <si>
+    <t>通关3-13</t>
+  </si>
+  <si>
+    <t>通关3-14</t>
+  </si>
+  <si>
+    <t>战力要求3个21级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个25级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-9</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-10</t>
+  </si>
+  <si>
+    <t>战力要求3个30级</t>
+  </si>
+  <si>
+    <t>战力要求3个27级</t>
+  </si>
+  <si>
+    <t>战力要求3个28级</t>
+  </si>
+  <si>
+    <t>要求许褚，22级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求李轩辕和唐流雨2星，23级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点3-2</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-3</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-4</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-5</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-6</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-7</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-9</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-10</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-11</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-12</t>
+  </si>
+  <si>
+    <t>战力要求3个17级，神器2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用第二次整体突破，引导玩家挑战困难关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个22级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个22级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个23级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个23级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个24级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个24级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个26级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个29级</t>
+  </si>
+  <si>
     <t>通关3-8</t>
-  </si>
-  <si>
-    <t>通关3-9</t>
-  </si>
-  <si>
-    <t>通关3-10</t>
-  </si>
-  <si>
-    <t>通关3-11</t>
-  </si>
-  <si>
-    <t>通关3-12</t>
-  </si>
-  <si>
-    <t>通关3-13</t>
-  </si>
-  <si>
-    <t>通关3-14</t>
-  </si>
-  <si>
-    <t>战力要求3个21级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个25级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-风-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-风-9</t>
-  </si>
-  <si>
-    <t>芦花古楼-风-10</t>
-  </si>
-  <si>
-    <t>战力要求3个30级</t>
-  </si>
-  <si>
-    <t>战力要求3个27级</t>
-  </si>
-  <si>
-    <t>战力要求3个28级</t>
-  </si>
-  <si>
-    <t>要求许褚，22级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求李轩辕和唐流雨2星，23级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机点3-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机点3-2</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-3</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-4</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-5</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-6</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-7</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-9</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-10</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-11</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-12</t>
-  </si>
-  <si>
-    <t>战力要求3个17级，神器2级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用第二次整体突破，引导玩家挑战困难关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个22级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个22级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个23级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个23级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个24级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个24级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个26级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个29级</t>
-  </si>
-  <si>
-    <t>通关3-8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升级到30级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4小时扫荡，可以扫出1.5个卡牌3突的材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5100,21 +5093,147 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>3个30级2突，神器1  4级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个35级，神器2 2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化10级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>30级后，开放日常任务，通关第4章，到32级，开放竞技场，做完所有日常任务，到35级，开放个人BOSS，40级开放专属武器。
 个人BOSS主要产出初级中级神器，第一天末尾战力提升的手段。同时也可以购买金币，换强化石，提升专属武器强化。可以利用个人BOSS的战力提升，通过更多的芦花古楼花，再多扫荡几次，获得到40级的经验。
-40级开放国战入口，作为第二天上线的目标。35~40级的经验，大概就是挂机点4-15挂机12小时+一轮日常任务。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+40级开放国战入口，作为第二天上线的目标。35~40级的经验，大概就是挂机点3-15挂机12小时+一轮日常任务。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化10级，4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-花-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-3</t>
+  </si>
+  <si>
+    <t>通关4-4</t>
+  </si>
+  <si>
+    <t>通关4-5</t>
+  </si>
+  <si>
+    <t>通关4-6</t>
+  </si>
+  <si>
+    <t>通关4-7</t>
+  </si>
+  <si>
+    <t>通关4-8</t>
+  </si>
+  <si>
+    <t>通关4-9</t>
+  </si>
+  <si>
+    <t>通关4-10</t>
+  </si>
+  <si>
+    <t>通关4-11</t>
+  </si>
+  <si>
+    <t>通关4-12</t>
+  </si>
+  <si>
+    <t>通关4-13</t>
+  </si>
+  <si>
+    <t>通关4-14</t>
+  </si>
+  <si>
+    <t>通关4-15</t>
+  </si>
+  <si>
+    <t>5小时扫荡，可以扫出1.5个卡牌3突的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，1个4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，3个4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个42级，专属强化2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个43级，专属强化3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难3-2</t>
+  </si>
+  <si>
+    <t>困难3-3</t>
+  </si>
+  <si>
+    <t>困难3-4</t>
+  </si>
+  <si>
+    <t>困难3-5</t>
+  </si>
+  <si>
+    <t>困难3-6</t>
+  </si>
+  <si>
+    <t>困难3-7</t>
+  </si>
+  <si>
+    <t>困难3-8</t>
   </si>
   <si>
     <t>3个30级2突，神器1  4级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个35级，神器2 2级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个40级，专属强化2级</t>
+  </si>
+  <si>
+    <t>3个30级3突，神器2 激活</t>
+  </si>
+  <si>
+    <t>3个32级，神器2 2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个35级，神器2 4级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个37级，专属强化2级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5122,7 +5241,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>3个40级，专属强化7级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>3个40级，专属强化10级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6个4突材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9个4突材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡1.5个4突材料（12小时）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个41级，专属强化1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个43级，专属强化4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个44级，专属强化5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5771,7 +5918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5908,6 +6055,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5953,21 +6119,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5990,21 +6141,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6019,8 +6155,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6031,6 +6179,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6040,7 +6191,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6052,6 +6202,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -6405,12 +6559,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6419,10 +6573,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="66" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6433,26 +6587,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6461,10 +6615,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6473,151 +6627,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6630,12 +6780,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6664,7 +6818,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6681,28 +6835,28 @@
   <sheetData>
     <row r="2" spans="1:9" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6710,24 +6864,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C3" s="49">
         <v>1</v>
       </c>
       <c r="D3" s="49" t="str">
-        <f>B3&amp;"-"&amp;E3&amp;"个"</f>
+        <f t="shared" ref="D3:D30" si="0">B3&amp;"-"&amp;E3&amp;"个"</f>
         <v>神器1-1个</v>
       </c>
       <c r="E3" s="49">
         <v>1</v>
       </c>
       <c r="F3" s="49">
-        <f>C3*E3</f>
+        <f t="shared" ref="F3:F30" si="1">C3*E3</f>
         <v>1</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H3" s="49">
         <v>10</v>
@@ -6742,30 +6896,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C4" s="49">
         <v>1.5</v>
       </c>
       <c r="D4" s="49" t="str">
-        <f>B4&amp;"-"&amp;E4&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器2-1个</v>
       </c>
       <c r="E4" s="49">
         <v>1</v>
       </c>
       <c r="F4" s="49">
-        <f>C4*E4</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H4" s="49">
         <v>10</v>
       </c>
       <c r="I4" s="49" t="str">
-        <f t="shared" ref="I4:I30" si="0">G4&amp;"强化石"&amp;"-"&amp;H4&amp;"个"</f>
+        <f t="shared" ref="I4:I30" si="2">G4&amp;"强化石"&amp;"-"&amp;H4&amp;"个"</f>
         <v>初级强化石-10个</v>
       </c>
     </row>
@@ -6774,30 +6928,30 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C5" s="49">
         <v>1</v>
       </c>
       <c r="D5" s="49" t="str">
-        <f>B5&amp;"-"&amp;E5&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器1-2个</v>
       </c>
       <c r="E5" s="49">
         <v>2</v>
       </c>
       <c r="F5" s="49">
-        <f>C5*E5</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H5" s="49">
         <v>15</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>初级强化石-15个</v>
       </c>
     </row>
@@ -6806,30 +6960,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C6" s="49">
         <v>2.5</v>
       </c>
       <c r="D6" s="49" t="str">
-        <f>B6&amp;"-"&amp;E6&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器3-1个</v>
       </c>
       <c r="E6" s="49">
         <v>1</v>
       </c>
       <c r="F6" s="49">
-        <f>C6*E6</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H6" s="49">
         <v>10</v>
       </c>
       <c r="I6" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-10个</v>
       </c>
     </row>
@@ -6838,30 +6992,30 @@
         <v>5</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C7" s="49">
         <v>1.5</v>
       </c>
       <c r="D7" s="49" t="str">
-        <f>B7&amp;"-"&amp;E7&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器2-2个</v>
       </c>
       <c r="E7" s="49">
         <v>2</v>
       </c>
       <c r="F7" s="49">
-        <f>C7*E7</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H7" s="49">
         <v>15</v>
       </c>
       <c r="I7" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>初级强化石-15个</v>
       </c>
     </row>
@@ -6870,30 +7024,30 @@
         <v>6</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C8" s="49">
         <v>3</v>
       </c>
       <c r="D8" s="49" t="str">
-        <f>B8&amp;"-"&amp;E8&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器4-1个</v>
       </c>
       <c r="E8" s="49">
         <v>1</v>
       </c>
       <c r="F8" s="49">
-        <f>C8*E8</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H8" s="49">
         <v>10</v>
       </c>
       <c r="I8" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-10个</v>
       </c>
     </row>
@@ -6902,30 +7056,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C9" s="49">
         <v>1</v>
       </c>
       <c r="D9" s="49" t="str">
-        <f>B9&amp;"-"&amp;E9&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器1-4个</v>
       </c>
       <c r="E9" s="49">
         <v>4</v>
       </c>
       <c r="F9" s="49">
-        <f>C9*E9</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H9" s="49">
         <v>20</v>
       </c>
       <c r="I9" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>初级强化石-20个</v>
       </c>
     </row>
@@ -6934,30 +7088,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C10" s="49">
         <v>2.5</v>
       </c>
       <c r="D10" s="49" t="str">
-        <f>B10&amp;"-"&amp;E10&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器3-2个</v>
       </c>
       <c r="E10" s="49">
         <v>2</v>
       </c>
       <c r="F10" s="49">
-        <f>C10*E10</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H10" s="49">
         <v>15</v>
       </c>
       <c r="I10" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-15个</v>
       </c>
     </row>
@@ -6966,30 +7120,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C11" s="49">
         <v>5</v>
       </c>
       <c r="D11" s="49" t="str">
-        <f>B11&amp;"-"&amp;E11&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器5-1个</v>
       </c>
       <c r="E11" s="49">
         <v>1</v>
       </c>
       <c r="F11" s="49">
-        <f>C11*E11</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H11" s="49">
         <v>10</v>
       </c>
       <c r="I11" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-10个</v>
       </c>
     </row>
@@ -6998,30 +7152,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C12" s="49">
         <v>5</v>
       </c>
       <c r="D12" s="49" t="str">
-        <f>B12&amp;"-"&amp;E12&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器6-1个</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
       </c>
       <c r="F12" s="49">
-        <f>C12*E12</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H12" s="49">
         <v>10</v>
       </c>
       <c r="I12" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-10个</v>
       </c>
     </row>
@@ -7030,30 +7184,30 @@
         <v>11</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C13" s="49">
         <v>5</v>
       </c>
       <c r="D13" s="49" t="str">
-        <f>B13&amp;"-"&amp;E13&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器7-1个</v>
       </c>
       <c r="E13" s="49">
         <v>1</v>
       </c>
       <c r="F13" s="49">
-        <f>C13*E13</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H13" s="49">
         <v>10</v>
       </c>
       <c r="I13" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-10个</v>
       </c>
     </row>
@@ -7062,30 +7216,30 @@
         <v>12</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C14" s="49">
         <v>1.5</v>
       </c>
       <c r="D14" s="49" t="str">
-        <f>B14&amp;"-"&amp;E14&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器2-4个</v>
       </c>
       <c r="E14" s="49">
         <v>4</v>
       </c>
       <c r="F14" s="49">
-        <f>C14*E14</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H14" s="49">
         <v>20</v>
       </c>
       <c r="I14" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>初级强化石-20个</v>
       </c>
     </row>
@@ -7094,30 +7248,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C15" s="49">
         <v>3</v>
       </c>
       <c r="D15" s="49" t="str">
-        <f>B15&amp;"-"&amp;E15&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器4-2个</v>
       </c>
       <c r="E15" s="49">
         <v>2</v>
       </c>
       <c r="F15" s="49">
-        <f>C15*E15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H15" s="49">
         <v>15</v>
       </c>
       <c r="I15" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-15个</v>
       </c>
     </row>
@@ -7126,30 +7280,30 @@
         <v>14</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C16" s="49">
         <v>1</v>
       </c>
       <c r="D16" s="49" t="str">
-        <f>B16&amp;"-"&amp;E16&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器1-8个</v>
       </c>
       <c r="E16" s="49">
         <v>8</v>
       </c>
       <c r="F16" s="49">
-        <f>C16*E16</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H16" s="49">
         <v>30</v>
       </c>
       <c r="I16" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>初级强化石-30个</v>
       </c>
     </row>
@@ -7158,30 +7312,30 @@
         <v>15</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C17" s="49">
         <v>2.5</v>
       </c>
       <c r="D17" s="49" t="str">
-        <f>B17&amp;"-"&amp;E17&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器3-4个</v>
       </c>
       <c r="E17" s="49">
         <v>4</v>
       </c>
       <c r="F17" s="49">
-        <f>C17*E17</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H17" s="49">
         <v>20</v>
       </c>
       <c r="I17" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-20个</v>
       </c>
     </row>
@@ -7190,30 +7344,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C18" s="49">
         <v>5</v>
       </c>
       <c r="D18" s="49" t="str">
-        <f>B18&amp;"-"&amp;E18&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器5-2个</v>
       </c>
       <c r="E18" s="49">
         <v>2</v>
       </c>
       <c r="F18" s="49">
-        <f>C18*E18</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H18" s="49">
         <v>15</v>
       </c>
       <c r="I18" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-15个</v>
       </c>
     </row>
@@ -7222,30 +7376,30 @@
         <v>17</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C19" s="49">
         <v>5</v>
       </c>
       <c r="D19" s="49" t="str">
-        <f>B19&amp;"-"&amp;E19&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器6-2个</v>
       </c>
       <c r="E19" s="49">
         <v>2</v>
       </c>
       <c r="F19" s="49">
-        <f>C19*E19</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H19" s="49">
         <v>15</v>
       </c>
       <c r="I19" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-15个</v>
       </c>
     </row>
@@ -7254,30 +7408,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C20" s="49">
         <v>5</v>
       </c>
       <c r="D20" s="49" t="str">
-        <f>B20&amp;"-"&amp;E20&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器7-2个</v>
       </c>
       <c r="E20" s="49">
         <v>2</v>
       </c>
       <c r="F20" s="49">
-        <f>C20*E20</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H20" s="49">
         <v>15</v>
       </c>
       <c r="I20" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-15个</v>
       </c>
     </row>
@@ -7286,30 +7440,30 @@
         <v>19</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C21" s="49">
         <v>1.5</v>
       </c>
       <c r="D21" s="49" t="str">
-        <f>B21&amp;"-"&amp;E21&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器2-8个</v>
       </c>
       <c r="E21" s="49">
         <v>8</v>
       </c>
       <c r="F21" s="49">
-        <f>C21*E21</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H21" s="49">
         <v>30</v>
       </c>
       <c r="I21" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>初级强化石-30个</v>
       </c>
     </row>
@@ -7318,30 +7472,30 @@
         <v>20</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C22" s="49">
         <v>3</v>
       </c>
       <c r="D22" s="49" t="str">
-        <f>B22&amp;"-"&amp;E22&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器4-4个</v>
       </c>
       <c r="E22" s="49">
         <v>4</v>
       </c>
       <c r="F22" s="49">
-        <f>C22*E22</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H22" s="49">
         <v>20</v>
       </c>
       <c r="I22" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-20个</v>
       </c>
     </row>
@@ -7350,30 +7504,30 @@
         <v>21</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C23" s="49">
         <v>2.5</v>
       </c>
       <c r="D23" s="49" t="str">
-        <f>B23&amp;"-"&amp;E23&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器3-8个</v>
       </c>
       <c r="E23" s="49">
         <v>8</v>
       </c>
       <c r="F23" s="49">
-        <f>C23*E23</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H23" s="49">
         <v>30</v>
       </c>
       <c r="I23" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-30个</v>
       </c>
     </row>
@@ -7382,30 +7536,30 @@
         <v>22</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C24" s="49">
         <v>5</v>
       </c>
       <c r="D24" s="49" t="str">
-        <f>B24&amp;"-"&amp;E24&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器5-4个</v>
       </c>
       <c r="E24" s="49">
         <v>4</v>
       </c>
       <c r="F24" s="49">
-        <f>C24*E24</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H24" s="49">
         <v>20</v>
       </c>
       <c r="I24" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-20个</v>
       </c>
     </row>
@@ -7414,30 +7568,30 @@
         <v>23</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C25" s="49">
         <v>5</v>
       </c>
       <c r="D25" s="49" t="str">
-        <f>B25&amp;"-"&amp;E25&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器6-4个</v>
       </c>
       <c r="E25" s="49">
         <v>4</v>
       </c>
       <c r="F25" s="49">
-        <f>C25*E25</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H25" s="49">
         <v>20</v>
       </c>
       <c r="I25" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-20个</v>
       </c>
     </row>
@@ -7446,30 +7600,30 @@
         <v>24</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C26" s="49">
         <v>5</v>
       </c>
       <c r="D26" s="49" t="str">
-        <f>B26&amp;"-"&amp;E26&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器7-4个</v>
       </c>
       <c r="E26" s="49">
         <v>4</v>
       </c>
       <c r="F26" s="49">
-        <f>C26*E26</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H26" s="49">
         <v>20</v>
       </c>
       <c r="I26" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-20个</v>
       </c>
     </row>
@@ -7478,30 +7632,30 @@
         <v>25</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C27" s="49">
         <v>3</v>
       </c>
       <c r="D27" s="49" t="str">
-        <f>B27&amp;"-"&amp;E27&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器4-8个</v>
       </c>
       <c r="E27" s="49">
         <v>8</v>
       </c>
       <c r="F27" s="49">
-        <f>C27*E27</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H27" s="49">
         <v>30</v>
       </c>
       <c r="I27" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>中级强化石-30个</v>
       </c>
     </row>
@@ -7510,30 +7664,30 @@
         <v>26</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C28" s="49">
         <v>5</v>
       </c>
       <c r="D28" s="49" t="str">
-        <f>B28&amp;"-"&amp;E28&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器5-8个</v>
       </c>
       <c r="E28" s="49">
         <v>8</v>
       </c>
       <c r="F28" s="49">
-        <f>C28*E28</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H28" s="49">
         <v>30</v>
       </c>
       <c r="I28" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-30个</v>
       </c>
     </row>
@@ -7542,30 +7696,30 @@
         <v>27</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C29" s="49">
         <v>5</v>
       </c>
       <c r="D29" s="49" t="str">
-        <f>B29&amp;"-"&amp;E29&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器6-8个</v>
       </c>
       <c r="E29" s="49">
         <v>8</v>
       </c>
       <c r="F29" s="49">
-        <f>C29*E29</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H29" s="49">
         <v>30</v>
       </c>
       <c r="I29" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-30个</v>
       </c>
     </row>
@@ -7574,30 +7728,30 @@
         <v>28</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C30" s="49">
         <v>5</v>
       </c>
       <c r="D30" s="49" t="str">
-        <f>B30&amp;"-"&amp;E30&amp;"个"</f>
+        <f t="shared" si="0"/>
         <v>神器7-8个</v>
       </c>
       <c r="E30" s="49">
         <v>8</v>
       </c>
       <c r="F30" s="49">
-        <f>C30*E30</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H30" s="49">
         <v>30</v>
       </c>
       <c r="I30" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>高级强化石-30个</v>
       </c>
     </row>
@@ -9437,14 +9591,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -11442,7 +11596,7 @@
   <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11455,20 +11609,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="G2" s="73" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -11501,13 +11655,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="76" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="77" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -11546,8 +11700,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -11614,13 +11768,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="74" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="74" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -11659,8 +11813,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="O7" s="72"/>
+      <c r="M7" s="74"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -12383,14 +12537,14 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -12425,14 +12579,14 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -12492,29 +12646,29 @@
       <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="79" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -12570,14 +12724,14 @@
       <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -12659,16 +12813,16 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -12733,16 +12887,16 @@
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -12805,16 +12959,16 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -12885,16 +13039,16 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -13215,16 +13369,16 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -14226,7 +14380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -14244,15 +14398,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14282,7 +14436,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="86" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -14304,7 +14458,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -14322,7 +14476,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -14344,7 +14498,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="86" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -14362,7 +14516,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -14378,7 +14532,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -14392,7 +14546,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -14414,7 +14568,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -14432,7 +14586,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -14450,7 +14604,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -14472,7 +14626,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="90" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14496,7 +14650,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -14520,7 +14674,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -14540,7 +14694,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="87" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -14556,7 +14710,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -14576,7 +14730,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -14598,7 +14752,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -14614,7 +14768,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="86" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -14640,7 +14794,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -14662,7 +14816,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="81"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -14684,7 +14838,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="86" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -14708,7 +14862,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -14730,7 +14884,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="81"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -14748,15 +14902,15 @@
       <c r="H26" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="75" t="s">
         <v>729</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14775,16 +14929,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="89" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="83"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="90" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -14799,14 +14953,14 @@
       <c r="E31" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="80" t="s">
         <v>736</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="82"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -14819,14 +14973,14 @@
       <c r="E32" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="80" t="s">
         <v>740</v>
       </c>
-      <c r="G32" s="78"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -14839,10 +14993,10 @@
       <c r="E33" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F33" s="80" t="s">
         <v>744</v>
       </c>
-      <c r="G33" s="78"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14861,10 +15015,10 @@
       <c r="E34" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="80" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="78"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14881,10 +15035,10 @@
       <c r="E35" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="80" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="78"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14899,10 +15053,10 @@
       <c r="E36" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="80" t="s">
         <v>759</v>
       </c>
-      <c r="G36" s="78"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="25" t="s">
         <v>760</v>
       </c>
@@ -14921,16 +15075,16 @@
       <c r="E37" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="80" t="s">
         <v>765</v>
       </c>
-      <c r="G37" s="78"/>
+      <c r="G37" s="80"/>
       <c r="H37" s="25" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="81" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -14945,12 +15099,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="88"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -14966,7 +15120,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -14982,7 +15136,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -14998,7 +15152,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="86"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -15015,12 +15169,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -15028,12 +15182,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15044,8 +15198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AT53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15091,114 +15245,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="89" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="89" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="89" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="89" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="89" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="89" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83" t="s">
+      <c r="N4" s="89"/>
+      <c r="O4" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83" t="s">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83" t="s">
+      <c r="R4" s="89"/>
+      <c r="S4" s="89" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83" t="s">
+      <c r="T4" s="89"/>
+      <c r="U4" s="89" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83" t="s">
+      <c r="V4" s="89"/>
+      <c r="W4" s="89" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83" t="s">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83" t="s">
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83" t="s">
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83" t="s">
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83" t="s">
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83" t="s">
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="83" t="s">
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83" t="s">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="83" t="s">
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89" t="s">
         <v>1131</v>
       </c>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="83" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AR4" s="83"/>
-      <c r="AS4" s="83" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AT4" s="83"/>
+      <c r="AT4" s="89"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -15309,14 +15463,14 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="91" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="91" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>797</v>
@@ -15385,7 +15539,7 @@
       </c>
       <c r="AL6" s="25"/>
       <c r="AM6" s="25" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AN6" s="25"/>
       <c r="AO6" s="45">
@@ -15402,13 +15556,13 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="45" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -15474,7 +15628,7 @@
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AN7" s="45"/>
       <c r="AO7" s="45">
@@ -15491,13 +15645,13 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>800</v>
@@ -15565,7 +15719,7 @@
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="40" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AN8" s="25"/>
       <c r="AO8" s="45">
@@ -15582,7 +15736,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="92"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -15590,7 +15744,7 @@
         <v>799</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>803</v>
@@ -15667,7 +15821,7 @@
       <c r="AT9" s="45"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="80" t="s">
         <v>805</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -15718,7 +15872,7 @@
       <c r="AT10" s="45"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="78"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="25" t="s">
         <v>807</v>
       </c>
@@ -15767,7 +15921,7 @@
       <c r="AT11" s="45"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="78"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="25" t="s">
         <v>808</v>
       </c>
@@ -15816,7 +15970,7 @@
       <c r="AT12" s="45"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="78"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="25" t="s">
         <v>809</v>
       </c>
@@ -15865,7 +16019,7 @@
       <c r="AT13" s="45"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="78"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="25" t="s">
         <v>810</v>
       </c>
@@ -15914,7 +16068,7 @@
       <c r="AT14" s="45"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="78"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="25" t="s">
         <v>811</v>
       </c>
@@ -16061,7 +16215,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="91" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -16069,7 +16223,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -16133,7 +16287,7 @@
       </c>
       <c r="AL18" s="25"/>
       <c r="AM18" s="25" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="45">
@@ -16150,13 +16304,13 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="91"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -16231,7 +16385,7 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="91"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
@@ -16282,7 +16436,7 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="91"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
@@ -16331,7 +16485,7 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="91"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
@@ -16380,7 +16534,7 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="92"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
@@ -16429,8 +16583,8 @@
       <c r="AT23" s="45"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="78" t="s">
-        <v>1134</v>
+      <c r="B24" s="80" t="s">
+        <v>1132</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>821</v>
@@ -16480,7 +16634,7 @@
       <c r="AT24" s="45"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="78"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="25" t="s">
         <v>822</v>
       </c>
@@ -16529,8 +16683,8 @@
       <c r="AT25" s="45"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="78" t="s">
-        <v>1135</v>
+      <c r="B26" s="80" t="s">
+        <v>1133</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>821</v>
@@ -16580,7 +16734,7 @@
       <c r="AT26" s="45"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="78"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="25" t="s">
         <v>822</v>
       </c>
@@ -16629,8 +16783,8 @@
       <c r="AT27" s="45"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="78" t="s">
-        <v>1136</v>
+      <c r="B28" s="80" t="s">
+        <v>1134</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>821</v>
@@ -16680,7 +16834,7 @@
       <c r="AT28" s="45"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="78"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="25" t="s">
         <v>822</v>
       </c>
@@ -16729,7 +16883,7 @@
       <c r="AT29" s="45"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="78"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="25" t="s">
         <v>545</v>
       </c>
@@ -16778,7 +16932,7 @@
       <c r="AT30" s="45"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="78"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="25" t="s">
         <v>546</v>
       </c>
@@ -16827,8 +16981,8 @@
       <c r="AT31" s="45"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="78" t="s">
-        <v>1137</v>
+      <c r="B32" s="80" t="s">
+        <v>1135</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>821</v>
@@ -16878,7 +17032,7 @@
       <c r="AT32" s="45"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="78"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="25" t="s">
         <v>822</v>
       </c>
@@ -16927,7 +17081,7 @@
       <c r="AT33" s="45"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="78"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="25" t="s">
         <v>545</v>
       </c>
@@ -16976,7 +17130,7 @@
       <c r="AT34" s="45"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="78"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="25" t="s">
         <v>546</v>
       </c>
@@ -17025,8 +17179,8 @@
       <c r="AT35" s="45"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="78" t="s">
-        <v>1138</v>
+      <c r="B36" s="80" t="s">
+        <v>1136</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>821</v>
@@ -17076,7 +17230,7 @@
       <c r="AT36" s="45"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="78"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="25" t="s">
         <v>822</v>
       </c>
@@ -17125,7 +17279,7 @@
       <c r="AT37" s="45"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="78"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="25" t="s">
         <v>545</v>
       </c>
@@ -17174,7 +17328,7 @@
       <c r="AT38" s="45"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="78"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="25" t="s">
         <v>546</v>
       </c>
@@ -17223,7 +17377,7 @@
       <c r="AT39" s="45"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="78"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="25" t="s">
         <v>547</v>
       </c>
@@ -17272,7 +17426,7 @@
       <c r="AT40" s="45"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="78"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="25" t="s">
         <v>548</v>
       </c>
@@ -17321,8 +17475,8 @@
       <c r="AT41" s="45"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="78" t="s">
-        <v>1139</v>
+      <c r="B42" s="80" t="s">
+        <v>1137</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>821</v>
@@ -17372,7 +17526,7 @@
       <c r="AT42" s="45"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="78"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="25" t="s">
         <v>822</v>
       </c>
@@ -17421,7 +17575,7 @@
       <c r="AT43" s="45"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="78"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="25" t="s">
         <v>545</v>
       </c>
@@ -17470,7 +17624,7 @@
       <c r="AT44" s="45"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="78"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="25" t="s">
         <v>546</v>
       </c>
@@ -17519,7 +17673,7 @@
       <c r="AT45" s="45"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="78"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="25" t="s">
         <v>547</v>
       </c>
@@ -17568,7 +17722,7 @@
       <c r="AT46" s="45"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="78"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="25" t="s">
         <v>548</v>
       </c>
@@ -17617,8 +17771,8 @@
       <c r="AT47" s="45"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="78" t="s">
-        <v>1140</v>
+      <c r="B48" s="80" t="s">
+        <v>1138</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>821</v>
@@ -17668,7 +17822,7 @@
       <c r="AT48" s="45"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="78"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="25" t="s">
         <v>822</v>
       </c>
@@ -17717,7 +17871,7 @@
       <c r="AT49" s="45"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="78"/>
+      <c r="B50" s="80"/>
       <c r="C50" s="25" t="s">
         <v>545</v>
       </c>
@@ -17766,7 +17920,7 @@
       <c r="AT50" s="45"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="78"/>
+      <c r="B51" s="80"/>
       <c r="C51" s="25" t="s">
         <v>546</v>
       </c>
@@ -17815,7 +17969,7 @@
       <c r="AT51" s="45"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="78"/>
+      <c r="B52" s="80"/>
       <c r="C52" s="25" t="s">
         <v>547</v>
       </c>
@@ -17864,7 +18018,7 @@
       <c r="AT52" s="45"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="78"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="25" t="s">
         <v>548</v>
       </c>
@@ -17914,27 +18068,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -17951,6 +18084,27 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17960,10 +18114,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D100" sqref="D92:D100"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F126" sqref="F120:F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18286,8 +18440,8 @@
       <c r="F17" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="78" t="s">
-        <v>1016</v>
+      <c r="I17" s="80" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -18307,7 +18461,7 @@
       <c r="F18" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
@@ -18326,7 +18480,7 @@
       <c r="F19" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="I19" s="78"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
@@ -18345,7 +18499,7 @@
       <c r="F20" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
@@ -18364,7 +18518,7 @@
       <c r="F21" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="I21" s="78"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -18383,7 +18537,7 @@
       <c r="F22" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="I22" s="78"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
@@ -18400,9 +18554,9 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I23" s="78"/>
+        <v>1086</v>
+      </c>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
@@ -18415,14 +18569,14 @@
         <v>10</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="90" t="s">
-        <v>1017</v>
+      <c r="I24" s="91" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -18436,13 +18590,13 @@
         <v>11</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="91"/>
+      <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
@@ -18455,13 +18609,13 @@
         <v>11</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="91"/>
+      <c r="I26" s="92"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
@@ -18474,13 +18628,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="91"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
@@ -18493,13 +18647,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="91"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
@@ -18512,13 +18666,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="91"/>
+      <c r="I29" s="92"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -18531,13 +18685,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="92"/>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -18556,11 +18710,11 @@
       <c r="F31" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="I31" s="78" t="s">
-        <v>1019</v>
+      <c r="I31" s="80" t="s">
+        <v>1017</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -18580,7 +18734,7 @@
       <c r="F32" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="I32" s="78"/>
+      <c r="I32" s="80"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
@@ -18599,7 +18753,7 @@
       <c r="F33" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="I33" s="78"/>
+      <c r="I33" s="80"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
@@ -18618,7 +18772,7 @@
       <c r="F34" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="I34" s="78"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
@@ -18637,7 +18791,7 @@
       <c r="F35" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="I35" s="78"/>
+      <c r="I35" s="80"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
@@ -18656,7 +18810,7 @@
       <c r="F36" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="I36" s="78"/>
+      <c r="I36" s="80"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
@@ -18669,14 +18823,14 @@
         <v>16</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="I37" s="78" t="s">
-        <v>1018</v>
+      <c r="I37" s="80" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18690,13 +18844,13 @@
         <v>16</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I38" s="78"/>
+        <v>1081</v>
+      </c>
+      <c r="I38" s="80"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
@@ -18705,12 +18859,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="87" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="88"/>
+      <c r="C39" s="84" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -18909,10 +19063,10 @@
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I50" s="90" t="s">
-        <v>1031</v>
+        <v>1002</v>
+      </c>
+      <c r="I50" s="91" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18930,16 +19084,16 @@
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I51" s="92"/>
+        <v>1088</v>
+      </c>
+      <c r="I51" s="93"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>40</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C52" s="29">
         <v>20</v>
@@ -18961,10 +19115,10 @@
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
-        <v>982</v>
-      </c>
-      <c r="I53" s="78" t="s">
-        <v>1032</v>
+        <v>981</v>
+      </c>
+      <c r="I53" s="80" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18980,9 +19134,9 @@
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I54" s="78"/>
+        <v>1004</v>
+      </c>
+      <c r="I54" s="80"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
@@ -18997,9 +19151,9 @@
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I55" s="78"/>
+        <v>1005</v>
+      </c>
+      <c r="I55" s="80"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
@@ -19014,9 +19168,9 @@
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I56" s="78"/>
+        <v>1006</v>
+      </c>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
@@ -19031,9 +19185,9 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I57" s="78"/>
+        <v>1007</v>
+      </c>
+      <c r="I57" s="80"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
@@ -19048,9 +19202,9 @@
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I58" s="78"/>
+        <v>1008</v>
+      </c>
+      <c r="I58" s="80"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
@@ -19065,9 +19219,9 @@
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I59" s="78"/>
+        <v>1009</v>
+      </c>
+      <c r="I59" s="80"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
@@ -19084,8 +19238,8 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="84" t="s">
-        <v>1033</v>
+      <c r="I60" s="81" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19103,7 +19257,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="85"/>
+      <c r="I61" s="82"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -19120,7 +19274,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="85"/>
+      <c r="I62" s="82"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -19137,7 +19291,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="85"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -19154,7 +19308,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="85"/>
+      <c r="I64" s="82"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -19171,7 +19325,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="85"/>
+      <c r="I65" s="82"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -19186,9 +19340,9 @@
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29" t="s">
-        <v>990</v>
-      </c>
-      <c r="I66" s="85"/>
+        <v>989</v>
+      </c>
+      <c r="I66" s="82"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -19203,9 +19357,9 @@
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29" t="s">
-        <v>991</v>
-      </c>
-      <c r="I67" s="85"/>
+        <v>990</v>
+      </c>
+      <c r="I67" s="82"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -19220,16 +19374,16 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I68" s="86"/>
+        <v>1097</v>
+      </c>
+      <c r="I68" s="83"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>58</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C69" s="29">
         <v>25</v>
@@ -19237,7 +19391,7 @@
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I69" s="39"/>
     </row>
@@ -19246,7 +19400,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C70" s="29">
         <v>26</v>
@@ -19254,7 +19408,7 @@
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
       <c r="F70" s="29" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I70" s="39"/>
     </row>
@@ -19263,7 +19417,7 @@
         <v>60</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C71" s="29">
         <v>26</v>
@@ -19271,7 +19425,7 @@
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I71" s="39"/>
     </row>
@@ -19280,7 +19434,7 @@
         <v>61</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C72" s="29">
         <v>27</v>
@@ -19288,10 +19442,10 @@
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
       <c r="F72" s="29" t="s">
-        <v>983</v>
-      </c>
-      <c r="I72" s="78" t="s">
-        <v>1015</v>
+        <v>982</v>
+      </c>
+      <c r="I72" s="80" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19299,7 +19453,7 @@
         <v>62</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C73" s="29">
         <v>27</v>
@@ -19307,16 +19461,16 @@
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
       <c r="F73" s="29" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I73" s="78"/>
+        <v>1010</v>
+      </c>
+      <c r="I73" s="80"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
         <v>63</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C74" s="29">
         <v>27</v>
@@ -19324,16 +19478,16 @@
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
       <c r="F74" s="29" t="s">
-        <v>988</v>
-      </c>
-      <c r="I74" s="78"/>
+        <v>987</v>
+      </c>
+      <c r="I74" s="80"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
         <v>64</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C75" s="29">
         <v>27</v>
@@ -19341,16 +19495,16 @@
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
       <c r="F75" s="29" t="s">
-        <v>989</v>
-      </c>
-      <c r="I75" s="78"/>
+        <v>988</v>
+      </c>
+      <c r="I75" s="80"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
         <v>65</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C76" s="29">
         <v>27</v>
@@ -19358,16 +19512,16 @@
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="29" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I76" s="78"/>
+        <v>1011</v>
+      </c>
+      <c r="I76" s="80"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
         <v>66</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C77" s="29">
         <v>27</v>
@@ -19375,16 +19529,16 @@
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
       <c r="F77" s="29" t="s">
-        <v>987</v>
-      </c>
-      <c r="I77" s="78"/>
+        <v>986</v>
+      </c>
+      <c r="I77" s="80"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
         <v>67</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C78" s="29">
         <v>27</v>
@@ -19392,28 +19546,28 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I78" s="78"/>
+        <v>1091</v>
+      </c>
+      <c r="I78" s="80"/>
     </row>
     <row r="79" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>68</v>
       </c>
-      <c r="B79" s="93" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="95"/>
+      <c r="B79" s="95" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="97"/>
     </row>
     <row r="80" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
         <v>69</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C80" s="29">
         <v>30</v>
@@ -19427,7 +19581,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C81" s="29">
         <v>30</v>
@@ -19435,7 +19589,7 @@
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19443,7 +19597,7 @@
         <v>71</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C82" s="29">
         <v>30</v>
@@ -19451,7 +19605,7 @@
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19459,7 +19613,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C83" s="29">
         <v>31</v>
@@ -19467,7 +19621,7 @@
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19475,7 +19629,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C84" s="29">
         <v>31</v>
@@ -19483,7 +19637,7 @@
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I84" s="38"/>
     </row>
@@ -19492,7 +19646,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C85" s="29">
         <v>31</v>
@@ -19500,7 +19654,7 @@
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19508,7 +19662,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C86" s="29">
         <v>32</v>
@@ -19516,7 +19670,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="29" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19524,7 +19678,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -19536,7 +19690,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C88" s="29">
         <v>33</v>
@@ -19544,7 +19698,7 @@
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="29" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19552,7 +19706,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C89" s="29">
         <v>33</v>
@@ -19560,7 +19714,7 @@
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19568,7 +19722,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C90" s="29">
         <v>34</v>
@@ -19576,7 +19730,7 @@
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19584,15 +19738,18 @@
         <v>80</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>981</v>
-      </c>
-      <c r="C91" s="29">
-        <v>32</v>
+        <v>980</v>
+      </c>
+      <c r="C91" s="52">
+        <v>34</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29" t="s">
-        <v>1046</v>
+        <v>1044</v>
+      </c>
+      <c r="I91" s="80" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19600,175 +19757,178 @@
         <v>81</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C92" s="29">
-        <v>32</v>
+        <v>1036</v>
+      </c>
+      <c r="C92" s="52">
+        <v>35</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29" t="s">
-        <v>1096</v>
-      </c>
+        <v>1094</v>
+      </c>
+      <c r="I92" s="80"/>
     </row>
     <row r="93" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40">
         <v>82</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C93" s="29">
-        <v>34</v>
+        <v>1048</v>
+      </c>
+      <c r="C93" s="52">
+        <v>35</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I93" s="96"/>
+        <v>1050</v>
+      </c>
+      <c r="I93" s="102"/>
     </row>
     <row r="94" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="40">
         <v>83</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>999</v>
-      </c>
-      <c r="C94" s="29">
-        <v>34</v>
+        <v>998</v>
+      </c>
+      <c r="C94" s="52">
+        <v>35</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="29" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I94" s="96"/>
+        <v>1052</v>
+      </c>
+      <c r="I94" s="102"/>
     </row>
     <row r="95" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="40">
         <v>84</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C95" s="29">
-        <v>34</v>
+        <v>999</v>
+      </c>
+      <c r="C95" s="52">
+        <v>35</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="29" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I95" s="96"/>
+        <v>1051</v>
+      </c>
+      <c r="I95" s="102"/>
     </row>
     <row r="96" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="40">
         <v>85</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C96" s="29">
-        <v>34</v>
+        <v>1000</v>
+      </c>
+      <c r="C96" s="52">
+        <v>35</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="29" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I96" s="96"/>
+        <v>1057</v>
+      </c>
+      <c r="I96" s="102"/>
     </row>
     <row r="97" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="40">
         <v>86</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C97" s="29">
-        <v>34</v>
+        <v>1001</v>
+      </c>
+      <c r="C97" s="52">
+        <v>35</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
       <c r="F97" s="37" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I97" s="96"/>
+        <v>1058</v>
+      </c>
+      <c r="I97" s="102"/>
     </row>
     <row r="98" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="40">
         <v>87</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C98" s="29">
-        <v>34</v>
+        <v>1053</v>
+      </c>
+      <c r="C98" s="52">
+        <v>35</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="37" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I98" s="96"/>
+        <v>1063</v>
+      </c>
+      <c r="I98" s="102"/>
     </row>
     <row r="99" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="40">
         <v>88</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C99" s="29">
-        <v>34</v>
+        <v>1054</v>
+      </c>
+      <c r="C99" s="52">
+        <v>35</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I99" s="96"/>
+        <v>1064</v>
+      </c>
+      <c r="I99" s="102"/>
     </row>
     <row r="100" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="40">
         <v>89</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C100" s="29">
-        <v>34</v>
+        <v>1055</v>
+      </c>
+      <c r="C100" s="52">
+        <v>35</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I100" s="96"/>
+        <v>1065</v>
+      </c>
+      <c r="I100" s="102"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="78" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
+      <c r="A101" s="80" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
       <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
+      <c r="I101" s="103" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="45" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -19776,173 +19936,402 @@
     <row r="103" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="45" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="45" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="45" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
       <c r="F104" s="45" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="45" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
       <c r="F105" s="45" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="45" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
       <c r="F106" s="45" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="45" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="49" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="45" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
       <c r="F108" s="49" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="52"/>
+      <c r="B109" s="52" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="47" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="84"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="85"/>
+    </row>
+    <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="52"/>
+      <c r="B111" s="52" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I111" s="80" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="52"/>
+      <c r="B112" s="52" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I112" s="80"/>
+    </row>
+    <row r="113" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="52"/>
+      <c r="B113" s="52" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="52"/>
+      <c r="B114" s="52" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="52"/>
+      <c r="B115" s="52" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="52"/>
+      <c r="B116" s="52" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="52"/>
+      <c r="B117" s="52" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="52"/>
+      <c r="B118" s="52" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+    </row>
+    <row r="120" spans="1:6" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="52"/>
+      <c r="B120" s="52" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="52"/>
+      <c r="B121" s="52" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="29">
-        <v>70</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>975</v>
-      </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="29">
-        <v>71</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>976</v>
-      </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-    </row>
-    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="29">
-        <v>72</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>977</v>
-      </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-    </row>
-    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="29">
-        <v>73</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>978</v>
-      </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-    </row>
-    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="29">
-        <v>74</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>979</v>
-      </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="29">
-        <v>75</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>980</v>
-      </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="29">
-        <v>76</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>981</v>
-      </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="52"/>
+      <c r="B122" s="52" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="52"/>
+      <c r="B123" s="52" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="52"/>
+      <c r="B124" s="52" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="52" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="52"/>
+      <c r="B125" s="52" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="52" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="52"/>
+      <c r="B126" s="52" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+    </row>
+    <row r="128" spans="1:6" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="52"/>
+    </row>
+    <row r="129" spans="1:6" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="52"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="52"/>
+      <c r="B130" s="52" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="52"/>
+      <c r="B131" s="52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="52"/>
+      <c r="B132" s="52" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="52"/>
+      <c r="B133" s="52" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="52"/>
+      <c r="B134" s="52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="52"/>
+      <c r="B135" s="52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="52"/>
+      <c r="B136" s="52" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="52"/>
+      <c r="B137" s="52" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C137" s="52"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I111:I112"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="I72:I78"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
     <mergeCell ref="I53:I59"/>
-    <mergeCell ref="I93:I97"/>
-    <mergeCell ref="I98:I100"/>
     <mergeCell ref="I31:I36"/>
     <mergeCell ref="I24:I30"/>
     <mergeCell ref="I37:I38"/>
@@ -19974,22 +20363,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -19997,13 +20386,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>1111</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20011,13 +20400,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20025,13 +20414,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20039,13 +20428,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>1118</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20053,13 +20442,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20074,10 +20463,10 @@
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20230,8 +20619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20260,111 +20649,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="89" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="99" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G2" s="100"/>
+      <c r="H2" s="99" t="s">
         <v>1068</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="98" t="s">
+      <c r="I2" s="100"/>
+      <c r="J2" s="99" t="s">
         <v>1069</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="98" t="s">
+      <c r="K2" s="100"/>
+      <c r="L2" s="99" t="s">
         <v>1070</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="98" t="s">
+      <c r="M2" s="100"/>
+      <c r="N2" s="99" t="s">
         <v>1071</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="98" t="s">
+      <c r="O2" s="100"/>
+      <c r="P2" s="99" t="s">
         <v>1072</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="98" t="s">
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="101"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="89"/>
+      <c r="B3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="98" t="s">
+      <c r="C3" s="43" t="s">
         <v>1074</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="100"/>
-    </row>
-    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="43" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>1076</v>
-      </c>
       <c r="D3" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Q3" s="50" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="T3" s="46" t="s">
+        <v>1149</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>1150</v>
+      </c>
+      <c r="V3" s="46" t="s">
         <v>1151</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>1152</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -20372,28 +20761,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I4" s="49" t="s">
         <v>1103</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>1105</v>
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -20408,15 +20797,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="S4" s="49"/>
       <c r="T4" s="45"/>
       <c r="U4" s="49" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20424,28 +20813,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>1089</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>1091</v>
-      </c>
       <c r="F5" s="49" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
@@ -20460,15 +20849,15 @@
         <v>35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="45"/>
       <c r="U5" s="49" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20476,16 +20865,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>1092</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>1094</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -20504,15 +20893,15 @@
         <v>35</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="45"/>
       <c r="U6" s="49" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20520,16 +20909,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
@@ -20548,15 +20937,15 @@
         <v>35</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="45"/>
       <c r="U7" s="49" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20584,15 +20973,15 @@
         <v>40</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="S8" s="49"/>
       <c r="T8" s="45"/>
       <c r="U8" s="49" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20620,15 +21009,15 @@
         <v>40</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20656,15 +21045,15 @@
         <v>40</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="49" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20692,15 +21081,15 @@
         <v>40</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
       <c r="U11" s="49" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20728,15 +21117,15 @@
         <v>40</v>
       </c>
       <c r="R12" s="42" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="45"/>
       <c r="U12" s="49" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20764,15 +21153,15 @@
         <v>50</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="S13" s="49"/>
       <c r="T13" s="45"/>
       <c r="U13" s="49" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20800,15 +21189,15 @@
         <v>50</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="45"/>
       <c r="U14" s="49" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20836,15 +21225,15 @@
         <v>50</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="S15" s="49"/>
       <c r="T15" s="45"/>
       <c r="U15" s="49" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -20872,15 +21261,15 @@
         <v>50</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="S16" s="49"/>
       <c r="T16" s="45"/>
       <c r="U16" s="49" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20908,15 +21297,15 @@
         <v>50</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="S17" s="49"/>
       <c r="T17" s="45"/>
       <c r="U17" s="49" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20944,15 +21333,15 @@
         <v>55</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="S18" s="49"/>
       <c r="T18" s="45"/>
       <c r="U18" s="49" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20980,15 +21369,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="S19" s="49"/>
       <c r="T19" s="45"/>
       <c r="U19" s="49" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21016,15 +21405,15 @@
         <v>55</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="45"/>
       <c r="U20" s="49" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21052,15 +21441,15 @@
         <v>55</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="45"/>
       <c r="U21" s="49" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21088,15 +21477,15 @@
         <v>60</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="45"/>
       <c r="U22" s="49" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21124,15 +21513,15 @@
         <v>60</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="S23" s="49"/>
       <c r="T23" s="45"/>
       <c r="U23" s="49" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21160,15 +21549,15 @@
         <v>60</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="45"/>
       <c r="U24" s="49" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21196,15 +21585,15 @@
         <v>70</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="S25" s="49"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21232,15 +21621,15 @@
         <v>70</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="S26" s="49"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21268,15 +21657,15 @@
         <v>70</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="S27" s="49"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21304,15 +21693,15 @@
         <v>80</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="S28" s="49"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21340,15 +21729,15 @@
         <v>80</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="S29" s="49"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21376,15 +21765,15 @@
         <v>80</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21412,15 +21801,15 @@
         <v>80</v>
       </c>
       <c r="R31" s="49" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="S31" s="49"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="V31" s="49" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -5918,7 +5918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6059,20 +6059,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6119,6 +6111,21 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6141,6 +6148,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6155,20 +6177,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6179,8 +6189,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6191,9 +6201,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -6202,10 +6209,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -6559,12 +6562,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6573,10 +6576,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="64" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6587,26 +6590,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6615,10 +6618,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6627,147 +6630,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6780,16 +6787,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6818,7 +6821,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G21" sqref="G21:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9591,14 +9594,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -11596,7 +11599,7 @@
   <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11609,20 +11612,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="G2" s="75" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="G2" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -11655,13 +11658,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="79" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="77" t="s">
+      <c r="O3" s="80" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -11700,8 +11703,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="O4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="O4" s="81"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -11768,13 +11771,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="77" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="74" t="s">
+      <c r="O6" s="77" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -11813,8 +11816,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="M7" s="77"/>
+      <c r="O7" s="77"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -12392,8 +12395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12537,14 +12540,14 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="83" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -12579,14 +12582,14 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -12646,29 +12649,29 @@
       <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -12724,14 +12727,14 @@
       <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="83" t="s">
         <v>396</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -12813,16 +12816,16 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="83" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -12887,16 +12890,16 @@
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="82" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -12959,16 +12962,16 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="83" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -13039,16 +13042,16 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="83" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -13369,16 +13372,16 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="83" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -14398,15 +14401,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14436,7 +14439,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="84" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -14458,7 +14461,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -14476,7 +14479,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -14498,7 +14501,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="84" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -14516,7 +14519,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -14532,7 +14535,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -14546,7 +14549,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -14568,7 +14571,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -14586,7 +14589,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -14604,7 +14607,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -14626,7 +14629,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="87" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14650,7 +14653,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -14674,7 +14677,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -14694,7 +14697,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="85" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -14710,7 +14713,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -14730,7 +14733,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -14752,7 +14755,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -14768,7 +14771,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="84" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -14794,7 +14797,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -14816,7 +14819,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="88"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -14838,7 +14841,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="84" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -14862,7 +14865,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -14884,7 +14887,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -14902,15 +14905,15 @@
       <c r="H26" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="78" t="s">
         <v>729</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14929,16 +14932,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="88" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="89"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="87" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -14953,14 +14956,14 @@
       <c r="E31" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="F31" s="80" t="s">
+      <c r="F31" s="83" t="s">
         <v>736</v>
       </c>
-      <c r="G31" s="80"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -14973,14 +14976,14 @@
       <c r="E32" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="83" t="s">
         <v>740</v>
       </c>
-      <c r="G32" s="80"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -14993,10 +14996,10 @@
       <c r="E33" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="83" t="s">
         <v>744</v>
       </c>
-      <c r="G33" s="80"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15015,10 +15018,10 @@
       <c r="E34" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F34" s="80" t="s">
+      <c r="F34" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="80"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15035,10 +15038,10 @@
       <c r="E35" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="F35" s="83" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="80"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15053,10 +15056,10 @@
       <c r="E36" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F36" s="80" t="s">
+      <c r="F36" s="83" t="s">
         <v>759</v>
       </c>
-      <c r="G36" s="80"/>
+      <c r="G36" s="83"/>
       <c r="H36" s="25" t="s">
         <v>760</v>
       </c>
@@ -15075,16 +15078,16 @@
       <c r="E37" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="F37" s="83" t="s">
         <v>765</v>
       </c>
-      <c r="G37" s="80"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="25" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="89" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -15099,12 +15102,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="82"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -15120,7 +15123,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="82"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -15136,7 +15139,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -15152,7 +15155,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -15169,12 +15172,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -15182,12 +15185,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15198,8 +15201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AT53"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8:AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15246,113 +15249,113 @@
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="94"/>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="88" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="88" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="88" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="88" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="88" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="88" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89" t="s">
+      <c r="N4" s="88"/>
+      <c r="O4" s="88" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89" t="s">
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89" t="s">
+      <c r="R4" s="88"/>
+      <c r="S4" s="88" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89" t="s">
+      <c r="T4" s="88"/>
+      <c r="U4" s="88" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89" t="s">
+      <c r="V4" s="88"/>
+      <c r="W4" s="88" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89" t="s">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89" t="s">
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89" t="s">
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89" t="s">
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89" t="s">
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89" t="s">
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89" t="s">
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89" t="s">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89" t="s">
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88" t="s">
         <v>1129</v>
       </c>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89" t="s">
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88" t="s">
         <v>1130</v>
       </c>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89" t="s">
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88" t="s">
         <v>1131</v>
       </c>
-      <c r="AT4" s="89"/>
+      <c r="AT4" s="88"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="94"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -15463,10 +15466,10 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="95" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="95" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -15556,8 +15559,8 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="45" t="s">
         <v>1126</v>
       </c>
@@ -15636,17 +15639,17 @@
       </c>
       <c r="AP7" s="45"/>
       <c r="AQ7" s="45">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AR7" s="45"/>
       <c r="AS7" s="45">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
@@ -15726,17 +15729,17 @@
         <v>120</v>
       </c>
       <c r="AP8" s="45"/>
-      <c r="AQ8" s="45">
-        <v>140</v>
-      </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45">
-        <v>150</v>
+      <c r="AQ8" s="54">
+        <v>135</v>
+      </c>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54">
+        <v>145</v>
       </c>
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="93"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -15821,7 +15824,7 @@
       <c r="AT9" s="45"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="83" t="s">
         <v>805</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -15872,7 +15875,7 @@
       <c r="AT10" s="45"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="25" t="s">
         <v>807</v>
       </c>
@@ -15921,7 +15924,7 @@
       <c r="AT11" s="45"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="80"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="25" t="s">
         <v>808</v>
       </c>
@@ -15970,7 +15973,7 @@
       <c r="AT12" s="45"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="80"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="25" t="s">
         <v>809</v>
       </c>
@@ -16019,7 +16022,7 @@
       <c r="AT13" s="45"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="80"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="25" t="s">
         <v>810</v>
       </c>
@@ -16068,7 +16071,7 @@
       <c r="AT14" s="45"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="80"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="25" t="s">
         <v>811</v>
       </c>
@@ -16215,7 +16218,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="95" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -16304,7 +16307,7 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="92"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
@@ -16385,7 +16388,7 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="92"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
@@ -16436,7 +16439,7 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="92"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
@@ -16485,7 +16488,7 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="92"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
@@ -16534,7 +16537,7 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="93"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
@@ -16583,7 +16586,7 @@
       <c r="AT23" s="45"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="83" t="s">
         <v>1132</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -16634,7 +16637,7 @@
       <c r="AT24" s="45"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="80"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="25" t="s">
         <v>822</v>
       </c>
@@ -16683,7 +16686,7 @@
       <c r="AT25" s="45"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="83" t="s">
         <v>1133</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -16734,7 +16737,7 @@
       <c r="AT26" s="45"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="80"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="25" t="s">
         <v>822</v>
       </c>
@@ -16783,7 +16786,7 @@
       <c r="AT27" s="45"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="83" t="s">
         <v>1134</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -16834,7 +16837,7 @@
       <c r="AT28" s="45"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="80"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="25" t="s">
         <v>822</v>
       </c>
@@ -16883,7 +16886,7 @@
       <c r="AT29" s="45"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="25" t="s">
         <v>545</v>
       </c>
@@ -16932,7 +16935,7 @@
       <c r="AT30" s="45"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="80"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="25" t="s">
         <v>546</v>
       </c>
@@ -16981,7 +16984,7 @@
       <c r="AT31" s="45"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="83" t="s">
         <v>1135</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -17032,7 +17035,7 @@
       <c r="AT32" s="45"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="80"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="25" t="s">
         <v>822</v>
       </c>
@@ -17081,7 +17084,7 @@
       <c r="AT33" s="45"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="80"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="25" t="s">
         <v>545</v>
       </c>
@@ -17130,7 +17133,7 @@
       <c r="AT34" s="45"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="80"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="25" t="s">
         <v>546</v>
       </c>
@@ -17179,7 +17182,7 @@
       <c r="AT35" s="45"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="83" t="s">
         <v>1136</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -17230,7 +17233,7 @@
       <c r="AT36" s="45"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="80"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="25" t="s">
         <v>822</v>
       </c>
@@ -17279,7 +17282,7 @@
       <c r="AT37" s="45"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="80"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="25" t="s">
         <v>545</v>
       </c>
@@ -17328,7 +17331,7 @@
       <c r="AT38" s="45"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="80"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="25" t="s">
         <v>546</v>
       </c>
@@ -17377,7 +17380,7 @@
       <c r="AT39" s="45"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="80"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="25" t="s">
         <v>547</v>
       </c>
@@ -17426,7 +17429,7 @@
       <c r="AT40" s="45"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="80"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="25" t="s">
         <v>548</v>
       </c>
@@ -17475,7 +17478,7 @@
       <c r="AT41" s="45"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="83" t="s">
         <v>1137</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -17526,7 +17529,7 @@
       <c r="AT42" s="45"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="80"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="25" t="s">
         <v>822</v>
       </c>
@@ -17575,7 +17578,7 @@
       <c r="AT43" s="45"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="80"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="25" t="s">
         <v>545</v>
       </c>
@@ -17624,7 +17627,7 @@
       <c r="AT44" s="45"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="80"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="25" t="s">
         <v>546</v>
       </c>
@@ -17673,7 +17676,7 @@
       <c r="AT45" s="45"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="80"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="25" t="s">
         <v>547</v>
       </c>
@@ -17722,7 +17725,7 @@
       <c r="AT46" s="45"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="80"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="25" t="s">
         <v>548</v>
       </c>
@@ -17771,7 +17774,7 @@
       <c r="AT47" s="45"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="83" t="s">
         <v>1138</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -17822,7 +17825,7 @@
       <c r="AT48" s="45"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="80"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="25" t="s">
         <v>822</v>
       </c>
@@ -17871,7 +17874,7 @@
       <c r="AT49" s="45"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="80"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="25" t="s">
         <v>545</v>
       </c>
@@ -17920,7 +17923,7 @@
       <c r="AT50" s="45"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="80"/>
+      <c r="B51" s="83"/>
       <c r="C51" s="25" t="s">
         <v>546</v>
       </c>
@@ -17969,7 +17972,7 @@
       <c r="AT51" s="45"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="80"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="25" t="s">
         <v>547</v>
       </c>
@@ -18018,7 +18021,7 @@
       <c r="AT52" s="45"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="80"/>
+      <c r="B53" s="83"/>
       <c r="C53" s="25" t="s">
         <v>548</v>
       </c>
@@ -18068,6 +18071,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -18084,27 +18108,6 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18440,7 +18443,7 @@
       <c r="F17" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="83" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -18461,7 +18464,7 @@
       <c r="F18" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="I18" s="80"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
@@ -18480,7 +18483,7 @@
       <c r="F19" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="I19" s="80"/>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
@@ -18499,7 +18502,7 @@
       <c r="F20" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="I20" s="80"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
@@ -18518,7 +18521,7 @@
       <c r="F21" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="I21" s="80"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -18537,7 +18540,7 @@
       <c r="F22" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="I22" s="80"/>
+      <c r="I22" s="83"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
@@ -18556,7 +18559,7 @@
       <c r="F23" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="I23" s="80"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
@@ -18575,7 +18578,7 @@
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="91" t="s">
+      <c r="I24" s="95" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -18596,7 +18599,7 @@
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="92"/>
+      <c r="I25" s="96"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
@@ -18615,7 +18618,7 @@
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="92"/>
+      <c r="I26" s="96"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
@@ -18634,7 +18637,7 @@
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="92"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
@@ -18653,7 +18656,7 @@
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="92"/>
+      <c r="I28" s="96"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
@@ -18672,7 +18675,7 @@
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="92"/>
+      <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -18691,7 +18694,7 @@
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="93"/>
+      <c r="I30" s="97"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -18710,7 +18713,7 @@
       <c r="F31" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="I31" s="80" t="s">
+      <c r="I31" s="83" t="s">
         <v>1017</v>
       </c>
       <c r="L31" s="22" t="s">
@@ -18734,7 +18737,7 @@
       <c r="F32" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="I32" s="80"/>
+      <c r="I32" s="83"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
@@ -18753,7 +18756,7 @@
       <c r="F33" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="I33" s="80"/>
+      <c r="I33" s="83"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
@@ -18772,7 +18775,7 @@
       <c r="F34" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="I34" s="80"/>
+      <c r="I34" s="83"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
@@ -18791,7 +18794,7 @@
       <c r="F35" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="I35" s="80"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
@@ -18810,7 +18813,7 @@
       <c r="F36" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="I36" s="80"/>
+      <c r="I36" s="83"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
@@ -18829,7 +18832,7 @@
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="I37" s="80" t="s">
+      <c r="I37" s="83" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -18850,7 +18853,7 @@
       <c r="F38" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="I38" s="80"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
@@ -18859,12 +18862,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="92" t="s">
         <v>1019</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="98"/>
-      <c r="F39" s="85"/>
+      <c r="F39" s="93"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -19065,7 +19068,7 @@
       <c r="F50" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I50" s="91" t="s">
+      <c r="I50" s="95" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -19086,7 +19089,7 @@
       <c r="F51" s="29" t="s">
         <v>1088</v>
       </c>
-      <c r="I51" s="93"/>
+      <c r="I51" s="97"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
@@ -19117,7 +19120,7 @@
       <c r="F53" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="I53" s="80" t="s">
+      <c r="I53" s="83" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -19136,7 +19139,7 @@
       <c r="F54" s="29" t="s">
         <v>1004</v>
       </c>
-      <c r="I54" s="80"/>
+      <c r="I54" s="83"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
@@ -19153,7 +19156,7 @@
       <c r="F55" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="I55" s="80"/>
+      <c r="I55" s="83"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
@@ -19170,7 +19173,7 @@
       <c r="F56" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="I56" s="80"/>
+      <c r="I56" s="83"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
@@ -19187,7 +19190,7 @@
       <c r="F57" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="I57" s="80"/>
+      <c r="I57" s="83"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
@@ -19204,7 +19207,7 @@
       <c r="F58" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="I58" s="80"/>
+      <c r="I58" s="83"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
@@ -19221,7 +19224,7 @@
       <c r="F59" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="I59" s="80"/>
+      <c r="I59" s="83"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
@@ -19238,7 +19241,7 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="81" t="s">
+      <c r="I60" s="89" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -19257,7 +19260,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="82"/>
+      <c r="I61" s="90"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -19274,7 +19277,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="82"/>
+      <c r="I62" s="90"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -19291,7 +19294,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="82"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -19308,7 +19311,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="82"/>
+      <c r="I64" s="90"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -19325,7 +19328,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="82"/>
+      <c r="I65" s="90"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -19342,7 +19345,7 @@
       <c r="F66" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I66" s="82"/>
+      <c r="I66" s="90"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -19359,7 +19362,7 @@
       <c r="F67" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I67" s="82"/>
+      <c r="I67" s="90"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -19376,7 +19379,7 @@
       <c r="F68" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="I68" s="83"/>
+      <c r="I68" s="91"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
@@ -19444,7 +19447,7 @@
       <c r="F72" s="29" t="s">
         <v>982</v>
       </c>
-      <c r="I72" s="80" t="s">
+      <c r="I72" s="83" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -19463,7 +19466,7 @@
       <c r="F73" s="29" t="s">
         <v>1010</v>
       </c>
-      <c r="I73" s="80"/>
+      <c r="I73" s="83"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
@@ -19480,7 +19483,7 @@
       <c r="F74" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="I74" s="80"/>
+      <c r="I74" s="83"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
@@ -19497,7 +19500,7 @@
       <c r="F75" s="29" t="s">
         <v>988</v>
       </c>
-      <c r="I75" s="80"/>
+      <c r="I75" s="83"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
@@ -19514,7 +19517,7 @@
       <c r="F76" s="29" t="s">
         <v>1011</v>
       </c>
-      <c r="I76" s="80"/>
+      <c r="I76" s="83"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
@@ -19531,7 +19534,7 @@
       <c r="F77" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="I77" s="80"/>
+      <c r="I77" s="83"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
@@ -19548,19 +19551,19 @@
       <c r="F78" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="I78" s="80"/>
+      <c r="I78" s="83"/>
     </row>
     <row r="79" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>68</v>
       </c>
-      <c r="B79" s="95" t="s">
+      <c r="B79" s="99" t="s">
         <v>1056</v>
       </c>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="97"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="101"/>
     </row>
     <row r="80" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
@@ -19748,7 +19751,7 @@
       <c r="F91" s="29" t="s">
         <v>1044</v>
       </c>
-      <c r="I91" s="80" t="s">
+      <c r="I91" s="83" t="s">
         <v>1267</v>
       </c>
     </row>
@@ -19767,7 +19770,7 @@
       <c r="F92" s="29" t="s">
         <v>1094</v>
       </c>
-      <c r="I92" s="80"/>
+      <c r="I92" s="83"/>
     </row>
     <row r="93" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40">
@@ -19784,7 +19787,7 @@
       <c r="F93" s="29" t="s">
         <v>1050</v>
       </c>
-      <c r="I93" s="102"/>
+      <c r="I93" s="55"/>
     </row>
     <row r="94" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="40">
@@ -19801,7 +19804,7 @@
       <c r="F94" s="29" t="s">
         <v>1052</v>
       </c>
-      <c r="I94" s="102"/>
+      <c r="I94" s="55"/>
     </row>
     <row r="95" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="40">
@@ -19818,7 +19821,7 @@
       <c r="F95" s="29" t="s">
         <v>1051</v>
       </c>
-      <c r="I95" s="102"/>
+      <c r="I95" s="55"/>
     </row>
     <row r="96" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="40">
@@ -19835,7 +19838,7 @@
       <c r="F96" s="29" t="s">
         <v>1057</v>
       </c>
-      <c r="I96" s="102"/>
+      <c r="I96" s="55"/>
     </row>
     <row r="97" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="40">
@@ -19852,7 +19855,7 @@
       <c r="F97" s="37" t="s">
         <v>1058</v>
       </c>
-      <c r="I97" s="102"/>
+      <c r="I97" s="55"/>
     </row>
     <row r="98" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="40">
@@ -19869,7 +19872,7 @@
       <c r="F98" s="37" t="s">
         <v>1063</v>
       </c>
-      <c r="I98" s="102"/>
+      <c r="I98" s="55"/>
     </row>
     <row r="99" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="40">
@@ -19886,7 +19889,7 @@
       <c r="F99" s="37" t="s">
         <v>1064</v>
       </c>
-      <c r="I99" s="102"/>
+      <c r="I99" s="55"/>
     </row>
     <row r="100" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="40">
@@ -19903,19 +19906,19 @@
       <c r="F100" s="29" t="s">
         <v>1065</v>
       </c>
-      <c r="I100" s="102"/>
+      <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="80" t="s">
+      <c r="A101" s="83" t="s">
         <v>1228</v>
       </c>
-      <c r="B101" s="80"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="80"/>
-      <c r="F101" s="80"/>
+      <c r="B101" s="83"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
       <c r="H101" s="31"/>
-      <c r="I101" s="103" t="s">
+      <c r="I101" s="56" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -20018,12 +20021,12 @@
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="84"/>
+      <c r="A110" s="92"/>
       <c r="B110" s="98"/>
       <c r="C110" s="98"/>
       <c r="D110" s="98"/>
       <c r="E110" s="98"/>
-      <c r="F110" s="85"/>
+      <c r="F110" s="93"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
@@ -20036,7 +20039,7 @@
       <c r="F111" s="52" t="s">
         <v>1259</v>
       </c>
-      <c r="I111" s="80" t="s">
+      <c r="I111" s="83" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -20051,7 +20054,7 @@
       <c r="F112" s="52" t="s">
         <v>1260</v>
       </c>
-      <c r="I112" s="80"/>
+      <c r="I112" s="83"/>
     </row>
     <row r="113" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
@@ -20323,11 +20326,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="I72:I78"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
@@ -20337,6 +20335,11 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="I72:I78"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20619,8 +20622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:V31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20649,49 +20652,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>1075</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="102" t="s">
         <v>1066</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103" t="s">
         <v>1083</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="99" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="102" t="s">
         <v>1067</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="99" t="s">
+      <c r="G2" s="103"/>
+      <c r="H2" s="102" t="s">
         <v>1068</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="99" t="s">
+      <c r="I2" s="103"/>
+      <c r="J2" s="102" t="s">
         <v>1069</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="99" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="102" t="s">
         <v>1070</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="99" t="s">
+      <c r="M2" s="103"/>
+      <c r="N2" s="102" t="s">
         <v>1071</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="99" t="s">
+      <c r="O2" s="103"/>
+      <c r="P2" s="102" t="s">
         <v>1072</v>
       </c>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="101"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="104"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="43" t="s">
         <v>1073</v>
       </c>

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1273">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5918,7 +5918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6066,6 +6066,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6111,21 +6129,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6148,21 +6151,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6177,8 +6165,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6188,6 +6188,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6562,12 +6565,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6576,10 +6579,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="70" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6590,26 +6593,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6618,10 +6621,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6630,151 +6633,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6787,12 +6786,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6818,10 +6821,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6873,14 +6876,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="49" t="str">
-        <f t="shared" ref="D3:D30" si="0">B3&amp;"-"&amp;E3&amp;"个"</f>
+        <f>B3&amp;"-"&amp;E3&amp;"个"</f>
         <v>神器1-1个</v>
       </c>
       <c r="E3" s="49">
         <v>1</v>
       </c>
       <c r="F3" s="49">
-        <f t="shared" ref="F3:F30" si="1">C3*E3</f>
+        <f>C3*E3</f>
         <v>1</v>
       </c>
       <c r="G3" s="49" t="s">
@@ -6899,31 +6902,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C4" s="49">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-1个</v>
+        <f>B4&amp;"-"&amp;E4&amp;"个"</f>
+        <v>神器1-2个</v>
       </c>
       <c r="E4" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="49">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f>C4*E4</f>
+        <v>2</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>1194</v>
       </c>
       <c r="H4" s="49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I4" s="49" t="str">
-        <f t="shared" ref="I4:I30" si="2">G4&amp;"强化石"&amp;"-"&amp;H4&amp;"个"</f>
-        <v>初级强化石-10个</v>
+        <f t="shared" ref="I4:I36" si="0">G4&amp;"强化石"&amp;"-"&amp;H4&amp;"个"</f>
+        <v>初级强化石-20个</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6937,25 +6940,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器1-2个</v>
+        <f>B5&amp;"-"&amp;E5&amp;"个"</f>
+        <v>神器1-4个</v>
       </c>
       <c r="E5" s="49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="49">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>C5*E5</f>
+        <v>4</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>1194</v>
       </c>
       <c r="H5" s="49">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-15个</v>
+        <f t="shared" si="0"/>
+        <v>初级强化石-30个</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6963,805 +6966,1017 @@
         <v>4</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C6" s="49">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="49" t="str">
+        <f>B6&amp;"-"&amp;E6&amp;"个"</f>
+        <v>神器1-7个</v>
+      </c>
+      <c r="E6" s="49">
+        <v>7</v>
+      </c>
+      <c r="F6" s="49">
+        <f>C6*E6</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H6" s="49">
+        <v>50</v>
+      </c>
+      <c r="I6" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>神器3-1个</v>
-      </c>
-      <c r="E6" s="49">
+        <v>初级强化石-50个</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="57">
+        <v>5</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C7" s="57">
         <v>1</v>
       </c>
-      <c r="F6" s="49">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H6" s="49">
-        <v>10</v>
-      </c>
-      <c r="I6" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-10个</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
-        <v>5</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C7" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="49" t="str">
+      <c r="D7" s="57" t="str">
+        <f>B7&amp;"-"&amp;E7&amp;"个"</f>
+        <v>神器1-7个</v>
+      </c>
+      <c r="E7" s="57">
+        <v>7</v>
+      </c>
+      <c r="F7" s="57">
+        <f>C7*E7</f>
+        <v>7</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H7" s="57">
+        <v>100</v>
+      </c>
+      <c r="I7" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>神器2-2个</v>
-      </c>
-      <c r="E7" s="49">
-        <v>2</v>
-      </c>
-      <c r="F7" s="49">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H7" s="49">
-        <v>15</v>
-      </c>
-      <c r="I7" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-15个</v>
+        <v>初级强化石-100个</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C8" s="49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-1个</v>
+        <f>B8&amp;"-"&amp;E8&amp;"个"</f>
+        <v>神器2-1个</v>
       </c>
       <c r="E8" s="49">
         <v>1</v>
       </c>
       <c r="F8" s="49">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>C8*E8</f>
+        <v>1.5</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H8" s="49">
+        <v>1194</v>
+      </c>
+      <c r="H8" s="57">
         <v>10</v>
       </c>
       <c r="I8" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-10个</v>
+        <f t="shared" si="0"/>
+        <v>初级强化石-10个</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C9" s="49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器1-4个</v>
+        <f>B9&amp;"-"&amp;E9&amp;"个"</f>
+        <v>神器2-2个</v>
       </c>
       <c r="E9" s="49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="49">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>C9*E9</f>
+        <v>3</v>
       </c>
       <c r="G9" s="49" t="s">
         <v>1194</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="57">
         <v>20</v>
       </c>
       <c r="I9" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>初级强化石-20个</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="49">
+        <v>7</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C10" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="49" t="str">
+        <f>B10&amp;"-"&amp;E10&amp;"个"</f>
+        <v>神器2-4个</v>
+      </c>
+      <c r="E10" s="49">
+        <v>4</v>
+      </c>
+      <c r="F10" s="49">
+        <f>C10*E10</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H10" s="57">
+        <v>30</v>
+      </c>
+      <c r="I10" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>初级强化石-30个</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="49">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B11" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C11" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="49" t="str">
+        <f>B11&amp;"-"&amp;E11&amp;"个"</f>
+        <v>神器2-7个</v>
+      </c>
+      <c r="E11" s="49">
+        <v>7</v>
+      </c>
+      <c r="F11" s="49">
+        <f>C11*E11</f>
+        <v>10.5</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H11" s="57">
+        <v>50</v>
+      </c>
+      <c r="I11" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>初级强化石-50个</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="57">
+        <v>9</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C12" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="57" t="str">
+        <f>B12&amp;"-"&amp;E12&amp;"个"</f>
+        <v>神器2-10个</v>
+      </c>
+      <c r="E12" s="57">
+        <v>10</v>
+      </c>
+      <c r="F12" s="57">
+        <f>C12*E12</f>
+        <v>15</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H12" s="57">
+        <v>100</v>
+      </c>
+      <c r="I12" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>初级强化石-100个</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="57">
+        <v>10</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>1157</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C13" s="49">
         <v>2.5</v>
       </c>
-      <c r="D10" s="49" t="str">
+      <c r="D13" s="49" t="str">
+        <f>B13&amp;"-"&amp;E13&amp;"个"</f>
+        <v>神器3-1个</v>
+      </c>
+      <c r="E13" s="57">
+        <v>1</v>
+      </c>
+      <c r="F13" s="49">
+        <f>C13*E13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H13" s="57">
+        <v>10</v>
+      </c>
+      <c r="I13" s="49" t="str">
         <f t="shared" si="0"/>
+        <v>中级强化石-10个</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="57">
+        <v>11</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C14" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="49" t="str">
+        <f>B14&amp;"-"&amp;E14&amp;"个"</f>
         <v>神器3-2个</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E14" s="57">
         <v>2</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F14" s="49">
+        <f>C14*E14</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H14" s="57">
+        <v>20</v>
+      </c>
+      <c r="I14" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-20个</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
+        <v>12</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C15" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="49" t="str">
+        <f>B15&amp;"-"&amp;E15&amp;"个"</f>
+        <v>神器3-4个</v>
+      </c>
+      <c r="E15" s="57">
+        <v>4</v>
+      </c>
+      <c r="F15" s="49">
+        <f>C15*E15</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H15" s="57">
+        <v>30</v>
+      </c>
+      <c r="I15" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-30个</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="57">
+        <v>13</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C16" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="49" t="str">
+        <f>B16&amp;"-"&amp;E16&amp;"个"</f>
+        <v>神器3-7个</v>
+      </c>
+      <c r="E16" s="57">
+        <v>7</v>
+      </c>
+      <c r="F16" s="49">
+        <f>C16*E16</f>
+        <v>17.5</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H16" s="57">
+        <v>50</v>
+      </c>
+      <c r="I16" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-50个</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="57">
+        <v>14</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C17" s="57">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="57" t="str">
+        <f>B17&amp;"-"&amp;E17&amp;"个"</f>
+        <v>神器3-7个</v>
+      </c>
+      <c r="E17" s="57">
+        <v>7</v>
+      </c>
+      <c r="F17" s="57">
+        <f>C17*E17</f>
+        <v>17.5</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H17" s="57">
+        <v>100</v>
+      </c>
+      <c r="I17" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-100个</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="57">
+        <v>15</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C18" s="49">
+        <v>3</v>
+      </c>
+      <c r="D18" s="49" t="str">
+        <f>B18&amp;"-"&amp;E18&amp;"个"</f>
+        <v>神器4-1个</v>
+      </c>
+      <c r="E18" s="57">
+        <v>1</v>
+      </c>
+      <c r="F18" s="49">
+        <f>C18*E18</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H18" s="49">
+        <v>10</v>
+      </c>
+      <c r="I18" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-10个</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>16</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C19" s="49">
+        <v>3</v>
+      </c>
+      <c r="D19" s="49" t="str">
+        <f>B19&amp;"-"&amp;E19&amp;"个"</f>
+        <v>神器4-2个</v>
+      </c>
+      <c r="E19" s="57">
+        <v>2</v>
+      </c>
+      <c r="F19" s="49">
+        <f>C19*E19</f>
+        <v>6</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H19" s="49">
+        <v>20</v>
+      </c>
+      <c r="I19" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-20个</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="57">
+        <v>17</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C20" s="49">
+        <v>3</v>
+      </c>
+      <c r="D20" s="49" t="str">
+        <f>B20&amp;"-"&amp;E20&amp;"个"</f>
+        <v>神器4-4个</v>
+      </c>
+      <c r="E20" s="57">
+        <v>4</v>
+      </c>
+      <c r="F20" s="49">
+        <f>C20*E20</f>
+        <v>12</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H20" s="49">
+        <v>30</v>
+      </c>
+      <c r="I20" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-30个</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="57">
+        <v>18</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C21" s="49">
+        <v>3</v>
+      </c>
+      <c r="D21" s="49" t="str">
+        <f>B21&amp;"-"&amp;E21&amp;"个"</f>
+        <v>神器4-7个</v>
+      </c>
+      <c r="E21" s="57">
+        <v>7</v>
+      </c>
+      <c r="F21" s="49">
+        <f>C21*E21</f>
+        <v>21</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H21" s="49">
+        <v>50</v>
+      </c>
+      <c r="I21" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>中级强化石-50个</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="57">
+        <v>19</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C22" s="57">
+        <v>3</v>
+      </c>
+      <c r="D22" s="57" t="str">
+        <f>B22&amp;"-"&amp;E22&amp;"个"</f>
+        <v>神器4-10个</v>
+      </c>
+      <c r="E22" s="57">
+        <v>10</v>
+      </c>
+      <c r="F22" s="57">
+        <f>C22*E22</f>
+        <v>30</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H22" s="57">
+        <v>100</v>
+      </c>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
+        <v>20</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C23" s="49">
+        <v>5</v>
+      </c>
+      <c r="D23" s="49" t="str">
+        <f>B23&amp;"-"&amp;E23&amp;"个"</f>
+        <v>神器5-1个</v>
+      </c>
+      <c r="E23" s="57">
+        <v>1</v>
+      </c>
+      <c r="F23" s="57">
+        <f t="shared" ref="F23:F37" si="1">C23*E23</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H23" s="49">
+        <v>10</v>
+      </c>
+      <c r="I23" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-10个</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="57">
+        <v>21</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C24" s="49">
+        <v>5</v>
+      </c>
+      <c r="D24" s="49" t="str">
+        <f>B24&amp;"-"&amp;E24&amp;"个"</f>
+        <v>神器5-2个</v>
+      </c>
+      <c r="E24" s="57">
+        <v>2</v>
+      </c>
+      <c r="F24" s="57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H24" s="49">
+        <v>20</v>
+      </c>
+      <c r="I24" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-20个</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="57">
+        <v>22</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C25" s="49">
+        <v>5</v>
+      </c>
+      <c r="D25" s="49" t="str">
+        <f>B25&amp;"-"&amp;E25&amp;"个"</f>
+        <v>神器5-4个</v>
+      </c>
+      <c r="E25" s="57">
+        <v>4</v>
+      </c>
+      <c r="F25" s="57">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H25" s="49">
+        <v>30</v>
+      </c>
+      <c r="I25" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-30个</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="57">
+        <v>23</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C26" s="49">
+        <v>5</v>
+      </c>
+      <c r="D26" s="49" t="str">
+        <f>B26&amp;"-"&amp;E26&amp;"个"</f>
+        <v>神器5-7个</v>
+      </c>
+      <c r="E26" s="57">
+        <v>7</v>
+      </c>
+      <c r="F26" s="57">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H26" s="49">
+        <v>50</v>
+      </c>
+      <c r="I26" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-50个</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="57">
+        <v>24</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C27" s="57">
+        <v>5</v>
+      </c>
+      <c r="D27" s="57" t="str">
+        <f>B27&amp;"-"&amp;E27&amp;"个"</f>
+        <v>神器5-10个</v>
+      </c>
+      <c r="E27" s="57">
+        <v>10</v>
+      </c>
+      <c r="F27" s="57">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H27" s="57">
+        <v>100</v>
+      </c>
+      <c r="I27" s="57"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="57">
+        <v>25</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C28" s="49">
+        <v>5</v>
+      </c>
+      <c r="D28" s="49" t="str">
+        <f>B28&amp;"-"&amp;E28&amp;"个"</f>
+        <v>神器6-1个</v>
+      </c>
+      <c r="E28" s="57">
+        <v>1</v>
+      </c>
+      <c r="F28" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H10" s="49">
-        <v>15</v>
-      </c>
-      <c r="I10" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-15个</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
-        <v>9</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C11" s="49">
+      <c r="G28" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H28" s="49">
+        <v>10</v>
+      </c>
+      <c r="I28" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-10个</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="57">
+        <v>26</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C29" s="49">
         <v>5</v>
       </c>
-      <c r="D11" s="49" t="str">
+      <c r="D29" s="49" t="str">
+        <f>B29&amp;"-"&amp;E29&amp;"个"</f>
+        <v>神器6-2个</v>
+      </c>
+      <c r="E29" s="57">
+        <v>2</v>
+      </c>
+      <c r="F29" s="57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H29" s="49">
+        <v>20</v>
+      </c>
+      <c r="I29" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>神器5-1个</v>
-      </c>
-      <c r="E11" s="49">
+        <v>高级强化石-20个</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="57">
+        <v>27</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C30" s="49">
+        <v>5</v>
+      </c>
+      <c r="D30" s="49" t="str">
+        <f>B30&amp;"-"&amp;E30&amp;"个"</f>
+        <v>神器6-4个</v>
+      </c>
+      <c r="E30" s="57">
+        <v>4</v>
+      </c>
+      <c r="F30" s="57">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H30" s="49">
+        <v>30</v>
+      </c>
+      <c r="I30" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-30个</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="57">
+        <v>28</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C31" s="49">
+        <v>5</v>
+      </c>
+      <c r="D31" s="49" t="str">
+        <f>B31&amp;"-"&amp;E31&amp;"个"</f>
+        <v>神器6-7个</v>
+      </c>
+      <c r="E31" s="57">
+        <v>7</v>
+      </c>
+      <c r="F31" s="57">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H31" s="49">
+        <v>50</v>
+      </c>
+      <c r="I31" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-50个</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="57">
+        <v>29</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C32" s="57">
+        <v>5</v>
+      </c>
+      <c r="D32" s="57" t="str">
+        <f>B32&amp;"-"&amp;E32&amp;"个"</f>
+        <v>神器6-10个</v>
+      </c>
+      <c r="E32" s="57">
+        <v>10</v>
+      </c>
+      <c r="F32" s="57">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H32" s="57">
+        <v>100</v>
+      </c>
+      <c r="I32" s="57"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="57">
+        <v>30</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C33" s="49">
+        <v>5</v>
+      </c>
+      <c r="D33" s="49" t="str">
+        <f>B33&amp;"-"&amp;E33&amp;"个"</f>
+        <v>神器7-1个</v>
+      </c>
+      <c r="E33" s="57">
         <v>1</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F33" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G33" s="49" t="s">
         <v>1196</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H33" s="49">
         <v>10</v>
       </c>
-      <c r="I11" s="49" t="str">
-        <f t="shared" si="2"/>
+      <c r="I33" s="49" t="str">
+        <f t="shared" si="0"/>
         <v>高级强化石-10个</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
-        <v>10</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C12" s="49">
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="57">
+        <v>31</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C34" s="49">
         <v>5</v>
       </c>
-      <c r="D12" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-1个</v>
-      </c>
-      <c r="E12" s="49">
-        <v>1</v>
-      </c>
-      <c r="F12" s="49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H12" s="49">
-        <v>10</v>
-      </c>
-      <c r="I12" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-10个</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49">
-        <v>11</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C13" s="49">
-        <v>5</v>
-      </c>
-      <c r="D13" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-1个</v>
-      </c>
-      <c r="E13" s="49">
-        <v>1</v>
-      </c>
-      <c r="F13" s="49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H13" s="49">
-        <v>10</v>
-      </c>
-      <c r="I13" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-10个</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="49">
-        <v>12</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C14" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-4个</v>
-      </c>
-      <c r="E14" s="49">
-        <v>4</v>
-      </c>
-      <c r="F14" s="49">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H14" s="49">
-        <v>20</v>
-      </c>
-      <c r="I14" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-20个</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
-        <v>13</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C15" s="49">
-        <v>3</v>
-      </c>
-      <c r="D15" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-2个</v>
-      </c>
-      <c r="E15" s="49">
+      <c r="D34" s="49" t="str">
+        <f>B34&amp;"-"&amp;E34&amp;"个"</f>
+        <v>神器7-2个</v>
+      </c>
+      <c r="E34" s="57">
         <v>2</v>
       </c>
-      <c r="F15" s="49">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H15" s="49">
-        <v>15</v>
-      </c>
-      <c r="I15" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-15个</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49">
-        <v>14</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C16" s="49">
-        <v>1</v>
-      </c>
-      <c r="D16" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器1-8个</v>
-      </c>
-      <c r="E16" s="49">
-        <v>8</v>
-      </c>
-      <c r="F16" s="49">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H16" s="49">
-        <v>30</v>
-      </c>
-      <c r="I16" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-30个</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49">
-        <v>15</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C17" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D17" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器3-4个</v>
-      </c>
-      <c r="E17" s="49">
-        <v>4</v>
-      </c>
-      <c r="F17" s="49">
+      <c r="F34" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G17" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H17" s="49">
+      <c r="G34" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H34" s="49">
         <v>20</v>
       </c>
-      <c r="I17" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-20个</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="49">
-        <v>16</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C18" s="49">
+      <c r="I34" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-20个</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="57">
+        <v>32</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C35" s="49">
         <v>5</v>
       </c>
-      <c r="D18" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器5-2个</v>
-      </c>
-      <c r="E18" s="49">
-        <v>2</v>
-      </c>
-      <c r="F18" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H18" s="49">
-        <v>15</v>
-      </c>
-      <c r="I18" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-15个</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
-        <v>17</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C19" s="49">
-        <v>5</v>
-      </c>
-      <c r="D19" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-2个</v>
-      </c>
-      <c r="E19" s="49">
-        <v>2</v>
-      </c>
-      <c r="F19" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H19" s="49">
-        <v>15</v>
-      </c>
-      <c r="I19" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-15个</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="49">
-        <v>18</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C20" s="49">
-        <v>5</v>
-      </c>
-      <c r="D20" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-2个</v>
-      </c>
-      <c r="E20" s="49">
-        <v>2</v>
-      </c>
-      <c r="F20" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H20" s="49">
-        <v>15</v>
-      </c>
-      <c r="I20" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-15个</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="49">
-        <v>19</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C21" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-8个</v>
-      </c>
-      <c r="E21" s="49">
-        <v>8</v>
-      </c>
-      <c r="F21" s="49">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H21" s="49">
-        <v>30</v>
-      </c>
-      <c r="I21" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-30个</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
-        <v>20</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C22" s="49">
-        <v>3</v>
-      </c>
-      <c r="D22" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-4个</v>
-      </c>
-      <c r="E22" s="49">
+      <c r="D35" s="49" t="str">
+        <f>B35&amp;"-"&amp;E35&amp;"个"</f>
+        <v>神器7-4个</v>
+      </c>
+      <c r="E35" s="57">
         <v>4</v>
       </c>
-      <c r="F22" s="49">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H22" s="49">
-        <v>20</v>
-      </c>
-      <c r="I22" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-20个</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="49">
-        <v>21</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C23" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器3-8个</v>
-      </c>
-      <c r="E23" s="49">
-        <v>8</v>
-      </c>
-      <c r="F23" s="49">
+      <c r="F35" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G23" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H23" s="49">
+      <c r="G35" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H35" s="49">
         <v>30</v>
       </c>
-      <c r="I23" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-30个</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="49">
-        <v>22</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C24" s="49">
+      <c r="I35" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>高级强化石-30个</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="57">
+        <v>33</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C36" s="49">
         <v>5</v>
       </c>
-      <c r="D24" s="49" t="str">
+      <c r="D36" s="49" t="str">
+        <f>B36&amp;"-"&amp;E36&amp;"个"</f>
+        <v>神器7-7个</v>
+      </c>
+      <c r="E36" s="57">
+        <v>7</v>
+      </c>
+      <c r="F36" s="57">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H36" s="49">
+        <v>50</v>
+      </c>
+      <c r="I36" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>神器5-4个</v>
-      </c>
-      <c r="E24" s="49">
-        <v>4</v>
-      </c>
-      <c r="F24" s="49">
+        <v>高级强化石-50个</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="57">
+        <v>34</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C37" s="57">
+        <v>5</v>
+      </c>
+      <c r="D37" s="57" t="str">
+        <f>B37&amp;"-"&amp;E37&amp;"个"</f>
+        <v>神器7-10个</v>
+      </c>
+      <c r="E37" s="57">
+        <v>10</v>
+      </c>
+      <c r="F37" s="57">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G24" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="57" t="s">
         <v>1196</v>
       </c>
-      <c r="H24" s="49">
-        <v>20</v>
-      </c>
-      <c r="I24" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="49">
-        <v>23</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C25" s="49">
-        <v>5</v>
-      </c>
-      <c r="D25" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-4个</v>
-      </c>
-      <c r="E25" s="49">
-        <v>4</v>
-      </c>
-      <c r="F25" s="49">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H25" s="49">
-        <v>20</v>
-      </c>
-      <c r="I25" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
-        <v>24</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C26" s="49">
-        <v>5</v>
-      </c>
-      <c r="D26" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-4个</v>
-      </c>
-      <c r="E26" s="49">
-        <v>4</v>
-      </c>
-      <c r="F26" s="49">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H26" s="49">
-        <v>20</v>
-      </c>
-      <c r="I26" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
-        <v>25</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C27" s="49">
-        <v>3</v>
-      </c>
-      <c r="D27" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-8个</v>
-      </c>
-      <c r="E27" s="49">
-        <v>8</v>
-      </c>
-      <c r="F27" s="49">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H27" s="49">
-        <v>30</v>
-      </c>
-      <c r="I27" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-30个</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
-        <v>26</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C28" s="49">
-        <v>5</v>
-      </c>
-      <c r="D28" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器5-8个</v>
-      </c>
-      <c r="E28" s="49">
-        <v>8</v>
-      </c>
-      <c r="F28" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H28" s="49">
-        <v>30</v>
-      </c>
-      <c r="I28" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-30个</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="49">
-        <v>27</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C29" s="49">
-        <v>5</v>
-      </c>
-      <c r="D29" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-8个</v>
-      </c>
-      <c r="E29" s="49">
-        <v>8</v>
-      </c>
-      <c r="F29" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H29" s="49">
-        <v>30</v>
-      </c>
-      <c r="I29" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-30个</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="49">
-        <v>28</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C30" s="49">
-        <v>5</v>
-      </c>
-      <c r="D30" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-8个</v>
-      </c>
-      <c r="E30" s="49">
-        <v>8</v>
-      </c>
-      <c r="F30" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H30" s="49">
-        <v>30</v>
-      </c>
-      <c r="I30" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-30个</v>
-      </c>
+      <c r="H37" s="57">
+        <v>100</v>
+      </c>
+      <c r="I37" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:H2">
     <sortState ref="B3:H30">
-      <sortCondition ref="F2"/>
+      <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9594,14 +9809,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -11612,20 +11827,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="G2" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -11658,13 +11873,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="80" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="81" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -11703,8 +11918,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="O4" s="81"/>
+      <c r="M4" s="80"/>
+      <c r="O4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -11771,13 +11986,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="78" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="O6" s="78" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -11816,8 +12031,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="O7" s="77"/>
+      <c r="M7" s="78"/>
+      <c r="O7" s="78"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -12540,14 +12755,14 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -12582,14 +12797,14 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -12649,29 +12864,29 @@
       <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -12727,14 +12942,14 @@
       <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="84" t="s">
         <v>396</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -12816,16 +13031,16 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -12890,16 +13105,16 @@
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="83" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -12962,16 +13177,16 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="84" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -13042,16 +13257,16 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -13372,16 +13587,16 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -14401,15 +14616,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14439,7 +14654,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="90" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -14461,7 +14676,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -14479,7 +14694,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -14501,7 +14716,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="90" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -14519,7 +14734,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -14535,7 +14750,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -14549,7 +14764,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -14571,7 +14786,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -14589,7 +14804,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -14607,7 +14822,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -14629,7 +14844,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="94" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14653,7 +14868,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -14677,7 +14892,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -14697,7 +14912,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="91" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -14713,7 +14928,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -14733,7 +14948,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -14755,7 +14970,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="85"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -14771,7 +14986,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="90" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -14797,7 +15012,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -14819,7 +15034,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -14841,7 +15056,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="90" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -14865,7 +15080,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -14887,7 +15102,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -14905,15 +15120,15 @@
       <c r="H26" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="79" t="s">
         <v>729</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14932,16 +15147,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="93" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="93"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="94" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -14956,14 +15171,14 @@
       <c r="E31" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="84" t="s">
         <v>736</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="84"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -14976,14 +15191,14 @@
       <c r="E32" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="84" t="s">
         <v>740</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="84"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -14996,10 +15211,10 @@
       <c r="E33" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="84" t="s">
         <v>744</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="84"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15018,10 +15233,10 @@
       <c r="E34" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="84" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="83"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15038,10 +15253,10 @@
       <c r="E35" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="84" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="83"/>
+      <c r="G35" s="84"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15056,10 +15271,10 @@
       <c r="E36" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="84" t="s">
         <v>759</v>
       </c>
-      <c r="G36" s="83"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="25" t="s">
         <v>760</v>
       </c>
@@ -15078,16 +15293,16 @@
       <c r="E37" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="84" t="s">
         <v>765</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="84"/>
       <c r="H37" s="25" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="85" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -15102,12 +15317,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="93"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -15123,7 +15338,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -15139,7 +15354,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -15155,7 +15370,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -15172,12 +15387,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -15185,12 +15400,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15201,7 +15416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AT53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AQ8" sqref="AQ8:AS8"/>
     </sheetView>
   </sheetViews>
@@ -15248,114 +15463,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="93" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="93" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="93" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="93" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="93" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="93" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="93" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88" t="s">
+      <c r="N4" s="93"/>
+      <c r="O4" s="93" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88" t="s">
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88" t="s">
+      <c r="R4" s="93"/>
+      <c r="S4" s="93" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88" t="s">
+      <c r="T4" s="93"/>
+      <c r="U4" s="93" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88" t="s">
+      <c r="V4" s="93"/>
+      <c r="W4" s="93" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88" t="s">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88" t="s">
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88" t="s">
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88" t="s">
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88" t="s">
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88" t="s">
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88" t="s">
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88" t="s">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88" t="s">
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93" t="s">
         <v>1129</v>
       </c>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88" t="s">
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93" t="s">
         <v>1130</v>
       </c>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88" t="s">
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93" t="s">
         <v>1131</v>
       </c>
-      <c r="AT4" s="88"/>
+      <c r="AT4" s="93"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -15824,7 +16039,7 @@
       <c r="AT9" s="45"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>805</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -15875,7 +16090,7 @@
       <c r="AT10" s="45"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="25" t="s">
         <v>807</v>
       </c>
@@ -15924,7 +16139,7 @@
       <c r="AT11" s="45"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="25" t="s">
         <v>808</v>
       </c>
@@ -15973,7 +16188,7 @@
       <c r="AT12" s="45"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="83"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="25" t="s">
         <v>809</v>
       </c>
@@ -16022,7 +16237,7 @@
       <c r="AT13" s="45"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="25" t="s">
         <v>810</v>
       </c>
@@ -16071,7 +16286,7 @@
       <c r="AT14" s="45"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="25" t="s">
         <v>811</v>
       </c>
@@ -16586,7 +16801,7 @@
       <c r="AT23" s="45"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="84" t="s">
         <v>1132</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -16637,7 +16852,7 @@
       <c r="AT24" s="45"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="83"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="25" t="s">
         <v>822</v>
       </c>
@@ -16686,7 +16901,7 @@
       <c r="AT25" s="45"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="84" t="s">
         <v>1133</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -16737,7 +16952,7 @@
       <c r="AT26" s="45"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="83"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="25" t="s">
         <v>822</v>
       </c>
@@ -16786,7 +17001,7 @@
       <c r="AT27" s="45"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="84" t="s">
         <v>1134</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -16837,7 +17052,7 @@
       <c r="AT28" s="45"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="83"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="25" t="s">
         <v>822</v>
       </c>
@@ -16886,7 +17101,7 @@
       <c r="AT29" s="45"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="83"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="25" t="s">
         <v>545</v>
       </c>
@@ -16935,7 +17150,7 @@
       <c r="AT30" s="45"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="83"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="25" t="s">
         <v>546</v>
       </c>
@@ -16984,7 +17199,7 @@
       <c r="AT31" s="45"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="84" t="s">
         <v>1135</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -17035,7 +17250,7 @@
       <c r="AT32" s="45"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="83"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="25" t="s">
         <v>822</v>
       </c>
@@ -17084,7 +17299,7 @@
       <c r="AT33" s="45"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="83"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="25" t="s">
         <v>545</v>
       </c>
@@ -17133,7 +17348,7 @@
       <c r="AT34" s="45"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="83"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="25" t="s">
         <v>546</v>
       </c>
@@ -17182,7 +17397,7 @@
       <c r="AT35" s="45"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="84" t="s">
         <v>1136</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -17233,7 +17448,7 @@
       <c r="AT36" s="45"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="83"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="25" t="s">
         <v>822</v>
       </c>
@@ -17282,7 +17497,7 @@
       <c r="AT37" s="45"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="83"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="25" t="s">
         <v>545</v>
       </c>
@@ -17331,7 +17546,7 @@
       <c r="AT38" s="45"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="83"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="25" t="s">
         <v>546</v>
       </c>
@@ -17380,7 +17595,7 @@
       <c r="AT39" s="45"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="83"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="25" t="s">
         <v>547</v>
       </c>
@@ -17429,7 +17644,7 @@
       <c r="AT40" s="45"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="83"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="25" t="s">
         <v>548</v>
       </c>
@@ -17478,7 +17693,7 @@
       <c r="AT41" s="45"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="84" t="s">
         <v>1137</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -17529,7 +17744,7 @@
       <c r="AT42" s="45"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="83"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="25" t="s">
         <v>822</v>
       </c>
@@ -17578,7 +17793,7 @@
       <c r="AT43" s="45"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="83"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="25" t="s">
         <v>545</v>
       </c>
@@ -17627,7 +17842,7 @@
       <c r="AT44" s="45"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="83"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="25" t="s">
         <v>546</v>
       </c>
@@ -17676,7 +17891,7 @@
       <c r="AT45" s="45"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="83"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="25" t="s">
         <v>547</v>
       </c>
@@ -17725,7 +17940,7 @@
       <c r="AT46" s="45"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="25" t="s">
         <v>548</v>
       </c>
@@ -17774,7 +17989,7 @@
       <c r="AT47" s="45"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="84" t="s">
         <v>1138</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -17825,7 +18040,7 @@
       <c r="AT48" s="45"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="83"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="25" t="s">
         <v>822</v>
       </c>
@@ -17874,7 +18089,7 @@
       <c r="AT49" s="45"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="83"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="25" t="s">
         <v>545</v>
       </c>
@@ -17923,7 +18138,7 @@
       <c r="AT50" s="45"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="83"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="25" t="s">
         <v>546</v>
       </c>
@@ -17972,7 +18187,7 @@
       <c r="AT51" s="45"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="83"/>
+      <c r="B52" s="84"/>
       <c r="C52" s="25" t="s">
         <v>547</v>
       </c>
@@ -18021,7 +18236,7 @@
       <c r="AT52" s="45"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="83"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="25" t="s">
         <v>548</v>
       </c>
@@ -18071,27 +18286,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -18108,6 +18302,27 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18443,7 +18658,7 @@
       <c r="F17" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="83" t="s">
+      <c r="I17" s="84" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -18464,7 +18679,7 @@
       <c r="F18" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="84"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
@@ -18483,7 +18698,7 @@
       <c r="F19" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="I19" s="83"/>
+      <c r="I19" s="84"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
@@ -18502,7 +18717,7 @@
       <c r="F20" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="I20" s="83"/>
+      <c r="I20" s="84"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
@@ -18521,7 +18736,7 @@
       <c r="F21" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="I21" s="83"/>
+      <c r="I21" s="84"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -18540,7 +18755,7 @@
       <c r="F22" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="84"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
@@ -18559,7 +18774,7 @@
       <c r="F23" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="I23" s="83"/>
+      <c r="I23" s="84"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
@@ -18713,7 +18928,7 @@
       <c r="F31" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="I31" s="83" t="s">
+      <c r="I31" s="84" t="s">
         <v>1017</v>
       </c>
       <c r="L31" s="22" t="s">
@@ -18737,7 +18952,7 @@
       <c r="F32" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="I32" s="83"/>
+      <c r="I32" s="84"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
@@ -18756,7 +18971,7 @@
       <c r="F33" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="I33" s="83"/>
+      <c r="I33" s="84"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
@@ -18775,7 +18990,7 @@
       <c r="F34" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="I34" s="83"/>
+      <c r="I34" s="84"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
@@ -18794,7 +19009,7 @@
       <c r="F35" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="I35" s="83"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
@@ -18813,7 +19028,7 @@
       <c r="F36" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="I36" s="83"/>
+      <c r="I36" s="84"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
@@ -18832,7 +19047,7 @@
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="I37" s="83" t="s">
+      <c r="I37" s="84" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -18853,7 +19068,7 @@
       <c r="F38" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="I38" s="83"/>
+      <c r="I38" s="84"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
@@ -18862,12 +19077,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="88" t="s">
         <v>1019</v>
       </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="93"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="89"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -19120,7 +19335,7 @@
       <c r="F53" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="I53" s="83" t="s">
+      <c r="I53" s="84" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -19139,7 +19354,7 @@
       <c r="F54" s="29" t="s">
         <v>1004</v>
       </c>
-      <c r="I54" s="83"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
@@ -19156,7 +19371,7 @@
       <c r="F55" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="I55" s="83"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
@@ -19173,7 +19388,7 @@
       <c r="F56" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="I56" s="83"/>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
@@ -19190,7 +19405,7 @@
       <c r="F57" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="I57" s="83"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
@@ -19207,7 +19422,7 @@
       <c r="F58" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="I58" s="83"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
@@ -19224,7 +19439,7 @@
       <c r="F59" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="I59" s="83"/>
+      <c r="I59" s="84"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
@@ -19241,7 +19456,7 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="89" t="s">
+      <c r="I60" s="85" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -19260,7 +19475,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="90"/>
+      <c r="I61" s="86"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -19277,7 +19492,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="90"/>
+      <c r="I62" s="86"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -19294,7 +19509,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="90"/>
+      <c r="I63" s="86"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -19311,7 +19526,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="90"/>
+      <c r="I64" s="86"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -19328,7 +19543,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="90"/>
+      <c r="I65" s="86"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -19345,7 +19560,7 @@
       <c r="F66" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I66" s="90"/>
+      <c r="I66" s="86"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -19362,7 +19577,7 @@
       <c r="F67" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I67" s="90"/>
+      <c r="I67" s="86"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -19379,7 +19594,7 @@
       <c r="F68" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="I68" s="91"/>
+      <c r="I68" s="87"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
@@ -19447,7 +19662,7 @@
       <c r="F72" s="29" t="s">
         <v>982</v>
       </c>
-      <c r="I72" s="83" t="s">
+      <c r="I72" s="84" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -19466,7 +19681,7 @@
       <c r="F73" s="29" t="s">
         <v>1010</v>
       </c>
-      <c r="I73" s="83"/>
+      <c r="I73" s="84"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
@@ -19483,7 +19698,7 @@
       <c r="F74" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="I74" s="83"/>
+      <c r="I74" s="84"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
@@ -19500,7 +19715,7 @@
       <c r="F75" s="29" t="s">
         <v>988</v>
       </c>
-      <c r="I75" s="83"/>
+      <c r="I75" s="84"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
@@ -19517,7 +19732,7 @@
       <c r="F76" s="29" t="s">
         <v>1011</v>
       </c>
-      <c r="I76" s="83"/>
+      <c r="I76" s="84"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
@@ -19534,7 +19749,7 @@
       <c r="F77" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="I77" s="83"/>
+      <c r="I77" s="84"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
@@ -19551,19 +19766,19 @@
       <c r="F78" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="I78" s="83"/>
+      <c r="I78" s="84"/>
     </row>
     <row r="79" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>68</v>
       </c>
-      <c r="B79" s="99" t="s">
+      <c r="B79" s="100" t="s">
         <v>1056</v>
       </c>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100"/>
-      <c r="F79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="102"/>
     </row>
     <row r="80" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
@@ -19751,7 +19966,7 @@
       <c r="F91" s="29" t="s">
         <v>1044</v>
       </c>
-      <c r="I91" s="83" t="s">
+      <c r="I91" s="84" t="s">
         <v>1267</v>
       </c>
     </row>
@@ -19770,7 +19985,7 @@
       <c r="F92" s="29" t="s">
         <v>1094</v>
       </c>
-      <c r="I92" s="83"/>
+      <c r="I92" s="84"/>
     </row>
     <row r="93" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40">
@@ -19909,14 +20124,14 @@
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="84" t="s">
         <v>1228</v>
       </c>
-      <c r="B101" s="83"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
       <c r="H101" s="31"/>
       <c r="I101" s="56" t="s">
         <v>1269</v>
@@ -20021,12 +20236,12 @@
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="92"/>
-      <c r="B110" s="98"/>
-      <c r="C110" s="98"/>
-      <c r="D110" s="98"/>
-      <c r="E110" s="98"/>
-      <c r="F110" s="93"/>
+      <c r="A110" s="88"/>
+      <c r="B110" s="99"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="89"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
@@ -20039,7 +20254,7 @@
       <c r="F111" s="52" t="s">
         <v>1259</v>
       </c>
-      <c r="I111" s="83" t="s">
+      <c r="I111" s="84" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -20054,7 +20269,7 @@
       <c r="F112" s="52" t="s">
         <v>1260</v>
       </c>
-      <c r="I112" s="83"/>
+      <c r="I112" s="84"/>
     </row>
     <row r="113" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
@@ -20326,6 +20541,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="I72:I78"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
@@ -20335,11 +20555,6 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="I72:I78"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20652,49 +20867,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>1075</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>1066</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104" t="s">
         <v>1083</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="103" t="s">
         <v>1067</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="102" t="s">
+      <c r="G2" s="104"/>
+      <c r="H2" s="103" t="s">
         <v>1068</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="102" t="s">
+      <c r="I2" s="104"/>
+      <c r="J2" s="103" t="s">
         <v>1069</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="102" t="s">
+      <c r="K2" s="104"/>
+      <c r="L2" s="103" t="s">
         <v>1070</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="102" t="s">
+      <c r="M2" s="104"/>
+      <c r="N2" s="103" t="s">
         <v>1071</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="102" t="s">
+      <c r="O2" s="104"/>
+      <c r="P2" s="103" t="s">
         <v>1072</v>
       </c>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="105"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="43" t="s">
         <v>1073</v>
       </c>

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1277">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4503,10 +4503,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战力要求3个40级，神器2，2级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5270,6 +5266,26 @@
   </si>
   <si>
     <t>3个44级，专属强化5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1层</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6063,26 +6079,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6129,6 +6130,21 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6151,6 +6167,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6165,20 +6196,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6188,9 +6207,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6565,12 +6581,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6579,10 +6595,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="65" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6593,26 +6609,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6621,10 +6637,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6633,147 +6649,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6786,16 +6806,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6821,10 +6837,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I37"/>
+  <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6841,28 +6857,28 @@
   <sheetData>
     <row r="2" spans="1:9" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>1162</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>1163</v>
-      </c>
       <c r="E2" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>1152</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>1153</v>
-      </c>
       <c r="G2" s="16" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>1192</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>1193</v>
-      </c>
       <c r="I2" s="16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6870,24 +6886,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C3" s="49">
         <v>1</v>
       </c>
       <c r="D3" s="49" t="str">
-        <f>B3&amp;"-"&amp;E3&amp;"个"</f>
+        <f t="shared" ref="D3:D37" si="0">B3&amp;"-"&amp;E3&amp;"个"</f>
         <v>神器1-1个</v>
       </c>
       <c r="E3" s="49">
         <v>1</v>
       </c>
       <c r="F3" s="49">
-        <f>C3*E3</f>
-        <v>1</v>
+        <f t="shared" ref="F3:F37" si="1">C3*E3+H3*0.02</f>
+        <v>1.2</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H3" s="49">
         <v>10</v>
@@ -6905,28 +6921,28 @@
         <v>1155</v>
       </c>
       <c r="C4" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器2-1个</v>
+      </c>
+      <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="D4" s="49" t="str">
-        <f>B4&amp;"-"&amp;E4&amp;"个"</f>
-        <v>神器1-2个</v>
-      </c>
-      <c r="E4" s="49">
-        <v>2</v>
-      </c>
-      <c r="F4" s="49">
-        <f>C4*E4</f>
-        <v>2</v>
+      <c r="F4" s="56">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H4" s="49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I4" s="49" t="str">
-        <f t="shared" ref="I4:I36" si="0">G4&amp;"强化石"&amp;"-"&amp;H4&amp;"个"</f>
-        <v>初级强化石-20个</v>
+        <f t="shared" ref="I4:I37" si="2">G4&amp;"强化石"&amp;"-"&amp;H4&amp;"个"</f>
+        <v>初级强化石-10个</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6934,31 +6950,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="49">
         <v>1</v>
       </c>
       <c r="D5" s="49" t="str">
-        <f>B5&amp;"-"&amp;E5&amp;"个"</f>
-        <v>神器1-4个</v>
+        <f t="shared" si="0"/>
+        <v>神器1-2个</v>
       </c>
       <c r="E5" s="49">
-        <v>4</v>
-      </c>
-      <c r="F5" s="49">
-        <f>C5*E5</f>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="56">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H5" s="49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>初级强化石-30个</v>
+        <f t="shared" si="2"/>
+        <v>初级强化石-20个</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6966,63 +6982,63 @@
         <v>4</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C6" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器3-1个</v>
+      </c>
+      <c r="E6" s="49">
         <v>1</v>
       </c>
-      <c r="D6" s="49" t="str">
-        <f>B6&amp;"-"&amp;E6&amp;"个"</f>
-        <v>神器1-7个</v>
-      </c>
-      <c r="E6" s="49">
-        <v>7</v>
-      </c>
-      <c r="F6" s="49">
-        <f>C6*E6</f>
-        <v>7</v>
+      <c r="F6" s="56">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>1194</v>
       </c>
       <c r="H6" s="49">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I6" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-10个</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>5</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C7" s="56">
+        <v>3</v>
+      </c>
+      <c r="D7" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>初级强化石-50个</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
-        <v>5</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C7" s="57">
+        <v>神器4-1个</v>
+      </c>
+      <c r="E7" s="56">
         <v>1</v>
       </c>
-      <c r="D7" s="57" t="str">
-        <f>B7&amp;"-"&amp;E7&amp;"个"</f>
-        <v>神器1-7个</v>
-      </c>
-      <c r="E7" s="57">
-        <v>7</v>
-      </c>
-      <c r="F7" s="57">
-        <f>C7*E7</f>
-        <v>7</v>
-      </c>
-      <c r="G7" s="57" t="s">
+      <c r="F7" s="56">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>1194</v>
       </c>
-      <c r="H7" s="57">
-        <v>100</v>
-      </c>
-      <c r="I7" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>初级强化石-100个</v>
+      <c r="H7" s="56">
+        <v>10</v>
+      </c>
+      <c r="I7" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-10个</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7030,31 +7046,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C8" s="49">
         <v>1.5</v>
       </c>
       <c r="D8" s="49" t="str">
-        <f>B8&amp;"-"&amp;E8&amp;"个"</f>
-        <v>神器2-1个</v>
+        <f t="shared" si="0"/>
+        <v>神器2-2个</v>
       </c>
       <c r="E8" s="49">
-        <v>1</v>
-      </c>
-      <c r="F8" s="49">
-        <f>C8*E8</f>
-        <v>1.5</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="56">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H8" s="57">
-        <v>10</v>
+        <v>1193</v>
+      </c>
+      <c r="H8" s="56">
+        <v>20</v>
       </c>
       <c r="I8" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>初级强化石-10个</v>
+        <f t="shared" si="2"/>
+        <v>初级强化石-20个</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7062,31 +7078,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C9" s="49">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="49" t="str">
-        <f>B9&amp;"-"&amp;E9&amp;"个"</f>
-        <v>神器2-2个</v>
+        <f t="shared" si="0"/>
+        <v>神器1-4个</v>
       </c>
       <c r="E9" s="49">
-        <v>2</v>
-      </c>
-      <c r="F9" s="49">
-        <f>C9*E9</f>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F9" s="56">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H9" s="57">
-        <v>20</v>
+        <v>1193</v>
+      </c>
+      <c r="H9" s="56">
+        <v>30</v>
       </c>
       <c r="I9" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>初级强化石-20个</v>
+        <f t="shared" si="2"/>
+        <v>初级强化石-30个</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7094,31 +7110,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C10" s="49">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="D10" s="49" t="str">
-        <f>B10&amp;"-"&amp;E10&amp;"个"</f>
-        <v>神器2-4个</v>
+        <f t="shared" si="0"/>
+        <v>神器5-1个</v>
       </c>
       <c r="E10" s="49">
-        <v>4</v>
-      </c>
-      <c r="F10" s="49">
-        <f>C10*E10</f>
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="56">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H10" s="57">
-        <v>30</v>
+        <v>1195</v>
+      </c>
+      <c r="H10" s="56">
+        <v>10</v>
       </c>
       <c r="I10" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>初级强化石-30个</v>
+        <f t="shared" si="2"/>
+        <v>高级强化石-10个</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7126,277 +7142,277 @@
         <v>8</v>
       </c>
       <c r="B11" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C11" s="49">
+        <v>5</v>
+      </c>
+      <c r="D11" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器6-1个</v>
+      </c>
+      <c r="E11" s="49">
+        <v>1</v>
+      </c>
+      <c r="F11" s="56">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H11" s="56">
+        <v>10</v>
+      </c>
+      <c r="I11" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-10个</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56">
+        <v>9</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C12" s="56">
+        <v>5</v>
+      </c>
+      <c r="D12" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>神器7-1个</v>
+      </c>
+      <c r="E12" s="56">
+        <v>1</v>
+      </c>
+      <c r="F12" s="56">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H12" s="56">
+        <v>10</v>
+      </c>
+      <c r="I12" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-10个</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
+        <v>10</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>1156</v>
-      </c>
-      <c r="C11" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D11" s="49" t="str">
-        <f>B11&amp;"-"&amp;E11&amp;"个"</f>
-        <v>神器2-7个</v>
-      </c>
-      <c r="E11" s="49">
-        <v>7</v>
-      </c>
-      <c r="F11" s="49">
-        <f>C11*E11</f>
-        <v>10.5</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H11" s="57">
-        <v>50</v>
-      </c>
-      <c r="I11" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>初级强化石-50个</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57">
-        <v>9</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C12" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="57" t="str">
-        <f>B12&amp;"-"&amp;E12&amp;"个"</f>
-        <v>神器2-10个</v>
-      </c>
-      <c r="E12" s="57">
-        <v>10</v>
-      </c>
-      <c r="F12" s="57">
-        <f>C12*E12</f>
-        <v>15</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H12" s="57">
-        <v>100</v>
-      </c>
-      <c r="I12" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>初级强化石-100个</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="57">
-        <v>10</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>1157</v>
       </c>
       <c r="C13" s="49">
         <v>2.5</v>
       </c>
       <c r="D13" s="49" t="str">
-        <f>B13&amp;"-"&amp;E13&amp;"个"</f>
-        <v>神器3-1个</v>
-      </c>
-      <c r="E13" s="57">
-        <v>1</v>
-      </c>
-      <c r="F13" s="49">
-        <f>C13*E13</f>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>神器3-2个</v>
+      </c>
+      <c r="E13" s="56">
+        <v>2</v>
+      </c>
+      <c r="F13" s="56">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H13" s="57">
-        <v>10</v>
+        <v>1194</v>
+      </c>
+      <c r="H13" s="56">
+        <v>20</v>
       </c>
       <c r="I13" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>中级强化石-10个</v>
+        <f t="shared" si="2"/>
+        <v>中级强化石-20个</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57">
+      <c r="A14" s="56">
         <v>11</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>1157</v>
       </c>
       <c r="C14" s="49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="49" t="str">
-        <f>B14&amp;"-"&amp;E14&amp;"个"</f>
-        <v>神器3-2个</v>
-      </c>
-      <c r="E14" s="57">
+        <f t="shared" si="0"/>
+        <v>神器4-2个</v>
+      </c>
+      <c r="E14" s="56">
         <v>2</v>
       </c>
-      <c r="F14" s="49">
-        <f>C14*E14</f>
-        <v>5</v>
+      <c r="F14" s="56">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H14" s="57">
+        <v>1194</v>
+      </c>
+      <c r="H14" s="56">
         <v>20</v>
       </c>
       <c r="I14" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-20个</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="56">
+        <v>12</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>中级强化石-20个</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
-        <v>12</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C15" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D15" s="49" t="str">
-        <f>B15&amp;"-"&amp;E15&amp;"个"</f>
-        <v>神器3-4个</v>
-      </c>
-      <c r="E15" s="57">
+        <v>神器2-4个</v>
+      </c>
+      <c r="E15" s="56">
         <v>4</v>
       </c>
-      <c r="F15" s="49">
-        <f>C15*E15</f>
-        <v>10</v>
+      <c r="F15" s="56">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H15" s="57">
+        <v>1193</v>
+      </c>
+      <c r="H15" s="56">
         <v>30</v>
       </c>
       <c r="I15" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>初级强化石-30个</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="56">
+        <v>13</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C16" s="49">
+        <v>1</v>
+      </c>
+      <c r="D16" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>中级强化石-30个</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="57">
-        <v>13</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C16" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D16" s="49" t="str">
-        <f>B16&amp;"-"&amp;E16&amp;"个"</f>
-        <v>神器3-7个</v>
-      </c>
-      <c r="E16" s="57">
+        <v>神器1-7个</v>
+      </c>
+      <c r="E16" s="56">
         <v>7</v>
       </c>
-      <c r="F16" s="49">
-        <f>C16*E16</f>
-        <v>17.5</v>
+      <c r="F16" s="56">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H16" s="57">
+        <v>1193</v>
+      </c>
+      <c r="H16" s="56">
         <v>50</v>
       </c>
       <c r="I16" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>初级强化石-50个</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="56">
+        <v>14</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C17" s="56">
+        <v>1</v>
+      </c>
+      <c r="D17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>中级强化石-50个</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57">
-        <v>14</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C17" s="57">
-        <v>2.5</v>
-      </c>
-      <c r="D17" s="57" t="str">
-        <f>B17&amp;"-"&amp;E17&amp;"个"</f>
-        <v>神器3-7个</v>
-      </c>
-      <c r="E17" s="57">
+        <v>神器1-7个</v>
+      </c>
+      <c r="E17" s="56">
         <v>7</v>
       </c>
-      <c r="F17" s="57">
-        <f>C17*E17</f>
-        <v>17.5</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H17" s="57">
+      <c r="F17" s="56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H17" s="56">
         <v>100</v>
       </c>
-      <c r="I17" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>中级强化石-100个</v>
+      <c r="I17" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>初级强化石-100个</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57">
+      <c r="A18" s="56">
         <v>15</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>1158</v>
       </c>
       <c r="C18" s="49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="49" t="str">
-        <f>B18&amp;"-"&amp;E18&amp;"个"</f>
-        <v>神器4-1个</v>
-      </c>
-      <c r="E18" s="57">
-        <v>1</v>
-      </c>
-      <c r="F18" s="49">
-        <f>C18*E18</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>神器5-2个</v>
+      </c>
+      <c r="E18" s="56">
+        <v>2</v>
+      </c>
+      <c r="F18" s="56">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>1195</v>
       </c>
       <c r="H18" s="49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-20个</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="56">
+        <v>16</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C19" s="49">
+        <v>5</v>
+      </c>
+      <c r="D19" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>中级强化石-10个</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
-        <v>16</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C19" s="49">
-        <v>3</v>
-      </c>
-      <c r="D19" s="49" t="str">
-        <f>B19&amp;"-"&amp;E19&amp;"个"</f>
-        <v>神器4-2个</v>
-      </c>
-      <c r="E19" s="57">
+        <v>神器6-2个</v>
+      </c>
+      <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="49">
-        <f>C19*E19</f>
-        <v>6</v>
+      <c r="F19" s="56">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>1195</v>
@@ -7405,294 +7421,300 @@
         <v>20</v>
       </c>
       <c r="I19" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-20个</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="56">
+        <v>17</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C20" s="49">
+        <v>5</v>
+      </c>
+      <c r="D20" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>中级强化石-20个</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57">
-        <v>17</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C20" s="49">
-        <v>3</v>
-      </c>
-      <c r="D20" s="49" t="str">
-        <f>B20&amp;"-"&amp;E20&amp;"个"</f>
-        <v>神器4-4个</v>
-      </c>
-      <c r="E20" s="57">
-        <v>4</v>
-      </c>
-      <c r="F20" s="49">
-        <f>C20*E20</f>
-        <v>12</v>
+        <v>神器7-2个</v>
+      </c>
+      <c r="E20" s="56">
+        <v>2</v>
+      </c>
+      <c r="F20" s="56">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>1195</v>
       </c>
       <c r="H20" s="49">
+        <v>20</v>
+      </c>
+      <c r="I20" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-20个</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="56">
+        <v>18</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C21" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器3-4个</v>
+      </c>
+      <c r="E21" s="56">
+        <v>4</v>
+      </c>
+      <c r="F21" s="56">
+        <f t="shared" si="1"/>
+        <v>10.6</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H21" s="49">
         <v>30</v>
       </c>
-      <c r="I20" s="49" t="str">
+      <c r="I21" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-30个</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="56">
+        <v>19</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C22" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="56" t="str">
         <f t="shared" si="0"/>
+        <v>神器2-7个</v>
+      </c>
+      <c r="E22" s="56">
+        <v>7</v>
+      </c>
+      <c r="F22" s="56">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H22" s="56">
+        <v>50</v>
+      </c>
+      <c r="I22" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>初级强化石-50个</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="56">
+        <v>20</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C23" s="49">
+        <v>3</v>
+      </c>
+      <c r="D23" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器4-4个</v>
+      </c>
+      <c r="E23" s="56">
+        <v>4</v>
+      </c>
+      <c r="F23" s="56">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H23" s="49">
+        <v>30</v>
+      </c>
+      <c r="I23" s="49" t="str">
+        <f t="shared" si="2"/>
         <v>中级强化石-30个</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="57">
-        <v>18</v>
-      </c>
-      <c r="B21" s="49" t="s">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="56">
+        <v>21</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C24" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器2-10个</v>
+      </c>
+      <c r="E24" s="56">
+        <v>10</v>
+      </c>
+      <c r="F24" s="56">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H24" s="49">
+        <v>100</v>
+      </c>
+      <c r="I24" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>初级强化石-100个</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="56">
+        <v>22</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C25" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器3-7个</v>
+      </c>
+      <c r="E25" s="56">
+        <v>7</v>
+      </c>
+      <c r="F25" s="56">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H25" s="49">
+        <v>50</v>
+      </c>
+      <c r="I25" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-50个</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="56">
+        <v>23</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C26" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器3-7个</v>
+      </c>
+      <c r="E26" s="56">
+        <v>7</v>
+      </c>
+      <c r="F26" s="56">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H26" s="49">
+        <v>100</v>
+      </c>
+      <c r="I26" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-100个</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="56">
+        <v>24</v>
+      </c>
+      <c r="B27" s="56" t="s">
         <v>1158</v>
       </c>
-      <c r="C21" s="49">
-        <v>3</v>
-      </c>
-      <c r="D21" s="49" t="str">
-        <f>B21&amp;"-"&amp;E21&amp;"个"</f>
-        <v>神器4-7个</v>
-      </c>
-      <c r="E21" s="57">
-        <v>7</v>
-      </c>
-      <c r="F21" s="49">
-        <f>C21*E21</f>
-        <v>21</v>
-      </c>
-      <c r="G21" s="49" t="s">
+      <c r="C27" s="56">
+        <v>5</v>
+      </c>
+      <c r="D27" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>神器5-4个</v>
+      </c>
+      <c r="E27" s="56">
+        <v>4</v>
+      </c>
+      <c r="F27" s="56">
+        <f t="shared" si="1"/>
+        <v>20.6</v>
+      </c>
+      <c r="G27" s="56" t="s">
         <v>1195</v>
       </c>
-      <c r="H21" s="49">
-        <v>50</v>
-      </c>
-      <c r="I21" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>中级强化石-50个</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="57">
-        <v>19</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C22" s="57">
-        <v>3</v>
-      </c>
-      <c r="D22" s="57" t="str">
-        <f>B22&amp;"-"&amp;E22&amp;"个"</f>
-        <v>神器4-10个</v>
-      </c>
-      <c r="E22" s="57">
-        <v>10</v>
-      </c>
-      <c r="F22" s="57">
-        <f>C22*E22</f>
+      <c r="H27" s="56">
         <v>30</v>
       </c>
-      <c r="G22" s="57" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H22" s="57">
-        <v>100</v>
-      </c>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
-        <v>20</v>
-      </c>
-      <c r="B23" s="49" t="s">
+      <c r="I27" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-30个</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="56">
+        <v>25</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>1159</v>
-      </c>
-      <c r="C23" s="49">
-        <v>5</v>
-      </c>
-      <c r="D23" s="49" t="str">
-        <f>B23&amp;"-"&amp;E23&amp;"个"</f>
-        <v>神器5-1个</v>
-      </c>
-      <c r="E23" s="57">
-        <v>1</v>
-      </c>
-      <c r="F23" s="57">
-        <f t="shared" ref="F23:F37" si="1">C23*E23</f>
-        <v>5</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H23" s="49">
-        <v>10</v>
-      </c>
-      <c r="I23" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-10个</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="57">
-        <v>21</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C24" s="49">
-        <v>5</v>
-      </c>
-      <c r="D24" s="49" t="str">
-        <f>B24&amp;"-"&amp;E24&amp;"个"</f>
-        <v>神器5-2个</v>
-      </c>
-      <c r="E24" s="57">
-        <v>2</v>
-      </c>
-      <c r="F24" s="57">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H24" s="49">
-        <v>20</v>
-      </c>
-      <c r="I24" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="57">
-        <v>22</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C25" s="49">
-        <v>5</v>
-      </c>
-      <c r="D25" s="49" t="str">
-        <f>B25&amp;"-"&amp;E25&amp;"个"</f>
-        <v>神器5-4个</v>
-      </c>
-      <c r="E25" s="57">
-        <v>4</v>
-      </c>
-      <c r="F25" s="57">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H25" s="49">
-        <v>30</v>
-      </c>
-      <c r="I25" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-30个</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="57">
-        <v>23</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C26" s="49">
-        <v>5</v>
-      </c>
-      <c r="D26" s="49" t="str">
-        <f>B26&amp;"-"&amp;E26&amp;"个"</f>
-        <v>神器5-7个</v>
-      </c>
-      <c r="E26" s="57">
-        <v>7</v>
-      </c>
-      <c r="F26" s="57">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H26" s="49">
-        <v>50</v>
-      </c>
-      <c r="I26" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-50个</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
-        <v>24</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C27" s="57">
-        <v>5</v>
-      </c>
-      <c r="D27" s="57" t="str">
-        <f>B27&amp;"-"&amp;E27&amp;"个"</f>
-        <v>神器5-10个</v>
-      </c>
-      <c r="E27" s="57">
-        <v>10</v>
-      </c>
-      <c r="F27" s="57">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H27" s="57">
-        <v>100</v>
-      </c>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="57">
-        <v>25</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>1160</v>
       </c>
       <c r="C28" s="49">
         <v>5</v>
       </c>
       <c r="D28" s="49" t="str">
-        <f>B28&amp;"-"&amp;E28&amp;"个"</f>
-        <v>神器6-1个</v>
-      </c>
-      <c r="E28" s="57">
-        <v>1</v>
-      </c>
-      <c r="F28" s="57">
+        <f t="shared" si="0"/>
+        <v>神器6-4个</v>
+      </c>
+      <c r="E28" s="56">
+        <v>4</v>
+      </c>
+      <c r="F28" s="56">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20.6</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H28" s="49">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I28" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-10个</v>
+        <f t="shared" si="2"/>
+        <v>高级强化石-30个</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="57">
+      <c r="A29" s="56">
         <v>26</v>
       </c>
       <c r="B29" s="49" t="s">
@@ -7702,281 +7724,290 @@
         <v>5</v>
       </c>
       <c r="D29" s="49" t="str">
-        <f>B29&amp;"-"&amp;E29&amp;"个"</f>
-        <v>神器6-2个</v>
-      </c>
-      <c r="E29" s="57">
-        <v>2</v>
-      </c>
-      <c r="F29" s="57">
+        <f t="shared" si="0"/>
+        <v>神器7-4个</v>
+      </c>
+      <c r="E29" s="56">
+        <v>4</v>
+      </c>
+      <c r="F29" s="56">
         <f t="shared" si="1"/>
+        <v>20.6</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H29" s="49">
+        <v>30</v>
+      </c>
+      <c r="I29" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-30个</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="56">
+        <v>27</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C30" s="49">
+        <v>3</v>
+      </c>
+      <c r="D30" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器4-7个</v>
+      </c>
+      <c r="E30" s="56">
+        <v>7</v>
+      </c>
+      <c r="F30" s="56">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H30" s="49">
+        <v>50</v>
+      </c>
+      <c r="I30" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-50个</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="56">
+        <v>28</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C31" s="49">
+        <v>3</v>
+      </c>
+      <c r="D31" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>神器4-10个</v>
+      </c>
+      <c r="E31" s="56">
         <v>10</v>
       </c>
-      <c r="G29" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H29" s="49">
-        <v>20</v>
-      </c>
-      <c r="I29" s="49" t="str">
+      <c r="F31" s="56">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H31" s="49">
+        <v>100</v>
+      </c>
+      <c r="I31" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>中级强化石-100个</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="56">
+        <v>29</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C32" s="56">
+        <v>5</v>
+      </c>
+      <c r="D32" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57">
-        <v>27</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C30" s="49">
-        <v>5</v>
-      </c>
-      <c r="D30" s="49" t="str">
-        <f>B30&amp;"-"&amp;E30&amp;"个"</f>
-        <v>神器6-4个</v>
-      </c>
-      <c r="E30" s="57">
-        <v>4</v>
-      </c>
-      <c r="F30" s="57">
+        <v>神器5-7个</v>
+      </c>
+      <c r="E32" s="56">
+        <v>7</v>
+      </c>
+      <c r="F32" s="56">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H30" s="49">
+        <v>36</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H32" s="56">
+        <v>50</v>
+      </c>
+      <c r="I32" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-50个</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="56">
         <v>30</v>
       </c>
-      <c r="I30" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-30个</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
-        <v>28</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C31" s="49">
-        <v>5</v>
-      </c>
-      <c r="D31" s="49" t="str">
-        <f>B31&amp;"-"&amp;E31&amp;"个"</f>
-        <v>神器6-7个</v>
-      </c>
-      <c r="E31" s="57">
-        <v>7</v>
-      </c>
-      <c r="F31" s="57">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H31" s="49">
-        <v>50</v>
-      </c>
-      <c r="I31" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-50个</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="57">
-        <v>29</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C32" s="57">
-        <v>5</v>
-      </c>
-      <c r="D32" s="57" t="str">
-        <f>B32&amp;"-"&amp;E32&amp;"个"</f>
-        <v>神器6-10个</v>
-      </c>
-      <c r="E32" s="57">
-        <v>10</v>
-      </c>
-      <c r="F32" s="57">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H32" s="57">
-        <v>100</v>
-      </c>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57">
-        <v>30</v>
-      </c>
       <c r="B33" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C33" s="49">
         <v>5</v>
       </c>
       <c r="D33" s="49" t="str">
-        <f>B33&amp;"-"&amp;E33&amp;"个"</f>
-        <v>神器7-1个</v>
-      </c>
-      <c r="E33" s="57">
-        <v>1</v>
-      </c>
-      <c r="F33" s="57">
+        <f t="shared" si="0"/>
+        <v>神器6-7个</v>
+      </c>
+      <c r="E33" s="56">
+        <v>7</v>
+      </c>
+      <c r="F33" s="56">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H33" s="49">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I33" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-10个</v>
+        <f t="shared" si="2"/>
+        <v>高级强化石-50个</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="57">
+      <c r="A34" s="56">
         <v>31</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C34" s="49">
         <v>5</v>
       </c>
       <c r="D34" s="49" t="str">
-        <f>B34&amp;"-"&amp;E34&amp;"个"</f>
-        <v>神器7-2个</v>
-      </c>
-      <c r="E34" s="57">
-        <v>2</v>
-      </c>
-      <c r="F34" s="57">
+        <f t="shared" si="0"/>
+        <v>神器7-7个</v>
+      </c>
+      <c r="E34" s="56">
+        <v>7</v>
+      </c>
+      <c r="F34" s="56">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H34" s="49">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I34" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-20个</v>
+        <f t="shared" si="2"/>
+        <v>高级强化石-50个</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="56">
         <v>32</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C35" s="49">
         <v>5</v>
       </c>
       <c r="D35" s="49" t="str">
-        <f>B35&amp;"-"&amp;E35&amp;"个"</f>
-        <v>神器7-4个</v>
-      </c>
-      <c r="E35" s="57">
-        <v>4</v>
-      </c>
-      <c r="F35" s="57">
+        <f t="shared" si="0"/>
+        <v>神器5-10个</v>
+      </c>
+      <c r="E35" s="56">
+        <v>10</v>
+      </c>
+      <c r="F35" s="56">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H35" s="49">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I35" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>高级强化石-30个</v>
+        <f t="shared" si="2"/>
+        <v>高级强化石-100个</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="57">
+      <c r="A36" s="56">
         <v>33</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C36" s="49">
         <v>5</v>
       </c>
       <c r="D36" s="49" t="str">
-        <f>B36&amp;"-"&amp;E36&amp;"个"</f>
-        <v>神器7-7个</v>
-      </c>
-      <c r="E36" s="57">
-        <v>7</v>
-      </c>
-      <c r="F36" s="57">
+        <f t="shared" si="0"/>
+        <v>神器6-10个</v>
+      </c>
+      <c r="E36" s="56">
+        <v>10</v>
+      </c>
+      <c r="F36" s="56">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H36" s="49">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I36" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-100个</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="56">
+        <v>34</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C37" s="56">
+        <v>5</v>
+      </c>
+      <c r="D37" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>高级强化石-50个</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="57">
-        <v>34</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C37" s="57">
-        <v>5</v>
-      </c>
-      <c r="D37" s="57" t="str">
-        <f>B37&amp;"-"&amp;E37&amp;"个"</f>
         <v>神器7-10个</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="56">
         <v>10</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="56">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H37" s="57">
+        <v>52</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H37" s="56">
         <v>100</v>
       </c>
-      <c r="I37" s="57"/>
+      <c r="I37" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>高级强化石-100个</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I38" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:H2">
-    <sortState ref="B3:H30">
-      <sortCondition ref="B2"/>
+    <sortState ref="B3:H37">
+      <sortCondition ref="F2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11814,7 +11845,7 @@
   <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12610,8 +12641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14654,7 +14685,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="85" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -14676,7 +14707,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -14694,7 +14725,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -14716,7 +14747,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="85" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -14734,7 +14765,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="91"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -14750,7 +14781,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -14764,7 +14795,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -14786,7 +14817,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -14804,7 +14835,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -14822,7 +14853,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -14844,7 +14875,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="88" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14868,7 +14899,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -14892,7 +14923,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -14912,7 +14943,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="86" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -14928,7 +14959,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="91"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -14948,7 +14979,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="91"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -14970,7 +15001,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="91"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -14986,7 +15017,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="85" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -15012,7 +15043,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -15034,7 +15065,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="92"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -15056,7 +15087,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="85" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -15080,7 +15111,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="91"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -15102,7 +15133,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -15147,16 +15178,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="89" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="93"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="88" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -15178,7 +15209,7 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -15198,7 +15229,7 @@
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -15302,7 +15333,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="90" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -15317,12 +15348,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="86"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -15338,7 +15369,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="86"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -15354,7 +15385,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="86"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -15370,7 +15401,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -15387,12 +15418,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -15400,12 +15431,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15416,8 +15447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AT53"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8:AS8"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15463,114 +15494,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="89" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="89" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="89" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="93" t="s">
+      <c r="I4" s="89" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="89" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="89" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93" t="s">
+      <c r="N4" s="89"/>
+      <c r="O4" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93" t="s">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93" t="s">
+      <c r="R4" s="89"/>
+      <c r="S4" s="89" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93" t="s">
+      <c r="T4" s="89"/>
+      <c r="U4" s="89" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93" t="s">
+      <c r="V4" s="89"/>
+      <c r="W4" s="89" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93" t="s">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93" t="s">
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93" t="s">
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93" t="s">
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93" t="s">
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93" t="s">
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93" t="s">
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93" t="s">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93" t="s">
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89" t="s">
         <v>1129</v>
       </c>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93" t="s">
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89" t="s">
         <v>1130</v>
       </c>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AT4" s="93"/>
+      <c r="AT4" s="89"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -15681,14 +15712,14 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="96" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>797</v>
@@ -15774,13 +15805,13 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="45" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>1126</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>1127</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -15846,7 +15877,7 @@
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AN7" s="45"/>
       <c r="AO7" s="45">
@@ -15863,13 +15894,13 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>800</v>
@@ -15954,7 +15985,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -16433,7 +16464,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="96" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -16441,7 +16472,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>1062</v>
+        <v>1272</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -16505,7 +16536,7 @@
       </c>
       <c r="AL18" s="25"/>
       <c r="AM18" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="45">
@@ -16522,13 +16553,13 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="96"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1062</v>
+        <v>1273</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -16603,12 +16634,14 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="96"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>1274</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -16618,33 +16651,61 @@
         <v>10</v>
       </c>
       <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="25">
+        <v>15</v>
+      </c>
       <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="O20" s="25">
+        <v>20</v>
+      </c>
       <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+      <c r="Q20" s="25">
+        <v>24</v>
+      </c>
       <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
+      <c r="S20" s="25">
+        <v>28</v>
+      </c>
       <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
+      <c r="U20" s="25">
+        <v>32</v>
+      </c>
       <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
+      <c r="W20" s="25">
+        <v>35</v>
+      </c>
       <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
+      <c r="Y20" s="25">
+        <v>38</v>
+      </c>
       <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
+      <c r="AA20" s="25">
+        <v>40</v>
+      </c>
       <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
+      <c r="AC20" s="25">
+        <v>42</v>
+      </c>
       <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
+      <c r="AE20" s="25">
+        <v>44</v>
+      </c>
       <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
+      <c r="AG20" s="25">
+        <v>46</v>
+      </c>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
+      <c r="AI20" s="25">
+        <v>48</v>
+      </c>
       <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
+      <c r="AK20" s="25">
+        <v>50</v>
+      </c>
       <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
+      <c r="AM20" s="25" t="s">
+        <v>1276</v>
+      </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -16654,24 +16715,34 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="96"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="57" t="s">
+        <v>1274</v>
+      </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="K21" s="25">
+        <v>5</v>
+      </c>
       <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="25">
+        <v>10</v>
+      </c>
       <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="25">
+        <v>15</v>
+      </c>
       <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
+      <c r="Q21" s="25">
+        <v>20</v>
+      </c>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -16703,22 +16774,30 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="96"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="57" t="s">
+        <v>1274</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
       <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="M22" s="25">
+        <v>0</v>
+      </c>
       <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="O22" s="25">
+        <v>5</v>
+      </c>
       <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
@@ -16752,22 +16831,30 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="97"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
       <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="57" t="s">
+        <v>1274</v>
+      </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="25">
+        <v>0</v>
+      </c>
       <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="25">
+        <v>0</v>
+      </c>
       <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="25">
+        <v>5</v>
+      </c>
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
@@ -16802,7 +16889,7 @@
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="84" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>821</v>
@@ -16902,7 +16989,7 @@
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="84" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>821</v>
@@ -17002,7 +17089,7 @@
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="84" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>821</v>
@@ -17200,7 +17287,7 @@
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="84" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>821</v>
@@ -17398,7 +17485,7 @@
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="84" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>821</v>
@@ -17694,7 +17781,7 @@
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B42" s="84" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>821</v>
@@ -17990,7 +18077,7 @@
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B48" s="84" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>821</v>
@@ -18286,6 +18373,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -18302,27 +18410,6 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18332,10 +18419,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F126" sqref="F120:F126"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18772,7 +18859,7 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I23" s="84"/>
     </row>
@@ -18793,7 +18880,7 @@
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="96" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -18814,7 +18901,7 @@
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="96"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
@@ -18833,7 +18920,7 @@
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="96"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
@@ -18852,7 +18939,7 @@
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="96"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
@@ -18871,7 +18958,7 @@
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="96"/>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
@@ -18890,7 +18977,7 @@
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="96"/>
+      <c r="I29" s="97"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -18909,7 +18996,7 @@
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="97"/>
+      <c r="I30" s="98"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -19066,7 +19153,7 @@
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="25" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I38" s="84"/>
     </row>
@@ -19077,12 +19164,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="93" t="s">
         <v>1019</v>
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="99"/>
-      <c r="F39" s="89"/>
+      <c r="F39" s="94"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -19283,7 +19370,7 @@
       <c r="F50" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I50" s="95" t="s">
+      <c r="I50" s="96" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -19302,9 +19389,9 @@
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I51" s="97"/>
+        <v>1087</v>
+      </c>
+      <c r="I51" s="98"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
@@ -19456,7 +19543,7 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="85" t="s">
+      <c r="I60" s="90" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -19475,7 +19562,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="86"/>
+      <c r="I61" s="91"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -19492,7 +19579,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="86"/>
+      <c r="I62" s="91"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -19509,7 +19596,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="86"/>
+      <c r="I63" s="91"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -19526,7 +19613,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="86"/>
+      <c r="I64" s="91"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -19543,7 +19630,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="86"/>
+      <c r="I65" s="91"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -19560,7 +19647,7 @@
       <c r="F66" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I66" s="86"/>
+      <c r="I66" s="91"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -19577,7 +19664,7 @@
       <c r="F67" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I67" s="86"/>
+      <c r="I67" s="91"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -19592,9 +19679,9 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I68" s="87"/>
+        <v>1096</v>
+      </c>
+      <c r="I68" s="92"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
@@ -19663,7 +19750,7 @@
         <v>982</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19764,7 +19851,7 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I78" s="84"/>
     </row>
@@ -19967,7 +20054,7 @@
         <v>1044</v>
       </c>
       <c r="I91" s="84" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19983,7 +20070,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I92" s="84"/>
     </row>
@@ -20085,7 +20172,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="37" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I98" s="55"/>
     </row>
@@ -20102,7 +20189,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="37" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I99" s="55"/>
     </row>
@@ -20119,13 +20206,13 @@
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="84" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B101" s="84"/>
       <c r="C101" s="84"/>
@@ -20133,217 +20220,239 @@
       <c r="E101" s="84"/>
       <c r="F101" s="84"/>
       <c r="H101" s="31"/>
-      <c r="I101" s="56" t="s">
-        <v>1269</v>
+      <c r="I101" s="57" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
+      <c r="A102" s="45">
+        <v>90</v>
+      </c>
       <c r="B102" s="45" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
     <row r="103" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="45"/>
+      <c r="A103" s="45">
+        <v>91</v>
+      </c>
       <c r="B103" s="45" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="45" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="45"/>
+      <c r="A104" s="57">
+        <v>92</v>
+      </c>
       <c r="B104" s="45" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
       <c r="F104" s="45" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="45"/>
+      <c r="A105" s="57">
+        <v>93</v>
+      </c>
       <c r="B105" s="45" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
       <c r="F105" s="45" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="45"/>
+      <c r="A106" s="57">
+        <v>94</v>
+      </c>
       <c r="B106" s="45" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
       <c r="F106" s="45" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
+      <c r="A107" s="57">
+        <v>95</v>
+      </c>
       <c r="B107" s="45" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="49" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
+      <c r="A108" s="57">
+        <v>96</v>
+      </c>
       <c r="B108" s="45" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
       <c r="F108" s="49" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
+      <c r="A109" s="57">
+        <v>97</v>
+      </c>
       <c r="B109" s="52" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
       <c r="F109" s="52" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="47" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="88"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="93"/>
       <c r="B110" s="99"/>
       <c r="C110" s="99"/>
       <c r="D110" s="99"/>
       <c r="E110" s="99"/>
-      <c r="F110" s="89"/>
+      <c r="F110" s="94"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="52" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
       <c r="F111" s="52" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I111" s="84" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="52" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
       <c r="F112" s="52" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I112" s="84"/>
     </row>
-    <row r="113" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
       <c r="B113" s="52" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
       <c r="F113" s="52" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1260</v>
+      </c>
+      <c r="I113" s="84"/>
+    </row>
+    <row r="114" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
       <c r="B114" s="52" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
       <c r="F114" s="52" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1261</v>
+      </c>
+      <c r="I114" s="84"/>
+    </row>
+    <row r="115" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
       <c r="B115" s="52" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
       <c r="E115" s="52"/>
       <c r="F115" s="52" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1262</v>
+      </c>
+      <c r="I115" s="84"/>
+    </row>
+    <row r="116" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
       <c r="B116" s="52" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
       <c r="E116" s="52"/>
       <c r="F116" s="52" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1263</v>
+      </c>
+      <c r="I116" s="84"/>
+    </row>
+    <row r="117" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="52" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
       <c r="F117" s="52" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1264</v>
+      </c>
+      <c r="I117" s="84"/>
+    </row>
+    <row r="118" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="52" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
       <c r="E118" s="52"/>
       <c r="F118" s="52" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1265</v>
+      </c>
+      <c r="I118" s="84"/>
+    </row>
+    <row r="119" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="52"/>
       <c r="B119" s="52"/>
       <c r="C119" s="52"/>
@@ -20351,91 +20460,98 @@
       <c r="E119" s="52"/>
       <c r="F119" s="52"/>
     </row>
-    <row r="120" spans="1:6" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
       <c r="E120" s="52"/>
       <c r="F120" s="52" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1246</v>
+      </c>
+      <c r="I120" s="84"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="52" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
       <c r="F121" s="52" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1247</v>
+      </c>
+      <c r="I121" s="84"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="52" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
       <c r="F122" s="52" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1269</v>
+      </c>
+      <c r="I122" s="84"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="52" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
       <c r="F123" s="52" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1248</v>
+      </c>
+      <c r="I123" s="84"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="52" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
       <c r="E124" s="52"/>
       <c r="F124" s="52" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1249</v>
+      </c>
+      <c r="I124" s="84"/>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="52" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="52" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1270</v>
+      </c>
+      <c r="I125" s="84"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
       <c r="E126" s="52"/>
       <c r="F126" s="52" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1271</v>
+      </c>
+      <c r="I126" s="84"/>
+    </row>
+    <row r="127" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="52"/>
       <c r="B127" s="52"/>
       <c r="C127" s="52"/>
@@ -20443,109 +20559,188 @@
       <c r="E127" s="52"/>
       <c r="F127" s="52"/>
     </row>
-    <row r="128" spans="1:6" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="52"/>
-    </row>
-    <row r="129" spans="1:6" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52" t="s">
+    <row r="128" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="57"/>
+      <c r="B128" s="57" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C128" s="57"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="57"/>
+    </row>
+    <row r="129" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="57"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="57"/>
+    </row>
+    <row r="130" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="57"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+    </row>
+    <row r="131" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="57"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+    </row>
+    <row r="132" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="57"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+    </row>
+    <row r="133" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="57"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+    </row>
+    <row r="134" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="57"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+    </row>
+    <row r="135" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="57"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+    </row>
+    <row r="136" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="57"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+    </row>
+    <row r="137" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="57"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+    </row>
+    <row r="138" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="57"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="52"/>
+      <c r="B139" s="52" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C139" s="52"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="I139" s="84"/>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="52"/>
+      <c r="B140" s="52" t="s">
         <v>1238</v>
       </c>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52" t="s">
+      <c r="C140" s="52"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="52"/>
+      <c r="I140" s="84"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="52"/>
+      <c r="B141" s="52" t="s">
         <v>1239</v>
       </c>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52" t="s">
+      <c r="C141" s="52"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="52"/>
+      <c r="I141" s="84"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="52"/>
+      <c r="B142" s="52" t="s">
         <v>1240</v>
       </c>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52" t="s">
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="I142" s="84"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="52"/>
+      <c r="B143" s="52" t="s">
         <v>1241</v>
       </c>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="52"/>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52" t="s">
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="I143" s="84"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="52"/>
+      <c r="B144" s="52" t="s">
         <v>1242</v>
       </c>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52" t="s">
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
+      <c r="F144" s="52"/>
+      <c r="I144" s="84"/>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="52"/>
+      <c r="B145" s="52" t="s">
         <v>1243</v>
       </c>
-      <c r="C135" s="52"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="52"/>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52" t="s">
+      <c r="C145" s="52"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="52"/>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="52"/>
+      <c r="B146" s="52" t="s">
         <v>1244</v>
       </c>
-      <c r="C136" s="52"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="52"/>
-      <c r="F136" s="52"/>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C137" s="52"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="52"/>
-      <c r="F137" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+      <c r="I146" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="I72:I78"/>
+  <mergeCells count="16">
+    <mergeCell ref="I120:I126"/>
+    <mergeCell ref="I139:I146"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
@@ -20555,6 +20750,11 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="I72:I78"/>
+    <mergeCell ref="I111:I118"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20581,22 +20781,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>1107</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>1108</v>
-      </c>
       <c r="C2" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="E2" s="43" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>1123</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20604,13 +20804,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>1110</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20618,13 +20818,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>1112</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>1113</v>
-      </c>
       <c r="D4" s="42" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20632,13 +20832,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C5" s="42" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>1114</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20646,13 +20846,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>1116</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="42" t="s">
         <v>1117</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20660,13 +20860,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20681,10 +20881,10 @@
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>1121</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20867,39 +21067,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
-        <v>1075</v>
+      <c r="A2" s="89" t="s">
+        <v>1074</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="105"/>
       <c r="F2" s="103" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G2" s="104"/>
       <c r="H2" s="103" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I2" s="104"/>
       <c r="J2" s="103" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K2" s="104"/>
       <c r="L2" s="103" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M2" s="104"/>
       <c r="N2" s="103" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O2" s="104"/>
       <c r="P2" s="103" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q2" s="104"/>
       <c r="R2" s="104"/>
@@ -20909,69 +21109,69 @@
       <c r="V2" s="105"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="D3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="F3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="H3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="J3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="K3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="L3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="M3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="N3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="O3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="P3" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>1221</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>1073</v>
       </c>
-      <c r="Q3" s="50" t="s">
-        <v>1222</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>1074</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="T3" s="46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="U3" s="46" t="s">
         <v>1149</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="V3" s="46" t="s">
         <v>1150</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -20979,28 +21179,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>1076</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>1077</v>
-      </c>
       <c r="D4" s="49" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>1084</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>1085</v>
-      </c>
       <c r="F4" s="49" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>1101</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="I4" s="49" t="s">
         <v>1102</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>1103</v>
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -21015,15 +21215,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="S4" s="49"/>
       <c r="T4" s="45"/>
       <c r="U4" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21031,28 +21231,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F5" s="49" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G5" s="49" t="s">
         <v>1099</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1100</v>
-      </c>
       <c r="H5" s="49" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>1104</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>1105</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
@@ -21067,15 +21267,15 @@
         <v>35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="45"/>
       <c r="U5" s="49" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21083,16 +21283,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -21111,15 +21311,15 @@
         <v>35</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="45"/>
       <c r="U6" s="49" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21127,16 +21327,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>1095</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1096</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
@@ -21155,15 +21355,15 @@
         <v>35</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="45"/>
       <c r="U7" s="49" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21191,15 +21391,15 @@
         <v>40</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S8" s="49"/>
       <c r="T8" s="45"/>
       <c r="U8" s="49" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21227,15 +21427,15 @@
         <v>40</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21263,15 +21463,15 @@
         <v>40</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="49" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21299,15 +21499,15 @@
         <v>40</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
       <c r="U11" s="49" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21335,15 +21535,15 @@
         <v>40</v>
       </c>
       <c r="R12" s="42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="45"/>
       <c r="U12" s="49" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21371,15 +21571,15 @@
         <v>50</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S13" s="49"/>
       <c r="T13" s="45"/>
       <c r="U13" s="49" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21407,15 +21607,15 @@
         <v>50</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="45"/>
       <c r="U14" s="49" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21443,15 +21643,15 @@
         <v>50</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="S15" s="49"/>
       <c r="T15" s="45"/>
       <c r="U15" s="49" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -21479,15 +21679,15 @@
         <v>50</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="S16" s="49"/>
       <c r="T16" s="45"/>
       <c r="U16" s="49" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21515,15 +21715,15 @@
         <v>50</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="S17" s="49"/>
       <c r="T17" s="45"/>
       <c r="U17" s="49" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21551,15 +21751,15 @@
         <v>55</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="S18" s="49"/>
       <c r="T18" s="45"/>
       <c r="U18" s="49" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21587,15 +21787,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="S19" s="49"/>
       <c r="T19" s="45"/>
       <c r="U19" s="49" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21623,15 +21823,15 @@
         <v>55</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="45"/>
       <c r="U20" s="49" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21659,15 +21859,15 @@
         <v>55</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="45"/>
       <c r="U21" s="49" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21695,15 +21895,15 @@
         <v>60</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="45"/>
       <c r="U22" s="49" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21731,15 +21931,15 @@
         <v>60</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="S23" s="49"/>
       <c r="T23" s="45"/>
       <c r="U23" s="49" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21767,15 +21967,15 @@
         <v>60</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="45"/>
       <c r="U24" s="49" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21803,15 +22003,15 @@
         <v>70</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="S25" s="49"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21839,15 +22039,15 @@
         <v>70</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S26" s="49"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21875,15 +22075,15 @@
         <v>70</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S27" s="49"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21911,15 +22111,15 @@
         <v>80</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="S28" s="49"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21947,15 +22147,15 @@
         <v>80</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="S29" s="49"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21983,15 +22183,15 @@
         <v>80</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22019,15 +22219,15 @@
         <v>80</v>
       </c>
       <c r="R31" s="49" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="S31" s="49"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="V31" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4318,10 +4318,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1小时，来自牧守令。产出3级的队伍经验，和3个守护灵10级的经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>只满足0.5个守护灵2突，3个守护灵从10级升到13级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5286,6 +5282,10 @@
   </si>
   <si>
     <t>每天1层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时，来自牧守令。产出3级的队伍经验，和3个守护灵10级的经验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6085,6 +6085,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6130,21 +6145,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6167,21 +6167,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6196,8 +6181,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6207,6 +6204,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6581,12 +6581,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6595,10 +6595,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="70" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6609,26 +6609,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="66"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6637,10 +6637,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6649,151 +6649,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6806,12 +6802,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6857,28 +6857,28 @@
   <sheetData>
     <row r="2" spans="1:9" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>1161</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>1162</v>
-      </c>
       <c r="E2" s="16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>1151</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>1152</v>
-      </c>
       <c r="G2" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>1192</v>
-      </c>
       <c r="I2" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6886,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C3" s="49">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>1.2</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H3" s="49">
         <v>10</v>
@@ -6918,7 +6918,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C4" s="49">
         <v>1.5</v>
@@ -6935,7 +6935,7 @@
         <v>1.7</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H4" s="49">
         <v>10</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C5" s="49">
         <v>1</v>
@@ -6967,7 +6967,7 @@
         <v>2.4</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H5" s="49">
         <v>20</v>
@@ -6982,7 +6982,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C6" s="49">
         <v>2.5</v>
@@ -6999,7 +6999,7 @@
         <v>2.7</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H6" s="49">
         <v>10</v>
@@ -7014,7 +7014,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C7" s="56">
         <v>3</v>
@@ -7031,7 +7031,7 @@
         <v>3.2</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H7" s="56">
         <v>10</v>
@@ -7046,7 +7046,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C8" s="49">
         <v>1.5</v>
@@ -7063,7 +7063,7 @@
         <v>3.4</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H8" s="56">
         <v>20</v>
@@ -7078,7 +7078,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C9" s="49">
         <v>1</v>
@@ -7095,7 +7095,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H9" s="56">
         <v>30</v>
@@ -7110,7 +7110,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C10" s="49">
         <v>5</v>
@@ -7127,7 +7127,7 @@
         <v>5.2</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H10" s="56">
         <v>10</v>
@@ -7142,7 +7142,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C11" s="49">
         <v>5</v>
@@ -7159,7 +7159,7 @@
         <v>5.2</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H11" s="56">
         <v>10</v>
@@ -7174,7 +7174,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C12" s="56">
         <v>5</v>
@@ -7191,7 +7191,7 @@
         <v>5.2</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H12" s="56">
         <v>10</v>
@@ -7206,7 +7206,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C13" s="49">
         <v>2.5</v>
@@ -7223,7 +7223,7 @@
         <v>5.4</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H13" s="56">
         <v>20</v>
@@ -7238,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C14" s="49">
         <v>3</v>
@@ -7255,7 +7255,7 @@
         <v>6.4</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H14" s="56">
         <v>20</v>
@@ -7270,7 +7270,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C15" s="49">
         <v>1.5</v>
@@ -7287,7 +7287,7 @@
         <v>6.6</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H15" s="56">
         <v>30</v>
@@ -7302,7 +7302,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C16" s="49">
         <v>1</v>
@@ -7319,7 +7319,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H16" s="56">
         <v>50</v>
@@ -7334,7 +7334,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C17" s="56">
         <v>1</v>
@@ -7351,7 +7351,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H17" s="56">
         <v>100</v>
@@ -7366,7 +7366,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C18" s="49">
         <v>5</v>
@@ -7383,7 +7383,7 @@
         <v>10.4</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H18" s="49">
         <v>20</v>
@@ -7398,7 +7398,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C19" s="49">
         <v>5</v>
@@ -7415,7 +7415,7 @@
         <v>10.4</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H19" s="49">
         <v>20</v>
@@ -7430,7 +7430,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C20" s="49">
         <v>5</v>
@@ -7447,7 +7447,7 @@
         <v>10.4</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H20" s="49">
         <v>20</v>
@@ -7462,7 +7462,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C21" s="49">
         <v>2.5</v>
@@ -7479,7 +7479,7 @@
         <v>10.6</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H21" s="49">
         <v>30</v>
@@ -7494,7 +7494,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C22" s="56">
         <v>1.5</v>
@@ -7511,7 +7511,7 @@
         <v>11.5</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H22" s="56">
         <v>50</v>
@@ -7526,7 +7526,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C23" s="49">
         <v>3</v>
@@ -7543,7 +7543,7 @@
         <v>12.6</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H23" s="49">
         <v>30</v>
@@ -7558,7 +7558,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C24" s="49">
         <v>1.5</v>
@@ -7575,7 +7575,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H24" s="49">
         <v>100</v>
@@ -7590,7 +7590,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C25" s="49">
         <v>2.5</v>
@@ -7607,7 +7607,7 @@
         <v>18.5</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H25" s="49">
         <v>50</v>
@@ -7622,7 +7622,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C26" s="49">
         <v>2.5</v>
@@ -7639,7 +7639,7 @@
         <v>19.5</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H26" s="49">
         <v>100</v>
@@ -7654,7 +7654,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C27" s="56">
         <v>5</v>
@@ -7671,7 +7671,7 @@
         <v>20.6</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H27" s="56">
         <v>30</v>
@@ -7686,7 +7686,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C28" s="49">
         <v>5</v>
@@ -7703,7 +7703,7 @@
         <v>20.6</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H28" s="49">
         <v>30</v>
@@ -7718,7 +7718,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C29" s="49">
         <v>5</v>
@@ -7735,7 +7735,7 @@
         <v>20.6</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H29" s="49">
         <v>30</v>
@@ -7750,7 +7750,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C30" s="49">
         <v>3</v>
@@ -7767,7 +7767,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H30" s="49">
         <v>50</v>
@@ -7782,7 +7782,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C31" s="49">
         <v>3</v>
@@ -7799,7 +7799,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H31" s="49">
         <v>100</v>
@@ -7814,7 +7814,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C32" s="56">
         <v>5</v>
@@ -7831,7 +7831,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H32" s="56">
         <v>50</v>
@@ -7846,7 +7846,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C33" s="49">
         <v>5</v>
@@ -7863,7 +7863,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H33" s="49">
         <v>50</v>
@@ -7878,7 +7878,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C34" s="49">
         <v>5</v>
@@ -7895,7 +7895,7 @@
         <v>36</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H34" s="49">
         <v>50</v>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C35" s="49">
         <v>5</v>
@@ -7927,7 +7927,7 @@
         <v>52</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H35" s="49">
         <v>100</v>
@@ -7942,7 +7942,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C36" s="49">
         <v>5</v>
@@ -7959,7 +7959,7 @@
         <v>52</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H36" s="49">
         <v>100</v>
@@ -7974,7 +7974,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C37" s="56">
         <v>5</v>
@@ -7991,7 +7991,7 @@
         <v>52</v>
       </c>
       <c r="G37" s="56" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H37" s="56">
         <v>100</v>
@@ -14685,7 +14685,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="90" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -14707,7 +14707,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -14725,7 +14725,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -14747,7 +14747,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="90" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -14765,7 +14765,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -14781,7 +14781,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -14795,7 +14795,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -14817,7 +14817,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -14835,7 +14835,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="86"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -14853,7 +14853,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -14875,7 +14875,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14899,7 +14899,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="88"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -14923,7 +14923,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="88"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -14943,7 +14943,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="91" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -14959,7 +14959,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -14979,7 +14979,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -15001,7 +15001,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -15017,7 +15017,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="90" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -15043,7 +15043,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -15065,7 +15065,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -15087,7 +15087,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="90" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -15111,7 +15111,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -15133,7 +15133,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -15178,16 +15178,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="93" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="89"/>
+      <c r="G30" s="93"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="94" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -15209,7 +15209,7 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="88"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -15229,7 +15229,7 @@
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -15333,7 +15333,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="85" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -15348,12 +15348,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="91"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -15369,7 +15369,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -15385,7 +15385,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="91"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -15401,7 +15401,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="92"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -15418,12 +15418,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -15431,12 +15431,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15447,7 +15447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AT53"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6:N8"/>
     </sheetView>
   </sheetViews>
@@ -15494,114 +15494,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="93" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="93" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="93" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="93" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="93" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="93" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="93" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89" t="s">
+      <c r="N4" s="93"/>
+      <c r="O4" s="93" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89" t="s">
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89" t="s">
+      <c r="R4" s="93"/>
+      <c r="S4" s="93" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89" t="s">
+      <c r="T4" s="93"/>
+      <c r="U4" s="93" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89" t="s">
+      <c r="V4" s="93"/>
+      <c r="W4" s="93" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89" t="s">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89" t="s">
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89" t="s">
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89" t="s">
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89" t="s">
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89" t="s">
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89" t="s">
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89" t="s">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89" t="s">
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93" t="s">
         <v>1128</v>
       </c>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89" t="s">
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93" t="s">
         <v>1129</v>
       </c>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AT4" s="89"/>
+      <c r="AT4" s="93"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -15712,14 +15712,14 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="95" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="95" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>797</v>
@@ -15788,7 +15788,7 @@
       </c>
       <c r="AL6" s="25"/>
       <c r="AM6" s="25" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AN6" s="25"/>
       <c r="AO6" s="45">
@@ -15805,13 +15805,13 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="45" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>1125</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>1126</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AN7" s="45"/>
       <c r="AO7" s="45">
@@ -15894,13 +15894,13 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>800</v>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="40" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AN8" s="25"/>
       <c r="AO8" s="45">
@@ -15985,7 +15985,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="98"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>799</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>803</v>
@@ -16464,7 +16464,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -16536,7 +16536,7 @@
       </c>
       <c r="AL18" s="25"/>
       <c r="AM18" s="25" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="45">
@@ -16553,13 +16553,13 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="97"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -16634,13 +16634,13 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="97"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -16704,7 +16704,7 @@
       </c>
       <c r="AL20" s="25"/>
       <c r="AM20" s="25" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="45"/>
@@ -16715,13 +16715,13 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="97"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="57" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -16774,13 +16774,13 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="97"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="57" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -16831,13 +16831,13 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="98"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="57" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -16889,7 +16889,7 @@
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="84" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>821</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="84" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>821</v>
@@ -17089,7 +17089,7 @@
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="84" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>821</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="84" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>821</v>
@@ -17485,7 +17485,7 @@
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="84" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>821</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B42" s="84" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>821</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B48" s="84" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>821</v>
@@ -18373,27 +18373,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -18410,6 +18389,27 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18421,8 +18421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18746,7 +18746,7 @@
         <v>870</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>1014</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -18859,7 +18859,7 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I23" s="84"/>
     </row>
@@ -18874,14 +18874,14 @@
         <v>10</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="96" t="s">
-        <v>1015</v>
+      <c r="I24" s="95" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -18895,13 +18895,13 @@
         <v>11</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="97"/>
+      <c r="I25" s="96"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
@@ -18914,13 +18914,13 @@
         <v>11</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="97"/>
+      <c r="I26" s="96"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
@@ -18933,13 +18933,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="97"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
@@ -18952,13 +18952,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="97"/>
+      <c r="I28" s="96"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
@@ -18971,13 +18971,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="97"/>
+      <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -18990,13 +18990,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="98"/>
+      <c r="I30" s="97"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -19016,7 +19016,7 @@
         <v>905</v>
       </c>
       <c r="I31" s="84" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>1003</v>
@@ -19128,14 +19128,14 @@
         <v>16</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
       <c r="I37" s="84" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19149,11 +19149,11 @@
         <v>16</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="25" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I38" s="84"/>
     </row>
@@ -19164,12 +19164,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="93" t="s">
-        <v>1019</v>
+      <c r="C39" s="88" t="s">
+        <v>1018</v>
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="99"/>
-      <c r="F39" s="94"/>
+      <c r="F39" s="89"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -19370,8 +19370,8 @@
       <c r="F50" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I50" s="96" t="s">
-        <v>1029</v>
+      <c r="I50" s="95" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19389,16 +19389,16 @@
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I51" s="98"/>
+        <v>1086</v>
+      </c>
+      <c r="I51" s="97"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>40</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="29">
         <v>20</v>
@@ -19423,7 +19423,7 @@
         <v>981</v>
       </c>
       <c r="I53" s="84" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19543,8 +19543,8 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="90" t="s">
-        <v>1031</v>
+      <c r="I60" s="85" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19562,7 +19562,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="91"/>
+      <c r="I61" s="86"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -19579,7 +19579,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="91"/>
+      <c r="I62" s="86"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -19596,7 +19596,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="91"/>
+      <c r="I63" s="86"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -19613,7 +19613,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="91"/>
+      <c r="I64" s="86"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -19630,7 +19630,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="91"/>
+      <c r="I65" s="86"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -19647,7 +19647,7 @@
       <c r="F66" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I66" s="91"/>
+      <c r="I66" s="86"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -19664,7 +19664,7 @@
       <c r="F67" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I67" s="91"/>
+      <c r="I67" s="86"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -19679,16 +19679,16 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I68" s="92"/>
+        <v>1095</v>
+      </c>
+      <c r="I68" s="87"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>58</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C69" s="29">
         <v>25</v>
@@ -19696,7 +19696,7 @@
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I69" s="39"/>
     </row>
@@ -19713,7 +19713,7 @@
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
       <c r="F70" s="29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I70" s="39"/>
     </row>
@@ -19722,7 +19722,7 @@
         <v>60</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C71" s="29">
         <v>26</v>
@@ -19730,7 +19730,7 @@
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I71" s="39"/>
     </row>
@@ -19750,7 +19750,7 @@
         <v>982</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19851,7 +19851,7 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I78" s="84"/>
     </row>
@@ -19860,7 +19860,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C79" s="101"/>
       <c r="D79" s="101"/>
@@ -19894,7 +19894,7 @@
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19910,7 +19910,7 @@
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19926,7 +19926,7 @@
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19942,7 +19942,7 @@
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I84" s="38"/>
     </row>
@@ -19959,7 +19959,7 @@
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19975,7 +19975,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19983,7 +19983,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -19995,7 +19995,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C88" s="29">
         <v>33</v>
@@ -20003,7 +20003,7 @@
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20019,7 +20019,7 @@
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20035,7 +20035,7 @@
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20051,10 +20051,10 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I91" s="84" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20062,7 +20062,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C92" s="52">
         <v>35</v>
@@ -20070,7 +20070,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I92" s="84"/>
     </row>
@@ -20079,7 +20079,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C93" s="52">
         <v>35</v>
@@ -20087,7 +20087,7 @@
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I93" s="55"/>
     </row>
@@ -20104,7 +20104,7 @@
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="29" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I94" s="55"/>
     </row>
@@ -20121,7 +20121,7 @@
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="29" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I95" s="55"/>
     </row>
@@ -20138,7 +20138,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="29" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I96" s="55"/>
     </row>
@@ -20155,7 +20155,7 @@
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
       <c r="F97" s="37" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I97" s="55"/>
     </row>
@@ -20164,7 +20164,7 @@
         <v>87</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C98" s="52">
         <v>35</v>
@@ -20172,7 +20172,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="37" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I98" s="55"/>
     </row>
@@ -20181,7 +20181,7 @@
         <v>88</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C99" s="52">
         <v>35</v>
@@ -20189,7 +20189,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="37" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I99" s="55"/>
     </row>
@@ -20198,7 +20198,7 @@
         <v>89</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C100" s="52">
         <v>35</v>
@@ -20206,13 +20206,13 @@
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="84" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B101" s="84"/>
       <c r="C101" s="84"/>
@@ -20221,7 +20221,7 @@
       <c r="F101" s="84"/>
       <c r="H101" s="31"/>
       <c r="I101" s="57" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -20229,13 +20229,13 @@
         <v>90</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -20245,13 +20245,13 @@
         <v>91</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="45" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20259,13 +20259,13 @@
         <v>92</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
       <c r="F104" s="45" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20273,13 +20273,13 @@
         <v>93</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
       <c r="F105" s="45" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20287,13 +20287,13 @@
         <v>94</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
       <c r="F106" s="45" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20301,13 +20301,13 @@
         <v>95</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="49" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20315,13 +20315,13 @@
         <v>96</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
       <c r="F108" s="49" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20329,126 +20329,126 @@
         <v>97</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
       <c r="F109" s="52" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="93"/>
+      <c r="A110" s="88"/>
       <c r="B110" s="99"/>
       <c r="C110" s="99"/>
       <c r="D110" s="99"/>
       <c r="E110" s="99"/>
-      <c r="F110" s="94"/>
+      <c r="F110" s="89"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="52" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
       <c r="F111" s="52" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I111" s="84" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="52" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
       <c r="F112" s="52" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I112" s="84"/>
     </row>
     <row r="113" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
       <c r="B113" s="52" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
       <c r="F113" s="52" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I113" s="84"/>
     </row>
     <row r="114" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
       <c r="B114" s="52" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
       <c r="F114" s="52" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
       <c r="B115" s="52" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
       <c r="E115" s="52"/>
       <c r="F115" s="52" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
       <c r="B116" s="52" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
       <c r="E116" s="52"/>
       <c r="F116" s="52" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I116" s="84"/>
     </row>
     <row r="117" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="52" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
       <c r="F117" s="52" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I117" s="84"/>
     </row>
     <row r="118" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="52" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
       <c r="E118" s="52"/>
       <c r="F118" s="52" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I118" s="84"/>
     </row>
@@ -20463,91 +20463,91 @@
     <row r="120" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="52" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
       <c r="E120" s="52"/>
       <c r="F120" s="52" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I120" s="84"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
       <c r="F121" s="52" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I121" s="84"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="52" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
       <c r="F122" s="52" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I122" s="84"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="52" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
       <c r="F123" s="52" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I123" s="84"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="52" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
       <c r="E124" s="52"/>
       <c r="F124" s="52" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I124" s="84"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="52" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="52" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I125" s="84"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="52" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
       <c r="E126" s="52"/>
       <c r="F126" s="52" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I126" s="84"/>
     </row>
@@ -20562,7 +20562,7 @@
     <row r="128" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="57"/>
       <c r="B128" s="57" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C128" s="57"/>
       <c r="D128" s="57"/>
@@ -20652,7 +20652,7 @@
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="52"/>
       <c r="B139" s="52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C139" s="52"/>
       <c r="D139" s="52"/>
@@ -20663,7 +20663,7 @@
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="52"/>
       <c r="B140" s="52" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C140" s="52"/>
       <c r="D140" s="52"/>
@@ -20674,7 +20674,7 @@
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="52"/>
       <c r="B141" s="52" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C141" s="52"/>
       <c r="D141" s="52"/>
@@ -20685,7 +20685,7 @@
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="52"/>
       <c r="B142" s="52" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="52"/>
@@ -20696,7 +20696,7 @@
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="52"/>
       <c r="B143" s="52" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C143" s="52"/>
       <c r="D143" s="52"/>
@@ -20707,7 +20707,7 @@
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="52"/>
       <c r="B144" s="52" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C144" s="52"/>
       <c r="D144" s="52"/>
@@ -20718,7 +20718,7 @@
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="52"/>
       <c r="B145" s="52" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C145" s="52"/>
       <c r="D145" s="52"/>
@@ -20729,7 +20729,7 @@
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="52"/>
       <c r="B146" s="52" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C146" s="52"/>
       <c r="D146" s="52"/>
@@ -20781,22 +20781,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>1106</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>1107</v>
-      </c>
       <c r="C2" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="E2" s="43" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>1122</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20804,13 +20804,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>1109</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20818,13 +20818,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>1111</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>1112</v>
-      </c>
       <c r="D4" s="42" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20832,13 +20832,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C5" s="42" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>1113</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20846,13 +20846,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>1115</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="42" t="s">
         <v>1116</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -20860,13 +20860,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20881,10 +20881,10 @@
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>1120</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -21067,39 +21067,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
-        <v>1074</v>
+      <c r="A2" s="93" t="s">
+        <v>1073</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E2" s="105"/>
       <c r="F2" s="103" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G2" s="104"/>
       <c r="H2" s="103" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I2" s="104"/>
       <c r="J2" s="103" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K2" s="104"/>
       <c r="L2" s="103" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M2" s="104"/>
       <c r="N2" s="103" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O2" s="104"/>
       <c r="P2" s="103" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q2" s="104"/>
       <c r="R2" s="104"/>
@@ -21109,69 +21109,69 @@
       <c r="V2" s="105"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="D3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="F3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="H3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="J3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="K3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="L3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="M3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="N3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="O3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="P3" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>1220</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="Q3" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>1073</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="T3" s="46" t="s">
+        <v>1147</v>
+      </c>
+      <c r="U3" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="V3" s="46" t="s">
         <v>1149</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -21179,28 +21179,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>1075</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>1076</v>
-      </c>
       <c r="D4" s="49" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>1083</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>1084</v>
-      </c>
       <c r="F4" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>1100</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="I4" s="49" t="s">
         <v>1101</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>1102</v>
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -21215,15 +21215,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="S4" s="49"/>
       <c r="T4" s="45"/>
       <c r="U4" s="49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21231,28 +21231,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F5" s="49" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G5" s="49" t="s">
         <v>1098</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1099</v>
-      </c>
       <c r="H5" s="49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>1103</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>1104</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
@@ -21267,15 +21267,15 @@
         <v>35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="45"/>
       <c r="U5" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21283,16 +21283,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -21311,15 +21311,15 @@
         <v>35</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="45"/>
       <c r="U6" s="49" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21327,16 +21327,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>1094</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1095</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
@@ -21355,15 +21355,15 @@
         <v>35</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="45"/>
       <c r="U7" s="49" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21391,15 +21391,15 @@
         <v>40</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="S8" s="49"/>
       <c r="T8" s="45"/>
       <c r="U8" s="49" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21427,15 +21427,15 @@
         <v>40</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21463,15 +21463,15 @@
         <v>40</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="49" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21499,15 +21499,15 @@
         <v>40</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
       <c r="U11" s="49" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21535,15 +21535,15 @@
         <v>40</v>
       </c>
       <c r="R12" s="42" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="45"/>
       <c r="U12" s="49" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21571,15 +21571,15 @@
         <v>50</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S13" s="49"/>
       <c r="T13" s="45"/>
       <c r="U13" s="49" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21607,15 +21607,15 @@
         <v>50</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="45"/>
       <c r="U14" s="49" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21643,15 +21643,15 @@
         <v>50</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S15" s="49"/>
       <c r="T15" s="45"/>
       <c r="U15" s="49" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -21679,15 +21679,15 @@
         <v>50</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="S16" s="49"/>
       <c r="T16" s="45"/>
       <c r="U16" s="49" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21715,15 +21715,15 @@
         <v>50</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="S17" s="49"/>
       <c r="T17" s="45"/>
       <c r="U17" s="49" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21751,15 +21751,15 @@
         <v>55</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="S18" s="49"/>
       <c r="T18" s="45"/>
       <c r="U18" s="49" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21787,15 +21787,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="S19" s="49"/>
       <c r="T19" s="45"/>
       <c r="U19" s="49" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21823,15 +21823,15 @@
         <v>55</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="45"/>
       <c r="U20" s="49" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21859,15 +21859,15 @@
         <v>55</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="45"/>
       <c r="U21" s="49" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21895,15 +21895,15 @@
         <v>60</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="45"/>
       <c r="U22" s="49" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21931,15 +21931,15 @@
         <v>60</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="S23" s="49"/>
       <c r="T23" s="45"/>
       <c r="U23" s="49" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21967,15 +21967,15 @@
         <v>60</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="45"/>
       <c r="U24" s="49" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22003,15 +22003,15 @@
         <v>70</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="S25" s="49"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22039,15 +22039,15 @@
         <v>70</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="S26" s="49"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22075,15 +22075,15 @@
         <v>70</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="S27" s="49"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22111,15 +22111,15 @@
         <v>80</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S28" s="49"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22147,15 +22147,15 @@
         <v>80</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S29" s="49"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22183,15 +22183,15 @@
         <v>80</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22219,15 +22219,15 @@
         <v>80</v>
       </c>
       <c r="R31" s="49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S31" s="49"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V31" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -16,15 +16,11 @@
     <sheet name="主线任务" sheetId="84" r:id="rId7"/>
     <sheet name="关卡卡点" sheetId="87" r:id="rId8"/>
     <sheet name="各系统关键点" sheetId="85" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="88" r:id="rId10"/>
-    <sheet name="属性表" sheetId="38" state="hidden" r:id="rId11"/>
-    <sheet name="军阶数值" sheetId="42" state="hidden" r:id="rId12"/>
-    <sheet name="突破数值备份" sheetId="49" state="hidden" r:id="rId13"/>
-    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId14"/>
+    <sheet name="属性表" sheetId="38" state="hidden" r:id="rId10"/>
+    <sheet name="军阶数值" sheetId="42" state="hidden" r:id="rId11"/>
+    <sheet name="突破数值备份" sheetId="49" state="hidden" r:id="rId12"/>
+    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId13"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet1!$B$2:$H$2</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="1260">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4841,54 +4837,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>神器1-1个</t>
   </si>
   <si>
@@ -4971,26 +4919,6 @@
   </si>
   <si>
     <t>神器7-8个</t>
-  </si>
-  <si>
-    <t>强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初级强化石-10个</t>
@@ -5934,7 +5862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6082,24 +6010,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6145,6 +6055,21 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6167,6 +6092,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6181,20 +6121,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6204,9 +6132,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6298,6 +6223,101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>322417</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15821025" y="1828800"/>
+          <a:ext cx="11466667" cy="7209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>26</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6581,12 +6601,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6595,10 +6615,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="64" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6609,26 +6629,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6637,10 +6657,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6649,147 +6669,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6802,16 +6826,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6836,1186 +6856,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="51" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C3" s="49">
-        <v>1</v>
-      </c>
-      <c r="D3" s="49" t="str">
-        <f t="shared" ref="D3:D37" si="0">B3&amp;"-"&amp;E3&amp;"个"</f>
-        <v>神器1-1个</v>
-      </c>
-      <c r="E3" s="49">
-        <v>1</v>
-      </c>
-      <c r="F3" s="49">
-        <f t="shared" ref="F3:F37" si="1">C3*E3+H3*0.02</f>
-        <v>1.2</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H3" s="49">
-        <v>10</v>
-      </c>
-      <c r="I3" s="49" t="str">
-        <f>G3&amp;"强化石"&amp;"-"&amp;H3&amp;"个"</f>
-        <v>初级强化石-10个</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C4" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-1个</v>
-      </c>
-      <c r="E4" s="49">
-        <v>1</v>
-      </c>
-      <c r="F4" s="56">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H4" s="49">
-        <v>10</v>
-      </c>
-      <c r="I4" s="49" t="str">
-        <f t="shared" ref="I4:I37" si="2">G4&amp;"强化石"&amp;"-"&amp;H4&amp;"个"</f>
-        <v>初级强化石-10个</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C5" s="49">
-        <v>1</v>
-      </c>
-      <c r="D5" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器1-2个</v>
-      </c>
-      <c r="E5" s="49">
-        <v>2</v>
-      </c>
-      <c r="F5" s="56">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H5" s="49">
-        <v>20</v>
-      </c>
-      <c r="I5" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-20个</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
-        <v>4</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C6" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D6" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器3-1个</v>
-      </c>
-      <c r="E6" s="49">
-        <v>1</v>
-      </c>
-      <c r="F6" s="56">
-        <f t="shared" si="1"/>
-        <v>2.7</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H6" s="49">
-        <v>10</v>
-      </c>
-      <c r="I6" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-10个</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
-        <v>5</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C7" s="56">
-        <v>3</v>
-      </c>
-      <c r="D7" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-1个</v>
-      </c>
-      <c r="E7" s="56">
-        <v>1</v>
-      </c>
-      <c r="F7" s="56">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H7" s="56">
-        <v>10</v>
-      </c>
-      <c r="I7" s="56" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-10个</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
-        <v>5</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C8" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-2个</v>
-      </c>
-      <c r="E8" s="49">
-        <v>2</v>
-      </c>
-      <c r="F8" s="56">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H8" s="56">
-        <v>20</v>
-      </c>
-      <c r="I8" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-20个</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49">
-        <v>6</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C9" s="49">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器1-4个</v>
-      </c>
-      <c r="E9" s="49">
-        <v>4</v>
-      </c>
-      <c r="F9" s="56">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H9" s="56">
-        <v>30</v>
-      </c>
-      <c r="I9" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-30个</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49">
-        <v>7</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C10" s="49">
-        <v>5</v>
-      </c>
-      <c r="D10" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器5-1个</v>
-      </c>
-      <c r="E10" s="49">
-        <v>1</v>
-      </c>
-      <c r="F10" s="56">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H10" s="56">
-        <v>10</v>
-      </c>
-      <c r="I10" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-10个</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
-        <v>8</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C11" s="49">
-        <v>5</v>
-      </c>
-      <c r="D11" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-1个</v>
-      </c>
-      <c r="E11" s="49">
-        <v>1</v>
-      </c>
-      <c r="F11" s="56">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H11" s="56">
-        <v>10</v>
-      </c>
-      <c r="I11" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-10个</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
-        <v>9</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C12" s="56">
-        <v>5</v>
-      </c>
-      <c r="D12" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-1个</v>
-      </c>
-      <c r="E12" s="56">
-        <v>1</v>
-      </c>
-      <c r="F12" s="56">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H12" s="56">
-        <v>10</v>
-      </c>
-      <c r="I12" s="56" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-10个</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56">
-        <v>10</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C13" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D13" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器3-2个</v>
-      </c>
-      <c r="E13" s="56">
-        <v>2</v>
-      </c>
-      <c r="F13" s="56">
-        <f t="shared" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H13" s="56">
-        <v>20</v>
-      </c>
-      <c r="I13" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-20个</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="56">
-        <v>11</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C14" s="49">
-        <v>3</v>
-      </c>
-      <c r="D14" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-2个</v>
-      </c>
-      <c r="E14" s="56">
-        <v>2</v>
-      </c>
-      <c r="F14" s="56">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H14" s="56">
-        <v>20</v>
-      </c>
-      <c r="I14" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-20个</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="56">
-        <v>12</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C15" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D15" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-4个</v>
-      </c>
-      <c r="E15" s="56">
-        <v>4</v>
-      </c>
-      <c r="F15" s="56">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H15" s="56">
-        <v>30</v>
-      </c>
-      <c r="I15" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-30个</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="56">
-        <v>13</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C16" s="49">
-        <v>1</v>
-      </c>
-      <c r="D16" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器1-7个</v>
-      </c>
-      <c r="E16" s="56">
-        <v>7</v>
-      </c>
-      <c r="F16" s="56">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H16" s="56">
-        <v>50</v>
-      </c>
-      <c r="I16" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-50个</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
-        <v>14</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C17" s="56">
-        <v>1</v>
-      </c>
-      <c r="D17" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>神器1-7个</v>
-      </c>
-      <c r="E17" s="56">
-        <v>7</v>
-      </c>
-      <c r="F17" s="56">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H17" s="56">
-        <v>100</v>
-      </c>
-      <c r="I17" s="56" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-100个</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56">
-        <v>15</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C18" s="49">
-        <v>5</v>
-      </c>
-      <c r="D18" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器5-2个</v>
-      </c>
-      <c r="E18" s="56">
-        <v>2</v>
-      </c>
-      <c r="F18" s="56">
-        <f t="shared" si="1"/>
-        <v>10.4</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H18" s="49">
-        <v>20</v>
-      </c>
-      <c r="I18" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="56">
-        <v>16</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C19" s="49">
-        <v>5</v>
-      </c>
-      <c r="D19" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-2个</v>
-      </c>
-      <c r="E19" s="56">
-        <v>2</v>
-      </c>
-      <c r="F19" s="56">
-        <f t="shared" si="1"/>
-        <v>10.4</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H19" s="49">
-        <v>20</v>
-      </c>
-      <c r="I19" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="56">
-        <v>17</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C20" s="49">
-        <v>5</v>
-      </c>
-      <c r="D20" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-2个</v>
-      </c>
-      <c r="E20" s="56">
-        <v>2</v>
-      </c>
-      <c r="F20" s="56">
-        <f t="shared" si="1"/>
-        <v>10.4</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H20" s="49">
-        <v>20</v>
-      </c>
-      <c r="I20" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-20个</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="56">
-        <v>18</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C21" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D21" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器3-4个</v>
-      </c>
-      <c r="E21" s="56">
-        <v>4</v>
-      </c>
-      <c r="F21" s="56">
-        <f t="shared" si="1"/>
-        <v>10.6</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H21" s="49">
-        <v>30</v>
-      </c>
-      <c r="I21" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-30个</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
-        <v>19</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C22" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-7个</v>
-      </c>
-      <c r="E22" s="56">
-        <v>7</v>
-      </c>
-      <c r="F22" s="56">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H22" s="56">
-        <v>50</v>
-      </c>
-      <c r="I22" s="56" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-50个</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="56">
-        <v>20</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C23" s="49">
-        <v>3</v>
-      </c>
-      <c r="D23" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-4个</v>
-      </c>
-      <c r="E23" s="56">
-        <v>4</v>
-      </c>
-      <c r="F23" s="56">
-        <f t="shared" si="1"/>
-        <v>12.6</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H23" s="49">
-        <v>30</v>
-      </c>
-      <c r="I23" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-30个</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="56">
-        <v>21</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C24" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="D24" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器2-10个</v>
-      </c>
-      <c r="E24" s="56">
-        <v>10</v>
-      </c>
-      <c r="F24" s="56">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H24" s="49">
-        <v>100</v>
-      </c>
-      <c r="I24" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>初级强化石-100个</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="56">
-        <v>22</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C25" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D25" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器3-7个</v>
-      </c>
-      <c r="E25" s="56">
-        <v>7</v>
-      </c>
-      <c r="F25" s="56">
-        <f t="shared" si="1"/>
-        <v>18.5</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H25" s="49">
-        <v>50</v>
-      </c>
-      <c r="I25" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-50个</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="56">
-        <v>23</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C26" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="D26" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器3-7个</v>
-      </c>
-      <c r="E26" s="56">
-        <v>7</v>
-      </c>
-      <c r="F26" s="56">
-        <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H26" s="49">
-        <v>100</v>
-      </c>
-      <c r="I26" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-100个</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="56">
-        <v>24</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C27" s="56">
-        <v>5</v>
-      </c>
-      <c r="D27" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>神器5-4个</v>
-      </c>
-      <c r="E27" s="56">
-        <v>4</v>
-      </c>
-      <c r="F27" s="56">
-        <f t="shared" si="1"/>
-        <v>20.6</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H27" s="56">
-        <v>30</v>
-      </c>
-      <c r="I27" s="56" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-30个</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="56">
-        <v>25</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C28" s="49">
-        <v>5</v>
-      </c>
-      <c r="D28" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-4个</v>
-      </c>
-      <c r="E28" s="56">
-        <v>4</v>
-      </c>
-      <c r="F28" s="56">
-        <f t="shared" si="1"/>
-        <v>20.6</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H28" s="49">
-        <v>30</v>
-      </c>
-      <c r="I28" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-30个</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="56">
-        <v>26</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C29" s="49">
-        <v>5</v>
-      </c>
-      <c r="D29" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-4个</v>
-      </c>
-      <c r="E29" s="56">
-        <v>4</v>
-      </c>
-      <c r="F29" s="56">
-        <f t="shared" si="1"/>
-        <v>20.6</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H29" s="49">
-        <v>30</v>
-      </c>
-      <c r="I29" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-30个</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="56">
-        <v>27</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C30" s="49">
-        <v>3</v>
-      </c>
-      <c r="D30" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-7个</v>
-      </c>
-      <c r="E30" s="56">
-        <v>7</v>
-      </c>
-      <c r="F30" s="56">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H30" s="49">
-        <v>50</v>
-      </c>
-      <c r="I30" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-50个</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="56">
-        <v>28</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C31" s="49">
-        <v>3</v>
-      </c>
-      <c r="D31" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器4-10个</v>
-      </c>
-      <c r="E31" s="56">
-        <v>10</v>
-      </c>
-      <c r="F31" s="56">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H31" s="49">
-        <v>100</v>
-      </c>
-      <c r="I31" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>中级强化石-100个</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="56">
-        <v>29</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C32" s="56">
-        <v>5</v>
-      </c>
-      <c r="D32" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>神器5-7个</v>
-      </c>
-      <c r="E32" s="56">
-        <v>7</v>
-      </c>
-      <c r="F32" s="56">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H32" s="56">
-        <v>50</v>
-      </c>
-      <c r="I32" s="56" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-50个</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="56">
-        <v>30</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C33" s="49">
-        <v>5</v>
-      </c>
-      <c r="D33" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-7个</v>
-      </c>
-      <c r="E33" s="56">
-        <v>7</v>
-      </c>
-      <c r="F33" s="56">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H33" s="49">
-        <v>50</v>
-      </c>
-      <c r="I33" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-50个</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="56">
-        <v>31</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C34" s="49">
-        <v>5</v>
-      </c>
-      <c r="D34" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-7个</v>
-      </c>
-      <c r="E34" s="56">
-        <v>7</v>
-      </c>
-      <c r="F34" s="56">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H34" s="49">
-        <v>50</v>
-      </c>
-      <c r="I34" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-50个</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="56">
-        <v>32</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C35" s="49">
-        <v>5</v>
-      </c>
-      <c r="D35" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器5-10个</v>
-      </c>
-      <c r="E35" s="56">
-        <v>10</v>
-      </c>
-      <c r="F35" s="56">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H35" s="49">
-        <v>100</v>
-      </c>
-      <c r="I35" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-100个</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="56">
-        <v>33</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C36" s="49">
-        <v>5</v>
-      </c>
-      <c r="D36" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>神器6-10个</v>
-      </c>
-      <c r="E36" s="56">
-        <v>10</v>
-      </c>
-      <c r="F36" s="56">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H36" s="49">
-        <v>100</v>
-      </c>
-      <c r="I36" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-100个</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="56">
-        <v>34</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C37" s="56">
-        <v>5</v>
-      </c>
-      <c r="D37" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>神器7-10个</v>
-      </c>
-      <c r="E37" s="56">
-        <v>10</v>
-      </c>
-      <c r="F37" s="56">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="G37" s="56" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H37" s="56">
-        <v>100</v>
-      </c>
-      <c r="I37" s="56" t="str">
-        <f t="shared" si="2"/>
-        <v>高级强化石-100个</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="I38" s="56"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:H2">
-    <sortState ref="B3:H37">
-      <sortCondition ref="F2"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -8862,7 +7702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L37"/>
   <sheetViews>
@@ -9829,7 +8669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q58"/>
   <sheetViews>
@@ -9840,14 +8680,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -11317,7 +10157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
@@ -11858,20 +10698,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="G2" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -11904,13 +10744,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="79" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="80" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -11949,8 +10789,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="O4" s="82"/>
+      <c r="M4" s="79"/>
+      <c r="O4" s="81"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -12017,13 +10857,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="77" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="77" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -12062,8 +10902,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="78"/>
-      <c r="O7" s="78"/>
+      <c r="M7" s="77"/>
+      <c r="O7" s="77"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -12786,14 +11626,14 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="83" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -12828,14 +11668,14 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -12895,29 +11735,29 @@
       <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -12973,14 +11813,14 @@
       <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="83" t="s">
         <v>396</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -13062,16 +11902,16 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="83" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -13136,16 +11976,16 @@
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -13208,16 +12048,16 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -13288,16 +12128,16 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="83" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -13618,16 +12458,16 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="83" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -14647,15 +13487,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14685,7 +13525,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="84" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -14707,7 +13547,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -14725,7 +13565,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -14747,7 +13587,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="84" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -14765,7 +13605,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="91"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -14781,7 +13621,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -14795,7 +13635,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -14817,7 +13657,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -14835,7 +13675,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -14853,7 +13693,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -14875,7 +13715,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="87" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14899,7 +13739,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -14923,7 +13763,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -14943,7 +13783,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="85" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -14959,7 +13799,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="91"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -14979,7 +13819,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="91"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -15001,7 +13841,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="91"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -15017,7 +13857,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="84" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -15043,7 +13883,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -15065,7 +13905,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="92"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -15087,7 +13927,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="84" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -15111,7 +13951,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="91"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -15133,7 +13973,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -15151,15 +13991,15 @@
       <c r="H26" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="78" t="s">
         <v>729</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -15178,16 +14018,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="88" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="93"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="87" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -15202,14 +14042,14 @@
       <c r="E31" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="83" t="s">
         <v>736</v>
       </c>
-      <c r="G31" s="84"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -15222,14 +14062,14 @@
       <c r="E32" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="83" t="s">
         <v>740</v>
       </c>
-      <c r="G32" s="84"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -15242,10 +14082,10 @@
       <c r="E33" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="83" t="s">
         <v>744</v>
       </c>
-      <c r="G33" s="84"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15264,10 +14104,10 @@
       <c r="E34" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F34" s="84" t="s">
+      <c r="F34" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="84"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15284,10 +14124,10 @@
       <c r="E35" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="83" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="84"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15302,10 +14142,10 @@
       <c r="E36" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="83" t="s">
         <v>759</v>
       </c>
-      <c r="G36" s="84"/>
+      <c r="G36" s="83"/>
       <c r="H36" s="25" t="s">
         <v>760</v>
       </c>
@@ -15324,16 +14164,16 @@
       <c r="E37" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="83" t="s">
         <v>765</v>
       </c>
-      <c r="G37" s="84"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="25" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="89" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -15348,12 +14188,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="86"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -15369,7 +14209,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="86"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -15385,7 +14225,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="86"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -15401,7 +14241,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -15418,12 +14258,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -15431,12 +14271,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15494,114 +14334,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="88" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="88" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="88" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="88" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="93" t="s">
+      <c r="I4" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="88" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="88" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93" t="s">
+      <c r="N4" s="88"/>
+      <c r="O4" s="88" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93" t="s">
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93" t="s">
+      <c r="R4" s="88"/>
+      <c r="S4" s="88" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93" t="s">
+      <c r="T4" s="88"/>
+      <c r="U4" s="88" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93" t="s">
+      <c r="V4" s="88"/>
+      <c r="W4" s="88" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93" t="s">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93" t="s">
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93" t="s">
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93" t="s">
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93" t="s">
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93" t="s">
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93" t="s">
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93" t="s">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93" t="s">
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88" t="s">
         <v>1127</v>
       </c>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93" t="s">
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88" t="s">
         <v>1128</v>
       </c>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93" t="s">
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88" t="s">
         <v>1129</v>
       </c>
-      <c r="AT4" s="93"/>
+      <c r="AT4" s="88"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -16070,7 +14910,7 @@
       <c r="AT9" s="45"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="83" t="s">
         <v>805</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -16121,7 +14961,7 @@
       <c r="AT10" s="45"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="25" t="s">
         <v>807</v>
       </c>
@@ -16170,7 +15010,7 @@
       <c r="AT11" s="45"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="25" t="s">
         <v>808</v>
       </c>
@@ -16219,7 +15059,7 @@
       <c r="AT12" s="45"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="84"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="25" t="s">
         <v>809</v>
       </c>
@@ -16268,7 +15108,7 @@
       <c r="AT13" s="45"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="84"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="25" t="s">
         <v>810</v>
       </c>
@@ -16317,7 +15157,7 @@
       <c r="AT14" s="45"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="25" t="s">
         <v>811</v>
       </c>
@@ -16472,7 +15312,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -16559,7 +15399,7 @@
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -16640,7 +15480,7 @@
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -16704,7 +15544,7 @@
       </c>
       <c r="AL20" s="25"/>
       <c r="AM20" s="25" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="45"/>
@@ -16720,8 +15560,8 @@
         <v>816</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="57" t="s">
-        <v>1273</v>
+      <c r="E21" s="56" t="s">
+        <v>1256</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -16779,8 +15619,8 @@
         <v>817</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="57" t="s">
-        <v>1273</v>
+      <c r="E22" s="56" t="s">
+        <v>1256</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -16836,8 +15676,8 @@
         <v>818</v>
       </c>
       <c r="D23" s="25"/>
-      <c r="E23" s="57" t="s">
-        <v>1273</v>
+      <c r="E23" s="56" t="s">
+        <v>1256</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -16888,7 +15728,7 @@
       <c r="AT23" s="45"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="83" t="s">
         <v>1130</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -16939,7 +15779,7 @@
       <c r="AT24" s="45"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="25" t="s">
         <v>822</v>
       </c>
@@ -16988,7 +15828,7 @@
       <c r="AT25" s="45"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="83" t="s">
         <v>1131</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -17039,7 +15879,7 @@
       <c r="AT26" s="45"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="25" t="s">
         <v>822</v>
       </c>
@@ -17088,7 +15928,7 @@
       <c r="AT27" s="45"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>1132</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -17139,7 +15979,7 @@
       <c r="AT28" s="45"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="25" t="s">
         <v>822</v>
       </c>
@@ -17188,7 +16028,7 @@
       <c r="AT29" s="45"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="25" t="s">
         <v>545</v>
       </c>
@@ -17237,7 +16077,7 @@
       <c r="AT30" s="45"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="25" t="s">
         <v>546</v>
       </c>
@@ -17286,7 +16126,7 @@
       <c r="AT31" s="45"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="83" t="s">
         <v>1133</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -17337,7 +16177,7 @@
       <c r="AT32" s="45"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="84"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="25" t="s">
         <v>822</v>
       </c>
@@ -17386,7 +16226,7 @@
       <c r="AT33" s="45"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="84"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="25" t="s">
         <v>545</v>
       </c>
@@ -17435,7 +16275,7 @@
       <c r="AT34" s="45"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="84"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="25" t="s">
         <v>546</v>
       </c>
@@ -17484,7 +16324,7 @@
       <c r="AT35" s="45"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="83" t="s">
         <v>1134</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -17535,7 +16375,7 @@
       <c r="AT36" s="45"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="84"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="25" t="s">
         <v>822</v>
       </c>
@@ -17584,7 +16424,7 @@
       <c r="AT37" s="45"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="84"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="25" t="s">
         <v>545</v>
       </c>
@@ -17633,7 +16473,7 @@
       <c r="AT38" s="45"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="84"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="25" t="s">
         <v>546</v>
       </c>
@@ -17682,7 +16522,7 @@
       <c r="AT39" s="45"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="84"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="25" t="s">
         <v>547</v>
       </c>
@@ -17731,7 +16571,7 @@
       <c r="AT40" s="45"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="84"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="25" t="s">
         <v>548</v>
       </c>
@@ -17780,7 +16620,7 @@
       <c r="AT41" s="45"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="83" t="s">
         <v>1135</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -17831,7 +16671,7 @@
       <c r="AT42" s="45"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="84"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="25" t="s">
         <v>822</v>
       </c>
@@ -17880,7 +16720,7 @@
       <c r="AT43" s="45"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="84"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="25" t="s">
         <v>545</v>
       </c>
@@ -17929,7 +16769,7 @@
       <c r="AT44" s="45"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="84"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="25" t="s">
         <v>546</v>
       </c>
@@ -17978,7 +16818,7 @@
       <c r="AT45" s="45"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="84"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="25" t="s">
         <v>547</v>
       </c>
@@ -18027,7 +16867,7 @@
       <c r="AT46" s="45"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="84"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="25" t="s">
         <v>548</v>
       </c>
@@ -18076,7 +16916,7 @@
       <c r="AT47" s="45"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="83" t="s">
         <v>1136</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -18127,7 +16967,7 @@
       <c r="AT48" s="45"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="84"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="25" t="s">
         <v>822</v>
       </c>
@@ -18176,7 +17016,7 @@
       <c r="AT49" s="45"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="84"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="25" t="s">
         <v>545</v>
       </c>
@@ -18225,7 +17065,7 @@
       <c r="AT50" s="45"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="84"/>
+      <c r="B51" s="83"/>
       <c r="C51" s="25" t="s">
         <v>546</v>
       </c>
@@ -18274,7 +17114,7 @@
       <c r="AT51" s="45"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="84"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="25" t="s">
         <v>547</v>
       </c>
@@ -18323,7 +17163,7 @@
       <c r="AT52" s="45"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="84"/>
+      <c r="B53" s="83"/>
       <c r="C53" s="25" t="s">
         <v>548</v>
       </c>
@@ -18373,6 +17213,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -18389,27 +17250,6 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18418,11 +17258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102:C105"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18745,9 +17585,10 @@
       <c r="F17" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="84" t="s">
-        <v>1276</v>
-      </c>
+      <c r="I17" s="83" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
@@ -18766,7 +17607,8 @@
       <c r="F18" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="I18" s="84"/>
+      <c r="I18" s="83"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
@@ -18785,7 +17627,8 @@
       <c r="F19" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="I19" s="84"/>
+      <c r="I19" s="83"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
@@ -18804,7 +17647,8 @@
       <c r="F20" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="I20" s="84"/>
+      <c r="I20" s="83"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
@@ -18823,7 +17667,8 @@
       <c r="F21" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="I21" s="84"/>
+      <c r="I21" s="83"/>
+      <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -18842,7 +17687,8 @@
       <c r="F22" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="I22" s="84"/>
+      <c r="I22" s="83"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
@@ -18861,7 +17707,8 @@
       <c r="F23" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="I23" s="84"/>
+      <c r="I23" s="83"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
@@ -18883,6 +17730,7 @@
       <c r="I24" s="95" t="s">
         <v>1014</v>
       </c>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
@@ -18902,6 +17750,7 @@
         <v>890</v>
       </c>
       <c r="I25" s="96"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
@@ -18921,6 +17770,7 @@
         <v>892</v>
       </c>
       <c r="I26" s="96"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
@@ -18940,6 +17790,7 @@
         <v>894</v>
       </c>
       <c r="I27" s="96"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
@@ -18959,6 +17810,7 @@
         <v>896</v>
       </c>
       <c r="I28" s="96"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
@@ -19015,11 +17867,11 @@
       <c r="F31" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="I31" s="84" t="s">
+      <c r="G31" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I31" s="83" t="s">
         <v>1016</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -19039,7 +17891,7 @@
       <c r="F32" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="I32" s="84"/>
+      <c r="I32" s="83"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
@@ -19058,7 +17910,7 @@
       <c r="F33" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="I33" s="84"/>
+      <c r="I33" s="83"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
@@ -19077,7 +17929,7 @@
       <c r="F34" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="I34" s="84"/>
+      <c r="I34" s="83"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
@@ -19096,7 +17948,7 @@
       <c r="F35" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="I35" s="84"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
@@ -19115,7 +17967,7 @@
       <c r="F36" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="I36" s="84"/>
+      <c r="I36" s="83"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
@@ -19134,7 +17986,7 @@
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="I37" s="84" t="s">
+      <c r="I37" s="83" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -19155,7 +18007,7 @@
       <c r="F38" s="25" t="s">
         <v>1079</v>
       </c>
-      <c r="I38" s="84"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
@@ -19164,12 +18016,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="92" t="s">
         <v>1018</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="89"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="93"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -19422,7 +18274,7 @@
       <c r="F53" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="I53" s="84" t="s">
+      <c r="I53" s="83" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -19441,7 +18293,7 @@
       <c r="F54" s="29" t="s">
         <v>1004</v>
       </c>
-      <c r="I54" s="84"/>
+      <c r="I54" s="83"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
@@ -19458,7 +18310,7 @@
       <c r="F55" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="I55" s="84"/>
+      <c r="I55" s="83"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
@@ -19475,7 +18327,7 @@
       <c r="F56" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="I56" s="84"/>
+      <c r="I56" s="83"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
@@ -19492,7 +18344,7 @@
       <c r="F57" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="I57" s="84"/>
+      <c r="I57" s="83"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
@@ -19509,7 +18361,7 @@
       <c r="F58" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="I58" s="84"/>
+      <c r="I58" s="83"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
@@ -19526,7 +18378,7 @@
       <c r="F59" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="I59" s="84"/>
+      <c r="I59" s="83"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
@@ -19543,7 +18395,7 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="85" t="s">
+      <c r="I60" s="89" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -19562,7 +18414,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="86"/>
+      <c r="I61" s="90"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -19579,7 +18431,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="86"/>
+      <c r="I62" s="90"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -19596,7 +18448,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="86"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -19613,7 +18465,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="86"/>
+      <c r="I64" s="90"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -19630,7 +18482,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="86"/>
+      <c r="I65" s="90"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -19647,7 +18499,7 @@
       <c r="F66" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I66" s="86"/>
+      <c r="I66" s="90"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -19664,7 +18516,7 @@
       <c r="F67" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I67" s="86"/>
+      <c r="I67" s="90"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -19681,7 +18533,7 @@
       <c r="F68" s="29" t="s">
         <v>1095</v>
       </c>
-      <c r="I68" s="87"/>
+      <c r="I68" s="91"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
@@ -19749,8 +18601,8 @@
       <c r="F72" s="29" t="s">
         <v>982</v>
       </c>
-      <c r="I72" s="84" t="s">
-        <v>1244</v>
+      <c r="I72" s="83" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19768,7 +18620,7 @@
       <c r="F73" s="29" t="s">
         <v>1010</v>
       </c>
-      <c r="I73" s="84"/>
+      <c r="I73" s="83"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
@@ -19785,7 +18637,7 @@
       <c r="F74" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="I74" s="84"/>
+      <c r="I74" s="83"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
@@ -19802,7 +18654,7 @@
       <c r="F75" s="29" t="s">
         <v>988</v>
       </c>
-      <c r="I75" s="84"/>
+      <c r="I75" s="83"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
@@ -19819,7 +18671,7 @@
       <c r="F76" s="29" t="s">
         <v>1011</v>
       </c>
-      <c r="I76" s="84"/>
+      <c r="I76" s="83"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
@@ -19836,7 +18688,7 @@
       <c r="F77" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="I77" s="84"/>
+      <c r="I77" s="83"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
@@ -19853,19 +18705,19 @@
       <c r="F78" s="29" t="s">
         <v>1089</v>
       </c>
-      <c r="I78" s="84"/>
+      <c r="I78" s="83"/>
     </row>
     <row r="79" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>68</v>
       </c>
-      <c r="B79" s="100" t="s">
+      <c r="B79" s="99" t="s">
         <v>1055</v>
       </c>
-      <c r="C79" s="101"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="101"/>
-      <c r="F79" s="102"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="101"/>
     </row>
     <row r="80" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
@@ -20053,8 +18905,8 @@
       <c r="F91" s="29" t="s">
         <v>1043</v>
       </c>
-      <c r="I91" s="84" t="s">
-        <v>1265</v>
+      <c r="I91" s="83" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -20072,7 +18924,7 @@
       <c r="F92" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="I92" s="84"/>
+      <c r="I92" s="83"/>
     </row>
     <row r="93" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40">
@@ -20211,17 +19063,17 @@
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="84" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B101" s="84"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
+      <c r="A101" s="83" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B101" s="83"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
       <c r="H101" s="31"/>
-      <c r="I101" s="57" t="s">
-        <v>1267</v>
+      <c r="I101" s="56" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -20235,7 +19087,7 @@
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -20255,7 +19107,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="57">
+      <c r="A104" s="56">
         <v>92</v>
       </c>
       <c r="B104" s="45" t="s">
@@ -20265,11 +19117,11 @@
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
       <c r="F104" s="45" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="57">
+      <c r="A105" s="56">
         <v>93</v>
       </c>
       <c r="B105" s="45" t="s">
@@ -20283,7 +19135,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="57">
+      <c r="A106" s="56">
         <v>94</v>
       </c>
       <c r="B106" s="45" t="s">
@@ -20293,11 +19145,11 @@
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
       <c r="F106" s="45" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="57">
+      <c r="A107" s="56">
         <v>95</v>
       </c>
       <c r="B107" s="45" t="s">
@@ -20307,11 +19159,11 @@
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="49" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="57">
+      <c r="A108" s="56">
         <v>96</v>
       </c>
       <c r="B108" s="45" t="s">
@@ -20321,136 +19173,136 @@
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
       <c r="F108" s="49" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="57">
+      <c r="A109" s="56">
         <v>97</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
       <c r="F109" s="52" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="88"/>
-      <c r="B110" s="99"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="99"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="89"/>
+      <c r="A110" s="92"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="93"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="52" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
       <c r="F111" s="52" t="s">
-        <v>1257</v>
-      </c>
-      <c r="I111" s="84" t="s">
-        <v>1266</v>
+        <v>1240</v>
+      </c>
+      <c r="I111" s="83" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="52" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
       <c r="F112" s="52" t="s">
-        <v>1258</v>
-      </c>
-      <c r="I112" s="84"/>
+        <v>1241</v>
+      </c>
+      <c r="I112" s="83"/>
     </row>
     <row r="113" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
       <c r="B113" s="52" t="s">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
       <c r="F113" s="52" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I113" s="84"/>
+        <v>1242</v>
+      </c>
+      <c r="I113" s="83"/>
     </row>
     <row r="114" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
       <c r="B114" s="52" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
       <c r="F114" s="52" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I114" s="84"/>
+        <v>1243</v>
+      </c>
+      <c r="I114" s="83"/>
     </row>
     <row r="115" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
       <c r="B115" s="52" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
       <c r="E115" s="52"/>
       <c r="F115" s="52" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I115" s="84"/>
+        <v>1244</v>
+      </c>
+      <c r="I115" s="83"/>
     </row>
     <row r="116" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
       <c r="B116" s="52" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
       <c r="E116" s="52"/>
       <c r="F116" s="52" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I116" s="84"/>
+        <v>1245</v>
+      </c>
+      <c r="I116" s="83"/>
     </row>
     <row r="117" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="52" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
       <c r="F117" s="52" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I117" s="84"/>
+        <v>1246</v>
+      </c>
+      <c r="I117" s="83"/>
     </row>
     <row r="118" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="52" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
       <c r="E118" s="52"/>
       <c r="F118" s="52" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I118" s="84"/>
+        <v>1247</v>
+      </c>
+      <c r="I118" s="83"/>
     </row>
     <row r="119" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="52"/>
@@ -20463,93 +19315,93 @@
     <row r="120" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="52" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
       <c r="E120" s="52"/>
       <c r="F120" s="52" t="s">
-        <v>1245</v>
-      </c>
-      <c r="I120" s="84"/>
+        <v>1228</v>
+      </c>
+      <c r="I120" s="83"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="52" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
       <c r="F121" s="52" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I121" s="84"/>
+        <v>1229</v>
+      </c>
+      <c r="I121" s="83"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="52" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
       <c r="F122" s="52" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I122" s="84"/>
+        <v>1251</v>
+      </c>
+      <c r="I122" s="83"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="52" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
       <c r="F123" s="52" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I123" s="84"/>
+        <v>1230</v>
+      </c>
+      <c r="I123" s="83"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="52" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
       <c r="E124" s="52"/>
       <c r="F124" s="52" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I124" s="84"/>
+        <v>1231</v>
+      </c>
+      <c r="I124" s="83"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="52" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="52" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I125" s="84"/>
+        <v>1252</v>
+      </c>
+      <c r="I125" s="83"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="52" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
       <c r="E126" s="52"/>
       <c r="F126" s="52" t="s">
-        <v>1270</v>
-      </c>
-      <c r="I126" s="84"/>
+        <v>1253</v>
+      </c>
+      <c r="I126" s="83"/>
     </row>
     <row r="127" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="52"/>
@@ -20560,182 +19412,182 @@
       <c r="F127" s="52"/>
     </row>
     <row r="128" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="57"/>
-      <c r="B128" s="57" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="57"/>
+      <c r="A128" s="56"/>
+      <c r="B128" s="56" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
     </row>
     <row r="129" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="57"/>
-      <c r="F129" s="57"/>
+      <c r="A129" s="56"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
     </row>
     <row r="130" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="57"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
+      <c r="A130" s="56"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
     </row>
     <row r="131" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="57"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
+      <c r="A131" s="56"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
     </row>
     <row r="132" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
+      <c r="A132" s="56"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
     </row>
     <row r="133" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="57"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
+      <c r="A133" s="56"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
     </row>
     <row r="134" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="57"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
     </row>
     <row r="135" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="57"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
+      <c r="A135" s="56"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
     </row>
     <row r="136" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="57"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="57"/>
+      <c r="A136" s="56"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
     </row>
     <row r="137" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="57"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
+      <c r="A137" s="56"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="56"/>
     </row>
     <row r="138" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="57"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
+      <c r="A138" s="56"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="56"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="52"/>
       <c r="B139" s="52" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="C139" s="52"/>
       <c r="D139" s="52"/>
       <c r="E139" s="52"/>
       <c r="F139" s="52"/>
-      <c r="I139" s="84"/>
+      <c r="I139" s="83"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="52"/>
       <c r="B140" s="52" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="C140" s="52"/>
       <c r="D140" s="52"/>
       <c r="E140" s="52"/>
       <c r="F140" s="52"/>
-      <c r="I140" s="84"/>
+      <c r="I140" s="83"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="52"/>
       <c r="B141" s="52" t="s">
-        <v>1238</v>
+        <v>1221</v>
       </c>
       <c r="C141" s="52"/>
       <c r="D141" s="52"/>
       <c r="E141" s="52"/>
       <c r="F141" s="52"/>
-      <c r="I141" s="84"/>
+      <c r="I141" s="83"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="52"/>
       <c r="B142" s="52" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="C142" s="52"/>
       <c r="D142" s="52"/>
       <c r="E142" s="52"/>
       <c r="F142" s="52"/>
-      <c r="I142" s="84"/>
+      <c r="I142" s="83"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="52"/>
       <c r="B143" s="52" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="C143" s="52"/>
       <c r="D143" s="52"/>
       <c r="E143" s="52"/>
       <c r="F143" s="52"/>
-      <c r="I143" s="84"/>
+      <c r="I143" s="83"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="52"/>
       <c r="B144" s="52" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="C144" s="52"/>
       <c r="D144" s="52"/>
       <c r="E144" s="52"/>
       <c r="F144" s="52"/>
-      <c r="I144" s="84"/>
+      <c r="I144" s="83"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="52"/>
       <c r="B145" s="52" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="C145" s="52"/>
       <c r="D145" s="52"/>
       <c r="E145" s="52"/>
       <c r="F145" s="52"/>
-      <c r="I145" s="84"/>
+      <c r="I145" s="83"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="52"/>
       <c r="B146" s="52" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="C146" s="52"/>
       <c r="D146" s="52"/>
       <c r="E146" s="52"/>
       <c r="F146" s="52"/>
-      <c r="I146" s="84"/>
+      <c r="I146" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -20759,6 +19611,35 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -21037,7 +19918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -21067,49 +19948,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>1073</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103" t="s">
         <v>1081</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="103" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="102" t="s">
         <v>1065</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="103" t="s">
+      <c r="G2" s="103"/>
+      <c r="H2" s="102" t="s">
         <v>1066</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="103" t="s">
+      <c r="I2" s="103"/>
+      <c r="J2" s="102" t="s">
         <v>1067</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="103" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="102" t="s">
         <v>1068</v>
       </c>
-      <c r="M2" s="104"/>
-      <c r="N2" s="103" t="s">
+      <c r="M2" s="103"/>
+      <c r="N2" s="102" t="s">
         <v>1069</v>
       </c>
-      <c r="O2" s="104"/>
-      <c r="P2" s="103" t="s">
+      <c r="O2" s="103"/>
+      <c r="P2" s="102" t="s">
         <v>1070</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="105"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="104"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="43" t="s">
         <v>1071</v>
       </c>
@@ -21156,7 +20037,7 @@
         <v>1071</v>
       </c>
       <c r="Q3" s="50" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="R3" s="43" t="s">
         <v>1072</v>
@@ -21215,15 +20096,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="S4" s="49"/>
       <c r="T4" s="45"/>
       <c r="U4" s="49" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21267,15 +20148,15 @@
         <v>35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="45"/>
       <c r="U5" s="49" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21311,15 +20192,15 @@
         <v>35</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="45"/>
       <c r="U6" s="49" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21355,15 +20236,15 @@
         <v>35</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="45"/>
       <c r="U7" s="49" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21391,15 +20272,15 @@
         <v>40</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="S8" s="49"/>
       <c r="T8" s="45"/>
       <c r="U8" s="49" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21427,15 +20308,15 @@
         <v>40</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21463,15 +20344,15 @@
         <v>40</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="49" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21499,15 +20380,15 @@
         <v>40</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
       <c r="U11" s="49" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21535,15 +20416,15 @@
         <v>40</v>
       </c>
       <c r="R12" s="42" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="45"/>
       <c r="U12" s="49" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21571,15 +20452,15 @@
         <v>50</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="S13" s="49"/>
       <c r="T13" s="45"/>
       <c r="U13" s="49" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21607,15 +20488,15 @@
         <v>50</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="45"/>
       <c r="U14" s="49" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21643,15 +20524,15 @@
         <v>50</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="S15" s="49"/>
       <c r="T15" s="45"/>
       <c r="U15" s="49" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -21679,15 +20560,15 @@
         <v>50</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="S16" s="49"/>
       <c r="T16" s="45"/>
       <c r="U16" s="49" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21715,15 +20596,15 @@
         <v>50</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="S17" s="49"/>
       <c r="T17" s="45"/>
       <c r="U17" s="49" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21751,15 +20632,15 @@
         <v>55</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="S18" s="49"/>
       <c r="T18" s="45"/>
       <c r="U18" s="49" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21787,15 +20668,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="S19" s="49"/>
       <c r="T19" s="45"/>
       <c r="U19" s="49" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21823,15 +20704,15 @@
         <v>55</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="45"/>
       <c r="U20" s="49" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21859,15 +20740,15 @@
         <v>55</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="45"/>
       <c r="U21" s="49" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21895,15 +20776,15 @@
         <v>60</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="45"/>
       <c r="U22" s="49" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21931,15 +20812,15 @@
         <v>60</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="S23" s="49"/>
       <c r="T23" s="45"/>
       <c r="U23" s="49" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21967,15 +20848,15 @@
         <v>60</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="45"/>
       <c r="U24" s="49" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22003,15 +20884,15 @@
         <v>70</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="S25" s="49"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22039,15 +20920,15 @@
         <v>70</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="S26" s="49"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22075,15 +20956,15 @@
         <v>70</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="S27" s="49"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22111,15 +20992,15 @@
         <v>80</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="S28" s="49"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22147,15 +21028,15 @@
         <v>80</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="S29" s="49"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22183,15 +21064,15 @@
         <v>80</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22219,15 +21100,15 @@
         <v>80</v>
       </c>
       <c r="R31" s="49" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="S31" s="49"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45" t="s">
+        <v>1177</v>
+      </c>
+      <c r="V31" s="49" t="s">
         <v>1189</v>
-      </c>
-      <c r="V31" s="49" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -6010,6 +6010,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6055,21 +6070,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6092,21 +6092,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6121,8 +6106,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6132,6 +6129,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6270,15 +6270,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>200024</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>272993</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6601,12 +6601,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6615,10 +6615,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="69" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6629,26 +6629,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="71" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6657,10 +6657,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6669,151 +6669,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6826,12 +6822,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -10685,7 +10685,7 @@
   <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11482,7 +11482,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13525,7 +13525,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="89" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -13547,7 +13547,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -13565,7 +13565,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -13587,7 +13587,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="89" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -13605,7 +13605,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -13621,7 +13621,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -13635,7 +13635,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -13657,7 +13657,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -13693,7 +13693,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -13715,7 +13715,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="93" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -13739,7 +13739,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -13763,7 +13763,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -13783,7 +13783,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="90" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -13799,7 +13799,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -13819,7 +13819,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -13841,7 +13841,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="85"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -13857,7 +13857,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="89" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -13883,7 +13883,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -13905,7 +13905,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -13927,7 +13927,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="89" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -13951,7 +13951,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -13973,7 +13973,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -14018,16 +14018,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="92" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="93" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -14049,7 +14049,7 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -14069,7 +14069,7 @@
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -14173,7 +14173,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="84" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -14188,12 +14188,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="93"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -14209,7 +14209,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -14225,7 +14225,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -14241,7 +14241,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -14258,12 +14258,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -14271,12 +14271,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14288,7 +14288,7 @@
   <dimension ref="A4:AT53"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N8"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14334,114 +14334,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="97"/>
+      <c r="B4" s="92" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="92" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="92" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="92" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="92" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="92" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="92" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88" t="s">
+      <c r="N4" s="92"/>
+      <c r="O4" s="92" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88" t="s">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88" t="s">
+      <c r="R4" s="92"/>
+      <c r="S4" s="92" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88" t="s">
+      <c r="T4" s="92"/>
+      <c r="U4" s="92" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88" t="s">
+      <c r="V4" s="92"/>
+      <c r="W4" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88" t="s">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88" t="s">
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88" t="s">
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88" t="s">
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88" t="s">
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88" t="s">
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88" t="s">
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88" t="s">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88" t="s">
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92" t="s">
         <v>1127</v>
       </c>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88" t="s">
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92" t="s">
         <v>1128</v>
       </c>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88" t="s">
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92" t="s">
         <v>1129</v>
       </c>
-      <c r="AT4" s="88"/>
+      <c r="AT4" s="92"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -14552,10 +14552,10 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="94" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -14645,8 +14645,8 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="45" t="s">
         <v>1124</v>
       </c>
@@ -14734,8 +14734,8 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
@@ -14825,7 +14825,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -15304,7 +15304,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="94" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -15393,7 +15393,7 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="96"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
@@ -15474,7 +15474,7 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="96"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
@@ -15555,7 +15555,7 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="96"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
@@ -15614,7 +15614,7 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="96"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
@@ -15671,7 +15671,7 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="97"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
@@ -17213,27 +17213,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -17250,6 +17229,27 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17259,10 +17259,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17727,7 +17727,7 @@
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="94" t="s">
         <v>1014</v>
       </c>
       <c r="L24" s="53"/>
@@ -17749,7 +17749,7 @@
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="96"/>
+      <c r="I25" s="95"/>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17769,7 +17769,7 @@
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="96"/>
+      <c r="I26" s="95"/>
       <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17789,7 +17789,7 @@
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="96"/>
+      <c r="I27" s="95"/>
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17809,7 +17809,7 @@
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="96"/>
+      <c r="I28" s="95"/>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17829,7 +17829,7 @@
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="96"/>
+      <c r="I29" s="95"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -17848,7 +17848,7 @@
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="97"/>
+      <c r="I30" s="96"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -18016,12 +18016,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="87" t="s">
         <v>1018</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="98"/>
-      <c r="F39" s="93"/>
+      <c r="F39" s="88"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -18222,7 +18222,7 @@
       <c r="F50" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I50" s="95" t="s">
+      <c r="I50" s="94" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -18243,7 +18243,7 @@
       <c r="F51" s="29" t="s">
         <v>1086</v>
       </c>
-      <c r="I51" s="97"/>
+      <c r="I51" s="96"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
@@ -18395,7 +18395,7 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="89" t="s">
+      <c r="I60" s="84" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -18414,7 +18414,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="90"/>
+      <c r="I61" s="85"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -18431,7 +18431,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="90"/>
+      <c r="I62" s="85"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -18448,7 +18448,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="90"/>
+      <c r="I63" s="85"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -18465,7 +18465,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="90"/>
+      <c r="I64" s="85"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -18482,7 +18482,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="90"/>
+      <c r="I65" s="85"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -18499,7 +18499,7 @@
       <c r="F66" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I66" s="90"/>
+      <c r="I66" s="85"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -18516,7 +18516,7 @@
       <c r="F67" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I67" s="90"/>
+      <c r="I67" s="85"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -18533,7 +18533,7 @@
       <c r="F68" s="29" t="s">
         <v>1095</v>
       </c>
-      <c r="I68" s="91"/>
+      <c r="I68" s="86"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
@@ -19191,12 +19191,12 @@
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="92"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="98"/>
       <c r="C110" s="98"/>
       <c r="D110" s="98"/>
       <c r="E110" s="98"/>
-      <c r="F110" s="93"/>
+      <c r="F110" s="88"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
@@ -19421,178 +19421,98 @@
       <c r="E128" s="56"/>
       <c r="F128" s="56"/>
     </row>
-    <row r="129" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="56"/>
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-    </row>
-    <row r="130" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="56"/>
-      <c r="B130" s="56"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-    </row>
-    <row r="131" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="56"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-    </row>
-    <row r="132" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="56"/>
-      <c r="B132" s="56"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-    </row>
-    <row r="133" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="56"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-    </row>
-    <row r="134" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="56"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-    </row>
-    <row r="135" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="56"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-    </row>
-    <row r="136" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="56"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-    </row>
-    <row r="137" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="56"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="56"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-    </row>
-    <row r="138" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="56"/>
-      <c r="B138" s="56"/>
-      <c r="C138" s="56"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="56"/>
-      <c r="F138" s="56"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52" t="s">
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="52"/>
+      <c r="B129" s="52" t="s">
         <v>1219</v>
       </c>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="I139" s="83"/>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52" t="s">
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="52"/>
+      <c r="I129" s="83"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="52"/>
+      <c r="B130" s="52" t="s">
         <v>1220</v>
       </c>
-      <c r="C140" s="52"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="I140" s="83"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52" t="s">
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="I130" s="83"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="52"/>
+      <c r="B131" s="52" t="s">
         <v>1221</v>
       </c>
-      <c r="C141" s="52"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="52"/>
-      <c r="F141" s="52"/>
-      <c r="I141" s="83"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52" t="s">
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="I131" s="83"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="52"/>
+      <c r="B132" s="52" t="s">
         <v>1222</v>
       </c>
-      <c r="C142" s="52"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="52"/>
-      <c r="I142" s="83"/>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52" t="s">
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="I132" s="83"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="52"/>
+      <c r="B133" s="52" t="s">
         <v>1223</v>
       </c>
-      <c r="C143" s="52"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="52"/>
-      <c r="I143" s="83"/>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52" t="s">
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
+      <c r="I133" s="83"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="52"/>
+      <c r="B134" s="52" t="s">
         <v>1224</v>
       </c>
-      <c r="C144" s="52"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="52"/>
-      <c r="I144" s="83"/>
-    </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52" t="s">
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+      <c r="I134" s="83"/>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="52"/>
+      <c r="B135" s="52" t="s">
         <v>1225</v>
       </c>
-      <c r="C145" s="52"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
-      <c r="F145" s="52"/>
-      <c r="I145" s="83"/>
-    </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52" t="s">
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="I135" s="83"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="52"/>
+      <c r="B136" s="52" t="s">
         <v>1226</v>
       </c>
-      <c r="C146" s="52"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="52"/>
-      <c r="I146" s="83"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="I136" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="I120:I126"/>
-    <mergeCell ref="I139:I146"/>
+    <mergeCell ref="I129:I136"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
@@ -19617,19 +19537,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19918,8 +19838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19948,7 +19868,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>1073</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -19990,7 +19910,7 @@
       <c r="V2" s="104"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="43" t="s">
         <v>1071</v>
       </c>

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1259">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4146,10 +4146,6 @@
     <t>芦花古楼-风-4</t>
   </si>
   <si>
-    <t>战力要求3个5级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战力要求3个10级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4268,10 +4264,6 @@
   </si>
   <si>
     <t>战力要求3个17级，神器2级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用第二次整体突破，引导玩家挑战困难关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5214,6 +5206,10 @@
   </si>
   <si>
     <t>2小时，来自牧守令。产出3级的队伍经验，和3个守护灵10级的经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个5级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6010,21 +6006,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6070,6 +6051,21 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6092,6 +6088,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6106,20 +6117,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6129,9 +6128,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6270,15 +6266,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>200024</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>272993</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6601,12 +6597,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6615,10 +6611,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="64" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6629,26 +6625,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6657,10 +6653,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6669,147 +6665,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6822,16 +6822,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -13525,7 +13521,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -13547,7 +13543,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -13565,7 +13561,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -13587,7 +13583,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="84" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -13605,7 +13601,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -13621,7 +13617,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -13635,7 +13631,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -13657,7 +13653,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -13675,7 +13671,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -13693,7 +13689,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -13715,7 +13711,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="87" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -13739,7 +13735,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -13763,7 +13759,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -13783,7 +13779,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="85" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -13799,7 +13795,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="90"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -13819,7 +13815,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -13841,7 +13837,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -13857,7 +13853,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="84" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -13883,7 +13879,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="90"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -13905,7 +13901,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="91"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -13927,7 +13923,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="84" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -13951,7 +13947,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="90"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -13973,7 +13969,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="91"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -14018,16 +14014,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="88" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="92"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="87" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -14049,7 +14045,7 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -14069,7 +14065,7 @@
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -14173,7 +14169,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="89" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -14188,12 +14184,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="88"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -14209,7 +14205,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -14225,7 +14221,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -14241,7 +14237,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="86"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -14258,12 +14254,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -14271,12 +14267,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14334,114 +14330,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="88" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="88" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="88" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="88" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="88" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="88" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92" t="s">
+      <c r="N4" s="88"/>
+      <c r="O4" s="88" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92" t="s">
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92" t="s">
+      <c r="R4" s="88"/>
+      <c r="S4" s="88" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92" t="s">
+      <c r="T4" s="88"/>
+      <c r="U4" s="88" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92" t="s">
+      <c r="V4" s="88"/>
+      <c r="W4" s="88" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92" t="s">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92" t="s">
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92" t="s">
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92" t="s">
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92" t="s">
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92" t="s">
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92" t="s">
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92" t="s">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92" t="s">
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88" t="s">
         <v>1127</v>
       </c>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AT4" s="92"/>
+      <c r="AT4" s="88"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -14552,14 +14548,14 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="95" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>797</v>
@@ -14628,7 +14624,7 @@
       </c>
       <c r="AL6" s="25"/>
       <c r="AM6" s="25" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AN6" s="25"/>
       <c r="AO6" s="45">
@@ -14645,13 +14641,13 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="45" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -14717,7 +14713,7 @@
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AN7" s="45"/>
       <c r="AO7" s="45">
@@ -14734,13 +14730,13 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>800</v>
@@ -14808,7 +14804,7 @@
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="40" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AN8" s="25"/>
       <c r="AO8" s="45">
@@ -14825,7 +14821,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -14833,7 +14829,7 @@
         <v>799</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>803</v>
@@ -15304,7 +15300,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="95" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -15312,7 +15308,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -15376,7 +15372,7 @@
       </c>
       <c r="AL18" s="25"/>
       <c r="AM18" s="25" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="45">
@@ -15393,13 +15389,13 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -15474,13 +15470,13 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -15544,7 +15540,7 @@
       </c>
       <c r="AL20" s="25"/>
       <c r="AM20" s="25" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="45"/>
@@ -15555,13 +15551,13 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="56" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -15614,13 +15610,13 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="56" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -15671,13 +15667,13 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="96"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="56" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -15729,7 +15725,7 @@
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="83" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>821</v>
@@ -15829,7 +15825,7 @@
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="83" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>821</v>
@@ -15929,7 +15925,7 @@
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="83" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>821</v>
@@ -16127,7 +16123,7 @@
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="83" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>821</v>
@@ -16325,7 +16321,7 @@
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="83" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>821</v>
@@ -16621,7 +16617,7 @@
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B42" s="83" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>821</v>
@@ -16917,7 +16913,7 @@
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B48" s="83" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>821</v>
@@ -17213,6 +17209,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -17229,27 +17246,6 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17259,10 +17255,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17586,7 +17582,7 @@
         <v>870</v>
       </c>
       <c r="I17" s="83" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L17" s="53"/>
     </row>
@@ -17705,7 +17701,7 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="I23" s="83"/>
       <c r="L23" s="53"/>
@@ -17721,14 +17717,14 @@
         <v>10</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="94" t="s">
-        <v>1014</v>
+      <c r="I24" s="95" t="s">
+        <v>1012</v>
       </c>
       <c r="L24" s="53"/>
     </row>
@@ -17743,13 +17739,13 @@
         <v>11</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="95"/>
+      <c r="I25" s="96"/>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17763,13 +17759,13 @@
         <v>11</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="96"/>
       <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17783,13 +17779,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="95"/>
+      <c r="I27" s="96"/>
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17803,13 +17799,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="95"/>
+      <c r="I28" s="96"/>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17823,13 +17819,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="95"/>
+      <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -17842,13 +17838,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="96"/>
+      <c r="I30" s="97"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -17867,11 +17863,8 @@
       <c r="F31" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>1003</v>
-      </c>
       <c r="I31" s="83" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17980,14 +17973,14 @@
         <v>16</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
       <c r="I37" s="83" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18001,11 +17994,11 @@
         <v>16</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="25" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="I38" s="83"/>
     </row>
@@ -18016,12 +18009,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="87" t="s">
-        <v>1018</v>
+      <c r="C39" s="92" t="s">
+        <v>1016</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="98"/>
-      <c r="F39" s="88"/>
+      <c r="F39" s="93"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -18150,7 +18143,7 @@
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29" t="s">
-        <v>965</v>
+        <v>1258</v>
       </c>
       <c r="I46" s="39"/>
     </row>
@@ -18167,7 +18160,7 @@
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I47" s="39"/>
     </row>
@@ -18201,7 +18194,7 @@
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I49" s="39"/>
     </row>
@@ -18220,10 +18213,10 @@
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I50" s="94" t="s">
-        <v>1028</v>
+        <v>1001</v>
+      </c>
+      <c r="I50" s="95" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18241,16 +18234,16 @@
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I51" s="96"/>
+        <v>1084</v>
+      </c>
+      <c r="I51" s="97"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>40</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C52" s="29">
         <v>20</v>
@@ -18264,7 +18257,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C53" s="29">
         <v>21</v>
@@ -18272,10 +18265,10 @@
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I53" s="83" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18283,7 +18276,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C54" s="29">
         <v>21</v>
@@ -18291,7 +18284,7 @@
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I54" s="83"/>
     </row>
@@ -18300,7 +18293,7 @@
         <v>65</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C55" s="29">
         <v>21</v>
@@ -18308,7 +18301,7 @@
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I55" s="83"/>
     </row>
@@ -18317,7 +18310,7 @@
         <v>66</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C56" s="29">
         <v>22</v>
@@ -18325,7 +18318,7 @@
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I56" s="83"/>
     </row>
@@ -18334,7 +18327,7 @@
         <v>67</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C57" s="29">
         <v>22</v>
@@ -18342,7 +18335,7 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I57" s="83"/>
     </row>
@@ -18351,7 +18344,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C58" s="29">
         <v>22</v>
@@ -18359,7 +18352,7 @@
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I58" s="83"/>
     </row>
@@ -18368,7 +18361,7 @@
         <v>69</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C59" s="29">
         <v>22</v>
@@ -18376,7 +18369,7 @@
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I59" s="83"/>
     </row>
@@ -18395,8 +18388,8 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="84" t="s">
-        <v>1030</v>
+      <c r="I60" s="89" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18414,7 +18407,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="85"/>
+      <c r="I61" s="90"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -18431,7 +18424,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="85"/>
+      <c r="I62" s="90"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -18448,7 +18441,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="85"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -18465,7 +18458,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="85"/>
+      <c r="I64" s="90"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -18482,7 +18475,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="85"/>
+      <c r="I65" s="90"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -18497,9 +18490,9 @@
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29" t="s">
-        <v>989</v>
-      </c>
-      <c r="I66" s="85"/>
+        <v>988</v>
+      </c>
+      <c r="I66" s="90"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -18514,9 +18507,9 @@
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29" t="s">
-        <v>990</v>
-      </c>
-      <c r="I67" s="85"/>
+        <v>989</v>
+      </c>
+      <c r="I67" s="90"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -18531,16 +18524,16 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I68" s="86"/>
+        <v>1093</v>
+      </c>
+      <c r="I68" s="91"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>58</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C69" s="29">
         <v>25</v>
@@ -18548,7 +18541,7 @@
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I69" s="39"/>
     </row>
@@ -18557,7 +18550,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C70" s="29">
         <v>26</v>
@@ -18565,7 +18558,7 @@
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
       <c r="F70" s="29" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I70" s="39"/>
     </row>
@@ -18574,7 +18567,7 @@
         <v>60</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C71" s="29">
         <v>26</v>
@@ -18582,7 +18575,7 @@
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I71" s="39"/>
     </row>
@@ -18591,7 +18584,7 @@
         <v>61</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C72" s="29">
         <v>27</v>
@@ -18599,10 +18592,10 @@
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
       <c r="F72" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I72" s="83" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18610,7 +18603,7 @@
         <v>62</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C73" s="29">
         <v>27</v>
@@ -18618,7 +18611,7 @@
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
       <c r="F73" s="29" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I73" s="83"/>
     </row>
@@ -18627,7 +18620,7 @@
         <v>63</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C74" s="29">
         <v>27</v>
@@ -18635,7 +18628,7 @@
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
       <c r="F74" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I74" s="83"/>
     </row>
@@ -18644,7 +18637,7 @@
         <v>64</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C75" s="29">
         <v>27</v>
@@ -18652,7 +18645,7 @@
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
       <c r="F75" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I75" s="83"/>
     </row>
@@ -18661,7 +18654,7 @@
         <v>65</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C76" s="29">
         <v>27</v>
@@ -18669,7 +18662,7 @@
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I76" s="83"/>
     </row>
@@ -18678,7 +18671,7 @@
         <v>66</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C77" s="29">
         <v>27</v>
@@ -18686,7 +18679,7 @@
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
       <c r="F77" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I77" s="83"/>
     </row>
@@ -18695,7 +18688,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C78" s="29">
         <v>27</v>
@@ -18703,7 +18696,7 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="I78" s="83"/>
     </row>
@@ -18712,7 +18705,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="99" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C79" s="100"/>
       <c r="D79" s="100"/>
@@ -18724,7 +18717,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C80" s="29">
         <v>30</v>
@@ -18738,7 +18731,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C81" s="29">
         <v>30</v>
@@ -18746,7 +18739,7 @@
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18754,7 +18747,7 @@
         <v>71</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C82" s="29">
         <v>30</v>
@@ -18762,7 +18755,7 @@
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18770,7 +18763,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C83" s="29">
         <v>31</v>
@@ -18778,7 +18771,7 @@
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18786,7 +18779,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C84" s="29">
         <v>31</v>
@@ -18794,7 +18787,7 @@
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I84" s="38"/>
     </row>
@@ -18803,7 +18796,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C85" s="29">
         <v>31</v>
@@ -18811,7 +18804,7 @@
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18819,7 +18812,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C86" s="29">
         <v>32</v>
@@ -18827,7 +18820,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="29" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18835,7 +18828,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -18847,7 +18840,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C88" s="29">
         <v>33</v>
@@ -18855,7 +18848,7 @@
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="29" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18863,7 +18856,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C89" s="29">
         <v>33</v>
@@ -18871,7 +18864,7 @@
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18879,7 +18872,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C90" s="29">
         <v>34</v>
@@ -18887,7 +18880,7 @@
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18895,7 +18888,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C91" s="52">
         <v>34</v>
@@ -18903,10 +18896,10 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I91" s="83" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18914,7 +18907,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C92" s="52">
         <v>35</v>
@@ -18922,7 +18915,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I92" s="83"/>
     </row>
@@ -18931,7 +18924,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C93" s="52">
         <v>35</v>
@@ -18939,7 +18932,7 @@
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I93" s="55"/>
     </row>
@@ -18948,7 +18941,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C94" s="52">
         <v>35</v>
@@ -18956,7 +18949,7 @@
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="29" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I94" s="55"/>
     </row>
@@ -18965,7 +18958,7 @@
         <v>84</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C95" s="52">
         <v>35</v>
@@ -18973,7 +18966,7 @@
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="29" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I95" s="55"/>
     </row>
@@ -18982,7 +18975,7 @@
         <v>85</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C96" s="52">
         <v>35</v>
@@ -18990,7 +18983,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="29" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I96" s="55"/>
     </row>
@@ -18999,7 +18992,7 @@
         <v>86</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C97" s="52">
         <v>35</v>
@@ -19007,7 +19000,7 @@
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
       <c r="F97" s="37" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I97" s="55"/>
     </row>
@@ -19016,7 +19009,7 @@
         <v>87</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C98" s="52">
         <v>35</v>
@@ -19024,7 +19017,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="37" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I98" s="55"/>
     </row>
@@ -19033,7 +19026,7 @@
         <v>88</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C99" s="52">
         <v>35</v>
@@ -19041,7 +19034,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="37" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I99" s="55"/>
     </row>
@@ -19050,7 +19043,7 @@
         <v>89</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C100" s="52">
         <v>35</v>
@@ -19058,13 +19051,13 @@
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="83" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B101" s="83"/>
       <c r="C101" s="83"/>
@@ -19073,7 +19066,7 @@
       <c r="F101" s="83"/>
       <c r="H101" s="31"/>
       <c r="I101" s="56" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19081,13 +19074,13 @@
         <v>90</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -19097,13 +19090,13 @@
         <v>91</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="45" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19111,13 +19104,13 @@
         <v>92</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
       <c r="F104" s="45" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19125,13 +19118,13 @@
         <v>93</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
       <c r="F105" s="45" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19139,13 +19132,13 @@
         <v>94</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
       <c r="F106" s="45" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19153,13 +19146,13 @@
         <v>95</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="49" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19167,13 +19160,13 @@
         <v>96</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
       <c r="F108" s="49" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19181,130 +19174,130 @@
         <v>97</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
       <c r="F109" s="52" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="87"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="92"/>
       <c r="B110" s="98"/>
       <c r="C110" s="98"/>
       <c r="D110" s="98"/>
       <c r="E110" s="98"/>
-      <c r="F110" s="88"/>
+      <c r="F110" s="93"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="52" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
       <c r="F111" s="52" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I111" s="83" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="52" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
       <c r="F112" s="52" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I112" s="83"/>
     </row>
-    <row r="113" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
       <c r="B113" s="52" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
       <c r="F113" s="52" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I113" s="83"/>
     </row>
-    <row r="114" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
       <c r="B114" s="52" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
       <c r="F114" s="52" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I114" s="83"/>
     </row>
-    <row r="115" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
       <c r="B115" s="52" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
       <c r="E115" s="52"/>
       <c r="F115" s="52" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I115" s="83"/>
     </row>
-    <row r="116" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
       <c r="B116" s="52" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
       <c r="E116" s="52"/>
       <c r="F116" s="52" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I116" s="83"/>
     </row>
-    <row r="117" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="52" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
       <c r="F117" s="52" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I117" s="83"/>
     </row>
-    <row r="118" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="52" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
       <c r="E118" s="52"/>
       <c r="F118" s="52" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I118" s="83"/>
     </row>
-    <row r="119" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="52"/>
       <c r="B119" s="52"/>
       <c r="C119" s="52"/>
@@ -19312,98 +19305,112 @@
       <c r="E119" s="52"/>
       <c r="F119" s="52"/>
     </row>
-    <row r="120" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="52" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
       <c r="E120" s="52"/>
       <c r="F120" s="52" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I120" s="83"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1226</v>
+      </c>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="53"/>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="52" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
       <c r="F121" s="52" t="s">
-        <v>1229</v>
-      </c>
-      <c r="I121" s="83"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1227</v>
+      </c>
+      <c r="H121" s="53"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="53"/>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="52" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
       <c r="F122" s="52" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I122" s="83"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1249</v>
+      </c>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="52" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
       <c r="F123" s="52" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I123" s="83"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1228</v>
+      </c>
+      <c r="H123" s="53"/>
+      <c r="I123" s="53"/>
+      <c r="J123" s="53"/>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="52" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
       <c r="E124" s="52"/>
       <c r="F124" s="52" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I124" s="83"/>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1229</v>
+      </c>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="52" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="52" t="s">
-        <v>1252</v>
-      </c>
-      <c r="I125" s="83"/>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1250</v>
+      </c>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="53"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="52" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
       <c r="E126" s="52"/>
       <c r="F126" s="52" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I126" s="83"/>
-    </row>
-    <row r="127" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+    </row>
+    <row r="127" spans="1:10" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="52"/>
       <c r="B127" s="52"/>
       <c r="C127" s="52"/>
@@ -19411,108 +19418,127 @@
       <c r="E127" s="52"/>
       <c r="F127" s="52"/>
     </row>
-    <row r="128" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="56"/>
       <c r="B128" s="56" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C128" s="56"/>
       <c r="D128" s="56"/>
       <c r="E128" s="56"/>
       <c r="F128" s="56"/>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="52"/>
       <c r="B129" s="52" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C129" s="52"/>
       <c r="D129" s="52"/>
       <c r="E129" s="52"/>
       <c r="F129" s="52"/>
-      <c r="I129" s="83"/>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H129" s="53"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="53"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="52"/>
       <c r="B130" s="52" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C130" s="52"/>
       <c r="D130" s="52"/>
       <c r="E130" s="52"/>
       <c r="F130" s="52"/>
-      <c r="I130" s="83"/>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H130" s="53"/>
+      <c r="I130" s="53"/>
+      <c r="J130" s="53"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="52"/>
       <c r="B131" s="52" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>
       <c r="E131" s="52"/>
       <c r="F131" s="52"/>
-      <c r="I131" s="83"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H131" s="53"/>
+      <c r="I131" s="53"/>
+      <c r="J131" s="53"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="52"/>
       <c r="B132" s="52" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C132" s="52"/>
       <c r="D132" s="52"/>
       <c r="E132" s="52"/>
       <c r="F132" s="52"/>
-      <c r="I132" s="83"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="52"/>
       <c r="B133" s="52" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C133" s="52"/>
       <c r="D133" s="52"/>
       <c r="E133" s="52"/>
       <c r="F133" s="52"/>
-      <c r="I133" s="83"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H133" s="53"/>
+      <c r="I133" s="53"/>
+      <c r="J133" s="53"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="52"/>
       <c r="B134" s="52" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="52"/>
       <c r="E134" s="52"/>
       <c r="F134" s="52"/>
-      <c r="I134" s="83"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H134" s="53"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="53"/>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="52"/>
       <c r="B135" s="52" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C135" s="52"/>
       <c r="D135" s="52"/>
       <c r="E135" s="52"/>
       <c r="F135" s="52"/>
-      <c r="I135" s="83"/>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H135" s="53"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="53"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="52"/>
       <c r="B136" s="52" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C136" s="52"/>
       <c r="D136" s="52"/>
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
-      <c r="I136" s="83"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H137" s="53"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I120:I126"/>
-    <mergeCell ref="I129:I136"/>
+  <mergeCells count="14">
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
@@ -19541,15 +19567,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:colOff>142875</xdr:colOff>
                 <xdr:row>70</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19582,22 +19608,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -19605,13 +19631,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>1107</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -19619,13 +19645,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -19633,13 +19659,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -19647,13 +19673,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>1114</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -19661,13 +19687,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19682,10 +19708,10 @@
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -19868,39 +19894,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
-        <v>1073</v>
+      <c r="A2" s="88" t="s">
+        <v>1071</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C2" s="103"/>
       <c r="D2" s="103" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E2" s="104"/>
       <c r="F2" s="102" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G2" s="103"/>
       <c r="H2" s="102" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I2" s="103"/>
       <c r="J2" s="102" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="K2" s="103"/>
       <c r="L2" s="102" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M2" s="103"/>
       <c r="N2" s="102" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="O2" s="103"/>
       <c r="P2" s="102" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Q2" s="103"/>
       <c r="R2" s="103"/>
@@ -19910,69 +19936,69 @@
       <c r="V2" s="104"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Q3" s="50" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="T3" s="46" t="s">
+        <v>1145</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>1146</v>
+      </c>
+      <c r="V3" s="46" t="s">
         <v>1147</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>1148</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -19980,28 +20006,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I4" s="49" t="s">
         <v>1099</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>1101</v>
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -20016,15 +20042,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="S4" s="49"/>
       <c r="T4" s="45"/>
       <c r="U4" s="49" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20032,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>1085</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>1087</v>
-      </c>
       <c r="F5" s="49" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
@@ -20068,15 +20094,15 @@
         <v>35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="45"/>
       <c r="U5" s="49" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20084,16 +20110,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>1088</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>1090</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -20112,15 +20138,15 @@
         <v>35</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="45"/>
       <c r="U6" s="49" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20128,16 +20154,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
@@ -20156,15 +20182,15 @@
         <v>35</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="45"/>
       <c r="U7" s="49" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20192,15 +20218,15 @@
         <v>40</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="S8" s="49"/>
       <c r="T8" s="45"/>
       <c r="U8" s="49" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20228,15 +20254,15 @@
         <v>40</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20264,15 +20290,15 @@
         <v>40</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="49" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20300,15 +20326,15 @@
         <v>40</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
       <c r="U11" s="49" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20336,15 +20362,15 @@
         <v>40</v>
       </c>
       <c r="R12" s="42" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="45"/>
       <c r="U12" s="49" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20372,15 +20398,15 @@
         <v>50</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="S13" s="49"/>
       <c r="T13" s="45"/>
       <c r="U13" s="49" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20408,15 +20434,15 @@
         <v>50</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="45"/>
       <c r="U14" s="49" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20444,15 +20470,15 @@
         <v>50</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="S15" s="49"/>
       <c r="T15" s="45"/>
       <c r="U15" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -20480,15 +20506,15 @@
         <v>50</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="S16" s="49"/>
       <c r="T16" s="45"/>
       <c r="U16" s="49" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20516,15 +20542,15 @@
         <v>50</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="S17" s="49"/>
       <c r="T17" s="45"/>
       <c r="U17" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20552,15 +20578,15 @@
         <v>55</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="S18" s="49"/>
       <c r="T18" s="45"/>
       <c r="U18" s="49" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20588,15 +20614,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="S19" s="49"/>
       <c r="T19" s="45"/>
       <c r="U19" s="49" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20624,15 +20650,15 @@
         <v>55</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="45"/>
       <c r="U20" s="49" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20660,15 +20686,15 @@
         <v>55</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="45"/>
       <c r="U21" s="49" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20696,15 +20722,15 @@
         <v>60</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="45"/>
       <c r="U22" s="49" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20732,15 +20758,15 @@
         <v>60</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="S23" s="49"/>
       <c r="T23" s="45"/>
       <c r="U23" s="49" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20768,15 +20794,15 @@
         <v>60</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="45"/>
       <c r="U24" s="49" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20804,15 +20830,15 @@
         <v>70</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="S25" s="49"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20840,15 +20866,15 @@
         <v>70</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="S26" s="49"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20876,15 +20902,15 @@
         <v>70</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="S27" s="49"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20912,15 +20938,15 @@
         <v>80</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="S28" s="49"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20948,15 +20974,15 @@
         <v>80</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="S29" s="49"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20984,15 +21010,15 @@
         <v>80</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21020,15 +21046,15 @@
         <v>80</v>
       </c>
       <c r="R31" s="49" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="S31" s="49"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="V31" s="49" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="价值概述" sheetId="77" r:id="rId2"/>
-    <sheet name="游戏节奏概述" sheetId="79" r:id="rId3"/>
-    <sheet name="游戏节奏" sheetId="80" r:id="rId4"/>
-    <sheet name="产销梳理" sheetId="82" r:id="rId5"/>
-    <sheet name="关键兴奋点设计" sheetId="83" r:id="rId6"/>
-    <sheet name="主线任务" sheetId="84" r:id="rId7"/>
-    <sheet name="关卡卡点" sheetId="87" r:id="rId8"/>
+    <sheet name="目标任务" sheetId="88" r:id="rId3"/>
+    <sheet name="游戏节奏概述" sheetId="79" r:id="rId4"/>
+    <sheet name="游戏节奏" sheetId="80" r:id="rId5"/>
+    <sheet name="产销梳理" sheetId="82" r:id="rId6"/>
+    <sheet name="关键兴奋点设计" sheetId="83" r:id="rId7"/>
+    <sheet name="主线任务" sheetId="84" r:id="rId8"/>
     <sheet name="各系统关键点" sheetId="85" r:id="rId9"/>
     <sheet name="属性表" sheetId="38" state="hidden" r:id="rId10"/>
     <sheet name="军阶数值" sheetId="42" state="hidden" r:id="rId11"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1488">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4475,10 +4475,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>竞技场通关1场战斗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10突破</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4658,72 +4654,6 @@
   </si>
   <si>
     <t>3个24级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt-1-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕1突，5级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gj-1-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt-2-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体12级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kn-1-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体15级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体10级，1突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体15级，1个2突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁神器1</t>
-  </si>
-  <si>
-    <t>#1#通关困难1章；#2#通关普通2章；#3#芦花古楼4层；#4#3张卡2突</t>
-  </si>
-  <si>
-    <t>解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5025,199 +4955,1027 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>30级后，开放日常任务，通关第4章，到32级，开放竞技场，做完所有日常任务，到35级，开放个人BOSS，40级开放专属武器。
+    <t>通关4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化10级，4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-花-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-3</t>
+  </si>
+  <si>
+    <t>通关4-4</t>
+  </si>
+  <si>
+    <t>通关4-5</t>
+  </si>
+  <si>
+    <t>通关4-6</t>
+  </si>
+  <si>
+    <t>通关4-7</t>
+  </si>
+  <si>
+    <t>通关4-8</t>
+  </si>
+  <si>
+    <t>通关4-9</t>
+  </si>
+  <si>
+    <t>通关4-10</t>
+  </si>
+  <si>
+    <t>通关4-11</t>
+  </si>
+  <si>
+    <t>通关4-12</t>
+  </si>
+  <si>
+    <t>通关4-13</t>
+  </si>
+  <si>
+    <t>通关4-14</t>
+  </si>
+  <si>
+    <t>通关4-15</t>
+  </si>
+  <si>
+    <t>5小时扫荡，可以扫出1.5个卡牌3突的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，1个4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，3个4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个42级，专属强化2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个43级，专属强化3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难3-2</t>
+  </si>
+  <si>
+    <t>困难3-3</t>
+  </si>
+  <si>
+    <t>困难3-4</t>
+  </si>
+  <si>
+    <t>困难3-5</t>
+  </si>
+  <si>
+    <t>困难3-6</t>
+  </si>
+  <si>
+    <t>困难3-7</t>
+  </si>
+  <si>
+    <t>困难3-8</t>
+  </si>
+  <si>
+    <t>3个30级2突，神器1  4级</t>
+  </si>
+  <si>
+    <t>3个30级3突，神器2 激活</t>
+  </si>
+  <si>
+    <t>3个32级，神器2 2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个35级，神器2 4级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个37级，专属强化2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化7级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个40级，专属强化10级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6个4突材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9个4突材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡1.5个4突材料（12小时）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个41级，专属强化1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个43级，专属强化4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个44级，专属强化5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时，来自牧守令。产出3级的队伍经验，和3个守护灵10级的经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场通关1场战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级后，开放日常任务，通关第4章，到32级，开放竞技场，做完所有日常任务，到35级，开放个人BOSS，专属武器。
 个人BOSS主要产出初级中级神器，第一天末尾战力提升的手段。同时也可以购买金币，换强化石，提升专属武器强化。可以利用个人BOSS的战力提升，通过更多的芦花古楼花，再多扫荡几次，获得到40级的经验。
 40级开放国战入口，作为第二天上线的目标。35~40级的经验，大概就是挂机点3-15挂机12小时+一轮日常任务。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通关4-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关4-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个40级，专属强化10级，4突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-花-8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关4-3</t>
-  </si>
-  <si>
-    <t>通关4-4</t>
-  </si>
-  <si>
-    <t>通关4-5</t>
-  </si>
-  <si>
-    <t>通关4-6</t>
-  </si>
-  <si>
-    <t>通关4-7</t>
-  </si>
-  <si>
-    <t>通关4-8</t>
-  </si>
-  <si>
-    <t>通关4-9</t>
-  </si>
-  <si>
-    <t>通关4-10</t>
-  </si>
-  <si>
-    <t>通关4-11</t>
-  </si>
-  <si>
-    <t>通关4-12</t>
-  </si>
-  <si>
-    <t>通关4-13</t>
-  </si>
-  <si>
-    <t>通关4-14</t>
-  </si>
-  <si>
-    <t>通关4-15</t>
-  </si>
-  <si>
-    <t>5小时扫荡，可以扫出1.5个卡牌3突的材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个40级，1个4突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个40级，3个4突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个42级，专属强化2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个43级，专属强化3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>主线任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一场战斗</t>
+  </si>
+  <si>
+    <t>通过1-1</t>
+  </si>
+  <si>
+    <t>上阵卡牌</t>
+  </si>
+  <si>
+    <t>上阵夏玲和曹焱兵</t>
+  </si>
+  <si>
+    <t>击败曹焱兵</t>
+  </si>
+  <si>
+    <t>击败曹焱兵，证明自己实力。通过关卡1-2</t>
+  </si>
+  <si>
+    <t>通灵秘术</t>
+  </si>
+  <si>
+    <t>进行一次守护灵抽奖</t>
+  </si>
+  <si>
+    <t>通过关卡1-3</t>
+  </si>
+  <si>
+    <t>曹焱兵奋起，展示他真正的实力</t>
+  </si>
+  <si>
+    <t>升级守护灵</t>
+  </si>
+  <si>
+    <t>升级于禁到5级</t>
+  </si>
+  <si>
+    <t>再次通灵</t>
+  </si>
+  <si>
+    <t>再次引导玩家抽奖，保底掉落于禁，自动分解成于禁精魄</t>
+  </si>
+  <si>
+    <t>兑换一次技能</t>
+  </si>
+  <si>
+    <t>引导玩家使用于禁精魄，兑换插槽技能，并安到于禁身上</t>
+  </si>
+  <si>
+    <t>把于禁突破</t>
+  </si>
+  <si>
+    <t>引导于禁突破，激活天赋技能</t>
+  </si>
+  <si>
+    <t>再次引导抽奖，抽出李轩辕</t>
+  </si>
+  <si>
+    <t>上阵李轩辕</t>
+  </si>
+  <si>
+    <t>把抽到的李轩辕上阵</t>
+  </si>
+  <si>
+    <t>挂机1-1</t>
+  </si>
+  <si>
+    <t>把队伍派遣到挂机1-1</t>
+  </si>
+  <si>
+    <t>升级李轩辕到5级</t>
+  </si>
+  <si>
+    <t>把队伍派遣到挂机1-2</t>
+  </si>
+  <si>
+    <t>把唐流雨升到5级</t>
+  </si>
+  <si>
+    <t>把唐流雨突破</t>
+  </si>
+  <si>
+    <t>把队伍派遣到挂机1-3</t>
+  </si>
+  <si>
+    <t>把李轩辕突破</t>
+  </si>
+  <si>
+    <t>激活挂机关卡1-4</t>
+  </si>
+  <si>
+    <t>使用牧守令扫荡</t>
+  </si>
+  <si>
+    <t>把等级升级到10级</t>
+  </si>
+  <si>
+    <t>通过关卡2-1</t>
+  </si>
+  <si>
+    <t>把唐流雨突破+1</t>
+  </si>
+  <si>
+    <t>通过关卡2-2</t>
+  </si>
+  <si>
+    <t>把于禁升级到10</t>
+  </si>
+  <si>
+    <t>通过关卡2-3</t>
+  </si>
+  <si>
+    <t>通过关卡2-4。</t>
+  </si>
+  <si>
+    <t>把3张卡牌升级到10</t>
+  </si>
+  <si>
+    <t>通过关卡2-5。</t>
+  </si>
+  <si>
+    <t>通过关卡2-6。</t>
+  </si>
+  <si>
+    <t>把1张卡牌升级到15</t>
+  </si>
+  <si>
+    <t>通过关卡2-7。</t>
+  </si>
+  <si>
+    <t>通关芦花古楼1</t>
+  </si>
+  <si>
+    <t>通关芦花古楼2</t>
+  </si>
+  <si>
+    <t>通关芦花古楼3</t>
+  </si>
+  <si>
+    <t>通关芦花古楼4</t>
+  </si>
+  <si>
+    <t>激活神器1</t>
+  </si>
+  <si>
+    <t>拥有3个20级的守护灵</t>
+  </si>
+  <si>
+    <t>通过关卡3-1</t>
+  </si>
+  <si>
+    <t>通过关卡3-2</t>
+  </si>
+  <si>
+    <t>通过关卡3-3</t>
+  </si>
+  <si>
+    <t>通过关卡3-4</t>
+  </si>
+  <si>
+    <t>通过关卡3-5</t>
+  </si>
+  <si>
+    <t>通过关卡3-6</t>
+  </si>
+  <si>
+    <t>通过关卡3-7</t>
+  </si>
+  <si>
+    <t>通过关卡3-8</t>
+  </si>
+  <si>
+    <t>通过关卡3-9</t>
+  </si>
+  <si>
+    <t>竞技场通关1场战斗</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-1</t>
+  </si>
+  <si>
+    <t>通关困难2-1</t>
+  </si>
+  <si>
+    <t>通关困难2-2</t>
+  </si>
+  <si>
+    <t>通关困难2-3</t>
+  </si>
+  <si>
+    <t>通关困难2-4</t>
+  </si>
+  <si>
+    <t>通关困难2-5</t>
+  </si>
+  <si>
+    <t>通关困难2-6</t>
+  </si>
+  <si>
+    <t>通关困难2-7</t>
+  </si>
+  <si>
+    <t>通关困难2-8</t>
+  </si>
+  <si>
+    <t>通关困难2-9</t>
+  </si>
+  <si>
+    <t>拥有一张3突的守护灵</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-8</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-5</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-6</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-7</t>
+  </si>
+  <si>
+    <t>神器1神级到2级</t>
+  </si>
+  <si>
+    <t>升级到30级</t>
+  </si>
+  <si>
+    <t>通过关卡4-1</t>
+  </si>
+  <si>
+    <t>通过关卡4-2</t>
+  </si>
+  <si>
+    <t>通过关卡4-3</t>
+  </si>
+  <si>
+    <t>通过关卡4-4</t>
+  </si>
+  <si>
+    <t>通过关卡4-5</t>
+  </si>
+  <si>
+    <t>通过关卡4-6</t>
+  </si>
+  <si>
+    <t>通过关卡4-7</t>
+  </si>
+  <si>
+    <t>通过关卡4-8</t>
+  </si>
+  <si>
+    <t>通过关卡4-9</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-1</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-2</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-3</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-4</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-5</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-6</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-7</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-8</t>
   </si>
   <si>
     <t>困难3-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难3-2</t>
-  </si>
-  <si>
-    <t>困难3-3</t>
-  </si>
-  <si>
-    <t>困难3-4</t>
-  </si>
-  <si>
-    <t>困难3-5</t>
-  </si>
-  <si>
-    <t>困难3-6</t>
-  </si>
-  <si>
-    <t>困难3-7</t>
-  </si>
-  <si>
-    <t>困难3-8</t>
-  </si>
-  <si>
-    <t>3个30级2突，神器1  4级</t>
-  </si>
-  <si>
-    <t>3个30级3突，神器2 激活</t>
-  </si>
-  <si>
-    <t>3个32级，神器2 2级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个35级，神器2 4级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个37级，专属强化2级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个40级，专属强化5级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个40级，专属强化7级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个40级，专属强化10级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6个4突材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9个4突材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡1.5个4突材料（12小时）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个41级，专属强化1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个43级，专属强化4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个44级，专属强化5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机点4-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天1层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时，来自牧守令。产出3级的队伍经验，和3个守护灵10级的经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个5级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级到35级</t>
+  </si>
+  <si>
+    <t>击杀一个世界BOSS</t>
+  </si>
+  <si>
+    <t>把一个专属武器强化到5级</t>
+  </si>
+  <si>
+    <t>困难3-9</t>
+  </si>
+  <si>
+    <t>有一张4突的卡牌</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-8</t>
+  </si>
+  <si>
+    <t>神器1神级到4级</t>
+  </si>
+  <si>
+    <t>解锁挂机点4-9</t>
+  </si>
+  <si>
+    <t>通关芦花古楼-花1</t>
+  </si>
+  <si>
+    <t>通关芦花古楼-花2</t>
+  </si>
+  <si>
+    <t>通关芦花古楼-花3</t>
+  </si>
+  <si>
+    <t>通关芦花古楼-花4</t>
+  </si>
+  <si>
+    <t>升级到40级</t>
+  </si>
+  <si>
+    <t>目标任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级上限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑绳</t>
+  </si>
+  <si>
+    <t>黑绳+1</t>
+  </si>
+  <si>
+    <t>众合</t>
+  </si>
+  <si>
+    <t>众合+1</t>
+  </si>
+  <si>
+    <t>叫唤</t>
+  </si>
+  <si>
+    <t>叫唤+1</t>
+  </si>
+  <si>
+    <t>大叫唤</t>
+  </si>
+  <si>
+    <t>大叫唤+1</t>
+  </si>
+  <si>
+    <t>大叫唤+2</t>
+  </si>
+  <si>
+    <t>大叫唤+3</t>
+  </si>
+  <si>
+    <t>焦热</t>
+  </si>
+  <si>
+    <t>焦热+1</t>
+  </si>
+  <si>
+    <t>焦热+2</t>
+  </si>
+  <si>
+    <t>焦热+3</t>
+  </si>
+  <si>
+    <t>大焦热</t>
+  </si>
+  <si>
+    <t>大焦热+1</t>
+  </si>
+  <si>
+    <t>大焦热+2</t>
+  </si>
+  <si>
+    <t>大焦热+3</t>
+  </si>
+  <si>
+    <t>无间</t>
+  </si>
+  <si>
+    <t>无间+1</t>
+  </si>
+  <si>
+    <t>通过困难第1章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡2-8。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把1张卡牌突破到2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过困难关卡1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过困难关卡1-2</t>
+  </si>
+  <si>
+    <t>通过困难关卡1-3</t>
+  </si>
+  <si>
+    <t>把2张卡牌突破到2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把3张卡牌突破到3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过困难关卡1-5</t>
+  </si>
+  <si>
+    <t>通过困难关卡1-6</t>
+  </si>
+  <si>
+    <t>通过困难关卡1-7</t>
+  </si>
+  <si>
+    <t>通过困难关卡1-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过困难关卡1-8</t>
+  </si>
+  <si>
+    <t>通过困难关卡1-9</t>
+  </si>
+  <si>
+    <t>挂机点2-5（16）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机点2-6（17）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机点2-7（18）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡1-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过1-4关（剧情），1-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过1-6，体验到红水晶不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡1-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过1-7（剧情）,1-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡1-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡1-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到80</t>
+  </si>
+  <si>
+    <t>玩家等级升到120</t>
+  </si>
+  <si>
+    <t>玩家等级升到140</t>
+  </si>
+  <si>
+    <t>神器1升级到2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机点2-8（19）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机点2-9（20）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器2升级到2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到50</t>
+  </si>
+  <si>
+    <t>玩家等级升到60</t>
+  </si>
+  <si>
+    <t>玩家等级升到70</t>
+  </si>
+  <si>
+    <t>玩家等级升到110</t>
+  </si>
+  <si>
+    <t>玩家等级升到130</t>
+  </si>
+  <si>
+    <t>专属武器强化到5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡2-9。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3张守护灵升到10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风通关到10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活一个专属武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀2次星耀1的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3次天罡1的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3次天罡2的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3次天罡3的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3次地煞9的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3次天罡5的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀1次天罡4的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀1次天罡5的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3次天罡4的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3次天罡6的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀5次星耀1的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀10次星耀1的世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到85</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到95</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到105</t>
+  </si>
+  <si>
+    <t>玩家等级升到115</t>
+  </si>
+  <si>
+    <t>玩家等级升到125</t>
+  </si>
+  <si>
+    <t>玩家等级升到135</t>
+  </si>
+  <si>
+    <t>激活3个专属武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个专属武器强化到5级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个专属武器强化到10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽奖30次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽奖10次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个专属武器强化到10级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个专属武器解封2次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽奖50次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总共50层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总共100层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总共140层</t>
+  </si>
+  <si>
+    <t>芦花古楼总共120层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总共160层</t>
+  </si>
+  <si>
+    <t>芦花古楼总共180层</t>
+  </si>
+  <si>
+    <t>芦花古楼总共200层</t>
+  </si>
+  <si>
+    <t>芦花古楼总共225层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总共250层</t>
+  </si>
+  <si>
+    <t>芦花古楼总共275层</t>
+  </si>
+  <si>
+    <t>芦花古楼总共300层</t>
+  </si>
+  <si>
+    <t>守护灵抽奖100次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石3000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场到达1200分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场到达1300分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总共80层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场到达1400分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场到达1500分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有特定等级守护灵数量</t>
+  </si>
+  <si>
+    <t>抽卡次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀任意BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀某章BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难剧情关卡次数</t>
+  </si>
+  <si>
+    <t>风门通关数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-花通关到5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高专属武器等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高积分</t>
+  </si>
+  <si>
+    <t>芦花古楼总通关数</t>
+  </si>
+  <si>
+    <t>洗练战力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高洗练战力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器大点等级</t>
+  </si>
+  <si>
+    <t>激活专属武器的数量</t>
+  </si>
+  <si>
+    <t>最高专属武器等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家解封专属武器的总次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗钻石数量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5375,6 +6133,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -5822,7 +6588,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -5857,8 +6623,11 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6006,6 +6775,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6066,11 +6841,11 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6150,11 +6925,21 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="14" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Grid" xfId="4"/>
     <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="14"/>
     <cellStyle name="超链接 2" xfId="10"/>
     <cellStyle name="大标题" xfId="3"/>
     <cellStyle name="横向标题" xfId="5"/>
@@ -6597,12 +7382,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6611,10 +7396,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="66" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6625,26 +7410,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6653,10 +7438,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6665,138 +7450,138 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -8676,14 +9461,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -10678,6 +11463,1937 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:W142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="25.375" style="53" customWidth="1"/>
+    <col min="11" max="12" width="19.875" style="53" customWidth="1"/>
+    <col min="13" max="13" width="25.625" customWidth="1"/>
+    <col min="14" max="15" width="25.625" style="53" customWidth="1"/>
+    <col min="16" max="16" width="32.25" customWidth="1"/>
+    <col min="17" max="17" width="25.75" style="53" customWidth="1"/>
+    <col min="18" max="19" width="26" style="53" customWidth="1"/>
+    <col min="20" max="20" width="25.625" customWidth="1"/>
+    <col min="21" max="23" width="25.625" style="53" customWidth="1"/>
+    <col min="24" max="24" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:23" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="F3" s="79" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H5" s="53">
+        <v>15</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="53">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K6" s="58">
+        <v>3</v>
+      </c>
+      <c r="L6" s="58">
+        <v>10</v>
+      </c>
+      <c r="M6" s="107" t="s">
+        <v>1472</v>
+      </c>
+      <c r="N6" s="58">
+        <v>3</v>
+      </c>
+      <c r="O6" s="58">
+        <v>2</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R6" s="58">
+        <v>1</v>
+      </c>
+      <c r="S6" s="58">
+        <v>109</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>1406</v>
+      </c>
+      <c r="U6" s="107" t="s">
+        <v>1483</v>
+      </c>
+      <c r="V6" s="58">
+        <v>2</v>
+      </c>
+      <c r="W6" s="58">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="53">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K7" s="58">
+        <v>20</v>
+      </c>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N7" s="58">
+        <v>5</v>
+      </c>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q7" s="58" t="s">
+        <v>1476</v>
+      </c>
+      <c r="R7" s="58">
+        <v>10</v>
+      </c>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58" t="s">
+        <v>1410</v>
+      </c>
+      <c r="U7" s="107" t="s">
+        <v>1483</v>
+      </c>
+      <c r="V7" s="58">
+        <v>2</v>
+      </c>
+      <c r="W7" s="58">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="53">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K8" s="58">
+        <v>30</v>
+      </c>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58" t="s">
+        <v>1473</v>
+      </c>
+      <c r="N8" s="58">
+        <v>2</v>
+      </c>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58" t="s">
+        <v>1417</v>
+      </c>
+      <c r="Q8" s="108" t="s">
+        <v>1478</v>
+      </c>
+      <c r="R8" s="58">
+        <v>5</v>
+      </c>
+      <c r="S8" s="58">
+        <v>1</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>1448</v>
+      </c>
+      <c r="U8" s="107" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F9" s="53">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K9" s="58">
+        <v>40</v>
+      </c>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N9" s="58">
+        <v>2</v>
+      </c>
+      <c r="O9" s="58">
+        <v>3</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>1479</v>
+      </c>
+      <c r="R9" s="58">
+        <v>1200</v>
+      </c>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58" t="s">
+        <v>1422</v>
+      </c>
+      <c r="U9" s="107" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V9" s="58">
+        <v>1</v>
+      </c>
+      <c r="W9" s="58"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F10" s="53">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K10" s="58">
+        <v>50</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N10" s="58">
+        <v>2</v>
+      </c>
+      <c r="O10" s="58">
+        <v>4</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>1452</v>
+      </c>
+      <c r="Q10" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R10" s="58">
+        <v>50</v>
+      </c>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58" t="s">
+        <v>1445</v>
+      </c>
+      <c r="U10" s="58" t="s">
+        <v>1485</v>
+      </c>
+      <c r="V10" s="58">
+        <v>3</v>
+      </c>
+      <c r="W10" s="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F11" s="53">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K11" s="58">
+        <v>60</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N11" s="58">
+        <v>3</v>
+      </c>
+      <c r="O11" s="58">
+        <v>6</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>1449</v>
+      </c>
+      <c r="Q11" s="108" t="s">
+        <v>1478</v>
+      </c>
+      <c r="R11" s="58">
+        <v>10</v>
+      </c>
+      <c r="S11" s="58">
+        <v>1</v>
+      </c>
+      <c r="T11" s="58" t="s">
+        <v>1447</v>
+      </c>
+      <c r="U11" s="107" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V11" s="58">
+        <v>30</v>
+      </c>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F12" s="53">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K12" s="58">
+        <v>70</v>
+      </c>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N12" s="58">
+        <v>3</v>
+      </c>
+      <c r="O12" s="58">
+        <v>7</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>1482</v>
+      </c>
+      <c r="R12" s="58">
+        <v>15000</v>
+      </c>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58" t="s">
+        <v>1444</v>
+      </c>
+      <c r="U12" s="107" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V12" s="58">
+        <v>3</v>
+      </c>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F13" s="53">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K13" s="58">
+        <v>80</v>
+      </c>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N13" s="58">
+        <v>3</v>
+      </c>
+      <c r="O13" s="58">
+        <v>8</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>1479</v>
+      </c>
+      <c r="R13" s="58">
+        <v>1300</v>
+      </c>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58" t="s">
+        <v>1446</v>
+      </c>
+      <c r="U13" s="58" t="s">
+        <v>1478</v>
+      </c>
+      <c r="V13" s="58">
+        <v>3</v>
+      </c>
+      <c r="W13" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F14" s="53">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K14" s="58">
+        <v>90</v>
+      </c>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N14" s="58">
+        <v>3</v>
+      </c>
+      <c r="O14" s="58">
+        <v>9</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>1467</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R14" s="58">
+        <v>80</v>
+      </c>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58" t="s">
+        <v>1450</v>
+      </c>
+      <c r="U14" s="58" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V14" s="58">
+        <v>2</v>
+      </c>
+      <c r="W14" s="58"/>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F15" s="53">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K15" s="58">
+        <v>100</v>
+      </c>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58" t="s">
+        <v>1425</v>
+      </c>
+      <c r="N15" s="58">
+        <v>3</v>
+      </c>
+      <c r="O15" s="58">
+        <v>10</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>1479</v>
+      </c>
+      <c r="R15" s="58">
+        <v>1400</v>
+      </c>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58" t="s">
+        <v>1451</v>
+      </c>
+      <c r="U15" s="107" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V15" s="58">
+        <v>50</v>
+      </c>
+      <c r="W15" s="58"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F16" s="53">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K16" s="58">
+        <v>110</v>
+      </c>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N16" s="58">
+        <v>3</v>
+      </c>
+      <c r="O16" s="58">
+        <v>11</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R16" s="58">
+        <v>100</v>
+      </c>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58" t="s">
+        <v>1464</v>
+      </c>
+      <c r="U16" s="109" t="s">
+        <v>1487</v>
+      </c>
+      <c r="V16" s="58">
+        <v>3000</v>
+      </c>
+      <c r="W16" s="58"/>
+    </row>
+    <row r="17" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F17" s="53">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H17">
+        <v>120</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K17" s="58">
+        <v>120</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58" t="s">
+        <v>1427</v>
+      </c>
+      <c r="N17" s="58">
+        <v>3</v>
+      </c>
+      <c r="O17" s="58">
+        <v>12</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Q17" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R17" s="58">
+        <v>120</v>
+      </c>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58" t="s">
+        <v>1463</v>
+      </c>
+      <c r="U17" s="107" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V17" s="58">
+        <v>100</v>
+      </c>
+      <c r="W17" s="58"/>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F18" s="53">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H18">
+        <v>120</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K18" s="58">
+        <v>130</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58" t="s">
+        <v>1430</v>
+      </c>
+      <c r="N18" s="58">
+        <v>1</v>
+      </c>
+      <c r="O18" s="58">
+        <v>13</v>
+      </c>
+      <c r="P18" s="58" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Q18" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R18" s="58">
+        <v>140</v>
+      </c>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58" t="s">
+        <v>1469</v>
+      </c>
+      <c r="U18" s="58" t="s">
+        <v>1479</v>
+      </c>
+      <c r="V18" s="58">
+        <v>5000</v>
+      </c>
+      <c r="W18" s="58"/>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F19" s="53">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>1415</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K19" s="58">
+        <v>140</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N19" s="58">
+        <v>3</v>
+      </c>
+      <c r="O19" s="58">
+        <v>13</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R19" s="58">
+        <v>160</v>
+      </c>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+    </row>
+    <row r="20" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F20" s="53">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H20">
+        <v>120</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K20" s="58">
+        <v>150</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N20" s="58">
+        <v>1</v>
+      </c>
+      <c r="O20" s="58">
+        <v>14</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R20" s="58">
+        <v>180</v>
+      </c>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+    </row>
+    <row r="21" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F21" s="53">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H21">
+        <v>140</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K21" s="58">
+        <v>160</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N21" s="58">
+        <v>3</v>
+      </c>
+      <c r="O21" s="58">
+        <v>14</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Q21" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R21" s="58">
+        <v>200</v>
+      </c>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+    </row>
+    <row r="22" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F22" s="53">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H22">
+        <v>140</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K22" s="58">
+        <v>170</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N22" s="58">
+        <v>3</v>
+      </c>
+      <c r="O22" s="58">
+        <v>15</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R22" s="58">
+        <v>225</v>
+      </c>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F23" s="53">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H23">
+        <v>140</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K23" s="58">
+        <v>180</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58" t="s">
+        <v>1424</v>
+      </c>
+      <c r="N23" s="58">
+        <v>2</v>
+      </c>
+      <c r="O23" s="58">
+        <v>16</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Q23" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R23" s="58">
+        <v>250</v>
+      </c>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+    </row>
+    <row r="24" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F24" s="53">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H24">
+        <v>140</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K24" s="58">
+        <v>190</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N24" s="58">
+        <v>5</v>
+      </c>
+      <c r="O24" s="58">
+        <v>16</v>
+      </c>
+      <c r="P24" s="58" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q24" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R24" s="58">
+        <v>275</v>
+      </c>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+    </row>
+    <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F25" s="53">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H25">
+        <v>150</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K25" s="58">
+        <v>200</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58" t="s">
+        <v>1435</v>
+      </c>
+      <c r="N25" s="58">
+        <v>10</v>
+      </c>
+      <c r="O25" s="58">
+        <v>16</v>
+      </c>
+      <c r="P25" s="58" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q25" s="58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R25" s="58">
+        <v>300</v>
+      </c>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E29" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E30" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E31" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E32" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E33" s="53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E34" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E35" s="53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E36" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E37" s="53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E38" s="53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="53" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E39" s="53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E40" s="53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="53" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E41" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="53" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E42" s="53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="53" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E43" s="53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="53" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E44" s="53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E45" s="53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="53" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E46" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="53" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E47" s="53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="53" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E48" s="53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="53" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E49" s="53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E50" s="53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E51" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E52" s="53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E53" s="53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E54" s="53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="53" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E55" s="53">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>952</v>
+      </c>
+      <c r="E56" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>953</v>
+      </c>
+      <c r="E57" s="53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>954</v>
+      </c>
+      <c r="E58" s="53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>955</v>
+      </c>
+      <c r="E59" s="53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="53" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E60" s="53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="53" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E61" s="53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="53" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E62" s="53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="53" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E63" s="53">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E64" s="53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E65" s="53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E66" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E67" s="53">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:T3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10694,20 +13410,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="G2" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -10740,13 +13456,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="81" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="82" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -10785,8 +13501,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="O4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -10853,13 +13569,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="80" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="O6" s="80" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -10898,8 +13614,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="O7" s="77"/>
+      <c r="M7" s="80"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -11473,7 +14189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
@@ -11622,14 +14338,14 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -11664,14 +14380,14 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -11731,29 +14447,29 @@
       <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="84" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -11809,14 +14525,14 @@
       <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -11898,16 +14614,16 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="85" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -11972,16 +14688,16 @@
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -12044,16 +14760,16 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -12124,16 +14840,16 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -12454,16 +15170,16 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="85" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -13461,7 +16177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
@@ -13483,15 +16199,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -13521,7 +16237,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="86" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -13543,7 +16259,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -13561,7 +16277,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -13583,7 +16299,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -13601,7 +16317,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -13617,7 +16333,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -13631,7 +16347,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -13653,7 +16369,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -13671,7 +16387,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -13689,7 +16405,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -13711,7 +16427,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="89" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -13735,7 +16451,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -13759,7 +16475,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -13779,7 +16495,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="87" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -13795,7 +16511,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -13815,7 +16531,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -13837,7 +16553,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="85"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -13853,7 +16569,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="86" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -13879,7 +16595,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -13901,7 +16617,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -13923,7 +16639,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="86" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -13947,7 +16663,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -13969,7 +16685,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -13987,15 +16703,15 @@
       <c r="H26" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="79" t="s">
         <v>729</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14014,16 +16730,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="90" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="89" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -14038,14 +16754,14 @@
       <c r="E31" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="85" t="s">
         <v>736</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="85"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -14058,14 +16774,14 @@
       <c r="E32" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="85" t="s">
         <v>740</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -14078,10 +16794,10 @@
       <c r="E33" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="85" t="s">
         <v>744</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14100,10 +16816,10 @@
       <c r="E34" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="85" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="83"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14120,10 +16836,10 @@
       <c r="E35" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="85" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="83"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14138,10 +16854,10 @@
       <c r="E36" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="85" t="s">
         <v>759</v>
       </c>
-      <c r="G36" s="83"/>
+      <c r="G36" s="85"/>
       <c r="H36" s="25" t="s">
         <v>760</v>
       </c>
@@ -14160,16 +16876,16 @@
       <c r="E37" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="85" t="s">
         <v>765</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="25" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="91" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -14184,12 +16900,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="93"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="95"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -14205,7 +16921,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -14221,7 +16937,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -14237,7 +16953,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -14279,7 +16995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AT53"/>
   <sheetViews>
@@ -14330,114 +17046,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="90" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="90" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="90" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="90" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="90" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="90" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="90" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="90" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88" t="s">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88" t="s">
+      <c r="R4" s="90"/>
+      <c r="S4" s="90" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88" t="s">
+      <c r="T4" s="90"/>
+      <c r="U4" s="90" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88" t="s">
+      <c r="V4" s="90"/>
+      <c r="W4" s="90" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88" t="s">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88" t="s">
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88" t="s">
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88" t="s">
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88" t="s">
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88" t="s">
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88" t="s">
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88" t="s">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AT4" s="88"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -14548,14 +17264,14 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="97" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="97" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>797</v>
@@ -14624,7 +17340,7 @@
       </c>
       <c r="AL6" s="25"/>
       <c r="AM6" s="25" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AN6" s="25"/>
       <c r="AO6" s="45">
@@ -14641,13 +17357,13 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="45" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -14713,7 +17429,7 @@
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="AN7" s="45"/>
       <c r="AO7" s="45">
@@ -14730,13 +17446,13 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>800</v>
@@ -14804,7 +17520,7 @@
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="40" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AN8" s="25"/>
       <c r="AO8" s="45">
@@ -14821,7 +17537,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -14829,7 +17545,7 @@
         <v>799</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>803</v>
@@ -14906,7 +17622,7 @@
       <c r="AT9" s="45"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="85" t="s">
         <v>805</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -14957,7 +17673,7 @@
       <c r="AT10" s="45"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="83"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="25" t="s">
         <v>807</v>
       </c>
@@ -15006,7 +17722,7 @@
       <c r="AT11" s="45"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="83"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="25" t="s">
         <v>808</v>
       </c>
@@ -15055,7 +17771,7 @@
       <c r="AT12" s="45"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="83"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="25" t="s">
         <v>809</v>
       </c>
@@ -15104,7 +17820,7 @@
       <c r="AT13" s="45"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="83"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="25" t="s">
         <v>810</v>
       </c>
@@ -15153,7 +17869,7 @@
       <c r="AT14" s="45"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="83"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="25" t="s">
         <v>811</v>
       </c>
@@ -15300,7 +18016,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="97" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -15308,7 +18024,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>1252</v>
+        <v>1233</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -15372,7 +18088,7 @@
       </c>
       <c r="AL18" s="25"/>
       <c r="AM18" s="25" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="45">
@@ -15389,13 +18105,13 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="96"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1253</v>
+        <v>1234</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -15470,13 +18186,13 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="96"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>1254</v>
+        <v>1235</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -15540,7 +18256,7 @@
       </c>
       <c r="AL20" s="25"/>
       <c r="AM20" s="25" t="s">
-        <v>1256</v>
+        <v>1237</v>
       </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="45"/>
@@ -15551,13 +18267,13 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="96"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="56" t="s">
-        <v>1254</v>
+        <v>1235</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -15610,13 +18326,13 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="96"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="56" t="s">
-        <v>1254</v>
+        <v>1235</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -15667,13 +18383,13 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="97"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="56" t="s">
-        <v>1254</v>
+        <v>1235</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -15724,8 +18440,8 @@
       <c r="AT23" s="45"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="83" t="s">
-        <v>1128</v>
+      <c r="B24" s="85" t="s">
+        <v>1110</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>821</v>
@@ -15775,7 +18491,7 @@
       <c r="AT24" s="45"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="83"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="25" t="s">
         <v>822</v>
       </c>
@@ -15824,8 +18540,8 @@
       <c r="AT25" s="45"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="83" t="s">
-        <v>1129</v>
+      <c r="B26" s="85" t="s">
+        <v>1111</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>821</v>
@@ -15875,7 +18591,7 @@
       <c r="AT26" s="45"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="83"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="25" t="s">
         <v>822</v>
       </c>
@@ -15924,8 +18640,8 @@
       <c r="AT27" s="45"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="83" t="s">
-        <v>1130</v>
+      <c r="B28" s="85" t="s">
+        <v>1112</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>821</v>
@@ -15975,7 +18691,7 @@
       <c r="AT28" s="45"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="83"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="25" t="s">
         <v>822</v>
       </c>
@@ -16024,7 +18740,7 @@
       <c r="AT29" s="45"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="83"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="25" t="s">
         <v>545</v>
       </c>
@@ -16073,7 +18789,7 @@
       <c r="AT30" s="45"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="83"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="25" t="s">
         <v>546</v>
       </c>
@@ -16122,8 +18838,8 @@
       <c r="AT31" s="45"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="83" t="s">
-        <v>1131</v>
+      <c r="B32" s="85" t="s">
+        <v>1113</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>821</v>
@@ -16173,7 +18889,7 @@
       <c r="AT32" s="45"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="83"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="25" t="s">
         <v>822</v>
       </c>
@@ -16222,7 +18938,7 @@
       <c r="AT33" s="45"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="83"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="25" t="s">
         <v>545</v>
       </c>
@@ -16271,7 +18987,7 @@
       <c r="AT34" s="45"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="83"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="25" t="s">
         <v>546</v>
       </c>
@@ -16320,8 +19036,8 @@
       <c r="AT35" s="45"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="83" t="s">
-        <v>1132</v>
+      <c r="B36" s="85" t="s">
+        <v>1114</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>821</v>
@@ -16371,7 +19087,7 @@
       <c r="AT36" s="45"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="83"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="25" t="s">
         <v>822</v>
       </c>
@@ -16420,7 +19136,7 @@
       <c r="AT37" s="45"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="83"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="25" t="s">
         <v>545</v>
       </c>
@@ -16469,7 +19185,7 @@
       <c r="AT38" s="45"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="83"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="25" t="s">
         <v>546</v>
       </c>
@@ -16518,7 +19234,7 @@
       <c r="AT39" s="45"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="83"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="25" t="s">
         <v>547</v>
       </c>
@@ -16567,7 +19283,7 @@
       <c r="AT40" s="45"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="83"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="25" t="s">
         <v>548</v>
       </c>
@@ -16616,8 +19332,8 @@
       <c r="AT41" s="45"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="83" t="s">
-        <v>1133</v>
+      <c r="B42" s="85" t="s">
+        <v>1115</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>821</v>
@@ -16667,7 +19383,7 @@
       <c r="AT42" s="45"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="83"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="25" t="s">
         <v>822</v>
       </c>
@@ -16716,7 +19432,7 @@
       <c r="AT43" s="45"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="83"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="25" t="s">
         <v>545</v>
       </c>
@@ -16765,7 +19481,7 @@
       <c r="AT44" s="45"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="83"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="25" t="s">
         <v>546</v>
       </c>
@@ -16814,7 +19530,7 @@
       <c r="AT45" s="45"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="83"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="25" t="s">
         <v>547</v>
       </c>
@@ -16863,7 +19579,7 @@
       <c r="AT46" s="45"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="25" t="s">
         <v>548</v>
       </c>
@@ -16912,8 +19628,8 @@
       <c r="AT47" s="45"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="83" t="s">
-        <v>1134</v>
+      <c r="B48" s="85" t="s">
+        <v>1116</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>821</v>
@@ -16963,7 +19679,7 @@
       <c r="AT48" s="45"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="83"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="25" t="s">
         <v>822</v>
       </c>
@@ -17012,7 +19728,7 @@
       <c r="AT49" s="45"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="83"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="25" t="s">
         <v>545</v>
       </c>
@@ -17061,7 +19777,7 @@
       <c r="AT50" s="45"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="83"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="25" t="s">
         <v>546</v>
       </c>
@@ -17110,7 +19826,7 @@
       <c r="AT51" s="45"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="83"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="25" t="s">
         <v>547</v>
       </c>
@@ -17159,7 +19875,7 @@
       <c r="AT52" s="45"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="83"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="25" t="s">
         <v>548</v>
       </c>
@@ -17253,12 +19969,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I50" sqref="F50:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17581,8 +20297,8 @@
       <c r="F17" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="83" t="s">
-        <v>1257</v>
+      <c r="I17" s="85" t="s">
+        <v>1238</v>
       </c>
       <c r="L17" s="53"/>
     </row>
@@ -17603,7 +20319,7 @@
       <c r="F18" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="85"/>
       <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17623,7 +20339,7 @@
       <c r="F19" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="I19" s="83"/>
+      <c r="I19" s="85"/>
       <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17643,7 +20359,7 @@
       <c r="F20" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="I20" s="83"/>
+      <c r="I20" s="85"/>
       <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17663,7 +20379,7 @@
       <c r="F21" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="I21" s="83"/>
+      <c r="I21" s="85"/>
       <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17683,7 +20399,7 @@
       <c r="F22" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="85"/>
       <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17701,9 +20417,9 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I23" s="83"/>
+        <v>1081</v>
+      </c>
+      <c r="I23" s="85"/>
       <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17723,7 +20439,7 @@
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="97" t="s">
         <v>1012</v>
       </c>
       <c r="L24" s="53"/>
@@ -17745,7 +20461,7 @@
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="96"/>
+      <c r="I25" s="98"/>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17765,7 +20481,7 @@
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="96"/>
+      <c r="I26" s="98"/>
       <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17785,7 +20501,7 @@
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="96"/>
+      <c r="I27" s="98"/>
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17805,7 +20521,7 @@
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="96"/>
+      <c r="I28" s="98"/>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -17825,7 +20541,7 @@
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="96"/>
+      <c r="I29" s="98"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -17844,7 +20560,7 @@
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="97"/>
+      <c r="I30" s="99"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -17863,7 +20579,7 @@
       <c r="F31" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="I31" s="83" t="s">
+      <c r="I31" s="85" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -17884,7 +20600,7 @@
       <c r="F32" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="I32" s="83"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
@@ -17903,7 +20619,7 @@
       <c r="F33" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="I33" s="83"/>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
@@ -17922,7 +20638,7 @@
       <c r="F34" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="I34" s="83"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
@@ -17941,7 +20657,7 @@
       <c r="F35" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="I35" s="83"/>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
@@ -17960,7 +20676,7 @@
       <c r="F36" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="I36" s="83"/>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
@@ -17979,7 +20695,7 @@
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="I37" s="83" t="s">
+      <c r="I37" s="85" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -17998,9 +20714,9 @@
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="25" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I38" s="83"/>
+        <v>1076</v>
+      </c>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
@@ -18009,12 +20725,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="94" t="s">
         <v>1016</v>
       </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="93"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="95"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -18143,7 +20859,7 @@
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29" t="s">
-        <v>1258</v>
+        <v>1239</v>
       </c>
       <c r="I46" s="39"/>
     </row>
@@ -18215,7 +20931,7 @@
       <c r="F50" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="I50" s="95" t="s">
+      <c r="I50" s="97" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -18234,9 +20950,9 @@
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I51" s="97"/>
+        <v>1083</v>
+      </c>
+      <c r="I51" s="99"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
@@ -18267,7 +20983,7 @@
       <c r="F53" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="I53" s="83" t="s">
+      <c r="I53" s="85" t="s">
         <v>1027</v>
       </c>
     </row>
@@ -18286,7 +21002,7 @@
       <c r="F54" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I54" s="83"/>
+      <c r="I54" s="85"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
@@ -18303,7 +21019,7 @@
       <c r="F55" s="29" t="s">
         <v>1003</v>
       </c>
-      <c r="I55" s="83"/>
+      <c r="I55" s="85"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
@@ -18320,7 +21036,7 @@
       <c r="F56" s="29" t="s">
         <v>1004</v>
       </c>
-      <c r="I56" s="83"/>
+      <c r="I56" s="85"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
@@ -18337,7 +21053,7 @@
       <c r="F57" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="I57" s="83"/>
+      <c r="I57" s="85"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
@@ -18354,7 +21070,7 @@
       <c r="F58" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="I58" s="83"/>
+      <c r="I58" s="85"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
@@ -18371,7 +21087,7 @@
       <c r="F59" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="I59" s="83"/>
+      <c r="I59" s="85"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
@@ -18388,7 +21104,7 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="89" t="s">
+      <c r="I60" s="91" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -18407,7 +21123,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="90"/>
+      <c r="I61" s="92"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -18424,7 +21140,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="90"/>
+      <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -18441,7 +21157,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="90"/>
+      <c r="I63" s="92"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -18458,7 +21174,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="90"/>
+      <c r="I64" s="92"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -18475,7 +21191,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="90"/>
+      <c r="I65" s="92"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -18492,7 +21208,7 @@
       <c r="F66" s="29" t="s">
         <v>988</v>
       </c>
-      <c r="I66" s="90"/>
+      <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -18509,7 +21225,7 @@
       <c r="F67" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I67" s="90"/>
+      <c r="I67" s="92"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -18524,9 +21240,9 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I68" s="91"/>
+        <v>1092</v>
+      </c>
+      <c r="I68" s="93"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
@@ -18594,8 +21310,8 @@
       <c r="F72" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="I72" s="83" t="s">
-        <v>1225</v>
+      <c r="I72" s="85" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -18613,7 +21329,7 @@
       <c r="F73" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="I73" s="83"/>
+      <c r="I73" s="85"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
@@ -18630,7 +21346,7 @@
       <c r="F74" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="I74" s="83"/>
+      <c r="I74" s="85"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
@@ -18647,7 +21363,7 @@
       <c r="F75" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="I75" s="83"/>
+      <c r="I75" s="85"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
@@ -18664,7 +21380,7 @@
       <c r="F76" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="I76" s="83"/>
+      <c r="I76" s="85"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
@@ -18681,7 +21397,7 @@
       <c r="F77" s="29" t="s">
         <v>985</v>
       </c>
-      <c r="I77" s="83"/>
+      <c r="I77" s="85"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
@@ -18696,21 +21412,21 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I78" s="83"/>
+        <v>1086</v>
+      </c>
+      <c r="I78" s="85"/>
     </row>
     <row r="79" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>68</v>
       </c>
-      <c r="B79" s="99" t="s">
+      <c r="B79" s="101" t="s">
         <v>1053</v>
       </c>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100"/>
-      <c r="F79" s="101"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="103"/>
     </row>
     <row r="80" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
@@ -18828,7 +21544,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>1056</v>
+        <v>1240</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -18898,8 +21614,8 @@
       <c r="F91" s="29" t="s">
         <v>1041</v>
       </c>
-      <c r="I91" s="83" t="s">
-        <v>1246</v>
+      <c r="I91" s="85" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18915,9 +21631,9 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I92" s="83"/>
+        <v>1089</v>
+      </c>
+      <c r="I92" s="85"/>
     </row>
     <row r="93" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40">
@@ -19017,7 +21733,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="37" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I98" s="55"/>
     </row>
@@ -19034,7 +21750,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="37" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I99" s="55"/>
     </row>
@@ -19051,22 +21767,22 @@
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="83" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B101" s="83"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
+      <c r="A101" s="85" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
       <c r="H101" s="31"/>
       <c r="I101" s="56" t="s">
-        <v>1248</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -19074,13 +21790,13 @@
         <v>90</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -19090,13 +21806,13 @@
         <v>91</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="45" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19104,13 +21820,13 @@
         <v>92</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
       <c r="F104" s="45" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19118,13 +21834,13 @@
         <v>93</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
       <c r="F105" s="45" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19132,13 +21848,13 @@
         <v>94</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
       <c r="F106" s="45" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19146,13 +21862,13 @@
         <v>95</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="49" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19160,13 +21876,13 @@
         <v>96</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
       <c r="F108" s="49" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -19174,128 +21890,128 @@
         <v>97</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>1211</v>
+        <v>1192</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
       <c r="F109" s="52" t="s">
-        <v>1210</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="92"/>
-      <c r="B110" s="98"/>
-      <c r="C110" s="98"/>
-      <c r="D110" s="98"/>
-      <c r="E110" s="98"/>
-      <c r="F110" s="93"/>
+      <c r="A110" s="94"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="100"/>
+      <c r="E110" s="100"/>
+      <c r="F110" s="95"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="52" t="s">
-        <v>1230</v>
+        <v>1211</v>
       </c>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
       <c r="F111" s="52" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I111" s="83" t="s">
-        <v>1247</v>
+        <v>1219</v>
+      </c>
+      <c r="I111" s="85" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="52" t="s">
-        <v>1231</v>
+        <v>1212</v>
       </c>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
       <c r="F112" s="52" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I112" s="83"/>
+        <v>1220</v>
+      </c>
+      <c r="I112" s="85"/>
     </row>
     <row r="113" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
       <c r="B113" s="52" t="s">
-        <v>1232</v>
+        <v>1213</v>
       </c>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
       <c r="F113" s="52" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I113" s="83"/>
+        <v>1221</v>
+      </c>
+      <c r="I113" s="85"/>
     </row>
     <row r="114" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
       <c r="B114" s="52" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
       <c r="F114" s="52" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I114" s="83"/>
+        <v>1222</v>
+      </c>
+      <c r="I114" s="85"/>
     </row>
     <row r="115" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
       <c r="B115" s="52" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
       <c r="E115" s="52"/>
       <c r="F115" s="52" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I115" s="83"/>
+        <v>1223</v>
+      </c>
+      <c r="I115" s="85"/>
     </row>
     <row r="116" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
       <c r="B116" s="52" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
       <c r="E116" s="52"/>
       <c r="F116" s="52" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I116" s="83"/>
+        <v>1224</v>
+      </c>
+      <c r="I116" s="85"/>
     </row>
     <row r="117" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="52" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
       <c r="F117" s="52" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I117" s="83"/>
+        <v>1225</v>
+      </c>
+      <c r="I117" s="85"/>
     </row>
     <row r="118" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="52" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
       <c r="E118" s="52"/>
       <c r="F118" s="52" t="s">
-        <v>1245</v>
-      </c>
-      <c r="I118" s="83"/>
+        <v>1226</v>
+      </c>
+      <c r="I118" s="85"/>
     </row>
     <row r="119" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="52"/>
@@ -19308,13 +22024,13 @@
     <row r="120" spans="1:10" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="52" t="s">
-        <v>1208</v>
+        <v>1189</v>
       </c>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
       <c r="E120" s="52"/>
       <c r="F120" s="52" t="s">
-        <v>1226</v>
+        <v>1207</v>
       </c>
       <c r="H120" s="53"/>
       <c r="I120" s="53"/>
@@ -19323,13 +22039,13 @@
     <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="52" t="s">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
       <c r="F121" s="52" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
       <c r="H121" s="53"/>
       <c r="I121" s="53"/>
@@ -19338,13 +22054,13 @@
     <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="52" t="s">
-        <v>1212</v>
+        <v>1193</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
       <c r="F122" s="52" t="s">
-        <v>1249</v>
+        <v>1230</v>
       </c>
       <c r="H122" s="53"/>
       <c r="I122" s="53"/>
@@ -19353,13 +22069,13 @@
     <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="52" t="s">
-        <v>1213</v>
+        <v>1194</v>
       </c>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
       <c r="F123" s="52" t="s">
-        <v>1228</v>
+        <v>1209</v>
       </c>
       <c r="H123" s="53"/>
       <c r="I123" s="53"/>
@@ -19368,13 +22084,13 @@
     <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="52" t="s">
-        <v>1214</v>
+        <v>1195</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
       <c r="E124" s="52"/>
       <c r="F124" s="52" t="s">
-        <v>1229</v>
+        <v>1210</v>
       </c>
       <c r="H124" s="53"/>
       <c r="I124" s="53"/>
@@ -19383,13 +22099,13 @@
     <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="52" t="s">
-        <v>1215</v>
+        <v>1196</v>
       </c>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="52" t="s">
-        <v>1250</v>
+        <v>1231</v>
       </c>
       <c r="H125" s="53"/>
       <c r="I125" s="53"/>
@@ -19398,13 +22114,13 @@
     <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="52" t="s">
-        <v>1216</v>
+        <v>1197</v>
       </c>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
       <c r="E126" s="52"/>
       <c r="F126" s="52" t="s">
-        <v>1251</v>
+        <v>1232</v>
       </c>
       <c r="H126" s="53"/>
       <c r="I126" s="53"/>
@@ -19421,7 +22137,7 @@
     <row r="128" spans="1:10" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="56"/>
       <c r="B128" s="56" t="s">
-        <v>1255</v>
+        <v>1236</v>
       </c>
       <c r="C128" s="56"/>
       <c r="D128" s="56"/>
@@ -19431,7 +22147,7 @@
     <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="52"/>
       <c r="B129" s="52" t="s">
-        <v>1217</v>
+        <v>1198</v>
       </c>
       <c r="C129" s="52"/>
       <c r="D129" s="52"/>
@@ -19444,7 +22160,7 @@
     <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="52"/>
       <c r="B130" s="52" t="s">
-        <v>1218</v>
+        <v>1199</v>
       </c>
       <c r="C130" s="52"/>
       <c r="D130" s="52"/>
@@ -19457,7 +22173,7 @@
     <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="52"/>
       <c r="B131" s="52" t="s">
-        <v>1219</v>
+        <v>1200</v>
       </c>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>
@@ -19470,7 +22186,7 @@
     <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="52"/>
       <c r="B132" s="52" t="s">
-        <v>1220</v>
+        <v>1201</v>
       </c>
       <c r="C132" s="52"/>
       <c r="D132" s="52"/>
@@ -19483,7 +22199,7 @@
     <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="52"/>
       <c r="B133" s="52" t="s">
-        <v>1221</v>
+        <v>1202</v>
       </c>
       <c r="C133" s="52"/>
       <c r="D133" s="52"/>
@@ -19496,7 +22212,7 @@
     <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="52"/>
       <c r="B134" s="52" t="s">
-        <v>1222</v>
+        <v>1203</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="52"/>
@@ -19509,7 +22225,7 @@
     <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="52"/>
       <c r="B135" s="52" t="s">
-        <v>1223</v>
+        <v>1204</v>
       </c>
       <c r="C135" s="52"/>
       <c r="D135" s="52"/>
@@ -19522,7 +22238,7 @@
     <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="52"/>
       <c r="B136" s="52" t="s">
-        <v>1224</v>
+        <v>1205</v>
       </c>
       <c r="C136" s="52"/>
       <c r="D136" s="52"/>
@@ -19589,277 +22305,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9" style="33"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="66.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
-        <v>1</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
-        <v>1</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="42">
-        <v>1</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="42">
-        <v>1</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="42">
-        <v>1</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="42"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="42">
-        <v>1</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V95"/>
@@ -19894,111 +22339,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="90" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="104" t="s">
         <v>1062</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="102" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="104" t="s">
         <v>1063</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="102" t="s">
+      <c r="I2" s="105"/>
+      <c r="J2" s="104" t="s">
         <v>1064</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="102" t="s">
+      <c r="K2" s="105"/>
+      <c r="L2" s="104" t="s">
         <v>1065</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="102" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="104" t="s">
         <v>1066</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="102" t="s">
+      <c r="O2" s="105"/>
+      <c r="P2" s="104" t="s">
         <v>1067</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="102" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="106"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="90"/>
+      <c r="B3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="104"/>
-    </row>
-    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="D3" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="F3" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="H3" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="J3" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="K3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="L3" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="M3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="N3" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="O3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="P3" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>1183</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="Q3" s="50" t="s">
-        <v>1201</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>1070</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -20006,28 +22451,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>1072</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>1073</v>
-      </c>
       <c r="D4" s="49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>1080</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>1081</v>
-      </c>
       <c r="F4" s="49" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>1097</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="I4" s="49" t="s">
         <v>1098</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>1099</v>
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -20042,15 +22487,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="S4" s="49"/>
       <c r="T4" s="45"/>
       <c r="U4" s="49" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20058,28 +22503,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F5" s="49" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G5" s="49" t="s">
         <v>1095</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1096</v>
-      </c>
       <c r="H5" s="49" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>1100</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>1101</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
@@ -20094,15 +22539,15 @@
         <v>35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="45"/>
       <c r="U5" s="49" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20110,16 +22555,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -20138,15 +22583,15 @@
         <v>35</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="45"/>
       <c r="U6" s="49" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20154,16 +22599,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>1091</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1092</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
@@ -20182,15 +22627,15 @@
         <v>35</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="45"/>
       <c r="U7" s="49" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20218,15 +22663,15 @@
         <v>40</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="S8" s="49"/>
       <c r="T8" s="45"/>
       <c r="U8" s="49" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20254,15 +22699,15 @@
         <v>40</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20290,15 +22735,15 @@
         <v>40</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="49" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20326,15 +22771,15 @@
         <v>40</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
       <c r="U11" s="49" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20362,15 +22807,15 @@
         <v>40</v>
       </c>
       <c r="R12" s="42" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="45"/>
       <c r="U12" s="49" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20398,15 +22843,15 @@
         <v>50</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="S13" s="49"/>
       <c r="T13" s="45"/>
       <c r="U13" s="49" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20434,15 +22879,15 @@
         <v>50</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="45"/>
       <c r="U14" s="49" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20470,15 +22915,15 @@
         <v>50</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="S15" s="49"/>
       <c r="T15" s="45"/>
       <c r="U15" s="49" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -20506,15 +22951,15 @@
         <v>50</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="S16" s="49"/>
       <c r="T16" s="45"/>
       <c r="U16" s="49" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20542,15 +22987,15 @@
         <v>50</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="S17" s="49"/>
       <c r="T17" s="45"/>
       <c r="U17" s="49" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20578,15 +23023,15 @@
         <v>55</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="S18" s="49"/>
       <c r="T18" s="45"/>
       <c r="U18" s="49" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20614,15 +23059,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="S19" s="49"/>
       <c r="T19" s="45"/>
       <c r="U19" s="49" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20650,15 +23095,15 @@
         <v>55</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="45"/>
       <c r="U20" s="49" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20686,15 +23131,15 @@
         <v>55</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="45"/>
       <c r="U21" s="49" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20722,15 +23167,15 @@
         <v>60</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="45"/>
       <c r="U22" s="49" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20758,15 +23203,15 @@
         <v>60</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="S23" s="49"/>
       <c r="T23" s="45"/>
       <c r="U23" s="49" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20794,15 +23239,15 @@
         <v>60</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="45"/>
       <c r="U24" s="49" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20830,15 +23275,15 @@
         <v>70</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="S25" s="49"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20866,15 +23311,15 @@
         <v>70</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="S26" s="49"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20902,15 +23347,15 @@
         <v>70</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="S27" s="49"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20938,15 +23383,15 @@
         <v>80</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="S28" s="49"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20974,15 +23419,15 @@
         <v>80</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="S29" s="49"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21010,15 +23455,15 @@
         <v>80</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -21046,15 +23491,15 @@
         <v>80</v>
       </c>
       <c r="R31" s="49" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="S31" s="49"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="V31" s="49" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1519">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5906,69 +5906,176 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有特定等级守护灵数量</t>
+    <t>芦花古楼-花通关到5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高积分</t>
+  </si>
+  <si>
+    <t>洗练战力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>CountType</t>
+  </si>
+  <si>
+    <t>Param[1]</t>
+  </si>
+  <si>
+    <t>Param[2]</t>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>击杀2个BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀3阶地煞BOSS2个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀4阶地煞BOSS2个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀6阶地煞BOSS3个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀7阶地煞BOSS3个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀8阶地煞BOSS3个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个守护灵突破达到15</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到16</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到17</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到18</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到19</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个守护灵突破达到20</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+  </si>
+  <si>
+    <t>卡牌升级-cnt</t>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+  </si>
+  <si>
+    <t>芦花古楼-cha</t>
+  </si>
+  <si>
+    <t>世界BOSS-cha</t>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+  </si>
+  <si>
+    <t>主线-id</t>
+  </si>
+  <si>
+    <t>卡牌洗练-max</t>
+  </si>
+  <si>
+    <t>卡牌突破-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+  </si>
+  <si>
+    <t>专属武器激活-qua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-max</t>
+  </si>
+  <si>
+    <t>花费道具-id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活-cnt</t>
+  </si>
+  <si>
+    <t>专属武器强化-max</t>
   </si>
   <si>
     <t>抽卡次数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>击杀任意BOSS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀某章BOSS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难剧情关卡次数</t>
-  </si>
-  <si>
-    <t>风门通关数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-花通关到5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高专属武器等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史最高积分</t>
-  </si>
-  <si>
-    <t>芦花古楼总通关数</t>
-  </si>
-  <si>
-    <t>洗练战力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高洗练战力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器大点等级</t>
-  </si>
-  <si>
-    <t>激活专属武器的数量</t>
-  </si>
-  <si>
-    <t>最高专属武器等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家解封专属武器的总次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗钻石数量</t>
+    <t>历史最高分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6627,7 +6734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6781,6 +6888,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6826,21 +6964,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6863,21 +6986,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -6892,8 +7000,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6903,6 +7023,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6924,15 +7047,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="14" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -7382,12 +7496,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -7396,10 +7510,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="77" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7410,26 +7524,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -7438,10 +7552,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -7450,151 +7564,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -7607,12 +7717,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -9461,14 +9575,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -11463,57 +11577,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W142"/>
+  <dimension ref="A3:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
     <col min="10" max="10" width="25.375" style="53" customWidth="1"/>
     <col min="11" max="12" width="19.875" style="53" customWidth="1"/>
     <col min="13" max="13" width="25.625" customWidth="1"/>
-    <col min="14" max="15" width="25.625" style="53" customWidth="1"/>
-    <col min="16" max="16" width="32.25" customWidth="1"/>
-    <col min="17" max="17" width="25.75" style="53" customWidth="1"/>
-    <col min="18" max="19" width="26" style="53" customWidth="1"/>
-    <col min="20" max="20" width="25.625" customWidth="1"/>
-    <col min="21" max="23" width="25.625" style="53" customWidth="1"/>
-    <col min="24" max="24" width="17.125" customWidth="1"/>
+    <col min="14" max="16" width="25.625" style="53" customWidth="1"/>
+    <col min="17" max="17" width="32.25" customWidth="1"/>
+    <col min="18" max="18" width="25.75" style="53" customWidth="1"/>
+    <col min="19" max="20" width="26" style="53" customWidth="1"/>
+    <col min="21" max="21" width="25.625" customWidth="1"/>
+    <col min="22" max="24" width="25.625" style="53" customWidth="1"/>
+    <col min="25" max="25" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:24" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
         <v>1242</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="F3" s="85" t="s">
         <v>1351</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="57"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
       <c r="V3" s="57"/>
       <c r="W3" s="57"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="X3" s="57"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>1243</v>
       </c>
@@ -11535,28 +11652,53 @@
       <c r="I4" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>1481</v>
+      </c>
       <c r="M4" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>1480</v>
+      </c>
       <c r="P4" s="16" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>1356</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
+      <c r="R4" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>1480</v>
+      </c>
       <c r="T4" s="16" t="s">
+        <v>1481</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>1357</v>
       </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V4" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1244</v>
       </c>
@@ -11577,7 +11719,7 @@
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="58"/>
       <c r="P5" s="58"/>
       <c r="Q5" s="58"/>
@@ -11587,8 +11729,9 @@
       <c r="U5" s="58"/>
       <c r="V5" s="58"/>
       <c r="W5" s="58"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X5" s="58"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1246</v>
       </c>
@@ -11611,7 +11754,7 @@
         <v>1420</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>1471</v>
+        <v>1497</v>
       </c>
       <c r="K6" s="58">
         <v>3</v>
@@ -11619,41 +11762,44 @@
       <c r="L6" s="58">
         <v>10</v>
       </c>
-      <c r="M6" s="107" t="s">
-        <v>1472</v>
-      </c>
-      <c r="N6" s="58">
+      <c r="M6" s="60" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>1511</v>
+      </c>
+      <c r="O6" s="58">
         <v>3</v>
       </c>
-      <c r="O6" s="58">
+      <c r="P6" s="58">
         <v>2</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="Q6" s="58" t="s">
         <v>1378</v>
       </c>
-      <c r="Q6" s="58" t="s">
-        <v>1475</v>
-      </c>
-      <c r="R6" s="58">
+      <c r="R6" s="58" t="s">
+        <v>1502</v>
+      </c>
+      <c r="S6" s="58">
         <v>1</v>
       </c>
-      <c r="S6" s="58">
+      <c r="T6" s="58">
         <v>109</v>
       </c>
-      <c r="T6" s="58" t="s">
+      <c r="U6" s="58" t="s">
         <v>1406</v>
       </c>
-      <c r="U6" s="107" t="s">
-        <v>1483</v>
-      </c>
-      <c r="V6" s="58">
+      <c r="V6" s="60" t="s">
+        <v>1505</v>
+      </c>
+      <c r="W6" s="58">
         <v>2</v>
       </c>
-      <c r="W6" s="58">
+      <c r="X6" s="58">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1248</v>
       </c>
@@ -11676,43 +11822,50 @@
         <v>1419</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K7" s="58">
         <v>20</v>
       </c>
       <c r="L7" s="58"/>
       <c r="M7" s="58" t="s">
-        <v>1477</v>
-      </c>
-      <c r="N7" s="58">
+        <v>1470</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>1499</v>
+      </c>
+      <c r="O7" s="58">
         <v>5</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="58">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="Q7" s="58" t="s">
-        <v>1476</v>
-      </c>
-      <c r="R7" s="58">
+      <c r="R7" s="58" t="s">
+        <v>1499</v>
+      </c>
+      <c r="S7" s="58">
         <v>10</v>
       </c>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58" t="s">
+      <c r="T7" s="58">
+        <v>1</v>
+      </c>
+      <c r="U7" s="58" t="s">
         <v>1410</v>
       </c>
-      <c r="U7" s="107" t="s">
-        <v>1483</v>
-      </c>
-      <c r="V7" s="58">
+      <c r="V7" s="60" t="s">
+        <v>1505</v>
+      </c>
+      <c r="W7" s="58">
         <v>2</v>
       </c>
-      <c r="W7" s="58">
+      <c r="X7" s="58">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1250</v>
       </c>
@@ -11735,41 +11888,44 @@
         <v>1411</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K8" s="58">
         <v>30</v>
       </c>
       <c r="L8" s="58"/>
       <c r="M8" s="58" t="s">
-        <v>1473</v>
-      </c>
-      <c r="N8" s="58">
+        <v>1482</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O8" s="58">
         <v>2</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58" t="s">
         <v>1417</v>
       </c>
-      <c r="Q8" s="108" t="s">
-        <v>1478</v>
-      </c>
-      <c r="R8" s="58">
+      <c r="R8" s="61" t="s">
+        <v>1514</v>
+      </c>
+      <c r="S8" s="58">
         <v>5</v>
       </c>
-      <c r="S8" s="58">
+      <c r="T8" s="58">
         <v>1</v>
       </c>
-      <c r="T8" s="58" t="s">
+      <c r="U8" s="58" t="s">
         <v>1448</v>
       </c>
-      <c r="U8" s="107" t="s">
-        <v>1472</v>
-      </c>
-      <c r="V8" s="58"/>
+      <c r="V8" s="60" t="s">
+        <v>1498</v>
+      </c>
       <c r="W8" s="58"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X8" s="58"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1252</v>
       </c>
@@ -11789,43 +11945,46 @@
         <v>1423</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K9" s="58">
         <v>40</v>
       </c>
       <c r="L9" s="58"/>
       <c r="M9" s="58" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N9" s="58">
+        <v>1483</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O9" s="58">
         <v>2</v>
       </c>
-      <c r="O9" s="58">
+      <c r="P9" s="58">
         <v>3</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="Q9" s="58" t="s">
         <v>1465</v>
       </c>
-      <c r="Q9" s="58" t="s">
-        <v>1479</v>
-      </c>
-      <c r="R9" s="58">
+      <c r="R9" s="58" t="s">
+        <v>1516</v>
+      </c>
+      <c r="S9" s="58">
         <v>1200</v>
       </c>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="58"/>
+      <c r="U9" s="58" t="s">
         <v>1422</v>
       </c>
-      <c r="U9" s="107" t="s">
-        <v>1484</v>
-      </c>
-      <c r="V9" s="58">
+      <c r="V9" s="64" t="s">
+        <v>1506</v>
+      </c>
+      <c r="W9" s="58">
         <v>1</v>
       </c>
-      <c r="W9" s="58"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X9" s="58"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1254</v>
       </c>
@@ -11845,45 +12004,48 @@
         <v>1412</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K10" s="58">
         <v>50</v>
       </c>
       <c r="L10" s="58"/>
-      <c r="M10" s="58" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N10" s="58">
+      <c r="M10" s="59" t="s">
+        <v>1484</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O10" s="58">
         <v>2</v>
       </c>
-      <c r="O10" s="58">
+      <c r="P10" s="58">
         <v>4</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="Q10" s="58" t="s">
         <v>1452</v>
       </c>
-      <c r="Q10" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R10" s="58">
+      <c r="R10" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S10" s="58">
         <v>50</v>
       </c>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58" t="s">
+      <c r="T10" s="58"/>
+      <c r="U10" s="58" t="s">
         <v>1445</v>
       </c>
-      <c r="U10" s="58" t="s">
-        <v>1485</v>
-      </c>
-      <c r="V10" s="58">
+      <c r="V10" s="64" t="s">
+        <v>1507</v>
+      </c>
+      <c r="W10" s="58">
         <v>3</v>
       </c>
-      <c r="W10" s="58">
+      <c r="X10" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1256</v>
       </c>
@@ -11903,45 +12065,48 @@
         <v>1413</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K11" s="58">
         <v>60</v>
       </c>
       <c r="L11" s="58"/>
-      <c r="M11" s="58" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N11" s="58">
+      <c r="M11" s="59" t="s">
+        <v>1485</v>
+      </c>
+      <c r="N11" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O11" s="58">
         <v>3</v>
       </c>
-      <c r="O11" s="58">
+      <c r="P11" s="58">
         <v>6</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="Q11" s="58" t="s">
         <v>1449</v>
       </c>
-      <c r="Q11" s="108" t="s">
-        <v>1478</v>
-      </c>
-      <c r="R11" s="58">
+      <c r="R11" s="61" t="s">
+        <v>1514</v>
+      </c>
+      <c r="S11" s="58">
         <v>10</v>
       </c>
-      <c r="S11" s="58">
+      <c r="T11" s="58">
         <v>1</v>
       </c>
-      <c r="T11" s="58" t="s">
+      <c r="U11" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="U11" s="107" t="s">
-        <v>1472</v>
-      </c>
-      <c r="V11" s="58">
+      <c r="V11" s="60" t="s">
+        <v>1498</v>
+      </c>
+      <c r="W11" s="58">
         <v>30</v>
       </c>
-      <c r="W11" s="58"/>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X11" s="58"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1258</v>
       </c>
@@ -11961,43 +12126,46 @@
         <v>1414</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K12" s="58">
         <v>70</v>
       </c>
       <c r="L12" s="58"/>
-      <c r="M12" s="58" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N12" s="58">
+      <c r="M12" s="59" t="s">
+        <v>1486</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O12" s="58">
         <v>3</v>
       </c>
-      <c r="O12" s="58">
+      <c r="P12" s="58">
         <v>7</v>
       </c>
-      <c r="P12" s="58" t="s">
-        <v>1481</v>
-      </c>
       <c r="Q12" s="58" t="s">
-        <v>1482</v>
-      </c>
-      <c r="R12" s="58">
+        <v>1472</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>1503</v>
+      </c>
+      <c r="S12" s="58">
         <v>15000</v>
       </c>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58" t="s">
+      <c r="T12" s="58"/>
+      <c r="U12" s="58" t="s">
         <v>1444</v>
       </c>
-      <c r="U12" s="107" t="s">
-        <v>1484</v>
-      </c>
-      <c r="V12" s="58">
+      <c r="V12" s="60" t="s">
+        <v>1513</v>
+      </c>
+      <c r="W12" s="58">
         <v>3</v>
       </c>
-      <c r="W12" s="58"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X12" s="58"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>1395</v>
       </c>
@@ -12017,45 +12185,48 @@
         <v>1403</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K13" s="58">
         <v>80</v>
       </c>
       <c r="L13" s="58"/>
-      <c r="M13" s="58" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N13" s="58">
+      <c r="M13" s="59" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N13" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O13" s="58">
         <v>3</v>
       </c>
-      <c r="O13" s="58">
+      <c r="P13" s="58">
         <v>8</v>
       </c>
-      <c r="P13" s="58" t="s">
+      <c r="Q13" s="58" t="s">
         <v>1466</v>
       </c>
-      <c r="Q13" s="58" t="s">
-        <v>1479</v>
-      </c>
-      <c r="R13" s="58">
+      <c r="R13" s="58" t="s">
+        <v>1517</v>
+      </c>
+      <c r="S13" s="58">
         <v>1300</v>
       </c>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58" t="s">
+      <c r="T13" s="58"/>
+      <c r="U13" s="58" t="s">
         <v>1446</v>
       </c>
-      <c r="U13" s="58" t="s">
-        <v>1478</v>
-      </c>
-      <c r="V13" s="58">
+      <c r="V13" s="60" t="s">
+        <v>1508</v>
+      </c>
+      <c r="W13" s="58">
         <v>3</v>
       </c>
-      <c r="W13" s="58">
+      <c r="X13" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>1260</v>
       </c>
@@ -12075,7 +12246,7 @@
         <v>1436</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K14" s="58">
         <v>90</v>
@@ -12084,34 +12255,37 @@
       <c r="M14" s="58" t="s">
         <v>1428</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O14" s="58">
         <v>3</v>
       </c>
-      <c r="O14" s="58">
+      <c r="P14" s="58">
         <v>9</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="Q14" s="58" t="s">
         <v>1467</v>
       </c>
-      <c r="Q14" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R14" s="58">
+      <c r="R14" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S14" s="58">
         <v>80</v>
       </c>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58" t="s">
+      <c r="T14" s="58"/>
+      <c r="U14" s="58" t="s">
         <v>1450</v>
       </c>
-      <c r="U14" s="58" t="s">
-        <v>1486</v>
-      </c>
-      <c r="V14" s="58">
+      <c r="V14" s="58" t="s">
+        <v>1509</v>
+      </c>
+      <c r="W14" s="58">
         <v>2</v>
       </c>
-      <c r="W14" s="58"/>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X14" s="58"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>1398</v>
       </c>
@@ -12131,7 +12305,7 @@
         <v>1437</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K15" s="58">
         <v>100</v>
@@ -12140,34 +12314,37 @@
       <c r="M15" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O15" s="58">
         <v>3</v>
       </c>
-      <c r="O15" s="58">
+      <c r="P15" s="58">
         <v>10</v>
       </c>
-      <c r="P15" s="58" t="s">
+      <c r="Q15" s="58" t="s">
         <v>1468</v>
       </c>
-      <c r="Q15" s="58" t="s">
-        <v>1479</v>
-      </c>
-      <c r="R15" s="58">
+      <c r="R15" s="58" t="s">
+        <v>1518</v>
+      </c>
+      <c r="S15" s="58">
         <v>1400</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58" t="s">
+      <c r="T15" s="58"/>
+      <c r="U15" s="58" t="s">
         <v>1451</v>
       </c>
-      <c r="U15" s="107" t="s">
-        <v>1472</v>
-      </c>
-      <c r="V15" s="58">
+      <c r="V15" s="62" t="s">
+        <v>1512</v>
+      </c>
+      <c r="W15" s="58">
         <v>50</v>
       </c>
-      <c r="W15" s="58"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X15" s="58"/>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>1256</v>
       </c>
@@ -12187,7 +12364,7 @@
         <v>1438</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K16" s="58">
         <v>110</v>
@@ -12196,34 +12373,39 @@
       <c r="M16" s="58" t="s">
         <v>1426</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O16" s="58">
         <v>3</v>
       </c>
-      <c r="O16" s="58">
+      <c r="P16" s="58">
         <v>11</v>
       </c>
-      <c r="P16" s="58" t="s">
+      <c r="Q16" s="58" t="s">
         <v>1453</v>
       </c>
-      <c r="Q16" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R16" s="58">
+      <c r="R16" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S16" s="58">
         <v>100</v>
       </c>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58" t="s">
+      <c r="T16" s="58"/>
+      <c r="U16" s="58" t="s">
         <v>1464</v>
       </c>
-      <c r="U16" s="109" t="s">
-        <v>1487</v>
-      </c>
-      <c r="V16" s="58">
+      <c r="V16" s="62" t="s">
+        <v>1510</v>
+      </c>
+      <c r="W16" s="58">
         <v>3000</v>
       </c>
-      <c r="W16" s="58"/>
-    </row>
-    <row r="17" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X16" s="58">
+        <v>1401010</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>1263</v>
       </c>
@@ -12243,7 +12425,7 @@
         <v>1439</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K17" s="58">
         <v>120</v>
@@ -12252,34 +12434,37 @@
       <c r="M17" s="58" t="s">
         <v>1427</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O17" s="58">
         <v>3</v>
       </c>
-      <c r="O17" s="58">
+      <c r="P17" s="58">
         <v>12</v>
       </c>
-      <c r="P17" s="58" t="s">
+      <c r="Q17" s="58" t="s">
         <v>1455</v>
       </c>
-      <c r="Q17" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R17" s="58">
+      <c r="R17" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S17" s="58">
         <v>120</v>
       </c>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58" t="s">
+      <c r="T17" s="58"/>
+      <c r="U17" s="58" t="s">
         <v>1463</v>
       </c>
-      <c r="U17" s="107" t="s">
-        <v>1472</v>
-      </c>
-      <c r="V17" s="58">
+      <c r="V17" s="62" t="s">
+        <v>1511</v>
+      </c>
+      <c r="W17" s="58">
         <v>100</v>
       </c>
-      <c r="W17" s="58"/>
-    </row>
-    <row r="18" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X17" s="58"/>
+    </row>
+    <row r="18" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1400</v>
       </c>
@@ -12299,7 +12484,7 @@
         <v>1440</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K18" s="58">
         <v>130</v>
@@ -12308,34 +12493,37 @@
       <c r="M18" s="58" t="s">
         <v>1430</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O18" s="58">
         <v>1</v>
       </c>
-      <c r="O18" s="58">
+      <c r="P18" s="58">
         <v>13</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="Q18" s="58" t="s">
         <v>1454</v>
       </c>
-      <c r="Q18" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R18" s="58">
+      <c r="R18" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S18" s="58">
         <v>140</v>
       </c>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58" t="s">
+      <c r="T18" s="58"/>
+      <c r="U18" s="58" t="s">
         <v>1469</v>
       </c>
-      <c r="U18" s="58" t="s">
-        <v>1479</v>
-      </c>
-      <c r="V18" s="58">
+      <c r="V18" s="58" t="s">
+        <v>1471</v>
+      </c>
+      <c r="W18" s="58">
         <v>5000</v>
       </c>
-      <c r="W18" s="58"/>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X18" s="58"/>
+    </row>
+    <row r="19" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1267</v>
       </c>
@@ -12355,7 +12543,7 @@
         <v>1415</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K19" s="58">
         <v>140</v>
@@ -12364,28 +12552,39 @@
       <c r="M19" s="58" t="s">
         <v>1432</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O19" s="58">
         <v>3</v>
       </c>
-      <c r="O19" s="58">
+      <c r="P19" s="58">
         <v>13</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="Q19" s="58" t="s">
         <v>1456</v>
       </c>
-      <c r="Q19" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R19" s="58">
+      <c r="R19" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S19" s="58">
         <v>160</v>
       </c>
-      <c r="S19" s="58"/>
       <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-    </row>
-    <row r="20" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U19" s="58" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V19" s="62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W19" s="58">
+        <v>6</v>
+      </c>
+      <c r="X19" s="58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1402</v>
       </c>
@@ -12405,7 +12604,7 @@
         <v>1441</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K20" s="58">
         <v>150</v>
@@ -12414,28 +12613,39 @@
       <c r="M20" s="58" t="s">
         <v>1431</v>
       </c>
-      <c r="N20" s="58">
+      <c r="N20" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O20" s="58">
         <v>1</v>
       </c>
-      <c r="O20" s="58">
+      <c r="P20" s="58">
         <v>14</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="Q20" s="58" t="s">
         <v>1457</v>
       </c>
-      <c r="Q20" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R20" s="58">
+      <c r="R20" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S20" s="58">
         <v>180</v>
       </c>
-      <c r="S20" s="58"/>
       <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-    </row>
-    <row r="21" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U20" s="59" t="s">
+        <v>1488</v>
+      </c>
+      <c r="V20" s="62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W20" s="59">
+        <v>6</v>
+      </c>
+      <c r="X20" s="58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1265</v>
       </c>
@@ -12455,7 +12665,7 @@
         <v>1404</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K21" s="58">
         <v>160</v>
@@ -12464,28 +12674,39 @@
       <c r="M21" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O21" s="58">
         <v>3</v>
       </c>
-      <c r="O21" s="58">
+      <c r="P21" s="58">
         <v>14</v>
       </c>
-      <c r="P21" s="58" t="s">
+      <c r="Q21" s="58" t="s">
         <v>1458</v>
       </c>
-      <c r="Q21" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R21" s="58">
+      <c r="R21" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S21" s="58">
         <v>200</v>
       </c>
-      <c r="S21" s="58"/>
       <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-    </row>
-    <row r="22" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U21" s="59" t="s">
+        <v>1489</v>
+      </c>
+      <c r="V21" s="62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W21" s="59">
+        <v>6</v>
+      </c>
+      <c r="X21" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>1269</v>
       </c>
@@ -12502,7 +12723,7 @@
         <v>1442</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K22" s="58">
         <v>170</v>
@@ -12511,28 +12732,39 @@
       <c r="M22" s="58" t="s">
         <v>1433</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O22" s="58">
         <v>3</v>
       </c>
-      <c r="O22" s="58">
+      <c r="P22" s="58">
         <v>15</v>
       </c>
-      <c r="P22" s="58" t="s">
+      <c r="Q22" s="58" t="s">
         <v>1459</v>
       </c>
-      <c r="Q22" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R22" s="58">
+      <c r="R22" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S22" s="58">
         <v>225</v>
       </c>
-      <c r="S22" s="58"/>
       <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U22" s="59" t="s">
+        <v>1490</v>
+      </c>
+      <c r="V22" s="62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W22" s="59">
+        <v>6</v>
+      </c>
+      <c r="X22" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>1268</v>
       </c>
@@ -12549,7 +12781,7 @@
         <v>1416</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K23" s="58">
         <v>180</v>
@@ -12558,28 +12790,39 @@
       <c r="M23" s="58" t="s">
         <v>1424</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O23" s="58">
         <v>2</v>
       </c>
-      <c r="O23" s="58">
+      <c r="P23" s="58">
         <v>16</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="Q23" s="58" t="s">
         <v>1460</v>
       </c>
-      <c r="Q23" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R23" s="58">
+      <c r="R23" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S23" s="58">
         <v>250</v>
       </c>
-      <c r="S23" s="58"/>
       <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-    </row>
-    <row r="24" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U23" s="59" t="s">
+        <v>1491</v>
+      </c>
+      <c r="V23" s="62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W23" s="59">
+        <v>6</v>
+      </c>
+      <c r="X23" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>1270</v>
       </c>
@@ -12596,7 +12839,7 @@
         <v>1443</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K24" s="58">
         <v>190</v>
@@ -12605,28 +12848,39 @@
       <c r="M24" s="58" t="s">
         <v>1434</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O24" s="58">
         <v>5</v>
       </c>
-      <c r="O24" s="58">
+      <c r="P24" s="58">
         <v>16</v>
       </c>
-      <c r="P24" s="58" t="s">
+      <c r="Q24" s="58" t="s">
         <v>1461</v>
       </c>
-      <c r="Q24" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R24" s="58">
+      <c r="R24" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S24" s="58">
         <v>275</v>
       </c>
-      <c r="S24" s="58"/>
       <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-    </row>
-    <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U24" s="59" t="s">
+        <v>1492</v>
+      </c>
+      <c r="V24" s="62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W24" s="59">
+        <v>6</v>
+      </c>
+      <c r="X24" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>1271</v>
       </c>
@@ -12643,7 +12897,7 @@
         <v>1405</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="K25" s="58">
         <v>200</v>
@@ -12652,739 +12906,3276 @@
       <c r="M25" s="58" t="s">
         <v>1435</v>
       </c>
-      <c r="N25" s="58">
+      <c r="N25" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O25" s="58">
         <v>10</v>
       </c>
-      <c r="O25" s="58">
+      <c r="P25" s="58">
         <v>16</v>
       </c>
-      <c r="P25" s="58" t="s">
+      <c r="Q25" s="58" t="s">
         <v>1462</v>
       </c>
-      <c r="Q25" s="58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R25" s="58">
+      <c r="R25" s="58" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S25" s="58">
         <v>300</v>
       </c>
-      <c r="S25" s="58"/>
       <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="U25" s="59" t="s">
+        <v>1494</v>
+      </c>
+      <c r="V25" s="62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W25" s="59">
+        <v>6</v>
+      </c>
+      <c r="X25" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>1273</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1475</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>1274</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>INT((F28-1)/4+1)</f>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f>MOD((F28-1),4)+1</f>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f>INDEX($I$5:$X$25,$G28,($H28-1)*4+1)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="53">
+        <v>1</v>
+      </c>
+      <c r="L28" s="53">
+        <f t="shared" ref="L28:M31" si="0">INDEX($I$5:$X$25,$G28,($H28-1)*4+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>1275</v>
       </c>
-      <c r="E29" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="E29" s="53"/>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="53">
+        <f t="shared" ref="G29:G92" si="1">INT((F29-1)/4+1)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="53">
+        <f t="shared" ref="H29:H92" si="2">MOD((F29-1),4)+1</f>
+        <v>2</v>
+      </c>
+      <c r="J29" s="53">
+        <f t="shared" ref="J29:J60" si="3">INDEX($I$5:$X$25,$G29,($H29-1)*4+1)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="53">
+        <v>1</v>
+      </c>
+      <c r="L29" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>1276</v>
       </c>
-      <c r="E30" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53">
+        <v>3</v>
+      </c>
+      <c r="G30" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J30" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="53">
+        <v>1</v>
+      </c>
+      <c r="L30" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>1277</v>
       </c>
-      <c r="E31" s="53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="E31" s="53"/>
+      <c r="F31" s="53">
+        <v>4</v>
+      </c>
+      <c r="G31" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J31" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="53">
+        <v>1</v>
+      </c>
+      <c r="L31" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>1278</v>
       </c>
-      <c r="E32" s="53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="53"/>
+      <c r="F32" s="53">
+        <v>5</v>
+      </c>
+      <c r="G32" s="53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="53" t="str">
+        <f>INDEX($I$5:$X$25,$G32,($H32-1)*4+1)</f>
+        <v>3张守护灵升到10</v>
+      </c>
+      <c r="J32" s="53" t="str">
+        <f>INDEX($I$5:$X$25,$G32,($H32-1)*4+2)</f>
+        <v>卡牌升级-cnt</v>
+      </c>
+      <c r="K32" s="53">
+        <v>1</v>
+      </c>
+      <c r="L32" s="53">
+        <f>INDEX($I$5:$X$25,$G32,($H32-1)*4+3)</f>
+        <v>3</v>
+      </c>
+      <c r="M32" s="53">
+        <f>INDEX($I$5:$X$25,$G32,($H32-1)*4+4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>1279</v>
       </c>
-      <c r="E33" s="53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="53"/>
+      <c r="F33" s="53">
+        <v>6</v>
+      </c>
+      <c r="G33" s="53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H33" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="53" t="str">
+        <f t="shared" ref="I33:I96" si="4">INDEX($I$5:$X$25,$G33,($H33-1)*4+1)</f>
+        <v>抽卡次数</v>
+      </c>
+      <c r="J33" s="53" t="str">
+        <f t="shared" ref="J33:J96" si="5">INDEX($I$5:$X$25,$G33,($H33-1)*4+2)</f>
+        <v>抽卡-shl</v>
+      </c>
+      <c r="K33" s="53">
+        <v>1</v>
+      </c>
+      <c r="L33" s="53">
+        <f t="shared" ref="L33:L96" si="6">INDEX($I$5:$X$25,$G33,($H33-1)*4+3)</f>
+        <v>3</v>
+      </c>
+      <c r="M33" s="53">
+        <f t="shared" ref="M33:M96" si="7">INDEX($I$5:$X$25,$G33,($H33-1)*4+4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>1280</v>
       </c>
-      <c r="E34" s="53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="53"/>
+      <c r="F34" s="53">
+        <v>7</v>
+      </c>
+      <c r="G34" s="53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I34" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>通过困难第1章</v>
+      </c>
+      <c r="J34" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>主线-id</v>
+      </c>
+      <c r="K34" s="53">
+        <v>1</v>
+      </c>
+      <c r="L34" s="53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="53">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>1282</v>
       </c>
-      <c r="E35" s="53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="53"/>
+      <c r="F35" s="53">
+        <v>8</v>
+      </c>
+      <c r="G35" s="53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>神器1升级到2</v>
+      </c>
+      <c r="J35" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>神器-大点-id</v>
+      </c>
+      <c r="K35" s="53">
+        <v>1</v>
+      </c>
+      <c r="L35" s="53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M35" s="53">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>1281</v>
       </c>
-      <c r="E36" s="53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="53"/>
+      <c r="F36" s="53">
+        <v>9</v>
+      </c>
+      <c r="G36" s="53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H36" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到20</v>
+      </c>
+      <c r="J36" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K36" s="53">
+        <v>1</v>
+      </c>
+      <c r="L36" s="53">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M36" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>1285</v>
       </c>
-      <c r="E37" s="53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="53"/>
+      <c r="F37" s="53">
+        <v>10</v>
+      </c>
+      <c r="G37" s="53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H37" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I37" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼-花通关到5</v>
+      </c>
+      <c r="J37" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-cha</v>
+      </c>
+      <c r="K37" s="53">
+        <v>1</v>
+      </c>
+      <c r="L37" s="53">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M37" s="53">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>1283</v>
       </c>
-      <c r="E38" s="53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="53"/>
+      <c r="F38" s="53">
+        <v>11</v>
+      </c>
+      <c r="G38" s="53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I38" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼-风通关到10</v>
+      </c>
+      <c r="J38" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-cha</v>
+      </c>
+      <c r="K38" s="53">
+        <v>1</v>
+      </c>
+      <c r="L38" s="53">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M38" s="53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="53" t="s">
         <v>1380</v>
       </c>
-      <c r="E39" s="53">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="53">
+        <v>12</v>
+      </c>
+      <c r="G39" s="53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H39" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I39" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>神器2升级到2</v>
+      </c>
+      <c r="J39" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>神器-大点-id</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1</v>
+      </c>
+      <c r="L39" s="53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M39" s="53">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>1284</v>
       </c>
-      <c r="E40" s="53">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53">
+        <v>13</v>
+      </c>
+      <c r="G40" s="53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H40" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到30</v>
+      </c>
+      <c r="J40" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K40" s="53">
+        <v>1</v>
+      </c>
+      <c r="L40" s="53">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M40" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C41" s="53" t="s">
         <v>1381</v>
       </c>
-      <c r="E41" s="53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="53">
+        <v>14</v>
+      </c>
+      <c r="G41" s="53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I41" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀2个BOSS</v>
+      </c>
+      <c r="J41" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K41" s="53">
+        <v>1</v>
+      </c>
+      <c r="L41" s="53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42" s="53" t="s">
         <v>1382</v>
       </c>
-      <c r="E42" s="53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="53">
+        <v>15</v>
+      </c>
+      <c r="G42" s="53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I42" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>专属武器强化到5级</v>
+      </c>
+      <c r="J42" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>专属武器强化-max</v>
+      </c>
+      <c r="K42" s="53">
+        <v>1</v>
+      </c>
+      <c r="L42" s="53">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M42" s="53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="53" t="s">
         <v>1383</v>
       </c>
-      <c r="E43" s="53">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="53">
+        <v>16</v>
+      </c>
+      <c r="G43" s="53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I43" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>守护灵抽奖10次</v>
+      </c>
+      <c r="J43" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>抽卡-shl</v>
+      </c>
+      <c r="K43" s="53">
+        <v>1</v>
+      </c>
+      <c r="L43" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C44" s="53" t="s">
         <v>1384</v>
       </c>
-      <c r="E44" s="53">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="53">
+        <v>17</v>
+      </c>
+      <c r="G44" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H44" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到40</v>
+      </c>
+      <c r="J44" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K44" s="53">
+        <v>1</v>
+      </c>
+      <c r="L44" s="53">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="M44" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>1286</v>
       </c>
-      <c r="E45" s="53">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="53"/>
+      <c r="F45" s="53">
+        <v>18</v>
+      </c>
+      <c r="G45" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H45" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀3阶地煞BOSS2个</v>
+      </c>
+      <c r="J45" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K45" s="53">
+        <v>1</v>
+      </c>
+      <c r="L45" s="53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="53">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="53" t="s">
         <v>1389</v>
       </c>
-      <c r="E46" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="53">
+        <v>19</v>
+      </c>
+      <c r="G46" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H46" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I46" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>竞技场到达1200分</v>
+      </c>
+      <c r="J46" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>历史最高分</v>
+      </c>
+      <c r="K46" s="53">
+        <v>1</v>
+      </c>
+      <c r="L46" s="53">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="M46" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="53" t="s">
         <v>1386</v>
       </c>
-      <c r="E47" s="53">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="53">
+        <v>20</v>
+      </c>
+      <c r="G47" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H47" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I47" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>激活一个专属武器</v>
+      </c>
+      <c r="J47" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>专属武器激活-qua</v>
+      </c>
+      <c r="K47" s="53">
+        <v>1</v>
+      </c>
+      <c r="L47" s="53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M47" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="53" t="s">
         <v>1387</v>
       </c>
-      <c r="E48" s="53">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="53">
+        <v>21</v>
+      </c>
+      <c r="G48" s="53">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H48" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到50</v>
+      </c>
+      <c r="J48" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K48" s="53">
+        <v>1</v>
+      </c>
+      <c r="L48" s="53">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M48" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="53" t="s">
         <v>1379</v>
       </c>
-      <c r="E49" s="53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="53">
+        <v>22</v>
+      </c>
+      <c r="G49" s="53">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H49" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I49" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀4阶地煞BOSS2个</v>
+      </c>
+      <c r="J49" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K49" s="53">
+        <v>1</v>
+      </c>
+      <c r="L49" s="53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M49" s="53">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>1287</v>
       </c>
-      <c r="E50" s="53">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="53">
+        <v>23</v>
+      </c>
+      <c r="G50" s="53">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H50" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I50" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共50层</v>
+      </c>
+      <c r="J50" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K50" s="53">
+        <v>1</v>
+      </c>
+      <c r="L50" s="53">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M50" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>1288</v>
       </c>
-      <c r="E51" s="53">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="53">
+        <v>24</v>
+      </c>
+      <c r="G51" s="53">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H51" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I51" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>3个专属武器强化到5级</v>
+      </c>
+      <c r="J51" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>专属武器强化-cnt</v>
+      </c>
+      <c r="K51" s="53">
+        <v>1</v>
+      </c>
+      <c r="L51" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M51" s="53">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>1289</v>
       </c>
-      <c r="E52" s="53">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="53">
+        <v>25</v>
+      </c>
+      <c r="G52" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H52" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到60</v>
+      </c>
+      <c r="J52" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K52" s="53">
+        <v>1</v>
+      </c>
+      <c r="L52" s="53">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M52" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>1290</v>
       </c>
-      <c r="E53" s="53">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="53">
+        <v>26</v>
+      </c>
+      <c r="G53" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H53" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I53" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀6阶地煞BOSS3个</v>
+      </c>
+      <c r="J53" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K53" s="53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M53" s="53">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>1291</v>
       </c>
-      <c r="E54" s="53">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="53">
+        <v>27</v>
+      </c>
+      <c r="G54" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H54" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I54" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>1个专属武器强化到10级</v>
+      </c>
+      <c r="J54" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>专属武器强化-max</v>
+      </c>
+      <c r="K54" s="53">
+        <v>1</v>
+      </c>
+      <c r="L54" s="53">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M54" s="53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="53" t="s">
         <v>1418</v>
       </c>
-      <c r="E55" s="53">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="53">
+        <v>28</v>
+      </c>
+      <c r="G55" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H55" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I55" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>守护灵抽奖30次</v>
+      </c>
+      <c r="J55" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>抽卡-shl</v>
+      </c>
+      <c r="K55" s="53">
+        <v>1</v>
+      </c>
+      <c r="L55" s="53">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M55" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>952</v>
       </c>
-      <c r="E56" s="53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="53"/>
+      <c r="F56" s="53">
+        <v>29</v>
+      </c>
+      <c r="G56" s="53">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H56" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到70</v>
+      </c>
+      <c r="J56" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K56" s="53">
+        <v>1</v>
+      </c>
+      <c r="L56" s="53">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M56" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>953</v>
       </c>
-      <c r="E57" s="53">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="53"/>
+      <c r="F57" s="53">
+        <v>30</v>
+      </c>
+      <c r="G57" s="53">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H57" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I57" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀7阶地煞BOSS3个</v>
+      </c>
+      <c r="J57" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K57" s="53">
+        <v>1</v>
+      </c>
+      <c r="L57" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M57" s="53">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>954</v>
       </c>
-      <c r="E58" s="53">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="53"/>
+      <c r="F58" s="53">
+        <v>31</v>
+      </c>
+      <c r="G58" s="53">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H58" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I58" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>洗练战力</v>
+      </c>
+      <c r="J58" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>卡牌洗练-max</v>
+      </c>
+      <c r="K58" s="53">
+        <v>1</v>
+      </c>
+      <c r="L58" s="53">
+        <f t="shared" si="6"/>
+        <v>15000</v>
+      </c>
+      <c r="M58" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>955</v>
       </c>
-      <c r="E59" s="53">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="53"/>
+      <c r="F59" s="53">
+        <v>32</v>
+      </c>
+      <c r="G59" s="53">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H59" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I59" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>激活3个专属武器</v>
+      </c>
+      <c r="J59" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>专属武器激活-cnt</v>
+      </c>
+      <c r="K59" s="53">
+        <v>1</v>
+      </c>
+      <c r="L59" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M59" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C60" s="53" t="s">
         <v>1388</v>
       </c>
-      <c r="E60" s="53">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="53">
+        <v>33</v>
+      </c>
+      <c r="G60" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H60" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到80</v>
+      </c>
+      <c r="J60" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K60" s="53">
+        <v>1</v>
+      </c>
+      <c r="L60" s="53">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="M60" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="53" t="s">
         <v>1390</v>
       </c>
-      <c r="E61" s="53">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="53">
+        <v>34</v>
+      </c>
+      <c r="G61" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H61" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I61" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀8阶地煞BOSS3个</v>
+      </c>
+      <c r="J61" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K61" s="53">
+        <v>1</v>
+      </c>
+      <c r="L61" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M61" s="53">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="53" t="s">
         <v>1391</v>
       </c>
-      <c r="E62" s="53">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="53">
+        <v>35</v>
+      </c>
+      <c r="G62" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H62" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I62" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>竞技场到达1300分</v>
+      </c>
+      <c r="J62" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>历史最高分</v>
+      </c>
+      <c r="K62" s="53">
+        <v>1</v>
+      </c>
+      <c r="L62" s="53">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
+      <c r="M62" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="53" t="s">
         <v>1385</v>
       </c>
-      <c r="E63" s="53">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="53">
+        <v>36</v>
+      </c>
+      <c r="G63" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H63" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I63" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>3个专属武器强化到10</v>
+      </c>
+      <c r="J63" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>专属武器激活-cnt</v>
+      </c>
+      <c r="K63" s="53">
+        <v>1</v>
+      </c>
+      <c r="L63" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M63" s="53">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>1392</v>
       </c>
-      <c r="E64" s="53">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="53"/>
+      <c r="F64" s="53">
+        <v>37</v>
+      </c>
+      <c r="G64" s="53">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H64" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到85</v>
+      </c>
+      <c r="J64" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K64" s="53">
+        <v>1</v>
+      </c>
+      <c r="L64" s="53">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="M64" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>1393</v>
       </c>
-      <c r="E65" s="53">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="53"/>
+      <c r="F65" s="53">
+        <v>38</v>
+      </c>
+      <c r="G65" s="53">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H65" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I65" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀3次地煞9的世界BOSS</v>
+      </c>
+      <c r="J65" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K65" s="53">
+        <v>1</v>
+      </c>
+      <c r="L65" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M65" s="53">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>1394</v>
       </c>
-      <c r="E66" s="53">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="53">
+        <v>39</v>
+      </c>
+      <c r="G66" s="53">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H66" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I66" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共80层</v>
+      </c>
+      <c r="J66" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K66" s="53">
+        <v>1</v>
+      </c>
+      <c r="L66" s="53">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="M66" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>1408</v>
       </c>
-      <c r="E67" s="53">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="53"/>
+      <c r="F67" s="53">
+        <v>40</v>
+      </c>
+      <c r="G67" s="53">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H67" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I67" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>一个专属武器解封2次</v>
+      </c>
+      <c r="J67" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>专属武器解封-max</v>
+      </c>
+      <c r="K67" s="53">
+        <v>1</v>
+      </c>
+      <c r="L67" s="53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M67" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="53">
+        <v>41</v>
+      </c>
+      <c r="G68" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H68" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到90</v>
+      </c>
+      <c r="J68" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K68" s="53">
+        <v>1</v>
+      </c>
+      <c r="L68" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M68" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="53">
+        <v>42</v>
+      </c>
+      <c r="G69" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H69" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I69" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀3次天罡1的世界BOSS</v>
+      </c>
+      <c r="J69" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K69" s="53">
+        <v>1</v>
+      </c>
+      <c r="L69" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M69" s="53">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="53">
+        <v>43</v>
+      </c>
+      <c r="G70" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H70" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I70" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>竞技场到达1400分</v>
+      </c>
+      <c r="J70" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>历史最高分</v>
+      </c>
+      <c r="K70" s="53">
+        <v>1</v>
+      </c>
+      <c r="L70" s="53">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="M70" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="53">
+        <v>44</v>
+      </c>
+      <c r="G71" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H71" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I71" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>守护灵抽奖50次</v>
+      </c>
+      <c r="J71" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>抽卡-shl</v>
+      </c>
+      <c r="K71" s="53">
+        <v>1</v>
+      </c>
+      <c r="L71" s="53">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M71" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="53">
+        <v>45</v>
+      </c>
+      <c r="G72" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H72" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到95</v>
+      </c>
+      <c r="J72" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K72" s="53">
+        <v>1</v>
+      </c>
+      <c r="L72" s="53">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="M72" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="53">
+        <v>46</v>
+      </c>
+      <c r="G73" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H73" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I73" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀3次天罡2的世界BOSS</v>
+      </c>
+      <c r="J73" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K73" s="53">
+        <v>1</v>
+      </c>
+      <c r="L73" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M73" s="53">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="53">
+        <v>47</v>
+      </c>
+      <c r="G74" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H74" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I74" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共100层</v>
+      </c>
+      <c r="J74" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K74" s="53">
+        <v>1</v>
+      </c>
+      <c r="L74" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M74" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="53">
+        <v>48</v>
+      </c>
+      <c r="G75" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H75" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I75" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>花费钻石3000</v>
+      </c>
+      <c r="J75" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>花费道具-id</v>
+      </c>
+      <c r="K75" s="53">
+        <v>1</v>
+      </c>
+      <c r="L75" s="53">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M75" s="53">
+        <f t="shared" si="7"/>
+        <v>1401010</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="53">
+        <v>49</v>
+      </c>
+      <c r="G76" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H76" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I76" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到100</v>
+      </c>
+      <c r="J76" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K76" s="53">
+        <v>1</v>
+      </c>
+      <c r="L76" s="53">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="M76" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="53">
+        <v>50</v>
+      </c>
+      <c r="G77" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H77" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I77" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀3次天罡3的世界BOSS</v>
+      </c>
+      <c r="J77" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K77" s="53">
+        <v>1</v>
+      </c>
+      <c r="L77" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M77" s="53">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="53">
+        <v>51</v>
+      </c>
+      <c r="G78" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H78" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I78" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共120层</v>
+      </c>
+      <c r="J78" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K78" s="53">
+        <v>1</v>
+      </c>
+      <c r="L78" s="53">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="M78" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="53">
+        <v>52</v>
+      </c>
+      <c r="G79" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H79" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I79" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>守护灵抽奖100次</v>
+      </c>
+      <c r="J79" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>抽卡-shl</v>
+      </c>
+      <c r="K79" s="53">
+        <v>1</v>
+      </c>
+      <c r="L79" s="53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M79" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F80" s="53">
+        <v>53</v>
+      </c>
+      <c r="G80" s="53">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H80" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到105</v>
+      </c>
+      <c r="J80" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K80" s="53">
+        <v>1</v>
+      </c>
+      <c r="L80" s="53">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="M80" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F81" s="53">
+        <v>54</v>
+      </c>
+      <c r="G81" s="53">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H81" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I81" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀1次天罡4的世界BOSS</v>
+      </c>
+      <c r="J81" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K81" s="53">
+        <v>1</v>
+      </c>
+      <c r="L81" s="53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M81" s="53">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F82" s="53">
+        <v>55</v>
+      </c>
+      <c r="G82" s="53">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H82" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I82" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共140层</v>
+      </c>
+      <c r="J82" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K82" s="53">
+        <v>1</v>
+      </c>
+      <c r="L82" s="53">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="M82" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F83" s="53">
+        <v>56</v>
+      </c>
+      <c r="G83" s="53">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H83" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I83" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>竞技场到达1500分</v>
+      </c>
+      <c r="J83" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>历史最高积分</v>
+      </c>
+      <c r="K83" s="53">
+        <v>1</v>
+      </c>
+      <c r="L83" s="53">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+      <c r="M83" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F84" s="53">
+        <v>57</v>
+      </c>
+      <c r="G84" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H84" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到110</v>
+      </c>
+      <c r="J84" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K84" s="53">
+        <v>1</v>
+      </c>
+      <c r="L84" s="53">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="M84" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F85" s="53">
+        <v>58</v>
+      </c>
+      <c r="G85" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H85" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I85" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀3次天罡4的世界BOSS</v>
+      </c>
+      <c r="J85" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K85" s="53">
+        <v>1</v>
+      </c>
+      <c r="L85" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M85" s="53">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F86" s="53">
+        <v>59</v>
+      </c>
+      <c r="G86" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H86" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I86" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共160层</v>
+      </c>
+      <c r="J86" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K86" s="53">
+        <v>1</v>
+      </c>
+      <c r="L86" s="53">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="M86" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F87" s="53">
+        <v>60</v>
+      </c>
+      <c r="G87" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H87" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I87" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>6个守护灵突破达到14</v>
+      </c>
+      <c r="J87" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>卡牌突破-cnt</v>
+      </c>
+      <c r="K87" s="53">
+        <v>1</v>
+      </c>
+      <c r="L87" s="53">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M87" s="53">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F88" s="53">
+        <v>61</v>
+      </c>
+      <c r="G88" s="53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H88" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I88" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到115</v>
+      </c>
+      <c r="J88" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K88" s="53">
+        <v>1</v>
+      </c>
+      <c r="L88" s="53">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="M88" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F89" s="53">
+        <v>62</v>
+      </c>
+      <c r="G89" s="53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H89" s="53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I89" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀1次天罡5的世界BOSS</v>
+      </c>
+      <c r="J89" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K89" s="53">
+        <v>1</v>
+      </c>
+      <c r="L89" s="53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M89" s="53">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F90" s="53">
+        <v>63</v>
+      </c>
+      <c r="G90" s="53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H90" s="53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I90" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共180层</v>
+      </c>
+      <c r="J90" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K90" s="53">
+        <v>1</v>
+      </c>
+      <c r="L90" s="53">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="M90" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F91" s="53">
+        <v>64</v>
+      </c>
+      <c r="G91" s="53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H91" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I91" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>6个守护灵突破达到15</v>
+      </c>
+      <c r="J91" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>卡牌突破-cnt</v>
+      </c>
+      <c r="K91" s="53">
+        <v>1</v>
+      </c>
+      <c r="L91" s="53">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M91" s="53">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F92" s="53">
+        <v>65</v>
+      </c>
+      <c r="G92" s="53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H92" s="53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I92" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到120</v>
+      </c>
+      <c r="J92" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K92" s="53">
+        <v>1</v>
+      </c>
+      <c r="L92" s="53">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="M92" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F93" s="53">
+        <v>66</v>
+      </c>
+      <c r="G93" s="53">
+        <f t="shared" ref="G93:G111" si="8">INT((F93-1)/4+1)</f>
+        <v>17</v>
+      </c>
+      <c r="H93" s="53">
+        <f t="shared" ref="H93:H111" si="9">MOD((F93-1),4)+1</f>
+        <v>2</v>
+      </c>
+      <c r="I93" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>击杀3次天罡5的世界BOSS</v>
+      </c>
+      <c r="J93" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K93" s="53">
+        <v>1</v>
+      </c>
+      <c r="L93" s="53">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M93" s="53">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F94" s="53">
+        <v>67</v>
+      </c>
+      <c r="G94" s="53">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H94" s="53">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I94" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>芦花古楼总共200层</v>
+      </c>
+      <c r="J94" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K94" s="53">
+        <v>1</v>
+      </c>
+      <c r="L94" s="53">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="M94" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F95" s="53">
+        <v>68</v>
+      </c>
+      <c r="G95" s="53">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H95" s="53">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I95" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>6个守护灵突破达到16</v>
+      </c>
+      <c r="J95" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>卡牌突破-cnt</v>
+      </c>
+      <c r="K95" s="53">
+        <v>1</v>
+      </c>
+      <c r="L95" s="53">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M95" s="53">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F96" s="53">
+        <v>69</v>
+      </c>
+      <c r="G96" s="53">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H96" s="53">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I96" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>玩家等级升到125</v>
+      </c>
+      <c r="J96" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K96" s="53">
+        <v>1</v>
+      </c>
+      <c r="L96" s="53">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="M96" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F97" s="53">
+        <v>70</v>
+      </c>
+      <c r="G97" s="53">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H97" s="53">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I97" s="53" t="str">
+        <f t="shared" ref="I97:I111" si="10">INDEX($I$5:$X$25,$G97,($H97-1)*4+1)</f>
+        <v>击杀3次天罡6的世界BOSS</v>
+      </c>
+      <c r="J97" s="53" t="str">
+        <f t="shared" ref="J97:J111" si="11">INDEX($I$5:$X$25,$G97,($H97-1)*4+2)</f>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K97" s="53">
+        <v>1</v>
+      </c>
+      <c r="L97" s="53">
+        <f t="shared" ref="L97:L111" si="12">INDEX($I$5:$X$25,$G97,($H97-1)*4+3)</f>
+        <v>3</v>
+      </c>
+      <c r="M97" s="53">
+        <f t="shared" ref="M97:M111" si="13">INDEX($I$5:$X$25,$G97,($H97-1)*4+4)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F98" s="53">
+        <v>71</v>
+      </c>
+      <c r="G98" s="53">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H98" s="53">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I98" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>芦花古楼总共225层</v>
+      </c>
+      <c r="J98" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K98" s="53">
+        <v>1</v>
+      </c>
+      <c r="L98" s="53">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="M98" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F99" s="53">
+        <v>72</v>
+      </c>
+      <c r="G99" s="53">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H99" s="53">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I99" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>6个守护灵突破达到17</v>
+      </c>
+      <c r="J99" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>卡牌突破-cnt</v>
+      </c>
+      <c r="K99" s="53">
+        <v>1</v>
+      </c>
+      <c r="L99" s="53">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M99" s="53">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F100" s="53">
+        <v>73</v>
+      </c>
+      <c r="G100" s="53">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H100" s="53">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I100" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>玩家等级升到130</v>
+      </c>
+      <c r="J100" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K100" s="53">
+        <v>1</v>
+      </c>
+      <c r="L100" s="53">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M100" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F101" s="53">
+        <v>74</v>
+      </c>
+      <c r="G101" s="53">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H101" s="53">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I101" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>击杀2次星耀1的世界BOSS</v>
+      </c>
+      <c r="J101" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K101" s="53">
+        <v>1</v>
+      </c>
+      <c r="L101" s="53">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="M101" s="53">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F102" s="53">
+        <v>75</v>
+      </c>
+      <c r="G102" s="53">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H102" s="53">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I102" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>芦花古楼总共250层</v>
+      </c>
+      <c r="J102" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K102" s="53">
+        <v>1</v>
+      </c>
+      <c r="L102" s="53">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="M102" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F103" s="53">
+        <v>76</v>
+      </c>
+      <c r="G103" s="53">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H103" s="53">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I103" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>6个守护灵突破达到18</v>
+      </c>
+      <c r="J103" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>卡牌突破-cnt</v>
+      </c>
+      <c r="K103" s="53">
+        <v>1</v>
+      </c>
+      <c r="L103" s="53">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M103" s="53">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F104" s="53">
+        <v>77</v>
+      </c>
+      <c r="G104" s="53">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H104" s="53">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I104" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>玩家等级升到135</v>
+      </c>
+      <c r="J104" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K104" s="53">
+        <v>1</v>
+      </c>
+      <c r="L104" s="53">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="M104" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F105" s="53">
+        <v>78</v>
+      </c>
+      <c r="G105" s="53">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H105" s="53">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I105" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>击杀5次星耀1的世界BOSS</v>
+      </c>
+      <c r="J105" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K105" s="53">
+        <v>1</v>
+      </c>
+      <c r="L105" s="53">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="M105" s="53">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F106" s="53">
+        <v>79</v>
+      </c>
+      <c r="G106" s="53">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H106" s="53">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I106" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>芦花古楼总共275层</v>
+      </c>
+      <c r="J106" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K106" s="53">
+        <v>1</v>
+      </c>
+      <c r="L106" s="53">
+        <f t="shared" si="12"/>
+        <v>275</v>
+      </c>
+      <c r="M106" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F107" s="53">
+        <v>80</v>
+      </c>
+      <c r="G107" s="53">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H107" s="53">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I107" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>6个守护灵突破达到19</v>
+      </c>
+      <c r="J107" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>卡牌突破-cnt</v>
+      </c>
+      <c r="K107" s="53">
+        <v>1</v>
+      </c>
+      <c r="L107" s="53">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M107" s="53">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F108" s="53">
+        <v>81</v>
+      </c>
+      <c r="G108" s="53">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="H108" s="53">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I108" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>玩家等级升到140</v>
+      </c>
+      <c r="J108" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>玩家等级-lv</v>
+      </c>
+      <c r="K108" s="53">
+        <v>1</v>
+      </c>
+      <c r="L108" s="53">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="M108" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F109" s="53">
+        <v>82</v>
+      </c>
+      <c r="G109" s="53">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="H109" s="53">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I109" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>击杀10次星耀1的世界BOSS</v>
+      </c>
+      <c r="J109" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>世界BOSS-cha</v>
+      </c>
+      <c r="K109" s="53">
+        <v>1</v>
+      </c>
+      <c r="L109" s="53">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M109" s="53">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F110" s="53">
+        <v>83</v>
+      </c>
+      <c r="G110" s="53">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="H110" s="53">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I110" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>芦花古楼总共300层</v>
+      </c>
+      <c r="J110" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>芦花古楼-sum</v>
+      </c>
+      <c r="K110" s="53">
+        <v>1</v>
+      </c>
+      <c r="L110" s="53">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="M110" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F111" s="53">
+        <v>84</v>
+      </c>
+      <c r="G111" s="53">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="H111" s="53">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I111" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>6个守护灵突破达到20</v>
+      </c>
+      <c r="J111" s="53" t="str">
+        <f t="shared" si="11"/>
+        <v>卡牌突破-cnt</v>
+      </c>
+      <c r="K111" s="53">
+        <v>1</v>
+      </c>
+      <c r="L111" s="53">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M111" s="53">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F115" s="53"/>
+      <c r="G115" s="53"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F133" s="53"/>
+      <c r="G133" s="53"/>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F141" s="53"/>
+      <c r="G141" s="53"/>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>1350</v>
       </c>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53"/>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F143" s="53"/>
+      <c r="G143" s="53"/>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F144" s="53"/>
+      <c r="G144" s="53"/>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F145" s="53"/>
+      <c r="G145" s="53"/>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F146" s="53"/>
+      <c r="G146" s="53"/>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F147" s="53"/>
+      <c r="G147" s="53"/>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F148" s="53"/>
+      <c r="G148" s="53"/>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F149" s="53"/>
+      <c r="G149" s="53"/>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F150" s="53"/>
+      <c r="G150" s="53"/>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F151" s="53"/>
+      <c r="G151" s="53"/>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F152" s="53"/>
+      <c r="G152" s="53"/>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G153" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="F3:U3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13410,20 +16201,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="G2" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -13456,13 +16247,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="87" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="88" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -13501,8 +16292,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="O4" s="83"/>
+      <c r="M4" s="87"/>
+      <c r="O4" s="89"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -13569,13 +16360,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="86" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="86" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -13614,8 +16405,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="O7" s="80"/>
+      <c r="M7" s="86"/>
+      <c r="O7" s="86"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -14338,14 +17129,14 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -14380,14 +17171,14 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="91" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -14447,29 +17238,29 @@
       <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="91" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -14525,14 +17316,14 @@
       <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -14614,16 +17405,16 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -14688,16 +17479,16 @@
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -14760,16 +17551,16 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -14840,16 +17631,16 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="91" t="s">
         <v>421</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -15170,16 +17961,16 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="91" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -16199,15 +18990,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -16237,7 +19028,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="97" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -16259,7 +19050,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -16277,7 +19068,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -16299,7 +19090,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="97" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -16317,7 +19108,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -16333,7 +19124,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -16347,7 +19138,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -16369,7 +19160,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -16387,7 +19178,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -16405,7 +19196,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -16427,7 +19218,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="101" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -16451,7 +19242,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -16475,7 +19266,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -16495,7 +19286,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="98" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -16511,7 +19302,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -16531,7 +19322,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -16553,7 +19344,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -16569,7 +19360,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="97" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -16595,7 +19386,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -16617,7 +19408,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="88"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -16639,7 +19430,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="97" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -16663,7 +19454,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -16685,7 +19476,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -16703,15 +19494,15 @@
       <c r="H26" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="85" t="s">
         <v>729</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -16730,16 +19521,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="90" t="s">
+      <c r="F30" s="100" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="90"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="101" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -16754,14 +19545,14 @@
       <c r="E31" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="91" t="s">
         <v>736</v>
       </c>
-      <c r="G31" s="85"/>
+      <c r="G31" s="91"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -16774,14 +19565,14 @@
       <c r="E32" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="91" t="s">
         <v>740</v>
       </c>
-      <c r="G32" s="85"/>
+      <c r="G32" s="91"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -16794,10 +19585,10 @@
       <c r="E33" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="F33" s="85" t="s">
+      <c r="F33" s="91" t="s">
         <v>744</v>
       </c>
-      <c r="G33" s="85"/>
+      <c r="G33" s="91"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16816,10 +19607,10 @@
       <c r="E34" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="91" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="85"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16836,10 +19627,10 @@
       <c r="E35" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="91" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="85"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16854,10 +19645,10 @@
       <c r="E36" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F36" s="85" t="s">
+      <c r="F36" s="91" t="s">
         <v>759</v>
       </c>
-      <c r="G36" s="85"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="25" t="s">
         <v>760</v>
       </c>
@@ -16876,16 +19667,16 @@
       <c r="E37" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="85" t="s">
+      <c r="F37" s="91" t="s">
         <v>765</v>
       </c>
-      <c r="G37" s="85"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="25" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="92" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -16900,12 +19691,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="96"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -16921,7 +19712,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="92"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -16937,7 +19728,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="92"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -16953,7 +19744,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -16970,12 +19761,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -16983,12 +19774,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17046,114 +19837,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="100" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="100" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="100" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="100" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="100" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="100" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="100" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="100" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90" t="s">
+      <c r="N4" s="100"/>
+      <c r="O4" s="100" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90" t="s">
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90" t="s">
+      <c r="R4" s="100"/>
+      <c r="S4" s="100" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90" t="s">
+      <c r="T4" s="100"/>
+      <c r="U4" s="100" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90" t="s">
+      <c r="V4" s="100"/>
+      <c r="W4" s="100" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90" t="s">
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90" t="s">
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90" t="s">
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90" t="s">
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90" t="s">
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90" t="s">
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90" t="s">
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90" t="s">
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90" t="s">
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100" t="s">
         <v>1107</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90" t="s">
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100" t="s">
         <v>1108</v>
       </c>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90" t="s">
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100" t="s">
         <v>1109</v>
       </c>
-      <c r="AT4" s="90"/>
+      <c r="AT4" s="100"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -17264,10 +20055,10 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="102" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="102" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -17357,8 +20148,8 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="45" t="s">
         <v>1104</v>
       </c>
@@ -17446,8 +20237,8 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
@@ -17537,7 +20328,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="99"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -17622,7 +20413,7 @@
       <c r="AT9" s="45"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="91" t="s">
         <v>805</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -17673,7 +20464,7 @@
       <c r="AT10" s="45"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="25" t="s">
         <v>807</v>
       </c>
@@ -17722,7 +20513,7 @@
       <c r="AT11" s="45"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="25" t="s">
         <v>808</v>
       </c>
@@ -17771,7 +20562,7 @@
       <c r="AT12" s="45"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="25" t="s">
         <v>809</v>
       </c>
@@ -17820,7 +20611,7 @@
       <c r="AT13" s="45"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="85"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="25" t="s">
         <v>810</v>
       </c>
@@ -17869,7 +20660,7 @@
       <c r="AT14" s="45"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="85"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="25" t="s">
         <v>811</v>
       </c>
@@ -18016,7 +20807,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="102" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -18105,7 +20896,7 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="98"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
@@ -18186,7 +20977,7 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="98"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
@@ -18267,7 +21058,7 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="98"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
@@ -18326,7 +21117,7 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="98"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
@@ -18383,7 +21174,7 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="99"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
@@ -18440,7 +21231,7 @@
       <c r="AT23" s="45"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="91" t="s">
         <v>1110</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -18491,7 +21282,7 @@
       <c r="AT24" s="45"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="85"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="25" t="s">
         <v>822</v>
       </c>
@@ -18540,7 +21331,7 @@
       <c r="AT25" s="45"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="91" t="s">
         <v>1111</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -18591,7 +21382,7 @@
       <c r="AT26" s="45"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="85"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="25" t="s">
         <v>822</v>
       </c>
@@ -18640,7 +21431,7 @@
       <c r="AT27" s="45"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="91" t="s">
         <v>1112</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -18691,7 +21482,7 @@
       <c r="AT28" s="45"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="25" t="s">
         <v>822</v>
       </c>
@@ -18740,7 +21531,7 @@
       <c r="AT29" s="45"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="85"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="25" t="s">
         <v>545</v>
       </c>
@@ -18789,7 +21580,7 @@
       <c r="AT30" s="45"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="85"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="25" t="s">
         <v>546</v>
       </c>
@@ -18838,7 +21629,7 @@
       <c r="AT31" s="45"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="91" t="s">
         <v>1113</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -18889,7 +21680,7 @@
       <c r="AT32" s="45"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="85"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="25" t="s">
         <v>822</v>
       </c>
@@ -18938,7 +21729,7 @@
       <c r="AT33" s="45"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="85"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="25" t="s">
         <v>545</v>
       </c>
@@ -18987,7 +21778,7 @@
       <c r="AT34" s="45"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="85"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="25" t="s">
         <v>546</v>
       </c>
@@ -19036,7 +21827,7 @@
       <c r="AT35" s="45"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="91" t="s">
         <v>1114</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -19087,7 +21878,7 @@
       <c r="AT36" s="45"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="85"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="25" t="s">
         <v>822</v>
       </c>
@@ -19136,7 +21927,7 @@
       <c r="AT37" s="45"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="85"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="25" t="s">
         <v>545</v>
       </c>
@@ -19185,7 +21976,7 @@
       <c r="AT38" s="45"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="85"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="25" t="s">
         <v>546</v>
       </c>
@@ -19234,7 +22025,7 @@
       <c r="AT39" s="45"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="85"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="25" t="s">
         <v>547</v>
       </c>
@@ -19283,7 +22074,7 @@
       <c r="AT40" s="45"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="85"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="25" t="s">
         <v>548</v>
       </c>
@@ -19332,7 +22123,7 @@
       <c r="AT41" s="45"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="91" t="s">
         <v>1115</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -19383,7 +22174,7 @@
       <c r="AT42" s="45"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="85"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="25" t="s">
         <v>822</v>
       </c>
@@ -19432,7 +22223,7 @@
       <c r="AT43" s="45"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="85"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="25" t="s">
         <v>545</v>
       </c>
@@ -19481,7 +22272,7 @@
       <c r="AT44" s="45"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="85"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="25" t="s">
         <v>546</v>
       </c>
@@ -19530,7 +22321,7 @@
       <c r="AT45" s="45"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="85"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="25" t="s">
         <v>547</v>
       </c>
@@ -19579,7 +22370,7 @@
       <c r="AT46" s="45"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="85"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="25" t="s">
         <v>548</v>
       </c>
@@ -19628,7 +22419,7 @@
       <c r="AT47" s="45"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="91" t="s">
         <v>1116</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -19679,7 +22470,7 @@
       <c r="AT48" s="45"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="85"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="25" t="s">
         <v>822</v>
       </c>
@@ -19728,7 +22519,7 @@
       <c r="AT49" s="45"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="85"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="25" t="s">
         <v>545</v>
       </c>
@@ -19777,7 +22568,7 @@
       <c r="AT50" s="45"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="85"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="25" t="s">
         <v>546</v>
       </c>
@@ -19826,7 +22617,7 @@
       <c r="AT51" s="45"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="85"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="25" t="s">
         <v>547</v>
       </c>
@@ -19875,7 +22666,7 @@
       <c r="AT52" s="45"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="85"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="25" t="s">
         <v>548</v>
       </c>
@@ -19925,27 +22716,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -19962,6 +22732,27 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20297,7 +23088,7 @@
       <c r="F17" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="85" t="s">
+      <c r="I17" s="91" t="s">
         <v>1238</v>
       </c>
       <c r="L17" s="53"/>
@@ -20319,7 +23110,7 @@
       <c r="F18" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="I18" s="85"/>
+      <c r="I18" s="91"/>
       <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20339,7 +23130,7 @@
       <c r="F19" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="I19" s="85"/>
+      <c r="I19" s="91"/>
       <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20359,7 +23150,7 @@
       <c r="F20" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="I20" s="85"/>
+      <c r="I20" s="91"/>
       <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20379,7 +23170,7 @@
       <c r="F21" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="I21" s="85"/>
+      <c r="I21" s="91"/>
       <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20399,7 +23190,7 @@
       <c r="F22" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="I22" s="85"/>
+      <c r="I22" s="91"/>
       <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20419,7 +23210,7 @@
       <c r="F23" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="I23" s="85"/>
+      <c r="I23" s="91"/>
       <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20439,7 +23230,7 @@
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="97" t="s">
+      <c r="I24" s="102" t="s">
         <v>1012</v>
       </c>
       <c r="L24" s="53"/>
@@ -20461,7 +23252,7 @@
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="98"/>
+      <c r="I25" s="103"/>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20481,7 +23272,7 @@
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="98"/>
+      <c r="I26" s="103"/>
       <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20501,7 +23292,7 @@
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="98"/>
+      <c r="I27" s="103"/>
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20521,7 +23312,7 @@
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="98"/>
+      <c r="I28" s="103"/>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -20541,7 +23332,7 @@
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="98"/>
+      <c r="I29" s="103"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -20560,7 +23351,7 @@
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="99"/>
+      <c r="I30" s="104"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -20579,7 +23370,7 @@
       <c r="F31" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="I31" s="85" t="s">
+      <c r="I31" s="91" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -20600,7 +23391,7 @@
       <c r="F32" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="I32" s="85"/>
+      <c r="I32" s="91"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
@@ -20619,7 +23410,7 @@
       <c r="F33" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="I33" s="85"/>
+      <c r="I33" s="91"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
@@ -20638,7 +23429,7 @@
       <c r="F34" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="I34" s="85"/>
+      <c r="I34" s="91"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
@@ -20657,7 +23448,7 @@
       <c r="F35" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="I35" s="85"/>
+      <c r="I35" s="91"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
@@ -20676,7 +23467,7 @@
       <c r="F36" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="I36" s="85"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
@@ -20695,7 +23486,7 @@
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="91" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -20716,7 +23507,7 @@
       <c r="F38" s="25" t="s">
         <v>1076</v>
       </c>
-      <c r="I38" s="85"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
@@ -20725,12 +23516,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="95" t="s">
         <v>1016</v>
       </c>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="95"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="96"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -20931,7 +23722,7 @@
       <c r="F50" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="I50" s="97" t="s">
+      <c r="I50" s="102" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -20952,7 +23743,7 @@
       <c r="F51" s="29" t="s">
         <v>1083</v>
       </c>
-      <c r="I51" s="99"/>
+      <c r="I51" s="104"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
@@ -20983,7 +23774,7 @@
       <c r="F53" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="I53" s="85" t="s">
+      <c r="I53" s="91" t="s">
         <v>1027</v>
       </c>
     </row>
@@ -21002,7 +23793,7 @@
       <c r="F54" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I54" s="85"/>
+      <c r="I54" s="91"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
@@ -21019,7 +23810,7 @@
       <c r="F55" s="29" t="s">
         <v>1003</v>
       </c>
-      <c r="I55" s="85"/>
+      <c r="I55" s="91"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
@@ -21036,7 +23827,7 @@
       <c r="F56" s="29" t="s">
         <v>1004</v>
       </c>
-      <c r="I56" s="85"/>
+      <c r="I56" s="91"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
@@ -21053,7 +23844,7 @@
       <c r="F57" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="I57" s="85"/>
+      <c r="I57" s="91"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
@@ -21070,7 +23861,7 @@
       <c r="F58" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="I58" s="85"/>
+      <c r="I58" s="91"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
@@ -21087,7 +23878,7 @@
       <c r="F59" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="I59" s="85"/>
+      <c r="I59" s="91"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
@@ -21104,7 +23895,7 @@
       <c r="F60" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I60" s="91" t="s">
+      <c r="I60" s="92" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -21123,7 +23914,7 @@
       <c r="F61" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I61" s="92"/>
+      <c r="I61" s="93"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
@@ -21140,7 +23931,7 @@
       <c r="F62" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I62" s="92"/>
+      <c r="I62" s="93"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
@@ -21157,7 +23948,7 @@
       <c r="F63" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I63" s="92"/>
+      <c r="I63" s="93"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
@@ -21174,7 +23965,7 @@
       <c r="F64" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I64" s="92"/>
+      <c r="I64" s="93"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
@@ -21191,7 +23982,7 @@
       <c r="F65" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I65" s="92"/>
+      <c r="I65" s="93"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -21208,7 +23999,7 @@
       <c r="F66" s="29" t="s">
         <v>988</v>
       </c>
-      <c r="I66" s="92"/>
+      <c r="I66" s="93"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
@@ -21225,7 +24016,7 @@
       <c r="F67" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I67" s="92"/>
+      <c r="I67" s="93"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
@@ -21242,7 +24033,7 @@
       <c r="F68" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="I68" s="93"/>
+      <c r="I68" s="94"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
@@ -21310,7 +24101,7 @@
       <c r="F72" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="I72" s="85" t="s">
+      <c r="I72" s="91" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -21329,7 +24120,7 @@
       <c r="F73" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="I73" s="85"/>
+      <c r="I73" s="91"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
@@ -21346,7 +24137,7 @@
       <c r="F74" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="I74" s="85"/>
+      <c r="I74" s="91"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
@@ -21363,7 +24154,7 @@
       <c r="F75" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="I75" s="85"/>
+      <c r="I75" s="91"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
@@ -21380,7 +24171,7 @@
       <c r="F76" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="I76" s="85"/>
+      <c r="I76" s="91"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
@@ -21397,7 +24188,7 @@
       <c r="F77" s="29" t="s">
         <v>985</v>
       </c>
-      <c r="I77" s="85"/>
+      <c r="I77" s="91"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
@@ -21414,19 +24205,19 @@
       <c r="F78" s="29" t="s">
         <v>1086</v>
       </c>
-      <c r="I78" s="85"/>
+      <c r="I78" s="91"/>
     </row>
     <row r="79" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>68</v>
       </c>
-      <c r="B79" s="101" t="s">
+      <c r="B79" s="107" t="s">
         <v>1053</v>
       </c>
-      <c r="C79" s="102"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="103"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="109"/>
     </row>
     <row r="80" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
@@ -21614,7 +24405,7 @@
       <c r="F91" s="29" t="s">
         <v>1041</v>
       </c>
-      <c r="I91" s="85" t="s">
+      <c r="I91" s="91" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -21633,7 +24424,7 @@
       <c r="F92" s="29" t="s">
         <v>1089</v>
       </c>
-      <c r="I92" s="85"/>
+      <c r="I92" s="91"/>
     </row>
     <row r="93" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40">
@@ -21772,14 +24563,14 @@
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="91" t="s">
         <v>1241</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
       <c r="H101" s="31"/>
       <c r="I101" s="56" t="s">
         <v>1229</v>
@@ -21900,12 +24691,12 @@
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="94"/>
-      <c r="B110" s="100"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="95"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="96"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
@@ -21918,7 +24709,7 @@
       <c r="F111" s="52" t="s">
         <v>1219</v>
       </c>
-      <c r="I111" s="85" t="s">
+      <c r="I111" s="91" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -21933,7 +24724,7 @@
       <c r="F112" s="52" t="s">
         <v>1220</v>
       </c>
-      <c r="I112" s="85"/>
+      <c r="I112" s="91"/>
     </row>
     <row r="113" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
@@ -21946,7 +24737,7 @@
       <c r="F113" s="52" t="s">
         <v>1221</v>
       </c>
-      <c r="I113" s="85"/>
+      <c r="I113" s="91"/>
     </row>
     <row r="114" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
@@ -21959,7 +24750,7 @@
       <c r="F114" s="52" t="s">
         <v>1222</v>
       </c>
-      <c r="I114" s="85"/>
+      <c r="I114" s="91"/>
     </row>
     <row r="115" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
@@ -21972,7 +24763,7 @@
       <c r="F115" s="52" t="s">
         <v>1223</v>
       </c>
-      <c r="I115" s="85"/>
+      <c r="I115" s="91"/>
     </row>
     <row r="116" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
@@ -21985,7 +24776,7 @@
       <c r="F116" s="52" t="s">
         <v>1224</v>
       </c>
-      <c r="I116" s="85"/>
+      <c r="I116" s="91"/>
     </row>
     <row r="117" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
@@ -21998,7 +24789,7 @@
       <c r="F117" s="52" t="s">
         <v>1225</v>
       </c>
-      <c r="I117" s="85"/>
+      <c r="I117" s="91"/>
     </row>
     <row r="118" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
@@ -22011,7 +24802,7 @@
       <c r="F118" s="52" t="s">
         <v>1226</v>
       </c>
-      <c r="I118" s="85"/>
+      <c r="I118" s="91"/>
     </row>
     <row r="119" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="52"/>
@@ -22255,6 +25046,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="I72:I78"/>
+    <mergeCell ref="I111:I118"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
@@ -22264,11 +25060,6 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="I72:I78"/>
-    <mergeCell ref="I111:I118"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22339,49 +25130,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="100" t="s">
         <v>1070</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="110" t="s">
         <v>1061</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111" t="s">
         <v>1078</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="104" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="110" t="s">
         <v>1062</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="104" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="110" t="s">
         <v>1063</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="104" t="s">
+      <c r="I2" s="111"/>
+      <c r="J2" s="110" t="s">
         <v>1064</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="104" t="s">
+      <c r="K2" s="111"/>
+      <c r="L2" s="110" t="s">
         <v>1065</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="104" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="110" t="s">
         <v>1066</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="104" t="s">
+      <c r="O2" s="111"/>
+      <c r="P2" s="110" t="s">
         <v>1067</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="106"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="112"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="90"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="43" t="s">
         <v>1068</v>
       </c>

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -4041,10 +4041,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>战力要求3个15级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战力要求3个15级，3卡2突</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -6075,6 +6071,10 @@
   </si>
   <si>
     <t>历史最高分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力要求3个15级，3突</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6734,7 +6734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6904,21 +6904,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6964,6 +6949,21 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6986,6 +6986,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -7000,20 +7015,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7023,9 +7026,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7047,6 +7047,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -7496,12 +7505,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -7510,10 +7519,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="72" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7524,26 +7533,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -7552,10 +7561,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -7564,147 +7573,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -7717,16 +7730,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -11579,7 +11588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
@@ -11604,12 +11613,12 @@
   <sheetData>
     <row r="3" spans="1:24" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
       <c r="F3" s="85" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G3" s="85"/>
       <c r="H3" s="85"/>
@@ -11632,84 +11641,84 @@
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>824</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>1352</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>1353</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="N4" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>1479</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>1481</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="Q4" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="R4" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S4" s="16" t="s">
         <v>1479</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="T4" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>1481</v>
-      </c>
-      <c r="Q4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>1356</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="V4" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="W4" s="16" t="s">
         <v>1479</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="X4" s="16" t="s">
         <v>1480</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>1481</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>1479</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>1480</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C5" t="s">
         <v>1244</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1245</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H5" s="53">
         <v>15</v>
@@ -11733,10 +11742,10 @@
     </row>
     <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C6" t="s">
         <v>1246</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1247</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -11745,16 +11754,16 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H6">
         <v>40</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="K6" s="58">
         <v>3</v>
@@ -11763,10 +11772,10 @@
         <v>10</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="N6" s="60" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="O6" s="58">
         <v>3</v>
@@ -11775,10 +11784,10 @@
         <v>2</v>
       </c>
       <c r="Q6" s="58" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="S6" s="58">
         <v>1</v>
@@ -11787,10 +11796,10 @@
         <v>109</v>
       </c>
       <c r="U6" s="58" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="V6" s="60" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="W6" s="58">
         <v>2</v>
@@ -11801,10 +11810,10 @@
     </row>
     <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C7" t="s">
         <v>1248</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1249</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -11813,26 +11822,26 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H7">
         <v>40</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K7" s="58">
         <v>20</v>
       </c>
       <c r="L7" s="58"/>
       <c r="M7" s="58" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="N7" s="59" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="O7" s="58">
         <v>5</v>
@@ -11841,10 +11850,10 @@
         <v>2</v>
       </c>
       <c r="Q7" s="58" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="R7" s="58" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="S7" s="58">
         <v>10</v>
@@ -11853,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="U7" s="58" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="V7" s="60" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="W7" s="58">
         <v>2</v>
@@ -11867,10 +11876,10 @@
     </row>
     <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C8" t="s">
         <v>1250</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1251</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -11879,36 +11888,36 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K8" s="58">
         <v>30</v>
       </c>
       <c r="L8" s="58"/>
       <c r="M8" s="58" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="N8" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O8" s="58">
         <v>2</v>
       </c>
       <c r="P8" s="58"/>
       <c r="Q8" s="58" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="R8" s="61" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="S8" s="58">
         <v>5</v>
@@ -11917,45 +11926,45 @@
         <v>1</v>
       </c>
       <c r="U8" s="58" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="V8" s="60" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="W8" s="58"/>
       <c r="X8" s="58"/>
     </row>
     <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C9" t="s">
         <v>1252</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1253</v>
       </c>
       <c r="F9" s="53">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H9">
         <v>80</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K9" s="58">
         <v>40</v>
       </c>
       <c r="L9" s="58"/>
       <c r="M9" s="58" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="N9" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O9" s="58">
         <v>2</v>
@@ -11964,20 +11973,20 @@
         <v>3</v>
       </c>
       <c r="Q9" s="58" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="R9" s="58" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="S9" s="58">
         <v>1200</v>
       </c>
       <c r="T9" s="58"/>
       <c r="U9" s="58" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="V9" s="64" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="W9" s="58">
         <v>1</v>
@@ -11986,35 +11995,35 @@
     </row>
     <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C10" t="s">
         <v>1254</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1255</v>
       </c>
       <c r="F10" s="53">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H10">
         <v>80</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K10" s="58">
         <v>50</v>
       </c>
       <c r="L10" s="58"/>
       <c r="M10" s="59" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="N10" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O10" s="58">
         <v>2</v>
@@ -12023,20 +12032,20 @@
         <v>4</v>
       </c>
       <c r="Q10" s="58" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="R10" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S10" s="58">
         <v>50</v>
       </c>
       <c r="T10" s="58"/>
       <c r="U10" s="58" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="V10" s="64" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="W10" s="58">
         <v>3</v>
@@ -12047,35 +12056,35 @@
     </row>
     <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C11" t="s">
         <v>1256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1257</v>
       </c>
       <c r="F11" s="53">
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H11">
         <v>80</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K11" s="58">
         <v>60</v>
       </c>
       <c r="L11" s="58"/>
       <c r="M11" s="59" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="N11" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O11" s="58">
         <v>3</v>
@@ -12084,10 +12093,10 @@
         <v>6</v>
       </c>
       <c r="Q11" s="58" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="R11" s="61" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="S11" s="58">
         <v>10</v>
@@ -12096,10 +12105,10 @@
         <v>1</v>
       </c>
       <c r="U11" s="58" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V11" s="60" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="W11" s="58">
         <v>30</v>
@@ -12108,35 +12117,35 @@
     </row>
     <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C12" t="s">
         <v>1258</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1259</v>
       </c>
       <c r="F12" s="53">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H12">
         <v>80</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K12" s="58">
         <v>70</v>
       </c>
       <c r="L12" s="58"/>
       <c r="M12" s="59" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O12" s="58">
         <v>3</v>
@@ -12145,20 +12154,20 @@
         <v>7</v>
       </c>
       <c r="Q12" s="58" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="S12" s="58">
         <v>15000</v>
       </c>
       <c r="T12" s="58"/>
       <c r="U12" s="58" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="V12" s="60" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W12" s="58">
         <v>3</v>
@@ -12167,35 +12176,35 @@
     </row>
     <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C13" t="s">
         <v>1395</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1396</v>
       </c>
       <c r="F13" s="53">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H13">
         <v>100</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K13" s="58">
         <v>80</v>
       </c>
       <c r="L13" s="58"/>
       <c r="M13" s="59" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O13" s="58">
         <v>3</v>
@@ -12204,20 +12213,20 @@
         <v>8</v>
       </c>
       <c r="Q13" s="58" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R13" s="58" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="S13" s="58">
         <v>1300</v>
       </c>
       <c r="T13" s="58"/>
       <c r="U13" s="58" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="V13" s="60" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="W13" s="58">
         <v>3</v>
@@ -12228,35 +12237,35 @@
     </row>
     <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C14" t="s">
         <v>1260</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1261</v>
       </c>
       <c r="F14" s="53">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H14">
         <v>100</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K14" s="58">
         <v>90</v>
       </c>
       <c r="L14" s="58"/>
       <c r="M14" s="58" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="N14" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O14" s="58">
         <v>3</v>
@@ -12265,20 +12274,20 @@
         <v>9</v>
       </c>
       <c r="Q14" s="58" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="R14" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S14" s="58">
         <v>80</v>
       </c>
       <c r="T14" s="58"/>
       <c r="U14" s="58" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="V14" s="58" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="W14" s="58">
         <v>2</v>
@@ -12287,35 +12296,35 @@
     </row>
     <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C15" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F15" s="53">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H15">
         <v>100</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K15" s="58">
         <v>100</v>
       </c>
       <c r="L15" s="58"/>
       <c r="M15" s="58" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="N15" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O15" s="58">
         <v>3</v>
@@ -12324,20 +12333,20 @@
         <v>10</v>
       </c>
       <c r="Q15" s="58" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="R15" s="58" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="S15" s="58">
         <v>1400</v>
       </c>
       <c r="T15" s="58"/>
       <c r="U15" s="58" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="V15" s="62" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="W15" s="58">
         <v>50</v>
@@ -12346,35 +12355,35 @@
     </row>
     <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F16" s="53">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H16">
         <v>100</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K16" s="58">
         <v>110</v>
       </c>
       <c r="L16" s="58"/>
       <c r="M16" s="58" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="N16" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O16" s="58">
         <v>3</v>
@@ -12383,20 +12392,20 @@
         <v>11</v>
       </c>
       <c r="Q16" s="58" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="R16" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S16" s="58">
         <v>100</v>
       </c>
       <c r="T16" s="58"/>
       <c r="U16" s="58" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="V16" s="62" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="W16" s="58">
         <v>3000</v>
@@ -12407,35 +12416,35 @@
     </row>
     <row r="17" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C17" t="s">
         <v>1263</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1264</v>
       </c>
       <c r="F17" s="53">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H17">
         <v>120</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K17" s="58">
         <v>120</v>
       </c>
       <c r="L17" s="58"/>
       <c r="M17" s="58" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="N17" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O17" s="58">
         <v>3</v>
@@ -12444,20 +12453,20 @@
         <v>12</v>
       </c>
       <c r="Q17" s="58" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="R17" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S17" s="58">
         <v>120</v>
       </c>
       <c r="T17" s="58"/>
       <c r="U17" s="58" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="V17" s="62" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="W17" s="58">
         <v>100</v>
@@ -12466,35 +12475,35 @@
     </row>
     <row r="18" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C18" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F18" s="53">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H18">
         <v>120</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K18" s="58">
         <v>130</v>
       </c>
       <c r="L18" s="58"/>
       <c r="M18" s="58" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="N18" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O18" s="58">
         <v>1</v>
@@ -12503,20 +12512,20 @@
         <v>13</v>
       </c>
       <c r="Q18" s="58" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="R18" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S18" s="58">
         <v>140</v>
       </c>
       <c r="T18" s="58"/>
       <c r="U18" s="58" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="V18" s="58" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="W18" s="58">
         <v>5000</v>
@@ -12525,35 +12534,35 @@
     </row>
     <row r="19" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F19" s="53">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H19">
         <v>120</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K19" s="58">
         <v>140</v>
       </c>
       <c r="L19" s="58"/>
       <c r="M19" s="58" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="N19" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O19" s="58">
         <v>3</v>
@@ -12562,20 +12571,20 @@
         <v>13</v>
       </c>
       <c r="Q19" s="58" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="R19" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S19" s="58">
         <v>160</v>
       </c>
       <c r="T19" s="58"/>
       <c r="U19" s="58" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V19" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W19" s="58">
         <v>6</v>
@@ -12586,35 +12595,35 @@
     </row>
     <row r="20" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C20" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="53">
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H20">
         <v>120</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K20" s="58">
         <v>150</v>
       </c>
       <c r="L20" s="58"/>
       <c r="M20" s="58" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="N20" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O20" s="58">
         <v>1</v>
@@ -12623,20 +12632,20 @@
         <v>14</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="R20" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S20" s="58">
         <v>180</v>
       </c>
       <c r="T20" s="58"/>
       <c r="U20" s="59" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="V20" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W20" s="59">
         <v>6</v>
@@ -12647,35 +12656,35 @@
     </row>
     <row r="21" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C21" t="s">
         <v>1265</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1266</v>
       </c>
       <c r="F21" s="53">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H21">
         <v>140</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K21" s="58">
         <v>160</v>
       </c>
       <c r="L21" s="58"/>
       <c r="M21" s="58" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="N21" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O21" s="58">
         <v>3</v>
@@ -12684,20 +12693,20 @@
         <v>14</v>
       </c>
       <c r="Q21" s="58" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="R21" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S21" s="58">
         <v>200</v>
       </c>
       <c r="T21" s="58"/>
       <c r="U21" s="59" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="V21" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W21" s="59">
         <v>6</v>
@@ -12708,32 +12717,32 @@
     </row>
     <row r="22" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F22" s="53">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H22">
         <v>140</v>
       </c>
       <c r="I22" s="58" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K22" s="58">
         <v>170</v>
       </c>
       <c r="L22" s="58"/>
       <c r="M22" s="58" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="N22" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O22" s="58">
         <v>3</v>
@@ -12742,20 +12751,20 @@
         <v>15</v>
       </c>
       <c r="Q22" s="58" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="R22" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S22" s="58">
         <v>225</v>
       </c>
       <c r="T22" s="58"/>
       <c r="U22" s="59" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="V22" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W22" s="59">
         <v>6</v>
@@ -12766,32 +12775,32 @@
     </row>
     <row r="23" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F23" s="53">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H23">
         <v>140</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K23" s="58">
         <v>180</v>
       </c>
       <c r="L23" s="58"/>
       <c r="M23" s="58" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="N23" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O23" s="58">
         <v>2</v>
@@ -12800,20 +12809,20 @@
         <v>16</v>
       </c>
       <c r="Q23" s="58" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="R23" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S23" s="58">
         <v>250</v>
       </c>
       <c r="T23" s="58"/>
       <c r="U23" s="59" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V23" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W23" s="59">
         <v>6</v>
@@ -12824,32 +12833,32 @@
     </row>
     <row r="24" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F24" s="53">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H24">
         <v>140</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K24" s="58">
         <v>190</v>
       </c>
       <c r="L24" s="58"/>
       <c r="M24" s="58" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="N24" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O24" s="58">
         <v>5</v>
@@ -12858,20 +12867,20 @@
         <v>16</v>
       </c>
       <c r="Q24" s="58" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="R24" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S24" s="58">
         <v>275</v>
       </c>
       <c r="T24" s="58"/>
       <c r="U24" s="59" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V24" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W24" s="59">
         <v>6</v>
@@ -12882,32 +12891,32 @@
     </row>
     <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F25" s="53">
         <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H25">
         <v>150</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K25" s="58">
         <v>200</v>
       </c>
       <c r="L25" s="58"/>
       <c r="M25" s="58" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="N25" s="59" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="O25" s="58">
         <v>10</v>
@@ -12916,20 +12925,20 @@
         <v>16</v>
       </c>
       <c r="Q25" s="58" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="R25" s="58" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S25" s="58">
         <v>300</v>
       </c>
       <c r="T25" s="58"/>
       <c r="U25" s="59" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V25" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W25" s="59">
         <v>6</v>
@@ -12940,38 +12949,38 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G27" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H27" t="s">
         <v>1477</v>
       </c>
-      <c r="H27" t="s">
-        <v>1478</v>
-      </c>
       <c r="I27" s="63" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="J27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K27" t="s">
         <v>1473</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>1474</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" s="53" t="s">
         <v>1475</v>
-      </c>
-      <c r="M27" s="53" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -13002,7 +13011,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29">
@@ -13017,7 +13026,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="53">
-        <f t="shared" ref="J29:J60" si="3">INDEX($I$5:$X$25,$G29,($H29-1)*4+1)</f>
+        <f t="shared" ref="J29:J31" si="3">INDEX($I$5:$X$25,$G29,($H29-1)*4+1)</f>
         <v>0</v>
       </c>
       <c r="K29" s="53">
@@ -13034,7 +13043,7 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E30" s="53"/>
       <c r="F30" s="53">
@@ -13066,7 +13075,7 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="53">
@@ -13098,7 +13107,7 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="53">
@@ -13134,7 +13143,7 @@
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="53">
@@ -13170,7 +13179,7 @@
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="53">
@@ -13206,7 +13215,7 @@
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="53">
@@ -13242,7 +13251,7 @@
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E36" s="53"/>
       <c r="F36" s="53">
@@ -13278,7 +13287,7 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E37" s="53"/>
       <c r="F37" s="53">
@@ -13314,7 +13323,7 @@
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E38" s="53"/>
       <c r="F38" s="53">
@@ -13350,7 +13359,7 @@
     </row>
     <row r="39" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="53" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F39" s="53">
         <v>12</v>
@@ -13385,7 +13394,7 @@
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E40" s="53"/>
       <c r="F40" s="53">
@@ -13421,7 +13430,7 @@
     </row>
     <row r="41" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C41" s="53" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F41" s="53">
         <v>14</v>
@@ -13456,7 +13465,7 @@
     </row>
     <row r="42" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42" s="53" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F42" s="53">
         <v>15</v>
@@ -13491,7 +13500,7 @@
     </row>
     <row r="43" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="53" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F43" s="53">
         <v>16</v>
@@ -13526,7 +13535,7 @@
     </row>
     <row r="44" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C44" s="53" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F44" s="53">
         <v>17</v>
@@ -13561,7 +13570,7 @@
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="53">
@@ -13597,7 +13606,7 @@
     </row>
     <row r="46" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="53" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F46" s="53">
         <v>19</v>
@@ -13632,7 +13641,7 @@
     </row>
     <row r="47" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="53" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F47" s="53">
         <v>20</v>
@@ -13667,7 +13676,7 @@
     </row>
     <row r="48" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="53" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F48" s="53">
         <v>21</v>
@@ -13702,7 +13711,7 @@
     </row>
     <row r="49" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="53" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F49" s="53">
         <v>22</v>
@@ -13737,7 +13746,7 @@
     </row>
     <row r="50" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F50" s="53">
         <v>23</v>
@@ -13772,7 +13781,7 @@
     </row>
     <row r="51" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F51" s="53">
         <v>24</v>
@@ -13807,7 +13816,7 @@
     </row>
     <row r="52" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F52" s="53">
         <v>25</v>
@@ -13842,7 +13851,7 @@
     </row>
     <row r="53" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F53" s="53">
         <v>26</v>
@@ -13877,7 +13886,7 @@
     </row>
     <row r="54" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F54" s="53">
         <v>27</v>
@@ -13912,7 +13921,7 @@
     </row>
     <row r="55" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="53" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F55" s="53">
         <v>28</v>
@@ -13947,7 +13956,7 @@
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="53">
@@ -13983,7 +13992,7 @@
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E57" s="53"/>
       <c r="F57" s="53">
@@ -14019,7 +14028,7 @@
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E58" s="53"/>
       <c r="F58" s="53">
@@ -14055,7 +14064,7 @@
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E59" s="53"/>
       <c r="F59" s="53">
@@ -14091,7 +14100,7 @@
     </row>
     <row r="60" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C60" s="53" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F60" s="53">
         <v>33</v>
@@ -14126,7 +14135,7 @@
     </row>
     <row r="61" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="53" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F61" s="53">
         <v>34</v>
@@ -14161,7 +14170,7 @@
     </row>
     <row r="62" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="53" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F62" s="53">
         <v>35</v>
@@ -14196,7 +14205,7 @@
     </row>
     <row r="63" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="53" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F63" s="53">
         <v>36</v>
@@ -14231,7 +14240,7 @@
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="53">
@@ -14267,7 +14276,7 @@
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E65" s="53"/>
       <c r="F65" s="53">
@@ -14303,7 +14312,7 @@
     </row>
     <row r="66" spans="3:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F66" s="53">
         <v>39</v>
@@ -14338,7 +14347,7 @@
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E67" s="53"/>
       <c r="F67" s="53">
@@ -14374,7 +14383,7 @@
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F68" s="53">
         <v>41</v>
@@ -14409,7 +14418,7 @@
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F69" s="53">
         <v>42</v>
@@ -14444,7 +14453,7 @@
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F70" s="53">
         <v>43</v>
@@ -14479,7 +14488,7 @@
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F71" s="53">
         <v>44</v>
@@ -14514,7 +14523,7 @@
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F72" s="53">
         <v>45</v>
@@ -14549,7 +14558,7 @@
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F73" s="53">
         <v>46</v>
@@ -14584,7 +14593,7 @@
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F74" s="53">
         <v>47</v>
@@ -14619,7 +14628,7 @@
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F75" s="53">
         <v>48</v>
@@ -14654,7 +14663,7 @@
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F76" s="53">
         <v>49</v>
@@ -14689,7 +14698,7 @@
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F77" s="53">
         <v>50</v>
@@ -14724,7 +14733,7 @@
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F78" s="53">
         <v>51</v>
@@ -14759,7 +14768,7 @@
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F79" s="53">
         <v>52</v>
@@ -14794,7 +14803,7 @@
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F80" s="53">
         <v>53</v>
@@ -14829,7 +14838,7 @@
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F81" s="53">
         <v>54</v>
@@ -14864,7 +14873,7 @@
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F82" s="53">
         <v>55</v>
@@ -14899,7 +14908,7 @@
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F83" s="53">
         <v>56</v>
@@ -14934,7 +14943,7 @@
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F84" s="53">
         <v>57</v>
@@ -14969,7 +14978,7 @@
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F85" s="53">
         <v>58</v>
@@ -15004,7 +15013,7 @@
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F86" s="53">
         <v>59</v>
@@ -15039,7 +15048,7 @@
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F87" s="53">
         <v>60</v>
@@ -15074,7 +15083,7 @@
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F88" s="53">
         <v>61</v>
@@ -15109,7 +15118,7 @@
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F89" s="53">
         <v>62</v>
@@ -15144,7 +15153,7 @@
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F90" s="53">
         <v>63</v>
@@ -15179,7 +15188,7 @@
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F91" s="53">
         <v>64</v>
@@ -15214,7 +15223,7 @@
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F92" s="53">
         <v>65</v>
@@ -15249,7 +15258,7 @@
     </row>
     <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F93" s="53">
         <v>66</v>
@@ -15284,7 +15293,7 @@
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F94" s="53">
         <v>67</v>
@@ -15319,7 +15328,7 @@
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F95" s="53">
         <v>68</v>
@@ -15354,7 +15363,7 @@
     </row>
     <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F96" s="53">
         <v>69</v>
@@ -15389,7 +15398,7 @@
     </row>
     <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F97" s="53">
         <v>70</v>
@@ -15424,7 +15433,7 @@
     </row>
     <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F98" s="53">
         <v>71</v>
@@ -15459,7 +15468,7 @@
     </row>
     <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F99" s="53">
         <v>72</v>
@@ -15494,7 +15503,7 @@
     </row>
     <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F100" s="53">
         <v>73</v>
@@ -15529,7 +15538,7 @@
     </row>
     <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F101" s="53">
         <v>74</v>
@@ -15564,7 +15573,7 @@
     </row>
     <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F102" s="53">
         <v>75</v>
@@ -15599,7 +15608,7 @@
     </row>
     <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F103" s="53">
         <v>76</v>
@@ -15634,7 +15643,7 @@
     </row>
     <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F104" s="53">
         <v>77</v>
@@ -15669,7 +15678,7 @@
     </row>
     <row r="105" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F105" s="53">
         <v>78</v>
@@ -15704,7 +15713,7 @@
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F106" s="53">
         <v>79</v>
@@ -15739,7 +15748,7 @@
     </row>
     <row r="107" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F107" s="53">
         <v>80</v>
@@ -15774,7 +15783,7 @@
     </row>
     <row r="108" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F108" s="53">
         <v>81</v>
@@ -15809,7 +15818,7 @@
     </row>
     <row r="109" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F109" s="53">
         <v>82</v>
@@ -15844,7 +15853,7 @@
     </row>
     <row r="110" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F110" s="53">
         <v>83</v>
@@ -15879,7 +15888,7 @@
     </row>
     <row r="111" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F111" s="53">
         <v>84</v>
@@ -15914,217 +15923,217 @@
     </row>
     <row r="112" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F112" s="53"/>
       <c r="G112" s="53"/>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F113" s="53"/>
       <c r="G113" s="53"/>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F114" s="53"/>
       <c r="G114" s="53"/>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F115" s="53"/>
       <c r="G115" s="53"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F116" s="53"/>
       <c r="G116" s="53"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F117" s="53"/>
       <c r="G117" s="53"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F118" s="53"/>
       <c r="G118" s="53"/>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F119" s="53"/>
       <c r="G119" s="53"/>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F120" s="53"/>
       <c r="G120" s="53"/>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F121" s="53"/>
       <c r="G121" s="53"/>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F122" s="53"/>
       <c r="G122" s="53"/>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F123" s="53"/>
       <c r="G123" s="53"/>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F124" s="53"/>
       <c r="G124" s="53"/>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F125" s="53"/>
       <c r="G125" s="53"/>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F126" s="53"/>
       <c r="G126" s="53"/>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F127" s="53"/>
       <c r="G127" s="53"/>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F128" s="53"/>
       <c r="G128" s="53"/>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F129" s="53"/>
       <c r="G129" s="53"/>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F130" s="53"/>
       <c r="G130" s="53"/>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F131" s="53"/>
       <c r="G131" s="53"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F132" s="53"/>
       <c r="G132" s="53"/>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F133" s="53"/>
       <c r="G133" s="53"/>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F134" s="53"/>
       <c r="G134" s="53"/>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F135" s="53"/>
       <c r="G135" s="53"/>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F136" s="53"/>
       <c r="G136" s="53"/>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F137" s="53"/>
       <c r="G137" s="53"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F138" s="53"/>
       <c r="G138" s="53"/>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F139" s="53"/>
       <c r="G139" s="53"/>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F140" s="53"/>
       <c r="G140" s="53"/>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F141" s="53"/>
       <c r="G141" s="53"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F142" s="53"/>
       <c r="G142" s="53"/>
@@ -19028,7 +19037,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="92" t="s">
         <v>620</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -19050,7 +19059,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="25" t="s">
         <v>626</v>
       </c>
@@ -19068,7 +19077,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="32" t="s">
         <v>630</v>
       </c>
@@ -19090,7 +19099,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="92" t="s">
         <v>636</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -19108,7 +19117,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="25" t="s">
         <v>621</v>
       </c>
@@ -19124,7 +19133,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="98"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="33" t="s">
         <v>641</v>
       </c>
@@ -19138,7 +19147,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="25" t="s">
         <v>643</v>
       </c>
@@ -19160,7 +19169,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="25" t="s">
         <v>649</v>
       </c>
@@ -19178,7 +19187,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="25" t="s">
         <v>653</v>
       </c>
@@ -19196,7 +19205,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="25" t="s">
         <v>657</v>
       </c>
@@ -19218,7 +19227,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="95" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -19242,7 +19251,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="25" t="s">
         <v>669</v>
       </c>
@@ -19266,7 +19275,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="25" t="s">
         <v>643</v>
       </c>
@@ -19286,7 +19295,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="93" t="s">
         <v>680</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -19302,7 +19311,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="25" t="s">
         <v>683</v>
       </c>
@@ -19322,7 +19331,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="25" t="s">
         <v>688</v>
       </c>
@@ -19344,7 +19353,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="25" t="s">
         <v>653</v>
       </c>
@@ -19360,7 +19369,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="92" t="s">
         <v>696</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -19386,7 +19395,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="25" t="s">
         <v>704</v>
       </c>
@@ -19408,7 +19417,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="25" t="s">
         <v>709</v>
       </c>
@@ -19430,7 +19439,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="92" t="s">
         <v>714</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -19454,7 +19463,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="25" t="s">
         <v>721</v>
       </c>
@@ -19476,7 +19485,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="25" t="s">
         <v>725</v>
       </c>
@@ -19521,16 +19530,16 @@
       <c r="E30" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F30" s="100" t="s">
+      <c r="F30" s="96" t="s">
         <v>730</v>
       </c>
-      <c r="G30" s="100"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="95" t="s">
         <v>731</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -19552,7 +19561,7 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="101"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="25" t="s">
         <v>737</v>
       </c>
@@ -19572,7 +19581,7 @@
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="101"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="25" t="s">
         <v>741</v>
       </c>
@@ -19676,7 +19685,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="97" t="s">
         <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -19691,12 +19700,12 @@
       <c r="E38" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F38" s="95"/>
-      <c r="G38" s="96"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="25" t="s">
         <v>772</v>
       </c>
@@ -19712,7 +19721,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="25" t="s">
         <v>775</v>
       </c>
@@ -19728,7 +19737,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="25" t="s">
         <v>778</v>
       </c>
@@ -19744,7 +19753,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="94"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="25" t="s">
         <v>781</v>
       </c>
@@ -19761,12 +19770,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -19774,12 +19783,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19790,7 +19799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AT53"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
@@ -19837,114 +19846,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="100" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="96" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="96" t="s">
         <v>786</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="96" t="s">
         <v>787</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="96" t="s">
         <v>788</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="96" t="s">
         <v>789</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="96" t="s">
         <v>790</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="96" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="96" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100" t="s">
+      <c r="N4" s="96"/>
+      <c r="O4" s="96" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100" t="s">
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100" t="s">
+      <c r="R4" s="96"/>
+      <c r="S4" s="96" t="s">
         <v>535</v>
       </c>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100" t="s">
+      <c r="T4" s="96"/>
+      <c r="U4" s="96" t="s">
         <v>536</v>
       </c>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100" t="s">
+      <c r="V4" s="96"/>
+      <c r="W4" s="96" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100" t="s">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100" t="s">
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96" t="s">
         <v>539</v>
       </c>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100" t="s">
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96" t="s">
         <v>540</v>
       </c>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100" t="s">
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96" t="s">
         <v>541</v>
       </c>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100" t="s">
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96" t="s">
         <v>542</v>
       </c>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100" t="s">
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96" t="s">
         <v>543</v>
       </c>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100" t="s">
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="96" t="s">
         <v>544</v>
       </c>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100" t="s">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96" t="s">
         <v>792</v>
       </c>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100" t="s">
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96" t="s">
         <v>1107</v>
       </c>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100" t="s">
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="96" t="s">
         <v>1108</v>
       </c>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AT4" s="100"/>
+      <c r="AT4" s="96"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="28" t="s">
         <v>793</v>
       </c>
@@ -20055,14 +20064,14 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="103" t="s">
         <v>795</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="103" t="s">
         <v>796</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>797</v>
@@ -20131,7 +20140,7 @@
       </c>
       <c r="AL6" s="25"/>
       <c r="AM6" s="25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AN6" s="25"/>
       <c r="AO6" s="45">
@@ -20148,13 +20157,13 @@
       <c r="AT6" s="45"/>
     </row>
     <row r="7" spans="1:46" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="45" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>1104</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>1105</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -20220,7 +20229,7 @@
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AN7" s="45"/>
       <c r="AO7" s="45">
@@ -20237,13 +20246,13 @@
       <c r="AT7" s="45"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="25" t="s">
         <v>799</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>800</v>
@@ -20311,7 +20320,7 @@
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="40" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AN8" s="25"/>
       <c r="AO8" s="45">
@@ -20328,7 +20337,7 @@
       <c r="AT8" s="45"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="27" t="s">
         <v>802</v>
       </c>
@@ -20336,7 +20345,7 @@
         <v>799</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>803</v>
@@ -20807,7 +20816,7 @@
       <c r="AT17" s="45"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -20815,7 +20824,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -20879,7 +20888,7 @@
       </c>
       <c r="AL18" s="25"/>
       <c r="AM18" s="25" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="45">
@@ -20896,13 +20905,13 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="25" t="s">
         <v>814</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -20977,13 +20986,13 @@
       <c r="AT19" s="45"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="25" t="s">
         <v>815</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -21047,7 +21056,7 @@
       </c>
       <c r="AL20" s="25"/>
       <c r="AM20" s="25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="45"/>
@@ -21058,13 +21067,13 @@
       <c r="AT20" s="45"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="25" t="s">
         <v>816</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="56" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -21117,13 +21126,13 @@
       <c r="AT21" s="45"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="25" t="s">
         <v>817</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="56" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -21174,13 +21183,13 @@
       <c r="AT22" s="45"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="104"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="25" t="s">
         <v>818</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="56" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -21232,7 +21241,7 @@
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="91" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>821</v>
@@ -21332,7 +21341,7 @@
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="91" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>821</v>
@@ -21432,7 +21441,7 @@
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="91" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>821</v>
@@ -21630,7 +21639,7 @@
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="91" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>821</v>
@@ -21828,7 +21837,7 @@
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="91" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>821</v>
@@ -22124,7 +22133,7 @@
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B42" s="91" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>821</v>
@@ -22420,7 +22429,7 @@
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B48" s="91" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>821</v>
@@ -22716,6 +22725,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -22732,27 +22762,6 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22764,8 +22773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I50" sqref="F50:I51"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23089,7 +23098,7 @@
         <v>870</v>
       </c>
       <c r="I17" s="91" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L17" s="53"/>
     </row>
@@ -23208,7 +23217,7 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I23" s="91"/>
       <c r="L23" s="53"/>
@@ -23224,14 +23233,14 @@
         <v>10</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="I24" s="102" t="s">
-        <v>1012</v>
+      <c r="I24" s="103" t="s">
+        <v>1011</v>
       </c>
       <c r="L24" s="53"/>
     </row>
@@ -23246,13 +23255,13 @@
         <v>11</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="I25" s="103"/>
+      <c r="I25" s="104"/>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -23266,13 +23275,13 @@
         <v>11</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="I26" s="103"/>
+      <c r="I26" s="104"/>
       <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -23286,13 +23295,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="I27" s="103"/>
+      <c r="I27" s="104"/>
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -23306,13 +23315,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="I28" s="103"/>
+      <c r="I28" s="104"/>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -23326,13 +23335,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="I29" s="103"/>
+      <c r="I29" s="104"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
@@ -23345,13 +23354,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="I30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -23371,7 +23380,7 @@
         <v>905</v>
       </c>
       <c r="I31" s="91" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -23480,14 +23489,14 @@
         <v>16</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="25" t="s">
         <v>902</v>
       </c>
       <c r="I37" s="91" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -23501,11 +23510,11 @@
         <v>16</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I38" s="91"/>
     </row>
@@ -23516,12 +23525,12 @@
       <c r="B39" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="C39" s="95" t="s">
-        <v>1016</v>
+      <c r="C39" s="100" t="s">
+        <v>1015</v>
       </c>
       <c r="D39" s="106"/>
       <c r="E39" s="106"/>
-      <c r="F39" s="96"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -23534,7 +23543,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="25" t="s">
@@ -23553,7 +23562,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="29" t="s">
@@ -23572,11 +23581,11 @@
         <v>16</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="29" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I42" s="39"/>
     </row>
@@ -23591,11 +23600,11 @@
         <v>16</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I43" s="39"/>
     </row>
@@ -23610,7 +23619,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="29" t="s">
@@ -23629,11 +23638,11 @@
         <v>16</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="29" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I45" s="39"/>
     </row>
@@ -23642,7 +23651,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C46" s="29">
         <v>17</v>
@@ -23650,7 +23659,7 @@
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I46" s="39"/>
     </row>
@@ -23659,7 +23668,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C47" s="29">
         <v>17</v>
@@ -23667,7 +23676,7 @@
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I47" s="39"/>
     </row>
@@ -23676,7 +23685,7 @@
         <v>60</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C48" s="29">
         <v>18</v>
@@ -23684,7 +23693,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29" t="s">
-        <v>934</v>
+        <v>965</v>
       </c>
       <c r="I48" s="39"/>
     </row>
@@ -23693,7 +23702,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C49" s="29">
         <v>18</v>
@@ -23701,7 +23710,7 @@
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29" t="s">
-        <v>966</v>
+        <v>1518</v>
       </c>
       <c r="I49" s="39"/>
     </row>
@@ -23716,14 +23725,14 @@
         <v>18</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I50" s="102" t="s">
-        <v>1026</v>
+        <v>1000</v>
+      </c>
+      <c r="I50" s="103" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -23737,20 +23746,20 @@
         <v>20</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I51" s="104"/>
+        <v>1082</v>
+      </c>
+      <c r="I51" s="105"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>40</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C52" s="29">
         <v>20</v>
@@ -23764,7 +23773,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C53" s="29">
         <v>21</v>
@@ -23772,10 +23781,10 @@
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I53" s="91" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -23783,7 +23792,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C54" s="29">
         <v>21</v>
@@ -23791,7 +23800,7 @@
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I54" s="91"/>
     </row>
@@ -23800,7 +23809,7 @@
         <v>65</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C55" s="29">
         <v>21</v>
@@ -23808,7 +23817,7 @@
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I55" s="91"/>
     </row>
@@ -23817,7 +23826,7 @@
         <v>66</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C56" s="29">
         <v>22</v>
@@ -23825,7 +23834,7 @@
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I56" s="91"/>
     </row>
@@ -23834,7 +23843,7 @@
         <v>67</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C57" s="29">
         <v>22</v>
@@ -23842,7 +23851,7 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I57" s="91"/>
     </row>
@@ -23851,7 +23860,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C58" s="29">
         <v>22</v>
@@ -23859,7 +23868,7 @@
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I58" s="91"/>
     </row>
@@ -23868,7 +23877,7 @@
         <v>69</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C59" s="29">
         <v>22</v>
@@ -23876,7 +23885,7 @@
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I59" s="91"/>
     </row>
@@ -23885,7 +23894,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C60" s="29">
         <v>23</v>
@@ -23893,10 +23902,10 @@
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
       <c r="F60" s="29" t="s">
-        <v>960</v>
-      </c>
-      <c r="I60" s="92" t="s">
-        <v>1028</v>
+        <v>959</v>
+      </c>
+      <c r="I60" s="97" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -23904,7 +23913,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C61" s="29">
         <v>23</v>
@@ -23912,16 +23921,16 @@
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
       <c r="F61" s="29" t="s">
-        <v>948</v>
-      </c>
-      <c r="I61" s="93"/>
+        <v>947</v>
+      </c>
+      <c r="I61" s="98"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
         <v>51</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C62" s="29">
         <v>23</v>
@@ -23929,16 +23938,16 @@
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
       <c r="F62" s="29" t="s">
-        <v>949</v>
-      </c>
-      <c r="I62" s="93"/>
+        <v>948</v>
+      </c>
+      <c r="I62" s="98"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
         <v>52</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C63" s="29">
         <v>23</v>
@@ -23946,16 +23955,16 @@
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
       <c r="F63" s="29" t="s">
-        <v>950</v>
-      </c>
-      <c r="I63" s="93"/>
+        <v>949</v>
+      </c>
+      <c r="I63" s="98"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
         <v>53</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C64" s="29">
         <v>24</v>
@@ -23963,16 +23972,16 @@
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29" t="s">
-        <v>951</v>
-      </c>
-      <c r="I64" s="93"/>
+        <v>950</v>
+      </c>
+      <c r="I64" s="98"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
         <v>54</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C65" s="29">
         <v>24</v>
@@ -23980,16 +23989,16 @@
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
       <c r="F65" s="29" t="s">
-        <v>946</v>
-      </c>
-      <c r="I65" s="93"/>
+        <v>945</v>
+      </c>
+      <c r="I65" s="98"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
         <v>55</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C66" s="29">
         <v>24</v>
@@ -23997,16 +24006,16 @@
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29" t="s">
-        <v>988</v>
-      </c>
-      <c r="I66" s="93"/>
+        <v>987</v>
+      </c>
+      <c r="I66" s="98"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
         <v>56</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C67" s="29">
         <v>24</v>
@@ -24014,16 +24023,16 @@
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29" t="s">
-        <v>989</v>
-      </c>
-      <c r="I67" s="93"/>
+        <v>988</v>
+      </c>
+      <c r="I67" s="98"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>57</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C68" s="29">
         <v>25</v>
@@ -24031,16 +24040,16 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I68" s="94"/>
+        <v>1091</v>
+      </c>
+      <c r="I68" s="99"/>
     </row>
     <row r="69" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>58</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C69" s="29">
         <v>25</v>
@@ -24048,7 +24057,7 @@
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I69" s="39"/>
     </row>
@@ -24057,7 +24066,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C70" s="29">
         <v>26</v>
@@ -24065,7 +24074,7 @@
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
       <c r="F70" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I70" s="39"/>
     </row>
@@ -24074,7 +24083,7 @@
         <v>60</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C71" s="29">
         <v>26</v>
@@ -24082,7 +24091,7 @@
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I71" s="39"/>
     </row>
@@ -24091,7 +24100,7 @@
         <v>61</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C72" s="29">
         <v>27</v>
@@ -24099,10 +24108,10 @@
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
       <c r="F72" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I72" s="91" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -24110,7 +24119,7 @@
         <v>62</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C73" s="29">
         <v>27</v>
@@ -24118,7 +24127,7 @@
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
       <c r="F73" s="29" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I73" s="91"/>
     </row>
@@ -24127,7 +24136,7 @@
         <v>63</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C74" s="29">
         <v>27</v>
@@ -24135,7 +24144,7 @@
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
       <c r="F74" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I74" s="91"/>
     </row>
@@ -24144,7 +24153,7 @@
         <v>64</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C75" s="29">
         <v>27</v>
@@ -24152,7 +24161,7 @@
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
       <c r="F75" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I75" s="91"/>
     </row>
@@ -24161,7 +24170,7 @@
         <v>65</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C76" s="29">
         <v>27</v>
@@ -24169,7 +24178,7 @@
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="29" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I76" s="91"/>
     </row>
@@ -24178,7 +24187,7 @@
         <v>66</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C77" s="29">
         <v>27</v>
@@ -24186,7 +24195,7 @@
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
       <c r="F77" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I77" s="91"/>
     </row>
@@ -24195,7 +24204,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C78" s="29">
         <v>27</v>
@@ -24203,7 +24212,7 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I78" s="91"/>
     </row>
@@ -24212,7 +24221,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="107" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C79" s="108"/>
       <c r="D79" s="108"/>
@@ -24224,7 +24233,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C80" s="29">
         <v>30</v>
@@ -24238,7 +24247,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C81" s="29">
         <v>30</v>
@@ -24246,7 +24255,7 @@
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24254,7 +24263,7 @@
         <v>71</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C82" s="29">
         <v>30</v>
@@ -24262,7 +24271,7 @@
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24270,7 +24279,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C83" s="29">
         <v>31</v>
@@ -24278,7 +24287,7 @@
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24286,7 +24295,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C84" s="29">
         <v>31</v>
@@ -24294,7 +24303,7 @@
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I84" s="38"/>
     </row>
@@ -24303,7 +24312,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C85" s="29">
         <v>31</v>
@@ -24311,7 +24320,7 @@
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24319,7 +24328,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C86" s="29">
         <v>32</v>
@@ -24327,7 +24336,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="29" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24335,7 +24344,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -24347,7 +24356,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C88" s="29">
         <v>33</v>
@@ -24355,7 +24364,7 @@
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24363,7 +24372,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C89" s="29">
         <v>33</v>
@@ -24371,7 +24380,7 @@
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24379,7 +24388,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C90" s="29">
         <v>34</v>
@@ -24387,7 +24396,7 @@
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24395,7 +24404,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C91" s="52">
         <v>34</v>
@@ -24403,10 +24412,10 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I91" s="91" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24414,7 +24423,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C92" s="52">
         <v>35</v>
@@ -24422,7 +24431,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I92" s="91"/>
     </row>
@@ -24431,7 +24440,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C93" s="52">
         <v>35</v>
@@ -24439,7 +24448,7 @@
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I93" s="55"/>
     </row>
@@ -24448,7 +24457,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C94" s="52">
         <v>35</v>
@@ -24456,7 +24465,7 @@
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I94" s="55"/>
     </row>
@@ -24465,7 +24474,7 @@
         <v>84</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C95" s="52">
         <v>35</v>
@@ -24473,7 +24482,7 @@
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I95" s="55"/>
     </row>
@@ -24482,7 +24491,7 @@
         <v>85</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C96" s="52">
         <v>35</v>
@@ -24490,7 +24499,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I96" s="55"/>
     </row>
@@ -24499,7 +24508,7 @@
         <v>86</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C97" s="52">
         <v>35</v>
@@ -24507,7 +24516,7 @@
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
       <c r="F97" s="37" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I97" s="55"/>
     </row>
@@ -24516,7 +24525,7 @@
         <v>87</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C98" s="52">
         <v>35</v>
@@ -24524,7 +24533,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="37" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I98" s="55"/>
     </row>
@@ -24533,7 +24542,7 @@
         <v>88</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C99" s="52">
         <v>35</v>
@@ -24541,7 +24550,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="37" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I99" s="55"/>
     </row>
@@ -24550,7 +24559,7 @@
         <v>89</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C100" s="52">
         <v>35</v>
@@ -24558,13 +24567,13 @@
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="91" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B101" s="91"/>
       <c r="C101" s="91"/>
@@ -24573,7 +24582,7 @@
       <c r="F101" s="91"/>
       <c r="H101" s="31"/>
       <c r="I101" s="56" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -24581,13 +24590,13 @@
         <v>90</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -24597,13 +24606,13 @@
         <v>91</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="45" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24611,13 +24620,13 @@
         <v>92</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
       <c r="F104" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24625,13 +24634,13 @@
         <v>93</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
       <c r="F105" s="45" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24639,13 +24648,13 @@
         <v>94</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
       <c r="F106" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24653,13 +24662,13 @@
         <v>95</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="49" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24667,13 +24676,13 @@
         <v>96</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
       <c r="F108" s="49" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -24681,147 +24690,147 @@
         <v>97</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
       <c r="F109" s="52" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="95"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="96"/>
+      <c r="A110" s="113"/>
+      <c r="B110" s="114"/>
+      <c r="C110" s="114"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="114"/>
+      <c r="F110" s="115"/>
     </row>
     <row r="111" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="52" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
       <c r="F111" s="52" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I111" s="91" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="52" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
       <c r="F112" s="52" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I112" s="91"/>
     </row>
     <row r="113" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
       <c r="B113" s="52" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
       <c r="F113" s="52" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I113" s="91"/>
     </row>
     <row r="114" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
       <c r="B114" s="52" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
       <c r="F114" s="52" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I114" s="91"/>
     </row>
     <row r="115" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
       <c r="B115" s="52" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
       <c r="E115" s="52"/>
       <c r="F115" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I115" s="91"/>
     </row>
     <row r="116" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
       <c r="B116" s="52" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
       <c r="E116" s="52"/>
       <c r="F116" s="52" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I116" s="91"/>
     </row>
     <row r="117" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="52" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
       <c r="F117" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I117" s="91"/>
     </row>
     <row r="118" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="52" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
       <c r="E118" s="52"/>
       <c r="F118" s="52" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I118" s="91"/>
     </row>
     <row r="119" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="52"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
+      <c r="A119" s="113"/>
+      <c r="B119" s="114"/>
+      <c r="C119" s="114"/>
+      <c r="D119" s="114"/>
+      <c r="E119" s="114"/>
+      <c r="F119" s="115"/>
     </row>
     <row r="120" spans="1:10" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="52" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
       <c r="E120" s="52"/>
       <c r="F120" s="52" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H120" s="53"/>
       <c r="I120" s="53"/>
@@ -24830,13 +24839,13 @@
     <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="52" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
       <c r="F121" s="52" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H121" s="53"/>
       <c r="I121" s="53"/>
@@ -24845,13 +24854,13 @@
     <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="52" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
       <c r="F122" s="52" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H122" s="53"/>
       <c r="I122" s="53"/>
@@ -24860,13 +24869,13 @@
     <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="52" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
       <c r="F123" s="52" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H123" s="53"/>
       <c r="I123" s="53"/>
@@ -24875,13 +24884,13 @@
     <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="52" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
       <c r="E124" s="52"/>
       <c r="F124" s="52" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H124" s="53"/>
       <c r="I124" s="53"/>
@@ -24890,13 +24899,13 @@
     <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="52" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H125" s="53"/>
       <c r="I125" s="53"/>
@@ -24905,13 +24914,13 @@
     <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="52" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
       <c r="E126" s="52"/>
       <c r="F126" s="52" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H126" s="53"/>
       <c r="I126" s="53"/>
@@ -24928,7 +24937,7 @@
     <row r="128" spans="1:10" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="56"/>
       <c r="B128" s="56" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C128" s="56"/>
       <c r="D128" s="56"/>
@@ -24938,7 +24947,7 @@
     <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="52"/>
       <c r="B129" s="52" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C129" s="52"/>
       <c r="D129" s="52"/>
@@ -24951,7 +24960,7 @@
     <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="52"/>
       <c r="B130" s="52" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C130" s="52"/>
       <c r="D130" s="52"/>
@@ -24964,7 +24973,7 @@
     <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="52"/>
       <c r="B131" s="52" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>
@@ -24977,7 +24986,7 @@
     <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="52"/>
       <c r="B132" s="52" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C132" s="52"/>
       <c r="D132" s="52"/>
@@ -24990,7 +24999,7 @@
     <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="52"/>
       <c r="B133" s="52" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C133" s="52"/>
       <c r="D133" s="52"/>
@@ -25003,7 +25012,7 @@
     <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="52"/>
       <c r="B134" s="52" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="52"/>
@@ -25016,7 +25025,7 @@
     <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="52"/>
       <c r="B135" s="52" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C135" s="52"/>
       <c r="D135" s="52"/>
@@ -25029,7 +25038,7 @@
     <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="52"/>
       <c r="B136" s="52" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C136" s="52"/>
       <c r="D136" s="52"/>
@@ -25045,12 +25054,7 @@
       <c r="J137" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="I72:I78"/>
-    <mergeCell ref="I111:I118"/>
+  <mergeCells count="13">
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="I60:I68"/>
@@ -25060,6 +25064,10 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="C39:F39"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="I72:I78"/>
+    <mergeCell ref="I111:I118"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25130,39 +25138,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
-        <v>1070</v>
+      <c r="A2" s="96" t="s">
+        <v>1069</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C2" s="111"/>
       <c r="D2" s="111" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E2" s="112"/>
       <c r="F2" s="110" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G2" s="111"/>
       <c r="H2" s="110" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I2" s="111"/>
       <c r="J2" s="110" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K2" s="111"/>
       <c r="L2" s="110" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M2" s="111"/>
       <c r="N2" s="110" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="O2" s="111"/>
       <c r="P2" s="110" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Q2" s="111"/>
       <c r="R2" s="111"/>
@@ -25172,69 +25180,69 @@
       <c r="V2" s="112"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="D3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="F3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="H3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="J3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="K3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="L3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="M3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="N3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="O3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="P3" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>1182</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>1068</v>
       </c>
-      <c r="Q3" s="50" t="s">
-        <v>1183</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>1069</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="T3" s="46" t="s">
+        <v>1126</v>
+      </c>
+      <c r="U3" s="46" t="s">
         <v>1127</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="V3" s="46" t="s">
         <v>1128</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -25242,28 +25250,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>1071</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>1072</v>
-      </c>
       <c r="D4" s="49" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>1079</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>1080</v>
-      </c>
       <c r="F4" s="49" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>1096</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="I4" s="49" t="s">
         <v>1097</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>1098</v>
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -25278,15 +25286,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="S4" s="49"/>
       <c r="T4" s="45"/>
       <c r="U4" s="49" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25294,28 +25302,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F5" s="49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G5" s="49" t="s">
         <v>1094</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1095</v>
-      </c>
       <c r="H5" s="49" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>1099</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>1100</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
@@ -25330,15 +25338,15 @@
         <v>35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="45"/>
       <c r="U5" s="49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25346,16 +25354,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -25374,15 +25382,15 @@
         <v>35</v>
       </c>
       <c r="R6" s="42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="45"/>
       <c r="U6" s="49" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25390,16 +25398,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>1090</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>1091</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
@@ -25418,15 +25426,15 @@
         <v>35</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="45"/>
       <c r="U7" s="49" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -25454,15 +25462,15 @@
         <v>40</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="S8" s="49"/>
       <c r="T8" s="45"/>
       <c r="U8" s="49" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -25490,15 +25498,15 @@
         <v>40</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25526,15 +25534,15 @@
         <v>40</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="49" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25562,15 +25570,15 @@
         <v>40</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
       <c r="U11" s="49" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25598,15 +25606,15 @@
         <v>40</v>
       </c>
       <c r="R12" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="45"/>
       <c r="U12" s="49" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25634,15 +25642,15 @@
         <v>50</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="S13" s="49"/>
       <c r="T13" s="45"/>
       <c r="U13" s="49" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -25670,15 +25678,15 @@
         <v>50</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="45"/>
       <c r="U14" s="49" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -25706,15 +25714,15 @@
         <v>50</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="S15" s="49"/>
       <c r="T15" s="45"/>
       <c r="U15" s="49" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -25742,15 +25750,15 @@
         <v>50</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="S16" s="49"/>
       <c r="T16" s="45"/>
       <c r="U16" s="49" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25778,15 +25786,15 @@
         <v>50</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="S17" s="49"/>
       <c r="T17" s="45"/>
       <c r="U17" s="49" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25814,15 +25822,15 @@
         <v>55</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="S18" s="49"/>
       <c r="T18" s="45"/>
       <c r="U18" s="49" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25850,15 +25858,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="S19" s="49"/>
       <c r="T19" s="45"/>
       <c r="U19" s="49" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25886,15 +25894,15 @@
         <v>55</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="45"/>
       <c r="U20" s="49" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25922,15 +25930,15 @@
         <v>55</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="45"/>
       <c r="U21" s="49" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25958,15 +25966,15 @@
         <v>60</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="45"/>
       <c r="U22" s="49" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25994,15 +26002,15 @@
         <v>60</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="S23" s="49"/>
       <c r="T23" s="45"/>
       <c r="U23" s="49" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26030,15 +26038,15 @@
         <v>60</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="45"/>
       <c r="U24" s="49" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26066,15 +26074,15 @@
         <v>70</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="S25" s="49"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26102,15 +26110,15 @@
         <v>70</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="S26" s="49"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26138,15 +26146,15 @@
         <v>70</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="S27" s="49"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26174,15 +26182,15 @@
         <v>80</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="S28" s="49"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26210,15 +26218,15 @@
         <v>80</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="S29" s="49"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26246,15 +26254,15 @@
         <v>80</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26282,15 +26290,15 @@
         <v>80</v>
       </c>
       <c r="R31" s="49" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="S31" s="49"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V31" s="49" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1274">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -4726,19 +4726,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>再进行一次召唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1-5关</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>兑换一次插槽技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4747,24 +4739,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>进行一次召唤，配给夏铃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次召唤，又掉出塞伯罗斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用塞伯罗斯碎片兑换一个插槽技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-4，体验正常的战斗，回合数稍长。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再进行一次召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>黑尔坎普(塞伯罗斯)
 南御夫(噬日)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行一次召唤，配给夏铃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行一次召唤，又掉出塞伯罗斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用塞伯罗斯碎片兑换一个插槽技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-4，体验正常的战斗，回合数稍长。</t>
+    <t>通关1-5，感受追击技能带来的回合数提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-5，实战感受插槽技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5601,20 +5625,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="4" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5661,6 +5673,21 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5676,17 +5703,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5697,20 +5730,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5721,8 +5748,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="25" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5741,30 +5789,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="4" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="25" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -6176,12 +6200,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6190,10 +6214,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="76" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6204,26 +6228,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6232,10 +6256,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6244,147 +6268,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="69"/>
+      <c r="E8" s="85"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6397,16 +6425,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -7408,14 +7432,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -9436,29 +9460,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:24" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>968</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="F3" s="88" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="F3" s="89" t="s">
         <v>1077</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
       <c r="V3" s="56"/>
       <c r="W3" s="56"/>
       <c r="X3" s="56"/>
@@ -14034,20 +14058,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="G2" s="88" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="G2" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -14080,13 +14104,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="91" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="92" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -14125,8 +14149,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="O4" s="92"/>
+      <c r="M4" s="91"/>
+      <c r="O4" s="93"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -14193,13 +14217,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="90" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="89" t="s">
+      <c r="O6" s="90" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -14238,8 +14262,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="89"/>
-      <c r="O7" s="89"/>
+      <c r="M7" s="90"/>
+      <c r="O7" s="90"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -14835,15 +14859,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14873,7 +14897,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="94" t="s">
         <v>381</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -14895,7 +14919,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="24" t="s">
         <v>387</v>
       </c>
@@ -14913,7 +14937,7 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="31" t="s">
         <v>391</v>
       </c>
@@ -14935,7 +14959,7 @@
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="94" t="s">
         <v>397</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -14953,7 +14977,7 @@
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="24" t="s">
         <v>382</v>
       </c>
@@ -14969,7 +14993,7 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="32" t="s">
         <v>402</v>
       </c>
@@ -14983,7 +15007,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="24" t="s">
         <v>404</v>
       </c>
@@ -15005,7 +15029,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="24" t="s">
         <v>410</v>
       </c>
@@ -15023,7 +15047,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="24" t="s">
         <v>414</v>
       </c>
@@ -15041,7 +15065,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="24" t="s">
         <v>418</v>
       </c>
@@ -15063,7 +15087,7 @@
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="97" t="s">
         <v>424</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -15087,7 +15111,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="24" t="s">
         <v>430</v>
       </c>
@@ -15111,7 +15135,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="24" t="s">
         <v>404</v>
       </c>
@@ -15131,7 +15155,7 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="95" t="s">
         <v>441</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -15147,7 +15171,7 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="101"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="24" t="s">
         <v>444</v>
       </c>
@@ -15167,7 +15191,7 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="101"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="24" t="s">
         <v>449</v>
       </c>
@@ -15189,7 +15213,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="101"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="24" t="s">
         <v>414</v>
       </c>
@@ -15205,7 +15229,7 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="94" t="s">
         <v>457</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -15231,7 +15255,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="24" t="s">
         <v>465</v>
       </c>
@@ -15253,7 +15277,7 @@
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="24" t="s">
         <v>470</v>
       </c>
@@ -15275,7 +15299,7 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="94" t="s">
         <v>475</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -15299,7 +15323,7 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="101"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="24" t="s">
         <v>482</v>
       </c>
@@ -15321,7 +15345,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="24" t="s">
         <v>486</v>
       </c>
@@ -15339,15 +15363,15 @@
       <c r="H26" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="89" t="s">
         <v>490</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -15366,16 +15390,16 @@
       <c r="E30" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F30" s="98" t="s">
         <v>491</v>
       </c>
-      <c r="G30" s="103"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="97" t="s">
         <v>492</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -15390,14 +15414,14 @@
       <c r="E31" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="99" t="s">
         <v>497</v>
       </c>
-      <c r="G31" s="93"/>
+      <c r="G31" s="99"/>
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="24" t="s">
         <v>498</v>
       </c>
@@ -15410,14 +15434,14 @@
       <c r="E32" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="G32" s="93"/>
+      <c r="G32" s="99"/>
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="24" t="s">
         <v>502</v>
       </c>
@@ -15430,10 +15454,10 @@
       <c r="E33" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="99" t="s">
         <v>505</v>
       </c>
-      <c r="G33" s="93"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15452,10 +15476,10 @@
       <c r="E34" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="99" t="s">
         <v>511</v>
       </c>
-      <c r="G34" s="93"/>
+      <c r="G34" s="99"/>
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15472,10 +15496,10 @@
       <c r="E35" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="99" t="s">
         <v>516</v>
       </c>
-      <c r="G35" s="93"/>
+      <c r="G35" s="99"/>
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15490,10 +15514,10 @@
       <c r="E36" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="F36" s="93" t="s">
+      <c r="F36" s="99" t="s">
         <v>520</v>
       </c>
-      <c r="G36" s="93"/>
+      <c r="G36" s="99"/>
       <c r="H36" s="24" t="s">
         <v>521</v>
       </c>
@@ -15512,16 +15536,16 @@
       <c r="E37" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="99" t="s">
         <v>526</v>
       </c>
-      <c r="G37" s="93"/>
+      <c r="G37" s="99"/>
       <c r="H37" s="24" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="100" t="s">
         <v>528</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -15536,12 +15560,12 @@
       <c r="E38" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="96"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="104"/>
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="98"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="24" t="s">
         <v>533</v>
       </c>
@@ -15557,7 +15581,7 @@
       <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="98"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="24" t="s">
         <v>536</v>
       </c>
@@ -15573,7 +15597,7 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="24" t="s">
         <v>539</v>
       </c>
@@ -15589,7 +15613,7 @@
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="24" t="s">
         <v>542</v>
       </c>
@@ -15606,12 +15630,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -15619,12 +15643,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15682,114 +15706,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="103" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="98" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
         <v>546</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="98" t="s">
         <v>547</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="J4" s="103" t="s">
+      <c r="J4" s="98" t="s">
         <v>551</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="98" t="s">
         <v>552</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103" t="s">
+      <c r="N4" s="98"/>
+      <c r="O4" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103" t="s">
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98" t="s">
         <v>357</v>
       </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103" t="s">
+      <c r="R4" s="98"/>
+      <c r="S4" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103" t="s">
+      <c r="T4" s="98"/>
+      <c r="U4" s="98" t="s">
         <v>359</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103" t="s">
+      <c r="V4" s="98"/>
+      <c r="W4" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103" t="s">
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103" t="s">
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103" t="s">
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103" t="s">
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103" t="s">
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103" t="s">
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103" t="s">
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103" t="s">
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98" t="s">
         <v>553</v>
       </c>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103" t="s">
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98" t="s">
         <v>833</v>
       </c>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103" t="s">
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98" t="s">
         <v>834</v>
       </c>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103" t="s">
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98" t="s">
         <v>835</v>
       </c>
-      <c r="AT4" s="103"/>
+      <c r="AT4" s="98"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="27" t="s">
         <v>554</v>
       </c>
@@ -15900,10 +15924,10 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="106" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="106" t="s">
         <v>557</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -15993,8 +16017,8 @@
       <c r="AT6" s="44"/>
     </row>
     <row r="7" spans="1:46" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="44" t="s">
         <v>830</v>
       </c>
@@ -16082,8 +16106,8 @@
       <c r="AT7" s="44"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="24" t="s">
         <v>560</v>
       </c>
@@ -16173,7 +16197,7 @@
       <c r="AT8" s="44"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="107"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="26" t="s">
         <v>563</v>
       </c>
@@ -16258,7 +16282,7 @@
       <c r="AT9" s="44"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="99" t="s">
         <v>566</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -16309,7 +16333,7 @@
       <c r="AT10" s="44"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="93"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="24" t="s">
         <v>568</v>
       </c>
@@ -16358,7 +16382,7 @@
       <c r="AT11" s="44"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="24" t="s">
         <v>569</v>
       </c>
@@ -16407,7 +16431,7 @@
       <c r="AT12" s="44"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="93"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="24" t="s">
         <v>570</v>
       </c>
@@ -16456,7 +16480,7 @@
       <c r="AT13" s="44"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="93"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="24" t="s">
         <v>571</v>
       </c>
@@ -16505,7 +16529,7 @@
       <c r="AT14" s="44"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="93"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="24" t="s">
         <v>572</v>
       </c>
@@ -16652,7 +16676,7 @@
       <c r="AT17" s="44"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="106" t="s">
         <v>573</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -16741,7 +16765,7 @@
       <c r="AT18" s="44"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="24" t="s">
         <v>575</v>
       </c>
@@ -16822,7 +16846,7 @@
       <c r="AT19" s="44"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="24" t="s">
         <v>576</v>
       </c>
@@ -16903,7 +16927,7 @@
       <c r="AT20" s="44"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="24" t="s">
         <v>577</v>
       </c>
@@ -16962,7 +16986,7 @@
       <c r="AT21" s="44"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="24" t="s">
         <v>578</v>
       </c>
@@ -17019,7 +17043,7 @@
       <c r="AT22" s="44"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="107"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="24" t="s">
         <v>579</v>
       </c>
@@ -17076,7 +17100,7 @@
       <c r="AT23" s="44"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="99" t="s">
         <v>836</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -17127,7 +17151,7 @@
       <c r="AT24" s="44"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="93"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="24" t="s">
         <v>583</v>
       </c>
@@ -17176,7 +17200,7 @@
       <c r="AT25" s="44"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="99" t="s">
         <v>837</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -17227,7 +17251,7 @@
       <c r="AT26" s="44"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="93"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="24" t="s">
         <v>583</v>
       </c>
@@ -17276,7 +17300,7 @@
       <c r="AT27" s="44"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="99" t="s">
         <v>838</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -17327,7 +17351,7 @@
       <c r="AT28" s="44"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="93"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="24" t="s">
         <v>583</v>
       </c>
@@ -17376,7 +17400,7 @@
       <c r="AT29" s="44"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="93"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="24" t="s">
         <v>368</v>
       </c>
@@ -17425,7 +17449,7 @@
       <c r="AT30" s="44"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="93"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="24" t="s">
         <v>369</v>
       </c>
@@ -17474,7 +17498,7 @@
       <c r="AT31" s="44"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="99" t="s">
         <v>839</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -17525,7 +17549,7 @@
       <c r="AT32" s="44"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="93"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="24" t="s">
         <v>583</v>
       </c>
@@ -17574,7 +17598,7 @@
       <c r="AT33" s="44"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="93"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="24" t="s">
         <v>368</v>
       </c>
@@ -17623,7 +17647,7 @@
       <c r="AT34" s="44"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="93"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="24" t="s">
         <v>369</v>
       </c>
@@ -17672,7 +17696,7 @@
       <c r="AT35" s="44"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="99" t="s">
         <v>840</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -17723,7 +17747,7 @@
       <c r="AT36" s="44"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="93"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="24" t="s">
         <v>583</v>
       </c>
@@ -17772,7 +17796,7 @@
       <c r="AT37" s="44"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="93"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="24" t="s">
         <v>368</v>
       </c>
@@ -17821,7 +17845,7 @@
       <c r="AT38" s="44"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="93"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="24" t="s">
         <v>369</v>
       </c>
@@ -17870,7 +17894,7 @@
       <c r="AT39" s="44"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="93"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="24" t="s">
         <v>370</v>
       </c>
@@ -17919,7 +17943,7 @@
       <c r="AT40" s="44"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="93"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="24" t="s">
         <v>371</v>
       </c>
@@ -17968,7 +17992,7 @@
       <c r="AT41" s="44"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="99" t="s">
         <v>841</v>
       </c>
       <c r="C42" s="24" t="s">
@@ -18019,7 +18043,7 @@
       <c r="AT42" s="44"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="93"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="24" t="s">
         <v>583</v>
       </c>
@@ -18068,7 +18092,7 @@
       <c r="AT43" s="44"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="93"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="24" t="s">
         <v>368</v>
       </c>
@@ -18117,7 +18141,7 @@
       <c r="AT44" s="44"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="93"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="24" t="s">
         <v>369</v>
       </c>
@@ -18166,7 +18190,7 @@
       <c r="AT45" s="44"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="93"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="24" t="s">
         <v>370</v>
       </c>
@@ -18215,7 +18239,7 @@
       <c r="AT46" s="44"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="93"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="24" t="s">
         <v>371</v>
       </c>
@@ -18264,7 +18288,7 @@
       <c r="AT47" s="44"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="99" t="s">
         <v>842</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -18315,7 +18339,7 @@
       <c r="AT48" s="44"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="93"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="24" t="s">
         <v>583</v>
       </c>
@@ -18364,7 +18388,7 @@
       <c r="AT49" s="44"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="93"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="24" t="s">
         <v>368</v>
       </c>
@@ -18413,7 +18437,7 @@
       <c r="AT50" s="44"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="93"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="24" t="s">
         <v>369</v>
       </c>
@@ -18462,7 +18486,7 @@
       <c r="AT51" s="44"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="93"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="24" t="s">
         <v>370</v>
       </c>
@@ -18511,7 +18535,7 @@
       <c r="AT52" s="44"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="93"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="24" t="s">
         <v>371</v>
       </c>
@@ -18561,6 +18585,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
@@ -18577,27 +18622,6 @@
     <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18610,7 +18634,7 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18658,13 +18682,13 @@
         <v>590</v>
       </c>
       <c r="C2" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>591</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="68" t="s">
         <v>1251</v>
       </c>
       <c r="G2" s="24" t="s">
@@ -18685,7 +18709,7 @@
         <v>593</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="68" t="s">
         <v>1252</v>
       </c>
       <c r="G3" s="24" t="s">
@@ -18700,14 +18724,14 @@
         <v>1248</v>
       </c>
       <c r="C4" s="24">
-        <v>3</v>
-      </c>
-      <c r="D4" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>1253</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="120" t="s">
-        <v>1254</v>
+      <c r="F4" s="114" t="s">
+        <v>1270</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>1249</v>
@@ -18717,11 +18741,15 @@
       <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="67" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C5" s="67">
+        <v>3</v>
+      </c>
+      <c r="D5" s="113"/>
       <c r="E5" s="67"/>
-      <c r="F5" s="121"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="67" t="s">
         <v>1255</v>
       </c>
@@ -18736,15 +18764,15 @@
       <c r="C6" s="24">
         <v>3</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="106" t="s">
         <v>1257</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="116" t="s">
-        <v>1262</v>
+      <c r="F6" s="109" t="s">
+        <v>1260</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18757,11 +18785,11 @@
       <c r="C7" s="67">
         <v>3</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="117"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="24" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18769,20 +18797,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C8" s="24">
+        <v>3</v>
+      </c>
+      <c r="D8" s="97" t="s">
         <v>1258</v>
       </c>
-      <c r="C8" s="24">
-        <v>4</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>1259</v>
-      </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="116" t="s">
-        <v>1263</v>
+      <c r="F8" s="109" t="s">
+        <v>1254</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18790,16 +18818,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C9" s="24">
         <v>4</v>
       </c>
-      <c r="D9" s="104"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="122"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="24" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18807,26 +18835,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="C10" s="67">
         <v>4</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="111"/>
+      <c r="G10" s="24" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.2">
       <c r="A11" s="67">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C11" s="24">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>1269</v>
+      </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="68" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>1273</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="67">
@@ -18966,7 +19006,7 @@
       <c r="G24" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="J24" s="93" t="s">
+      <c r="J24" s="99" t="s">
         <v>964</v>
       </c>
       <c r="M24" s="52"/>
@@ -18989,7 +19029,7 @@
       <c r="G25" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="J25" s="93"/>
+      <c r="J25" s="99"/>
       <c r="M25" s="52"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19010,7 +19050,7 @@
       <c r="G26" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="J26" s="93"/>
+      <c r="J26" s="99"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19031,7 +19071,7 @@
       <c r="G27" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="J27" s="93"/>
+      <c r="J27" s="99"/>
       <c r="M27" s="52"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19052,7 +19092,7 @@
       <c r="G28" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="J28" s="93"/>
+      <c r="J28" s="99"/>
       <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19073,7 +19113,7 @@
       <c r="G29" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="J29" s="93"/>
+      <c r="J29" s="99"/>
       <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19094,7 +19134,7 @@
       <c r="G30" s="24" t="s">
         <v>807</v>
       </c>
-      <c r="J30" s="93"/>
+      <c r="J30" s="99"/>
       <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19115,7 +19155,7 @@
       <c r="G31" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="J31" s="105" t="s">
+      <c r="J31" s="106" t="s">
         <v>738</v>
       </c>
       <c r="M31" s="52"/>
@@ -19138,7 +19178,7 @@
       <c r="G32" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J32" s="106"/>
+      <c r="J32" s="107"/>
       <c r="M32" s="52"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19159,7 +19199,7 @@
       <c r="G33" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="J33" s="106"/>
+      <c r="J33" s="107"/>
       <c r="M33" s="52"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19180,7 +19220,7 @@
       <c r="G34" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="J34" s="106"/>
+      <c r="J34" s="107"/>
       <c r="M34" s="52"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19201,7 +19241,7 @@
       <c r="G35" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="J35" s="106"/>
+      <c r="J35" s="107"/>
       <c r="M35" s="52"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -19222,7 +19262,7 @@
       <c r="G36" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="J36" s="106"/>
+      <c r="J36" s="107"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
@@ -19242,7 +19282,7 @@
       <c r="G37" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="J37" s="107"/>
+      <c r="J37" s="108"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
@@ -19262,7 +19302,7 @@
       <c r="G38" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="J38" s="93" t="s">
+      <c r="J38" s="99" t="s">
         <v>740</v>
       </c>
     </row>
@@ -19284,7 +19324,7 @@
       <c r="G39" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="J39" s="93"/>
+      <c r="J39" s="99"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
@@ -19304,7 +19344,7 @@
       <c r="G40" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="J40" s="93"/>
+      <c r="J40" s="99"/>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
@@ -19324,7 +19364,7 @@
       <c r="G41" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="J41" s="93"/>
+      <c r="J41" s="99"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
@@ -19344,7 +19384,7 @@
       <c r="G42" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="J42" s="93"/>
+      <c r="J42" s="99"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
@@ -19364,7 +19404,7 @@
       <c r="G43" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="J43" s="93"/>
+      <c r="J43" s="99"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="24">
@@ -19384,7 +19424,7 @@
       <c r="G44" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="J44" s="93" t="s">
+      <c r="J44" s="99" t="s">
         <v>739</v>
       </c>
     </row>
@@ -19406,7 +19446,7 @@
       <c r="G45" s="24" t="s">
         <v>802</v>
       </c>
-      <c r="J45" s="93"/>
+      <c r="J45" s="99"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="24">
@@ -19415,13 +19455,13 @@
       <c r="B46" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="C46" s="94" t="s">
+      <c r="C46" s="103" t="s">
         <v>742</v>
       </c>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="96"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="104"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24">
@@ -19633,7 +19673,7 @@
       <c r="G57" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="J57" s="105" t="s">
+      <c r="J57" s="106" t="s">
         <v>752</v>
       </c>
     </row>
@@ -19655,7 +19695,7 @@
       <c r="G58" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="J58" s="107"/>
+      <c r="J58" s="108"/>
     </row>
     <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="24">
@@ -19688,7 +19728,7 @@
       <c r="G60" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="J60" s="93" t="s">
+      <c r="J60" s="99" t="s">
         <v>753</v>
       </c>
     </row>
@@ -19708,7 +19748,7 @@
       <c r="G61" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="J61" s="93"/>
+      <c r="J61" s="99"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="28">
@@ -19726,7 +19766,7 @@
       <c r="G62" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="J62" s="93"/>
+      <c r="J62" s="99"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="28">
@@ -19744,7 +19784,7 @@
       <c r="G63" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="J63" s="93"/>
+      <c r="J63" s="99"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="28">
@@ -19762,7 +19802,7 @@
       <c r="G64" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="J64" s="93"/>
+      <c r="J64" s="99"/>
     </row>
     <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="28">
@@ -19780,7 +19820,7 @@
       <c r="G65" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="J65" s="93"/>
+      <c r="J65" s="99"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="28">
@@ -19798,7 +19838,7 @@
       <c r="G66" s="28" t="s">
         <v>733</v>
       </c>
-      <c r="J66" s="93"/>
+      <c r="J66" s="99"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28">
@@ -19816,7 +19856,7 @@
       <c r="G67" s="28" t="s">
         <v>686</v>
       </c>
-      <c r="J67" s="97" t="s">
+      <c r="J67" s="100" t="s">
         <v>754</v>
       </c>
     </row>
@@ -19836,7 +19876,7 @@
       <c r="G68" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="J68" s="98"/>
+      <c r="J68" s="101"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="28">
@@ -19854,7 +19894,7 @@
       <c r="G69" s="28" t="s">
         <v>675</v>
       </c>
-      <c r="J69" s="98"/>
+      <c r="J69" s="101"/>
     </row>
     <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="28">
@@ -19872,7 +19912,7 @@
       <c r="G70" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="J70" s="98"/>
+      <c r="J70" s="101"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="28">
@@ -19890,7 +19930,7 @@
       <c r="G71" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="J71" s="98"/>
+      <c r="J71" s="101"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="28">
@@ -19908,7 +19948,7 @@
       <c r="G72" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="J72" s="98"/>
+      <c r="J72" s="101"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="28">
@@ -19926,7 +19966,7 @@
       <c r="G73" s="28" t="s">
         <v>714</v>
       </c>
-      <c r="J73" s="98"/>
+      <c r="J73" s="101"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="28">
@@ -19944,7 +19984,7 @@
       <c r="G74" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J74" s="98"/>
+      <c r="J74" s="101"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="28">
@@ -19962,7 +20002,7 @@
       <c r="G75" s="28" t="s">
         <v>818</v>
       </c>
-      <c r="J75" s="99"/>
+      <c r="J75" s="102"/>
     </row>
     <row r="76" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="28">
@@ -20034,7 +20074,7 @@
       <c r="G79" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="J79" s="93" t="s">
+      <c r="J79" s="99" t="s">
         <v>932</v>
       </c>
     </row>
@@ -20054,7 +20094,7 @@
       <c r="G80" s="28" t="s">
         <v>734</v>
       </c>
-      <c r="J80" s="93"/>
+      <c r="J80" s="99"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="28">
@@ -20072,7 +20112,7 @@
       <c r="G81" s="28" t="s">
         <v>712</v>
       </c>
-      <c r="J81" s="93"/>
+      <c r="J81" s="99"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
@@ -20090,7 +20130,7 @@
       <c r="G82" s="28" t="s">
         <v>713</v>
       </c>
-      <c r="J82" s="93"/>
+      <c r="J82" s="99"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
@@ -20108,7 +20148,7 @@
       <c r="G83" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="J83" s="93"/>
+      <c r="J83" s="99"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
@@ -20126,7 +20166,7 @@
       <c r="G84" s="28" t="s">
         <v>711</v>
       </c>
-      <c r="J84" s="93"/>
+      <c r="J84" s="99"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
@@ -20144,20 +20184,20 @@
       <c r="G85" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="J85" s="93"/>
+      <c r="J85" s="99"/>
     </row>
     <row r="86" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
         <v>68</v>
       </c>
-      <c r="B86" s="109" t="s">
+      <c r="B86" s="117" t="s">
         <v>779</v>
       </c>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="111"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="119"/>
     </row>
     <row r="87" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="28">
@@ -20357,7 +20397,7 @@
       <c r="G98" s="28" t="s">
         <v>767</v>
       </c>
-      <c r="J98" s="93" t="s">
+      <c r="J98" s="99" t="s">
         <v>953</v>
       </c>
     </row>
@@ -20377,7 +20417,7 @@
       <c r="G99" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="J99" s="93"/>
+      <c r="J99" s="99"/>
     </row>
     <row r="100" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="39">
@@ -20524,15 +20564,15 @@
       <c r="J107" s="54"/>
     </row>
     <row r="108" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="93" t="s">
+      <c r="A108" s="99" t="s">
         <v>967</v>
       </c>
-      <c r="B108" s="93"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="93"/>
-      <c r="E108" s="93"/>
-      <c r="F108" s="93"/>
-      <c r="G108" s="93"/>
+      <c r="B108" s="99"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
       <c r="I108" s="30"/>
       <c r="J108" s="55" t="s">
         <v>955</v>
@@ -20681,7 +20721,7 @@
       <c r="G118" s="51" t="s">
         <v>945</v>
       </c>
-      <c r="J118" s="93" t="s">
+      <c r="J118" s="99" t="s">
         <v>954</v>
       </c>
     </row>
@@ -20697,7 +20737,7 @@
       <c r="G119" s="51" t="s">
         <v>946</v>
       </c>
-      <c r="J119" s="93"/>
+      <c r="J119" s="99"/>
     </row>
     <row r="120" spans="1:11" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="51"/>
@@ -20711,7 +20751,7 @@
       <c r="G120" s="51" t="s">
         <v>947</v>
       </c>
-      <c r="J120" s="93"/>
+      <c r="J120" s="99"/>
     </row>
     <row r="121" spans="1:11" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="51"/>
@@ -20725,7 +20765,7 @@
       <c r="G121" s="51" t="s">
         <v>948</v>
       </c>
-      <c r="J121" s="93"/>
+      <c r="J121" s="99"/>
     </row>
     <row r="122" spans="1:11" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="51"/>
@@ -20739,7 +20779,7 @@
       <c r="G122" s="51" t="s">
         <v>949</v>
       </c>
-      <c r="J122" s="93"/>
+      <c r="J122" s="99"/>
     </row>
     <row r="123" spans="1:11" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="51"/>
@@ -20753,7 +20793,7 @@
       <c r="G123" s="51" t="s">
         <v>950</v>
       </c>
-      <c r="J123" s="93"/>
+      <c r="J123" s="99"/>
     </row>
     <row r="124" spans="1:11" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="51"/>
@@ -20767,7 +20807,7 @@
       <c r="G124" s="51" t="s">
         <v>951</v>
       </c>
-      <c r="J124" s="93"/>
+      <c r="J124" s="99"/>
     </row>
     <row r="125" spans="1:11" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="51"/>
@@ -20781,7 +20821,7 @@
       <c r="G125" s="51" t="s">
         <v>952</v>
       </c>
-      <c r="J125" s="93"/>
+      <c r="J125" s="99"/>
     </row>
     <row r="126" spans="1:11" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="64"/>
@@ -21043,12 +21083,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="J118:J125"/>
     <mergeCell ref="J24:J30"/>
     <mergeCell ref="A108:G108"/>
@@ -21062,6 +21096,12 @@
     <mergeCell ref="J98:J99"/>
     <mergeCell ref="B86:G86"/>
     <mergeCell ref="J79:J85"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21132,49 +21172,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="98" t="s">
         <v>796</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="120" t="s">
         <v>787</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121" t="s">
         <v>804</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="120" t="s">
         <v>788</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="112" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="120" t="s">
         <v>789</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="112" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="120" t="s">
         <v>790</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="112" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="120" t="s">
         <v>791</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="112" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="120" t="s">
         <v>792</v>
       </c>
-      <c r="O2" s="113"/>
-      <c r="P2" s="112" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="120" t="s">
         <v>793</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="114"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="103"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="42" t="s">
         <v>794</v>
       </c>

--- a/策划案/镇魂街/经济概述.xlsx
+++ b/策划案/镇魂街/经济概述.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1290">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2393,10 +2393,6 @@
     <t>1-2关</t>
   </si>
   <si>
-    <t>通灵秘术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>挂机派遣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4730,10 +4726,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>兑换一次插槽技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黑尔坎普(塞伯罗斯)
 南御夫(噬日)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4743,10 +4735,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行一次召唤，又掉出塞伯罗斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用塞伯罗斯碎片兑换一个插槽技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4759,15 +4747,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>再进行一次召唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通关1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4788,7 +4768,93 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通关1-5，实战感受插槽技能</t>
+    <t>通关1-6，实战感受插槽技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵秘术-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵秘术-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽技能-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次召唤，又掉出塞伯罗斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成地狱道任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁寄灵人等级上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受下寄灵人的提升吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧（烈风螳螂）
+吕仙宫（高顺）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有守护灵都升到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门（石灵明）
+阎风吒（飞廉）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方敌人很强大，把守护灵都升到3级才能通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快去挑战前方的关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把唐流雨突破+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵（强力许褚）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5446,7 +5512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5628,6 +5694,12 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5749,12 +5821,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="25" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -5870,13 +5948,13 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>77</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6200,12 +6278,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6214,10 +6292,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="78" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6228,26 +6306,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6256,10 +6334,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6268,138 +6346,138 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -7432,14 +7510,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -9460,113 +9538,113 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:24" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
-        <v>968</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="F3" s="89" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
+      <c r="A3" s="91" t="s">
+        <v>967</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="F3" s="91" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
       <c r="V3" s="56"/>
       <c r="W3" s="56"/>
       <c r="X3" s="56"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>585</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>1078</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>1079</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>1080</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="N4" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>1206</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="Q4" s="16" t="s">
         <v>1081</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="R4" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S4" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="T4" s="16" t="s">
         <v>1206</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>1207</v>
-      </c>
-      <c r="Q4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>1082</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="V4" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="W4" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="X4" s="16" t="s">
         <v>1206</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>1207</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>1083</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>1205</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>1206</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>969</v>
+      </c>
+      <c r="C5" t="s">
         <v>970</v>
-      </c>
-      <c r="C5" t="s">
-        <v>971</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H5" s="52">
         <v>15</v>
@@ -9590,10 +9668,10 @@
     </row>
     <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>971</v>
+      </c>
+      <c r="C6" t="s">
         <v>972</v>
-      </c>
-      <c r="C6" t="s">
-        <v>973</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -9602,16 +9680,16 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H6">
         <v>40</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K6" s="57">
         <v>3</v>
@@ -9620,10 +9698,10 @@
         <v>10</v>
       </c>
       <c r="M6" s="59" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="N6" s="59" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O6" s="57">
         <v>3</v>
@@ -9632,10 +9710,10 @@
         <v>2</v>
       </c>
       <c r="Q6" s="57" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R6" s="57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="S6" s="57">
         <v>1</v>
@@ -9644,10 +9722,10 @@
         <v>109</v>
       </c>
       <c r="U6" s="57" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V6" s="59" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="W6" s="57">
         <v>2</v>
@@ -9658,10 +9736,10 @@
     </row>
     <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C7" t="s">
         <v>974</v>
-      </c>
-      <c r="C7" t="s">
-        <v>975</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -9670,26 +9748,26 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H7">
         <v>40</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J7" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K7" s="57">
         <v>20</v>
       </c>
       <c r="L7" s="57"/>
       <c r="M7" s="57" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O7" s="57">
         <v>5</v>
@@ -9698,10 +9776,10 @@
         <v>2</v>
       </c>
       <c r="Q7" s="57" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R7" s="57" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="S7" s="57">
         <v>10</v>
@@ -9710,10 +9788,10 @@
         <v>1</v>
       </c>
       <c r="U7" s="57" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="V7" s="59" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="W7" s="57">
         <v>2</v>
@@ -9724,10 +9802,10 @@
     </row>
     <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>975</v>
+      </c>
+      <c r="C8" t="s">
         <v>976</v>
-      </c>
-      <c r="C8" t="s">
-        <v>977</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -9736,36 +9814,36 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K8" s="57">
         <v>30</v>
       </c>
       <c r="L8" s="57"/>
       <c r="M8" s="57" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N8" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O8" s="57">
         <v>2</v>
       </c>
       <c r="P8" s="57"/>
       <c r="Q8" s="57" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S8" s="57">
         <v>5</v>
@@ -9774,45 +9852,45 @@
         <v>1</v>
       </c>
       <c r="U8" s="57" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V8" s="59" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="W8" s="57"/>
       <c r="X8" s="57"/>
     </row>
     <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>977</v>
+      </c>
+      <c r="C9" t="s">
         <v>978</v>
-      </c>
-      <c r="C9" t="s">
-        <v>979</v>
       </c>
       <c r="F9" s="52">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H9">
         <v>80</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K9" s="57">
         <v>40</v>
       </c>
       <c r="L9" s="57"/>
       <c r="M9" s="57" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="N9" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -9821,20 +9899,20 @@
         <v>3</v>
       </c>
       <c r="Q9" s="57" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="R9" s="57" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="S9" s="57">
         <v>1200</v>
       </c>
       <c r="T9" s="57"/>
       <c r="U9" s="57" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V9" s="63" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="W9" s="57">
         <v>1</v>
@@ -9843,35 +9921,35 @@
     </row>
     <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>979</v>
+      </c>
+      <c r="C10" t="s">
         <v>980</v>
-      </c>
-      <c r="C10" t="s">
-        <v>981</v>
       </c>
       <c r="F10" s="52">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H10">
         <v>80</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K10" s="57">
         <v>50</v>
       </c>
       <c r="L10" s="57"/>
       <c r="M10" s="58" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O10" s="57">
         <v>2</v>
@@ -9880,20 +9958,20 @@
         <v>4</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="R10" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S10" s="57">
         <v>50</v>
       </c>
       <c r="T10" s="57"/>
       <c r="U10" s="57" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V10" s="63" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W10" s="57">
         <v>3</v>
@@ -9904,35 +9982,35 @@
     </row>
     <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>981</v>
+      </c>
+      <c r="C11" t="s">
         <v>982</v>
-      </c>
-      <c r="C11" t="s">
-        <v>983</v>
       </c>
       <c r="F11" s="52">
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H11">
         <v>80</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K11" s="57">
         <v>60</v>
       </c>
       <c r="L11" s="57"/>
       <c r="M11" s="58" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="N11" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O11" s="57">
         <v>3</v>
@@ -9941,10 +10019,10 @@
         <v>6</v>
       </c>
       <c r="Q11" s="57" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R11" s="60" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S11" s="57">
         <v>10</v>
@@ -9953,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="U11" s="57" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V11" s="59" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="W11" s="57">
         <v>30</v>
@@ -9965,35 +10043,35 @@
     </row>
     <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>983</v>
+      </c>
+      <c r="C12" t="s">
         <v>984</v>
-      </c>
-      <c r="C12" t="s">
-        <v>985</v>
       </c>
       <c r="F12" s="52">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H12">
         <v>80</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J12" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K12" s="57">
         <v>70</v>
       </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O12" s="57">
         <v>3</v>
@@ -10002,20 +10080,20 @@
         <v>7</v>
       </c>
       <c r="Q12" s="57" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R12" s="57" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="S12" s="57">
         <v>15000</v>
       </c>
       <c r="T12" s="57"/>
       <c r="U12" s="57" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V12" s="59" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="W12" s="57">
         <v>3</v>
@@ -10024,35 +10102,35 @@
     </row>
     <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C13" t="s">
         <v>1121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1122</v>
       </c>
       <c r="F13" s="52">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H13">
         <v>100</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K13" s="57">
         <v>80</v>
       </c>
       <c r="L13" s="57"/>
       <c r="M13" s="58" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="N13" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O13" s="57">
         <v>3</v>
@@ -10061,20 +10139,20 @@
         <v>8</v>
       </c>
       <c r="Q13" s="57" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="R13" s="57" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S13" s="57">
         <v>1300</v>
       </c>
       <c r="T13" s="57"/>
       <c r="U13" s="57" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V13" s="59" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W13" s="57">
         <v>3</v>
@@ -10085,35 +10163,35 @@
     </row>
     <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>985</v>
+      </c>
+      <c r="C14" t="s">
         <v>986</v>
-      </c>
-      <c r="C14" t="s">
-        <v>987</v>
       </c>
       <c r="F14" s="52">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H14">
         <v>100</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J14" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K14" s="57">
         <v>90</v>
       </c>
       <c r="L14" s="57"/>
       <c r="M14" s="57" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O14" s="57">
         <v>3</v>
@@ -10122,20 +10200,20 @@
         <v>9</v>
       </c>
       <c r="Q14" s="57" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="R14" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S14" s="57">
         <v>80</v>
       </c>
       <c r="T14" s="57"/>
       <c r="U14" s="57" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V14" s="57" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W14" s="57">
         <v>2</v>
@@ -10144,35 +10222,35 @@
     </row>
     <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C15" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F15" s="52">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H15">
         <v>100</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J15" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K15" s="57">
         <v>100</v>
       </c>
       <c r="L15" s="57"/>
       <c r="M15" s="57" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="N15" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O15" s="57">
         <v>3</v>
@@ -10181,20 +10259,20 @@
         <v>10</v>
       </c>
       <c r="Q15" s="57" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="R15" s="57" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S15" s="57">
         <v>1400</v>
       </c>
       <c r="T15" s="57"/>
       <c r="U15" s="57" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W15" s="57">
         <v>50</v>
@@ -10203,35 +10281,35 @@
     </row>
     <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F16" s="52">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H16">
         <v>100</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J16" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K16" s="57">
         <v>110</v>
       </c>
       <c r="L16" s="57"/>
       <c r="M16" s="57" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N16" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O16" s="57">
         <v>3</v>
@@ -10240,20 +10318,20 @@
         <v>11</v>
       </c>
       <c r="Q16" s="57" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="R16" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S16" s="57">
         <v>100</v>
       </c>
       <c r="T16" s="57"/>
       <c r="U16" s="57" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W16" s="57">
         <v>3000</v>
@@ -10264,35 +10342,35 @@
     </row>
     <row r="17" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>988</v>
+      </c>
+      <c r="C17" t="s">
         <v>989</v>
-      </c>
-      <c r="C17" t="s">
-        <v>990</v>
       </c>
       <c r="F17" s="52">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H17">
         <v>120</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J17" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K17" s="57">
         <v>120</v>
       </c>
       <c r="L17" s="57"/>
       <c r="M17" s="57" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="N17" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O17" s="57">
         <v>3</v>
@@ -10301,20 +10379,20 @@
         <v>12</v>
       </c>
       <c r="Q17" s="57" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="R17" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S17" s="57">
         <v>120</v>
       </c>
       <c r="T17" s="57"/>
       <c r="U17" s="57" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W17" s="57">
         <v>100</v>
@@ -10323,35 +10401,35 @@
     </row>
     <row r="18" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F18" s="52">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H18">
         <v>120</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J18" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K18" s="57">
         <v>130</v>
       </c>
       <c r="L18" s="57"/>
       <c r="M18" s="57" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="N18" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O18" s="57">
         <v>1</v>
@@ -10360,20 +10438,20 @@
         <v>13</v>
       </c>
       <c r="Q18" s="57" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="R18" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S18" s="57">
         <v>140</v>
       </c>
       <c r="T18" s="57"/>
       <c r="U18" s="57" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V18" s="57" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W18" s="57">
         <v>5000</v>
@@ -10382,35 +10460,35 @@
     </row>
     <row r="19" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F19" s="52">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H19">
         <v>120</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J19" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K19" s="57">
         <v>140</v>
       </c>
       <c r="L19" s="57"/>
       <c r="M19" s="57" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N19" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O19" s="57">
         <v>3</v>
@@ -10419,20 +10497,20 @@
         <v>13</v>
       </c>
       <c r="Q19" s="57" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="R19" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S19" s="57">
         <v>160</v>
       </c>
       <c r="T19" s="57"/>
       <c r="U19" s="57" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W19" s="57">
         <v>6</v>
@@ -10443,35 +10521,35 @@
     </row>
     <row r="20" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F20" s="52">
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H20">
         <v>120</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J20" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K20" s="57">
         <v>150</v>
       </c>
       <c r="L20" s="57"/>
       <c r="M20" s="57" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="N20" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O20" s="57">
         <v>1</v>
@@ -10480,20 +10558,20 @@
         <v>14</v>
       </c>
       <c r="Q20" s="57" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="R20" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S20" s="57">
         <v>180</v>
       </c>
       <c r="T20" s="57"/>
       <c r="U20" s="58" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W20" s="58">
         <v>6</v>
@@ -10504,35 +10582,35 @@
     </row>
     <row r="21" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>990</v>
+      </c>
+      <c r="C21" t="s">
         <v>991</v>
-      </c>
-      <c r="C21" t="s">
-        <v>992</v>
       </c>
       <c r="F21" s="52">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H21">
         <v>140</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J21" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K21" s="57">
         <v>160</v>
       </c>
       <c r="L21" s="57"/>
       <c r="M21" s="57" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N21" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O21" s="57">
         <v>3</v>
@@ -10541,20 +10619,20 @@
         <v>14</v>
       </c>
       <c r="Q21" s="57" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="R21" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S21" s="57">
         <v>200</v>
       </c>
       <c r="T21" s="57"/>
       <c r="U21" s="58" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W21" s="58">
         <v>6</v>
@@ -10565,32 +10643,32 @@
     </row>
     <row r="22" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F22" s="52">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H22">
         <v>140</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J22" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K22" s="57">
         <v>170</v>
       </c>
       <c r="L22" s="57"/>
       <c r="M22" s="57" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N22" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O22" s="57">
         <v>3</v>
@@ -10599,20 +10677,20 @@
         <v>15</v>
       </c>
       <c r="Q22" s="57" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="R22" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S22" s="57">
         <v>225</v>
       </c>
       <c r="T22" s="57"/>
       <c r="U22" s="58" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W22" s="58">
         <v>6</v>
@@ -10623,32 +10701,32 @@
     </row>
     <row r="23" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F23" s="52">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H23">
         <v>140</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K23" s="57">
         <v>180</v>
       </c>
       <c r="L23" s="57"/>
       <c r="M23" s="57" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="N23" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O23" s="57">
         <v>2</v>
@@ -10657,20 +10735,20 @@
         <v>16</v>
       </c>
       <c r="Q23" s="57" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="R23" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S23" s="57">
         <v>250</v>
       </c>
       <c r="T23" s="57"/>
       <c r="U23" s="58" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W23" s="58">
         <v>6</v>
@@ -10681,32 +10759,32 @@
     </row>
     <row r="24" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F24" s="52">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H24">
         <v>140</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J24" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K24" s="57">
         <v>190</v>
       </c>
       <c r="L24" s="57"/>
       <c r="M24" s="57" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N24" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O24" s="57">
         <v>5</v>
@@ -10715,20 +10793,20 @@
         <v>16</v>
       </c>
       <c r="Q24" s="57" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="R24" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S24" s="57">
         <v>275</v>
       </c>
       <c r="T24" s="57"/>
       <c r="U24" s="58" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W24" s="58">
         <v>6</v>
@@ -10739,32 +10817,32 @@
     </row>
     <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F25" s="52">
         <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H25">
         <v>150</v>
       </c>
       <c r="I25" s="57" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J25" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K25" s="57">
         <v>200</v>
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="57" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="N25" s="58" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O25" s="57">
         <v>10</v>
@@ -10773,20 +10851,20 @@
         <v>16</v>
       </c>
       <c r="Q25" s="57" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="R25" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S25" s="57">
         <v>300</v>
       </c>
       <c r="T25" s="57"/>
       <c r="U25" s="58" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W25" s="58">
         <v>6</v>
@@ -10797,38 +10875,38 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H27" t="s">
         <v>1203</v>
       </c>
-      <c r="H27" t="s">
-        <v>1204</v>
-      </c>
       <c r="I27" s="62" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J27" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K27" t="s">
         <v>1199</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>1200</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" s="52" t="s">
         <v>1201</v>
-      </c>
-      <c r="M27" s="52" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -10859,7 +10937,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29">
@@ -10891,7 +10969,7 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="52">
@@ -10923,7 +11001,7 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="52">
@@ -10955,7 +11033,7 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="52">
@@ -10991,7 +11069,7 @@
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E33" s="52"/>
       <c r="F33" s="52">
@@ -11027,7 +11105,7 @@
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="52">
@@ -11063,7 +11141,7 @@
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="52">
@@ -11099,7 +11177,7 @@
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52">
@@ -11135,7 +11213,7 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52">
@@ -11171,7 +11249,7 @@
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="52">
@@ -11207,7 +11285,7 @@
     </row>
     <row r="39" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F39" s="52">
         <v>12</v>
@@ -11242,7 +11320,7 @@
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52">
@@ -11278,7 +11356,7 @@
     </row>
     <row r="41" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C41" s="52" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F41" s="52">
         <v>14</v>
@@ -11313,7 +11391,7 @@
     </row>
     <row r="42" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F42" s="52">
         <v>15</v>
@@ -11348,7 +11426,7 @@
     </row>
     <row r="43" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F43" s="52">
         <v>16</v>
@@ -11383,7 +11461,7 @@
     </row>
     <row r="44" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C44" s="52" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F44" s="52">
         <v>17</v>
@@ -11418,7 +11496,7 @@
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52">
@@ -11454,7 +11532,7 @@
     </row>
     <row r="46" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="52" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F46" s="52">
         <v>19</v>
@@ -11489,7 +11567,7 @@
     </row>
     <row r="47" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F47" s="52">
         <v>20</v>
@@ -11524,7 +11602,7 @@
     </row>
     <row r="48" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="52" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F48" s="52">
         <v>21</v>
@@ -11559,7 +11637,7 @@
     </row>
     <row r="49" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F49" s="52">
         <v>22</v>
@@ -11594,7 +11672,7 @@
     </row>
     <row r="50" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F50" s="52">
         <v>23</v>
@@ -11629,7 +11707,7 @@
     </row>
     <row r="51" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F51" s="52">
         <v>24</v>
@@ -11664,7 +11742,7 @@
     </row>
     <row r="52" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F52" s="52">
         <v>25</v>
@@ -11699,7 +11777,7 @@
     </row>
     <row r="53" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F53" s="52">
         <v>26</v>
@@ -11734,7 +11812,7 @@
     </row>
     <row r="54" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F54" s="52">
         <v>27</v>
@@ -11769,7 +11847,7 @@
     </row>
     <row r="55" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="52" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F55" s="52">
         <v>28</v>
@@ -11804,7 +11882,7 @@
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52">
@@ -11840,7 +11918,7 @@
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52">
@@ -11876,7 +11954,7 @@
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52">
@@ -11912,7 +11990,7 @@
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52">
@@ -11948,7 +12026,7 @@
     </row>
     <row r="60" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C60" s="52" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F60" s="52">
         <v>33</v>
@@ -11983,7 +12061,7 @@
     </row>
     <row r="61" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="52" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F61" s="52">
         <v>34</v>
@@ -12018,7 +12096,7 @@
     </row>
     <row r="62" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="52" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F62" s="52">
         <v>35</v>
@@ -12053,7 +12131,7 @@
     </row>
     <row r="63" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="52" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F63" s="52">
         <v>36</v>
@@ -12088,7 +12166,7 @@
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52">
@@ -12124,7 +12202,7 @@
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52">
@@ -12160,7 +12238,7 @@
     </row>
     <row r="66" spans="3:13" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F66" s="52">
         <v>39</v>
@@ -12195,7 +12273,7 @@
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E67" s="52"/>
       <c r="F67" s="52">
@@ -12231,7 +12309,7 @@
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F68" s="52">
         <v>41</v>
@@ -12266,7 +12344,7 @@
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F69" s="52">
         <v>42</v>
@@ -12301,7 +12379,7 @@
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F70" s="52">
         <v>43</v>
@@ -12336,7 +12414,7 @@
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F71" s="52">
         <v>44</v>
@@ -12371,7 +12449,7 @@
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F72" s="52">
         <v>45</v>
@@ -12406,7 +12484,7 @@
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F73" s="52">
         <v>46</v>
@@ -12441,7 +12519,7 @@
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F74" s="52">
         <v>47</v>
@@ -12476,7 +12554,7 @@
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F75" s="52">
         <v>48</v>
@@ -12511,7 +12589,7 @@
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F76" s="52">
         <v>49</v>
@@ -12546,7 +12624,7 @@
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F77" s="52">
         <v>50</v>
@@ -12581,7 +12659,7 @@
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F78" s="52">
         <v>51</v>
@@ -12616,7 +12694,7 @@
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F79" s="52">
         <v>52</v>
@@ -12651,7 +12729,7 @@
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F80" s="52">
         <v>53</v>
@@ -12686,7 +12764,7 @@
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F81" s="52">
         <v>54</v>
@@ -12721,7 +12799,7 @@
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F82" s="52">
         <v>55</v>
@@ -12756,7 +12834,7 @@
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F83" s="52">
         <v>56</v>
@@ -12791,7 +12869,7 @@
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F84" s="52">
         <v>57</v>
@@ -12826,7 +12904,7 @@
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F85" s="52">
         <v>58</v>
@@ -12861,7 +12939,7 @@
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F86" s="52">
         <v>59</v>
@@ -12896,7 +12974,7 @@
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F87" s="52">
         <v>60</v>
@@ -12931,7 +13009,7 @@
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F88" s="52">
         <v>61</v>
@@ -12966,7 +13044,7 @@
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F89" s="52">
         <v>62</v>
@@ -13001,7 +13079,7 @@
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F90" s="52">
         <v>63</v>
@@ -13036,7 +13114,7 @@
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F91" s="52">
         <v>64</v>
@@ -13071,7 +13149,7 @@
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F92" s="52">
         <v>65</v>
@@ -13106,7 +13184,7 @@
     </row>
     <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F93" s="52">
         <v>66</v>
@@ -13141,7 +13219,7 @@
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F94" s="52">
         <v>67</v>
@@ -13176,7 +13254,7 @@
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F95" s="52">
         <v>68</v>
@@ -13211,7 +13289,7 @@
     </row>
     <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F96" s="52">
         <v>69</v>
@@ -13246,7 +13324,7 @@
     </row>
     <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F97" s="52">
         <v>70</v>
@@ -13281,7 +13359,7 @@
     </row>
     <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F98" s="52">
         <v>71</v>
@@ -13316,7 +13394,7 @@
     </row>
     <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F99" s="52">
         <v>72</v>
@@ -13351,7 +13429,7 @@
     </row>
     <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F100" s="52">
         <v>73</v>
@@ -13386,7 +13464,7 @@
     </row>
     <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F101" s="52">
         <v>74</v>
@@ -13421,7 +13499,7 @@
     </row>
     <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F102" s="52">
         <v>75</v>
@@ -13456,7 +13534,7 @@
     </row>
     <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F103" s="52">
         <v>76</v>
@@ -13491,7 +13569,7 @@
     </row>
     <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F104" s="52">
         <v>77</v>
@@ -13526,7 +13604,7 @@
     </row>
     <row r="105" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F105" s="52">
         <v>78</v>
@@ -13561,7 +13639,7 @@
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F106" s="52">
         <v>79</v>
@@ -13596,7 +13674,7 @@
     </row>
     <row r="107" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F107" s="52">
         <v>80</v>
@@ -13631,7 +13709,7 @@
     </row>
     <row r="108" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F108" s="52">
         <v>81</v>
@@ -13666,7 +13744,7 @@
     </row>
     <row r="109" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F109" s="52">
         <v>82</v>
@@ -13701,7 +13779,7 @@
     </row>
     <row r="110" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F110" s="52">
         <v>83</v>
@@ -13736,7 +13814,7 @@
     </row>
     <row r="111" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F111" s="52">
         <v>84</v>
@@ -13771,217 +13849,217 @@
     </row>
     <row r="112" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F112" s="52"/>
       <c r="G112" s="52"/>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F113" s="52"/>
       <c r="G113" s="52"/>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F114" s="52"/>
       <c r="G114" s="52"/>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F115" s="52"/>
       <c r="G115" s="52"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F116" s="52"/>
       <c r="G116" s="52"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F117" s="52"/>
       <c r="G117" s="52"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F118" s="52"/>
       <c r="G118" s="52"/>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F119" s="52"/>
       <c r="G119" s="52"/>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F120" s="52"/>
       <c r="G120" s="52"/>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F121" s="52"/>
       <c r="G121" s="52"/>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F122" s="52"/>
       <c r="G122" s="52"/>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F123" s="52"/>
       <c r="G123" s="52"/>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F124" s="52"/>
       <c r="G124" s="52"/>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F125" s="52"/>
       <c r="G125" s="52"/>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F126" s="52"/>
       <c r="G126" s="52"/>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F127" s="52"/>
       <c r="G127" s="52"/>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F128" s="52"/>
       <c r="G128" s="52"/>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F129" s="52"/>
       <c r="G129" s="52"/>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F130" s="52"/>
       <c r="G130" s="52"/>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F131" s="52"/>
       <c r="G131" s="52"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F132" s="52"/>
       <c r="G132" s="52"/>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F133" s="52"/>
       <c r="G133" s="52"/>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F134" s="52"/>
       <c r="G134" s="52"/>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F135" s="52"/>
       <c r="G135" s="52"/>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F136" s="52"/>
       <c r="G136" s="52"/>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F137" s="52"/>
       <c r="G137" s="52"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F138" s="52"/>
       <c r="G138" s="52"/>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F139" s="52"/>
       <c r="G139" s="52"/>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F140" s="52"/>
       <c r="G140" s="52"/>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F141" s="52"/>
       <c r="G141" s="52"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F142" s="52"/>
       <c r="G142" s="52"/>
@@ -14058,20 +14136,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="91" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="G2" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -14104,13 +14182,13 @@
       <c r="K3" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="93" t="s">
         <v>350</v>
       </c>
       <c r="N3" s="21">
         <v>400</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="94" t="s">
         <v>351</v>
       </c>
       <c r="P3" s="21">
@@ -14149,8 +14227,8 @@
         <f>SUM(J$4:J4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="O4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -14217,13 +14295,13 @@
         <f>SUM(J$4:J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="92" t="s">
         <v>352</v>
       </c>
       <c r="N6" s="21">
         <v>1200</v>
       </c>
-      <c r="O6" s="90" t="s">
+      <c r="O6" s="92" t="s">
         <v>353</v>
       </c>
       <c r="P6" s="21">
@@ -14262,8 +14340,8 @@
         <f>SUM(J$4:J7)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="92"/>
+      <c r="O7" s="92"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -14859,15 +14937,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -14897,7 +14975,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>381</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -14919,7 +14997,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="24" t="s">
         <v>387</v>
       </c>
@@ -14937,7 +15015,7 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="31" t="s">
         <v>391</v>
       </c>
@@ -14959,7 +15037,7 @@
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="96" t="s">
         <v>397</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -14977,7 +15055,7 @@
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="24" t="s">
         <v>382</v>
       </c>
@@ -14993,7 +15071,7 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="32" t="s">
         <v>402</v>
       </c>
@@ -15007,7 +15085,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="24" t="s">
         <v>404</v>
       </c>
@@ -15029,7 +15107,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="95"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="24" t="s">
         <v>410</v>
       </c>
@@ -15047,7 +15125,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="24" t="s">
         <v>414</v>
       </c>
@@ -15065,7 +15143,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="24" t="s">
         <v>418</v>
       </c>
@@ -15087,7 +15165,7 @@
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="99" t="s">
         <v>424</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -15111,7 +15189,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="24" t="s">
         <v>430</v>
       </c>
@@ -15135,7 +15213,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="24" t="s">
         <v>404</v>
       </c>
@@ -15155,7 +15233,7 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="97" t="s">
         <v>441</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -15171,7 +15249,7 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="24" t="s">
         <v>444</v>
       </c>
@@ -15191,7 +15269,7 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="95"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="24" t="s">
         <v>449</v>
       </c>
@@ -15213,7 +15291,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="95"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="24" t="s">
         <v>414</v>
       </c>
@@ -15229,7 +15307,7 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="96" t="s">
         <v>457</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -15255,7 +15333,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="95"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="24" t="s">
         <v>465</v>
       </c>
@@ -15277,7 +15355,7 @@
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="24" t="s">
         <v>470</v>
       </c>
@@ -15299,7 +15377,7 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="96" t="s">
         <v>475</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -15323,7 +15401,7 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="95"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="24" t="s">
         <v>482</v>
       </c>
@@ -15345,7 +15423,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="24" t="s">
         <v>486</v>
       </c>
@@ -15363,15 +15441,15 @@
       <c r="H26" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -15390,16 +15468,16 @@
       <c r="E30" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="100" t="s">
         <v>491</v>
       </c>
-      <c r="G30" s="98"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="99" t="s">
         <v>492</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -15414,14 +15492,14 @@
       <c r="E31" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="F31" s="99" t="s">
+      <c r="F31" s="101" t="s">
         <v>497</v>
       </c>
-      <c r="G31" s="99"/>
+      <c r="G31" s="101"/>
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="97"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="24" t="s">
         <v>498</v>
       </c>
@@ -15434,14 +15512,14 @@
       <c r="E32" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="F32" s="99" t="s">
+      <c r="F32" s="101" t="s">
         <v>501</v>
       </c>
-      <c r="G32" s="99"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="24" t="s">
         <v>502</v>
       </c>
@@ -15454,10 +15532,10 @@
       <c r="E33" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="F33" s="99" t="s">
+      <c r="F33" s="101" t="s">
         <v>505</v>
       </c>
-      <c r="G33" s="99"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15476,10 +15554,10 @@
       <c r="E34" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="F34" s="99" t="s">
+      <c r="F34" s="101" t="s">
         <v>511</v>
       </c>
-      <c r="G34" s="99"/>
+      <c r="G34" s="101"/>
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15496,10 +15574,10 @@
       <c r="E35" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="F35" s="99" t="s">
+      <c r="F35" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="G35" s="99"/>
+      <c r="G35" s="101"/>
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15514,10 +15592,10 @@
       <c r="E36" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="F36" s="99" t="s">
+      <c r="F36" s="101" t="s">
         <v>520</v>
       </c>
-      <c r="G36" s="99"/>
+      <c r="G36" s="101"/>
       <c r="H36" s="24" t="s">
         <v>521</v>
       </c>
@@ -15536,16 +15614,16 @@
       <c r="E37" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="F37" s="99" t="s">
+      <c r="F37" s="101" t="s">
         <v>526</v>
       </c>
-      <c r="G37" s="99"/>
+      <c r="G37" s="101"/>
       <c r="H37" s="24" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="102" t="s">
         <v>528</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -15560,12 +15638,12 @@
       <c r="E38" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="104"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="101"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="24" t="s">
         <v>533</v>
       </c>
@@ -15581,7 +15659,7 @@
       <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="101"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="24" t="s">
         <v>536</v>
       </c>
@@ -15597,7 +15675,7 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="101"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="24" t="s">
         <v>539</v>
       </c>
@@ -15613,7 +15691,7 @@
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="24" t="s">
         <v>542</v>
       </c>
@@ -15706,114 +15784,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100" t="s">
         <v>546</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="100" t="s">
         <v>547</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="100" t="s">
         <v>549</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="100" t="s">
         <v>550</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="100" t="s">
         <v>551</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="100" t="s">
         <v>552</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98" t="s">
+      <c r="N4" s="100"/>
+      <c r="O4" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98" t="s">
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98" t="s">
+      <c r="R4" s="100"/>
+      <c r="S4" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98" t="s">
+      <c r="T4" s="100"/>
+      <c r="U4" s="100" t="s">
         <v>359</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98" t="s">
+      <c r="V4" s="100"/>
+      <c r="W4" s="100" t="s">
         <v>360</v>
       </c>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98" t="s">
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100" t="s">
         <v>361</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98" t="s">
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100" t="s">
         <v>362</v>
       </c>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98" t="s">
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98" t="s">
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98" t="s">
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98" t="s">
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98" t="s">
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98" t="s">
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100" t="s">
         <v>553</v>
       </c>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98" t="s">
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100" t="s">
+        <v>832</v>
+      </c>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100" t="s">
         <v>833</v>
       </c>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98" t="s">
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100" t="s">
         <v>834</v>
       </c>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98" t="s">
-        <v>835</v>
-      </c>
-      <c r="AT4" s="98"/>
+      <c r="AT4" s="100"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="27" t="s">
         <v>554</v>
       </c>
@@ -15924,14 +16002,14 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="108" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="108" t="s">
         <v>557</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>558</v>
@@ -16000,7 +16078,7 @@
       </c>
       <c r="AL6" s="24"/>
       <c r="AM6" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AN6" s="24"/>
       <c r="AO6" s="44">
@@ -16017,13 +16095,13 @@
       <c r="AT6" s="44"/>
     </row>
     <row r="7" spans="1:46" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="E7" s="44" t="s">
         <v>830</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>831</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
@@ -16089,7 +16167,7 @@
       </c>
       <c r="AL7" s="44"/>
       <c r="AM7" s="44" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AN7" s="44"/>
       <c r="AO7" s="44">
@@ -16106,13 +16184,13 @@
       <c r="AT7" s="44"/>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="24" t="s">
         <v>560</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>561</v>
@@ -16180,7 +16258,7 @@
       </c>
       <c r="AL8" s="44"/>
       <c r="AM8" s="39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AN8" s="24"/>
       <c r="AO8" s="44">
@@ -16197,7 +16275,7 @@
       <c r="AT8" s="44"/>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="108"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="26" t="s">
         <v>563</v>
       </c>
@@ -16205,7 +16283,7 @@
         <v>560</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>564</v>
@@ -16282,7 +16360,7 @@
       <c r="AT9" s="44"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="101" t="s">
         <v>566</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -16333,7 +16411,7 @@
       <c r="AT10" s="44"/>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="99"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="24" t="s">
         <v>568</v>
       </c>
@@ -16382,7 +16460,7 @@
       <c r="AT11" s="44"/>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="99"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="24" t="s">
         <v>569</v>
       </c>
@@ -16431,7 +16509,7 @@
       <c r="AT12" s="44"/>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="24" t="s">
         <v>570</v>
       </c>
@@ -16480,7 +16558,7 @@
       <c r="AT13" s="44"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="24" t="s">
         <v>571</v>
       </c>
@@ -16529,7 +16607,7 @@
       <c r="AT14" s="44"/>
     </row>
     <row r="15" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="24" t="s">
         <v>572</v>
       </c>
@@ -16676,7 +16754,7 @@
       <c r="AT17" s="44"/>
     </row>
     <row r="18" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="108" t="s">
         <v>573</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -16684,7 +16762,7 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -16748,7 +16826,7 @@
       </c>
       <c r="AL18" s="24"/>
       <c r="AM18" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AN18" s="24"/>
       <c r="AO18" s="44">
@@ -16765,13 +16843,13 @@
       <c r="AT18" s="44"/>
     </row>
     <row r="19" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="107"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="24" t="s">
         <v>575</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="39" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -16846,13 +16924,13 @@
       <c r="AT19" s="44"/>
     </row>
     <row r="20" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="107"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="24" t="s">
         <v>576</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -16916,7 +16994,7 @@
       </c>
       <c r="AL20" s="24"/>
       <c r="AM20" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AN20" s="24"/>
       <c r="AO20" s="44"/>
@@ -16927,13 +17005,13 @@
       <c r="AT20" s="44"/>
     </row>
     <row r="21" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="107"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="24" t="s">
         <v>577</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -16986,13 +17064,13 @@
       <c r="AT21" s="44"/>
     </row>
     <row r="22" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="107"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="24" t="s">
         <v>578</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -17043,13 +17121,13 @@
       <c r="AT22" s="44"/>
     </row>
     <row r="23" spans="2:46" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="108"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="24" t="s">
         <v>579</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -17100,8 +17178,8 @@
       <c r="AT23" s="44"/>
     </row>
     <row r="24" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="99" t="s">
-        <v>836</v>
+      <c r="B24" s="101" t="s">
+        <v>835</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>582</v>
@@ -17151,7 +17229,7 @@
       <c r="AT24" s="44"/>
     </row>
     <row r="25" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="99"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="24" t="s">
         <v>583</v>
       </c>
@@ -17200,8 +17278,8 @@
       <c r="AT25" s="44"/>
     </row>
     <row r="26" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99" t="s">
-        <v>837</v>
+      <c r="B26" s="101" t="s">
+        <v>836</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>582</v>
@@ -17251,7 +17329,7 @@
       <c r="AT26" s="44"/>
     </row>
     <row r="27" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="99"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="24" t="s">
         <v>583</v>
       </c>
@@ -17300,8 +17378,8 @@
       <c r="AT27" s="44"/>
     </row>
     <row r="28" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="99" t="s">
-        <v>838</v>
+      <c r="B28" s="101" t="s">
+        <v>837</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>582</v>
@@ -17351,7 +17429,7 @@
       <c r="AT28" s="44"/>
     </row>
     <row r="29" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="99"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="24" t="s">
         <v>583</v>
       </c>
@@ -17400,7 +17478,7 @@
       <c r="AT29" s="44"/>
     </row>
     <row r="30" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="99"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="24" t="s">
         <v>368</v>
       </c>
@@ -17449,7 +17527,7 @@
       <c r="AT30" s="44"/>
     </row>
     <row r="31" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="99"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="24" t="s">
         <v>369</v>
       </c>
@@ -17498,8 +17576,8 @@
       <c r="AT31" s="44"/>
     </row>
     <row r="32" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="99" t="s">
-        <v>839</v>
+      <c r="B32" s="101" t="s">
+        <v>838</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>582</v>
@@ -17549,7 +17627,7 @@
       <c r="AT32" s="44"/>
     </row>
     <row r="33" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="99"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="24" t="s">
         <v>583</v>
       </c>
@@ -17598,7 +17676,7 @@
       <c r="AT33" s="44"/>
     </row>
     <row r="34" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="99"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="24" t="s">
         <v>368</v>
       </c>
@@ -17647,7 +17725,7 @@
       <c r="AT34" s="44"/>
     </row>
     <row r="35" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="99"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="24" t="s">
         <v>369</v>
       </c>
@@ -17696,8 +17774,8 @@
       <c r="AT35" s="44"/>
     </row>
     <row r="36" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="99" t="s">
-        <v>840</v>
+      <c r="B36" s="101" t="s">
+        <v>839</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>582</v>
@@ -17747,7 +17825,7 @@
       <c r="AT36" s="44"/>
     </row>
     <row r="37" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="99"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="24" t="s">
         <v>583</v>
       </c>
@@ -17796,7 +17874,7 @@
       <c r="AT37" s="44"/>
     </row>
     <row r="38" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="99"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="24" t="s">
         <v>368</v>
       </c>
@@ -17845,7 +17923,7 @@
       <c r="AT38" s="44"/>
     </row>
     <row r="39" spans="2:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="99"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="24" t="s">
         <v>369</v>
       </c>
@@ -17894,7 +17972,7 @@
       <c r="AT39" s="44"/>
     </row>
     <row r="40" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="99"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="24" t="s">
         <v>370</v>
       </c>
@@ -17943,7 +18021,7 @@
       <c r="AT40" s="44"/>
     </row>
     <row r="41" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="99"/>
+      <c r="B41" s="101"/>
       <c r="C41" s="24" t="s">
         <v>371</v>
       </c>
@@ -17992,8 +18070,8 @@
       <c r="AT41" s="44"/>
     </row>
     <row r="42" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="99" t="s">
-        <v>841</v>
+      <c r="B42" s="101" t="s">
+        <v>840</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>582</v>
@@ -18043,7 +18121,7 @@
       <c r="AT42" s="44"/>
     </row>
     <row r="43" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="99"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="24" t="s">
         <v>583</v>
       </c>
@@ -18092,7 +18170,7 @@
       <c r="AT43" s="44"/>
     </row>
     <row r="44" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="99"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="24" t="s">
         <v>368</v>
       </c>
@@ -18141,7 +18219,7 @@
       <c r="AT44" s="44"/>
     </row>
     <row r="45" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="99"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="24" t="s">
         <v>369</v>
       </c>
@@ -18190,7 +18268,7 @@
       <c r="AT45" s="44"/>
     </row>
     <row r="46" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="99"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="24" t="s">
         <v>370</v>
       </c>
@@ -18239,7 +18317,7 @@
       <c r="AT46" s="44"/>
     </row>
     <row r="47" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="99"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="24" t="s">
         <v>371</v>
       </c>
@@ -18288,8 +18366,8 @@
       <c r="AT47" s="44"/>
     </row>
     <row r="48" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="99" t="s">
-        <v>842</v>
+      <c r="B48" s="101" t="s">
+        <v>841</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>582</v>
@@ -18339,7 +18417,7 @@
       <c r="AT48" s="44"/>
     </row>
     <row r="49" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="99"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="24" t="s">
         <v>583</v>
       </c>
@@ -18388,7 +18466,7 @@
       <c r="AT49" s="44"/>
     </row>
     <row r="50" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="99"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="24" t="s">
         <v>368</v>
       </c>
@@ -18437,7 +18515,7 @@
       <c r="AT50" s="44"/>
     </row>
     <row r="51" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="99"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="24" t="s">
         <v>369</v>
       </c>
@@ -18486,7 +18564,7 @@
       <c r="AT51" s="44"/>
     </row>
     <row r="52" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="99"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="24" t="s">
         <v>370</v>
       </c>
@@ -18535,7 +18613,7 @@
       <c r="AT52" s="44"/>
     </row>
     <row r="53" spans="2:46" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="99"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="24" t="s">
         <v>371</v>
       </c>
@@ -18631,10 +18709,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18668,7 +18746,7 @@
         <v>588</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>589</v>
@@ -18684,15 +18762,15 @@
       <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="69" t="s">
         <v>591</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="68" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18705,15 +18783,15 @@
       <c r="C3" s="24">
         <v>2</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="69" t="s">
         <v>593</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="68" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18721,20 +18799,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C4" s="24">
         <v>2</v>
       </c>
-      <c r="D4" s="112" t="s">
-        <v>1253</v>
+      <c r="D4" s="116" t="s">
+        <v>1252</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="114" t="s">
-        <v>1270</v>
+      <c r="F4" s="118" t="s">
+        <v>1265</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -18742,16 +18820,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C5" s="67">
         <v>3</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="67"/>
-      <c r="F5" s="115"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="67" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18759,20 +18837,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>594</v>
+        <v>1269</v>
       </c>
       <c r="C6" s="24">
         <v>3</v>
       </c>
-      <c r="D6" s="106" t="s">
-        <v>1257</v>
+      <c r="D6" s="108" t="s">
+        <v>1256</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="109" t="s">
-        <v>1260</v>
+      <c r="F6" s="113" t="s">
+        <v>1258</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18780,37 +18858,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C7" s="67">
         <v>3</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="111"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="24" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="67">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>1266</v>
+      <c r="B8" s="70" t="s">
+        <v>1270</v>
       </c>
       <c r="C8" s="24">
         <v>3</v>
       </c>
-      <c r="D8" s="97" t="s">
-        <v>1258</v>
+      <c r="D8" s="99" t="s">
+        <v>1257</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="109" t="s">
-        <v>1254</v>
+      <c r="F8" s="113" t="s">
+        <v>1253</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>1262</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18818,16 +18896,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="C9" s="24">
         <v>4</v>
       </c>
-      <c r="D9" s="97"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="110"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="24" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -18835,16 +18913,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C10" s="67">
         <v>4</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="111"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="24" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.2">
@@ -18852,1218 +18930,1318 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C11" s="24">
         <v>4</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>1269</v>
+      <c r="D11" s="69" t="s">
+        <v>1264</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="68" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="67">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C12" s="70">
+        <v>5</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>1278</v>
+      </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="111" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="67">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C13" s="24">
+        <v>5</v>
+      </c>
+      <c r="D13" s="98"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="24" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="67">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C14" s="24">
+        <v>5</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>1281</v>
+      </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="111" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="67">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C15" s="24">
+        <v>6</v>
+      </c>
+      <c r="D15" s="98"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="24" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="67">
         <v>15</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C16" s="24">
+        <v>6</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>1286</v>
+      </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="67"/>
+      <c r="F16" s="113" t="s">
+        <v>1287</v>
+      </c>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="67">
         <v>16</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C17" s="24">
+        <v>7</v>
+      </c>
+      <c r="D17" s="99"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="67"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" s